--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\agile\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DC5457-9226-4F81-95CF-0CC00EB39C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -14,16 +20,21 @@
     <sheet name="角色" sheetId="5" r:id="rId5"/>
     <sheet name="角色标签数据" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -35,6 +46,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -53,6 +65,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -65,6 +78,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -83,6 +97,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -101,6 +116,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -119,6 +135,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -150,6 +167,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -168,6 +186,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -186,6 +205,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -207,6 +227,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -227,6 +248,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -247,6 +269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -267,6 +290,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -287,6 +311,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -298,6 +323,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -316,6 +342,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -327,6 +354,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -345,6 +373,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -363,6 +392,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -381,6 +411,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -399,6 +430,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -446,6 +478,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -464,6 +497,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -482,6 +516,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -500,6 +535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -511,6 +547,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -529,6 +566,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -547,6 +585,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -566,6 +605,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -584,6 +624,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -603,6 +644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -621,6 +663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -632,6 +675,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -650,6 +694,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -668,6 +713,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -691,6 +737,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -709,6 +756,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -727,6 +775,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -745,6 +794,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -763,6 +813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -774,6 +825,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -792,6 +844,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -802,6 +855,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -822,6 +876,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -832,6 +887,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -850,6 +906,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -868,6 +925,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -891,6 +949,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -909,6 +968,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -928,6 +988,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -947,6 +1008,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -966,6 +1028,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -986,6 +1049,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1005,6 +1069,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1039,6 +1104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1059,6 +1125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1070,6 +1137,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1088,6 +1156,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1108,6 +1177,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1126,6 +1196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1138,6 +1209,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1156,6 +1228,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1174,6 +1247,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1192,6 +1266,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1206,6 +1281,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1224,6 +1300,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1242,6 +1319,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1260,6 +1338,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1278,6 +1357,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1293,6 +1373,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1302,6 +1383,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1320,6 +1402,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1335,6 +1418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1344,6 +1428,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1362,6 +1447,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1376,6 +1462,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1394,6 +1481,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1412,6 +1500,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1431,6 +1520,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1454,6 +1544,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1472,6 +1563,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1490,6 +1582,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1509,6 +1602,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1529,6 +1623,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1539,6 +1634,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1548,6 +1644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1559,6 +1656,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1577,6 +1675,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1595,6 +1694,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1613,6 +1713,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1632,6 +1733,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1650,6 +1752,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1668,6 +1771,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1687,6 +1791,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1705,6 +1810,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1723,6 +1829,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1741,6 +1848,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1760,6 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1771,6 +1880,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1781,6 +1891,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1790,6 +1901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1801,6 +1913,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1819,6 +1932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1830,6 +1944,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1848,6 +1963,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1867,6 +1983,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -5974,14 +6091,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -5992,25 +6103,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6055,157 +6166,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -6234,12 +6194,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6248,8 +6210,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6280,194 +6277,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -6568,252 +6379,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6830,20 +6399,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6877,9 +6434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6887,59 +6441,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -7013,37 +6535,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="README"/>
-      <sheetName val="菜单SAAS版"/>
-      <sheetName val="菜单权限"/>
-      <sheetName val="菜单标签数据"/>
-      <sheetName val="角色"/>
-      <sheetName val="角色标签数据"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="42">
-          <cell r="E42" t="str">
-            <v>iam_menu-58</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7298,270 +6794,269 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5571428571429" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3285714285714" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
-    <col min="4" max="4" width="35.3285714285714" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
-    <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
-    <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5571428571429" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
-    <col min="12" max="12" width="18.5571428571429" customWidth="1"/>
-    <col min="13" max="13" width="13.1071428571429" customWidth="1"/>
-    <col min="14" max="1025" width="10.3285714285714" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="49.5" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="49.5" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="66" spans="3:5">
-      <c r="C11" s="22" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="33" spans="3:5">
-      <c r="C15" s="30" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="49.5" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="14.8857142857143" customWidth="1"/>
-    <col min="6" max="6" width="63.6642857142857" customWidth="1"/>
-    <col min="7" max="7" width="29.1071428571429" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7575,7 +7070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7663,7 +7158,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -7713,7 +7208,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -7767,7 +7262,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>92</v>
       </c>
@@ -7824,7 +7319,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>101</v>
       </c>
@@ -7872,7 +7367,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>106</v>
       </c>
@@ -7929,7 +7424,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>114</v>
       </c>
@@ -7983,7 +7478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>120</v>
       </c>
@@ -8034,7 +7529,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>125</v>
       </c>
@@ -8085,7 +7580,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>129</v>
       </c>
@@ -11770,27 +11265,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G356"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.8857142857143" customWidth="1"/>
-    <col min="6" max="6" width="29.1071428571429" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -11804,7 +11298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -11838,7 +11332,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>447</v>
       </c>
@@ -11850,7 +11344,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>449</v>
       </c>
@@ -11862,7 +11356,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>451</v>
       </c>
@@ -11874,7 +11368,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>453</v>
       </c>
@@ -11886,7 +11380,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>455</v>
       </c>
@@ -11898,7 +11392,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>457</v>
       </c>
@@ -11910,7 +11404,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>459</v>
       </c>
@@ -11922,7 +11416,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>461</v>
       </c>
@@ -11934,7 +11428,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>463</v>
       </c>
@@ -12126,12 +11620,12 @@
         <v>494</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" spans="5:7">
+    <row r="32" spans="5:7" s="6" customFormat="1">
       <c r="E32" s="6" t="s">
         <v>495</v>
       </c>
       <c r="F32" s="6" t="str">
-        <f>[1]菜单SAAS版!$E$42</f>
+        <f>菜单SAAS版!E42</f>
         <v>iam_menu-58</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -14634,7 +14128,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="241" s="6" customFormat="1" spans="5:7">
+    <row r="241" spans="5:7" s="6" customFormat="1">
       <c r="E241" s="6" t="s">
         <v>873</v>
       </c>
@@ -16027,26 +15521,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A87" sqref="$A87:$XFD90"/>
+      <selection activeCell="A87" sqref="A87:XFD90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="7" max="7" width="27.1071428571429" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -16060,7 +15553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -16118,7 +15611,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1074</v>
       </c>
@@ -16150,7 +15643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1079</v>
       </c>
@@ -16182,7 +15675,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1082</v>
       </c>
@@ -16208,7 +15701,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1085</v>
       </c>
@@ -16234,7 +15727,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1087</v>
       </c>
@@ -16266,7 +15759,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1090</v>
       </c>
@@ -16295,7 +15788,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1093</v>
       </c>
@@ -16324,7 +15817,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1096</v>
       </c>
@@ -16353,7 +15846,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1099</v>
       </c>
@@ -16382,7 +15875,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1102</v>
       </c>
@@ -16414,7 +15907,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1105</v>
       </c>
@@ -16446,7 +15939,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1108</v>
       </c>
@@ -16478,7 +15971,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1111</v>
       </c>
@@ -16504,7 +15997,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1113</v>
       </c>
@@ -16536,7 +16029,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1116</v>
       </c>
@@ -16568,7 +16061,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1119</v>
       </c>
@@ -16600,7 +16093,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1122</v>
       </c>
@@ -16626,7 +16119,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1124</v>
       </c>
@@ -16655,7 +16148,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1127</v>
       </c>
@@ -16684,7 +16177,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -16713,7 +16206,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1137</v>
       </c>
@@ -16732,7 +16225,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1137</v>
       </c>
@@ -16751,7 +16244,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1137</v>
       </c>
@@ -16770,7 +16263,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1137</v>
       </c>
@@ -19070,28 +18563,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y181"/>
   <sheetViews>
     <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD28"/>
+      <selection activeCell="A22" sqref="A22:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="22.3285714285714" customWidth="1"/>
-    <col min="6" max="6" width="14.4428571428571" customWidth="1"/>
-    <col min="7" max="7" width="28.5571428571429" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -19105,7 +18597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -19193,7 +18685,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1156</v>
       </c>
@@ -19252,7 +18744,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1162</v>
       </c>
@@ -19311,7 +18803,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1167</v>
       </c>
@@ -19374,7 +18866,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1175</v>
       </c>
@@ -19437,7 +18929,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1183</v>
       </c>
@@ -19500,7 +18992,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1191</v>
       </c>
@@ -19563,7 +19055,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>1199</v>
       </c>
@@ -19621,7 +19113,7 @@
       </c>
       <c r="X14" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -23284,27 +22776,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="7" max="7" width="18.1071428571429" customWidth="1"/>
-    <col min="8" max="8" width="20.3285714285714" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -23318,7 +22809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -23376,7 +22867,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1074</v>
       </c>
@@ -23408,7 +22899,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1079</v>
       </c>
@@ -23437,7 +22928,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1082</v>
       </c>
@@ -23469,7 +22960,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1085</v>
       </c>
@@ -23501,7 +22992,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1087</v>
       </c>
@@ -23533,7 +23024,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1090</v>
       </c>
@@ -23565,7 +23056,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1093</v>
       </c>
@@ -23597,7 +23088,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1096</v>
       </c>
@@ -23629,7 +23120,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1099</v>
       </c>
@@ -23661,7 +23152,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1102</v>
       </c>
@@ -23693,7 +23184,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1105</v>
       </c>
@@ -23725,7 +23216,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1108</v>
       </c>
@@ -23757,7 +23248,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -23786,7 +23277,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1137</v>
       </c>
@@ -23805,7 +23296,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1137</v>
       </c>
@@ -23824,7 +23315,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1137</v>
       </c>
@@ -23843,7 +23334,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1137</v>
       </c>
@@ -23862,7 +23353,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1137</v>
       </c>
@@ -23881,7 +23372,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1137</v>
       </c>
@@ -23900,7 +23391,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1137</v>
       </c>
@@ -23919,7 +23410,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1137</v>
       </c>
@@ -23938,7 +23429,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1137</v>
       </c>
@@ -23957,7 +23448,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1137</v>
       </c>
@@ -23976,7 +23467,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1137</v>
       </c>
@@ -24053,8 +23544,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="1457">
   <si>
     <r>
       <rPr>
@@ -5050,6 +5050,12 @@
     <t>hzero-iam.choerodon-project-user.getUserCount</t>
   </si>
   <si>
+    <t>iam_menu_permission-501</t>
+  </si>
+  <si>
+    <t>agile-service.encryption.startArt</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -6108,10 +6114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -6183,13 +6189,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6203,6 +6202,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -6210,8 +6247,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6233,90 +6324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -6325,11 +6332,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6415,7 +6421,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6427,61 +6535,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6499,55 +6571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6559,31 +6583,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6697,30 +6703,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -6731,15 +6713,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6764,6 +6737,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6793,151 +6790,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7407,7 +7413,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" style="6" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
@@ -7436,7 +7442,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="5:5">
+    <row r="2" ht="18" spans="5:5">
       <c r="E2" s="11"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -7450,7 +7456,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" ht="18" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
@@ -7471,7 +7477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" ht="18" spans="3:5">
       <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
@@ -7491,7 +7497,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="51.75" spans="3:6">
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
@@ -7505,7 +7511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="51.75" spans="3:5">
       <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
@@ -7516,7 +7522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="69" spans="3:5">
       <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
@@ -7548,7 +7554,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="34.5" spans="3:5">
       <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
@@ -7571,7 +7577,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" ht="18" spans="3:4">
       <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" ht="18" spans="3:4">
       <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
@@ -7587,7 +7593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" ht="18" spans="3:4">
       <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
@@ -7595,7 +7601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" ht="18" spans="3:4">
       <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
@@ -7621,7 +7627,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="51.75" spans="3:3">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -7647,11 +7653,11 @@
   <sheetPr/>
   <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="5" max="5" width="14.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="70.6666666666667" customWidth="1"/>
@@ -11986,11 +11992,11 @@
   <sheetPr/>
   <dimension ref="A1:G378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="E372" sqref="E372"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="F374" sqref="F374"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" width="28.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="29.1111111111111" customWidth="1"/>
@@ -16460,8 +16466,17 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="376" spans="5:5">
-      <c r="E376" s="5"/>
+    <row r="376" spans="5:7">
+      <c r="E376" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F376" t="str">
+        <f>菜单SAAS版!$E$52</f>
+        <v>iam_menu-71</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1105</v>
+      </c>
     </row>
     <row r="377" spans="5:5">
       <c r="E377" s="5"/>
@@ -16484,7 +16499,7 @@
       <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="7" max="7" width="27.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="18.1111111111111" customWidth="1"/>
@@ -16523,66 +16538,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="H7" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="I7" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="J7" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="K7" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="L7" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="M7" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="N7" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="O7" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="F8" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="G8" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K8" t="s">
         <v>1119</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1120</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1117</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -16596,25 +16611,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
         <v>1121</v>
       </c>
-      <c r="F9" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1119</v>
-      </c>
       <c r="J9" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="K9" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -16628,19 +16643,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="F10" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="G10" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -16654,19 +16669,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F11" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G11" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -16680,25 +16695,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="F12" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G12" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="J12" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="K12" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -16712,22 +16727,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="F13" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="G13" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J13" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -16741,22 +16756,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="F14" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="G14" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J14" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -16770,22 +16785,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="F15" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="G15" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J15" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -16799,22 +16814,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F16" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="G16" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J16" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -16828,25 +16843,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="F17" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="G17" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J17" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="K17" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -16860,25 +16875,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="F18" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="G18" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J18" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="K18" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -16892,25 +16907,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="F19" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="G19" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J19" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="K19" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -16924,19 +16939,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="F20" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="G20" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -16950,25 +16965,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="F21" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="G21" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="J21" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="K21" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -16982,25 +16997,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="F22" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="G22" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="J22" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="K22" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -17014,25 +17029,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F23" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="G23" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="J23" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="K23" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -17046,19 +17061,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="F24" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="G24" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -17072,22 +17087,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="F25" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="G25" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="J25" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -17101,22 +17116,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="F26" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="G26" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="J26" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -17136,33 +17151,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="I28" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F29" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -17173,15 +17188,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F30" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -17192,15 +17207,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I30" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F31" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -17211,15 +17226,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I31" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F32" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -17230,15 +17245,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I32" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F33" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17249,15 +17264,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F34" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17268,15 +17283,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I34" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F35" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17287,15 +17302,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I35" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F36" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17306,15 +17321,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I36" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F37" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17325,15 +17340,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I37" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F38" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17344,15 +17359,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I38" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F39" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17363,15 +17378,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I39" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F40" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17382,15 +17397,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I40" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F41" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -17401,15 +17416,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I41" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F42" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -17420,15 +17435,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I42" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F43" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -17439,15 +17454,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I43" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F44" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -17458,15 +17473,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I44" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F45" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -17477,15 +17492,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I45" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F46" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -17496,15 +17511,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I46" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F47" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17515,15 +17530,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I47" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F48" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17534,15 +17549,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I48" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F49" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17553,15 +17568,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I49" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F50" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17572,15 +17587,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I50" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F51" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17591,15 +17606,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I51" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F52" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17610,15 +17625,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I52" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F53" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17629,15 +17644,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I53" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F54" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17648,15 +17663,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I54" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F55" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -17667,15 +17682,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I55" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F56" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -17686,15 +17701,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I56" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F57" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -17705,15 +17720,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I57" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F58" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -17724,15 +17739,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I58" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F59" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -17743,15 +17758,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I59" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F60" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -17762,15 +17777,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I60" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F61" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17781,15 +17796,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I61" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F62" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17800,15 +17815,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I62" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F63" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17819,15 +17834,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I63" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F64" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17838,15 +17853,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I64" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F65" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17857,15 +17872,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I65" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F66" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17876,15 +17891,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I66" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F67" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17895,15 +17910,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I67" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F68" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17914,15 +17929,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I68" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F69" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17933,15 +17948,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I69" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="70" spans="5:9">
       <c r="E70" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F70" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G70" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -17952,15 +17967,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I70" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="71" spans="5:9">
       <c r="E71" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F71" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G71" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -17971,15 +17986,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I71" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="72" spans="5:9">
       <c r="E72" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F72" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G72" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -17990,15 +18005,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I72" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F73" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G73" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -18009,15 +18024,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I73" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="74" spans="5:9">
       <c r="E74" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F74" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G74" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -18028,15 +18043,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I74" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F75" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G75" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -18047,15 +18062,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I75" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F76" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G76" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -18066,15 +18081,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I76" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="77" spans="5:9">
       <c r="E77" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F77" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G77" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -18085,15 +18100,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I77" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="78" spans="5:9">
       <c r="E78" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F78" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G78" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -18104,15 +18119,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I78" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="79" spans="5:9">
       <c r="E79" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F79" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G79" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -18123,15 +18138,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I79" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="80" spans="5:9">
       <c r="E80" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F80" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G80" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -18142,15 +18157,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I80" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="81" spans="5:9">
       <c r="E81" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F81" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G81" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -18161,15 +18176,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I81" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="82" spans="5:9">
       <c r="E82" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F82" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G82" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -18180,15 +18195,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I82" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="83" spans="5:9">
       <c r="E83" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F83" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G83" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -18199,15 +18214,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I83" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="84" spans="5:9">
       <c r="E84" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F84" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G84" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -18218,15 +18233,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I84" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="85" spans="5:9">
       <c r="E85" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F85" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G85" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -18237,15 +18252,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I85" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="86" spans="5:9">
       <c r="E86" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F86" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G86" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -18256,15 +18271,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I86" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="87" spans="5:9">
       <c r="E87" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F87" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G87" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -18275,15 +18290,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I87" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="88" spans="5:9">
       <c r="E88" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F88" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G88" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -18294,15 +18309,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I88" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="89" spans="5:9">
       <c r="E89" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F89" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G89" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -18313,15 +18328,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I89" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="90" spans="5:9">
       <c r="E90" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F90" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G90" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -18332,15 +18347,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I90" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="91" spans="5:9">
       <c r="E91" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F91" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G91" t="str">
         <f>菜单SAAS版!$E$19</f>
@@ -18351,15 +18366,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I91" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="92" spans="5:9">
       <c r="E92" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F92" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G92" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -18370,15 +18385,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I92" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="93" spans="5:9">
       <c r="E93" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F93" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G93" t="str">
         <f>菜单SAAS版!$E$22</f>
@@ -18389,15 +18404,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I93" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="94" spans="5:9">
       <c r="E94" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F94" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G94" t="str">
         <f>菜单SAAS版!$E$20</f>
@@ -18408,15 +18423,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I94" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="95" spans="5:9">
       <c r="E95" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F95" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G95" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -18427,15 +18442,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I95" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="96" spans="5:9">
       <c r="E96" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F96" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G96" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -18446,15 +18461,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I96" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="97" spans="5:9">
       <c r="E97" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F97" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G97" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -18465,15 +18480,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I97" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="98" spans="5:9">
       <c r="E98" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F98" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G98" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -18484,15 +18499,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I98" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="99" spans="5:9">
       <c r="E99" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F99" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G99" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -18503,15 +18518,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I99" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="100" spans="5:9">
       <c r="E100" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F100" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G100" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -18522,15 +18537,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I100" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="101" spans="5:9">
       <c r="E101" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F101" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G101" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -18541,15 +18556,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I101" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="102" spans="5:9">
       <c r="E102" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F102" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G102" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -18560,15 +18575,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I102" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="103" spans="5:9">
       <c r="E103" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F103" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G103" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -18579,15 +18594,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I103" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="104" spans="5:9">
       <c r="E104" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F104" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G104" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -18598,15 +18613,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I104" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="105" spans="5:9">
       <c r="E105" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F105" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G105" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -18617,15 +18632,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I105" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="106" spans="5:9">
       <c r="E106" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F106" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G106" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -18636,15 +18651,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I106" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="107" spans="5:9">
       <c r="E107" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F107" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G107" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -18655,15 +18670,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I107" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="108" spans="5:9">
       <c r="E108" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F108" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G108" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -18674,15 +18689,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I108" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="109" spans="5:9">
       <c r="E109" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F109" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G109" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -18693,15 +18708,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I109" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="110" spans="5:9">
       <c r="E110" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F110" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G110" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -18712,15 +18727,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I110" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="111" spans="5:9">
       <c r="E111" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F111" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G111" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -18731,15 +18746,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I111" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="112" spans="5:9">
       <c r="E112" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F112" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G112" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -18750,15 +18765,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I112" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="113" spans="5:9">
       <c r="E113" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F113" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G113" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -18769,15 +18784,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I113" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="114" spans="5:9">
       <c r="E114" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F114" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G114" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -18788,15 +18803,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I114" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="115" spans="5:9">
       <c r="E115" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F115" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G115" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -18807,15 +18822,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I115" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="116" spans="5:9">
       <c r="E116" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F116" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G116" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -18826,15 +18841,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I116" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="117" spans="5:9">
       <c r="E117" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F117" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G117" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -18845,15 +18860,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I117" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="118" spans="5:9">
       <c r="E118" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F118" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G118" t="str">
         <f>菜单SAAS版!$E$80</f>
@@ -18864,15 +18879,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I118" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="119" spans="5:9">
       <c r="E119" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F119" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G119" t="str">
         <f>菜单SAAS版!$E$80</f>
@@ -18883,15 +18898,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I119" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="120" spans="5:9">
       <c r="E120" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F120" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G120" t="str">
         <f>菜单SAAS版!$E$77</f>
@@ -18902,15 +18917,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I120" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="121" spans="5:9">
       <c r="E121" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F121" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G121" t="str">
         <f>菜单SAAS版!$E$77</f>
@@ -18921,15 +18936,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I121" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="122" spans="5:9">
       <c r="E122" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F122" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G122" t="str">
         <f>菜单SAAS版!$E$83</f>
@@ -18940,15 +18955,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I122" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="123" spans="5:9">
       <c r="E123" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F123" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G123" t="str">
         <f>菜单SAAS版!$E$83</f>
@@ -18959,15 +18974,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I123" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="124" spans="5:9">
       <c r="E124" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F124" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G124" t="str">
         <f>菜单SAAS版!$E$84</f>
@@ -18978,15 +18993,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I124" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="125" spans="5:9">
       <c r="E125" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F125" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G125" t="str">
         <f>菜单SAAS版!$E$84</f>
@@ -18997,15 +19012,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I125" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="126" spans="5:9">
       <c r="E126" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F126" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G126" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -19016,15 +19031,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I126" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="127" spans="5:9">
       <c r="E127" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F127" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G127" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -19035,15 +19050,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I127" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="128" spans="5:9">
       <c r="E128" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F128" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G128" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -19054,15 +19069,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I128" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="129" spans="5:9">
       <c r="E129" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F129" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G129" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -19073,15 +19088,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I129" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="130" spans="5:9">
       <c r="E130" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F130" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G130" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -19092,15 +19107,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I130" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="131" spans="5:9">
       <c r="E131" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F131" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G131" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -19111,15 +19126,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I131" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="132" spans="5:9">
       <c r="E132" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F132" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G132" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -19130,15 +19145,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I132" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="133" spans="5:9">
       <c r="E133" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F133" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G133" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -19149,15 +19164,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I133" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="134" spans="5:9">
       <c r="E134" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F134" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G134" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -19168,15 +19183,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I134" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="135" spans="5:9">
       <c r="E135" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F135" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G135" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -19187,15 +19202,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I135" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="136" spans="5:9">
       <c r="E136" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F136" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G136" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -19206,15 +19221,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I136" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="137" spans="5:9">
       <c r="E137" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F137" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G137" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -19225,15 +19240,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I137" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="138" spans="5:9">
       <c r="E138" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F138" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G138" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -19244,15 +19259,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I138" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="139" spans="5:9">
       <c r="E139" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F139" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G139" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -19263,15 +19278,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I139" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="140" spans="5:9">
       <c r="E140" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F140" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G140" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -19282,15 +19297,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I140" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="141" spans="5:9">
       <c r="E141" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F141" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G141" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -19301,15 +19316,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I141" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="142" spans="5:9">
       <c r="E142" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F142" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G142" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -19320,15 +19335,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I142" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="143" spans="5:9">
       <c r="E143" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F143" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G143" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -19339,15 +19354,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I143" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="144" spans="5:9">
       <c r="E144" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F144" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G144" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -19358,15 +19373,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I144" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="145" spans="5:9">
       <c r="E145" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F145" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G145" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -19377,15 +19392,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I145" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="146" spans="5:9">
       <c r="E146" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F146" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G146" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -19396,15 +19411,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I146" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="147" spans="5:9">
       <c r="E147" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F147" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G147" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -19415,15 +19430,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I147" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="148" spans="5:9">
       <c r="E148" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F148" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G148" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -19434,15 +19449,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I148" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="149" spans="5:9">
       <c r="E149" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F149" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G149" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -19453,15 +19468,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I149" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="150" spans="5:9">
       <c r="E150" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F150" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G150" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -19472,15 +19487,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I150" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="151" spans="5:9">
       <c r="E151" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F151" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G151" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -19491,15 +19506,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I151" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="152" spans="5:9">
       <c r="E152" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F152" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G152" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -19510,15 +19525,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I152" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="153" spans="5:9">
       <c r="E153" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F153" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G153" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -19529,15 +19544,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I153" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="154" spans="5:9">
       <c r="E154" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F154" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G154" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -19548,15 +19563,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I154" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="155" spans="5:9">
       <c r="E155" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F155" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="G155" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -19567,7 +19582,7 @@
         <v>iam_label-21</v>
       </c>
       <c r="I155" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
   </sheetData>
@@ -19585,7 +19600,7 @@
       <selection activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="14.4444444444444" customWidth="1"/>
@@ -19625,10 +19640,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -19643,75 +19658,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="J7" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="O7" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="P7" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="Q7" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="R7" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="S7" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="T7" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="X7" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="Y7" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="F8" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="G8" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H8" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="I8" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="J8" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -19744,10 +19759,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="V8" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -19755,19 +19770,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="F9" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="G9" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="H9" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="I9" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -19803,10 +19818,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="V9" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -19814,16 +19829,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="F10" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="G10" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="H10" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -19860,33 +19875,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="V10" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="Y10" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="F11" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="G11" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="H11" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -19923,33 +19938,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="V11" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="Y11" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="F12" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="G12" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="H12" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -19986,33 +20001,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="V12" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="Y12" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="F13" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="G13" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H13" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -20049,36 +20064,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="V13" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="Y13" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="14" spans="5:24">
       <c r="E14" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="F14" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="G14" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="H14" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="J14" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -20112,10 +20127,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="V14" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -20130,33 +20145,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="H16" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="I16" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -20167,18 +20182,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H17" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I17" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J17" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -20189,18 +20204,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H18" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I18" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J18" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -20211,18 +20226,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H19" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I19" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J19" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -20233,18 +20248,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H20" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I20" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J20" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -20255,18 +20270,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H21" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I21" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J21" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -20277,18 +20292,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I22" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J22" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -20299,18 +20314,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H23" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I23" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J23" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -20321,18 +20336,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H24" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I24" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J24" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -20343,18 +20358,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H25" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I25" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J25" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -20365,18 +20380,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H26" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I26" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J26" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -20387,18 +20402,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H27" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I27" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J27" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -20409,18 +20424,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H28" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I28" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J28" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -20431,18 +20446,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H29" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I29" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J29" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -20453,18 +20468,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H30" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I30" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J30" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -20475,18 +20490,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H31" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I31" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J31" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -20497,18 +20512,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H32" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I32" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J32" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -20519,18 +20534,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H33" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I33" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J33" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -20541,18 +20556,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H34" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I34" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J34" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -20563,18 +20578,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H35" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I35" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J35" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -20585,18 +20600,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H36" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I36" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J36" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -20607,18 +20622,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H37" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I37" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J37" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -20629,18 +20644,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H38" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I38" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J38" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -20651,18 +20666,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H39" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I39" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J39" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$10</f>
@@ -20673,18 +20688,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H40" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I40" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J40" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$10</f>
@@ -20695,18 +20710,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H41" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I41" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J41" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$10</f>
@@ -20717,18 +20732,18 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H42" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I42" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J42" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$10</f>
@@ -20739,18 +20754,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H43" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I43" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J43" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$10</f>
@@ -20761,18 +20776,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H44" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I44" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J44" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$10</f>
@@ -20783,18 +20798,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H45" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I45" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J45" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$10</f>
@@ -20805,18 +20820,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H46" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I46" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J46" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$10</f>
@@ -20827,18 +20842,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H47" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I47" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J47" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$10</f>
@@ -20849,18 +20864,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H48" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I48" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J48" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$10</f>
@@ -20871,18 +20886,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H49" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I49" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J49" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$10</f>
@@ -20893,18 +20908,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H50" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I50" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J50" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$10</f>
@@ -20915,18 +20930,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H51" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I51" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J51" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$10</f>
@@ -20937,18 +20952,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H52" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I52" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J52" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$10</f>
@@ -20959,18 +20974,18 @@
         <v>iam_menu-61</v>
       </c>
       <c r="H53" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I53" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J53" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$10</f>
@@ -20981,18 +20996,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H54" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I54" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J54" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$10</f>
@@ -21003,18 +21018,18 @@
         <v>iam_menu-62</v>
       </c>
       <c r="H55" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I55" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J55" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$10</f>
@@ -21025,18 +21040,18 @@
         <v>iam_menu-67</v>
       </c>
       <c r="H56" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I56" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J56" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$10</f>
@@ -21047,18 +21062,18 @@
         <v>iam_menu-69</v>
       </c>
       <c r="H57" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I57" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J57" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$10</f>
@@ -21069,18 +21084,18 @@
         <v>iam_menu-68</v>
       </c>
       <c r="H58" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I58" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J58" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$10</f>
@@ -21091,18 +21106,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H59" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I59" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J59" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$10</f>
@@ -21113,18 +21128,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H60" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I60" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J60" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$10</f>
@@ -21135,18 +21150,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H61" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I61" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J61" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$10</f>
@@ -21157,18 +21172,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H62" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I62" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J62" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$10</f>
@@ -21179,18 +21194,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H63" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I63" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J63" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$10</f>
@@ -21201,18 +21216,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H64" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I64" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J64" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$10</f>
@@ -21223,18 +21238,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H65" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I65" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J65" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$10</f>
@@ -21245,18 +21260,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H66" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I66" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J66" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$10</f>
@@ -21267,18 +21282,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H67" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I67" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J67" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$10</f>
@@ -21289,18 +21304,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H68" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I68" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J68" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$10</f>
@@ -21311,18 +21326,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H69" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I69" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J69" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$10</f>
@@ -21333,18 +21348,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H70" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I70" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J70" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$10</f>
@@ -21355,18 +21370,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H71" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I71" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J71" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$10</f>
@@ -21377,18 +21392,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H72" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I72" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J72" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$10</f>
@@ -21399,18 +21414,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H73" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I73" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J73" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$10</f>
@@ -21421,18 +21436,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H74" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I74" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J74" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$10</f>
@@ -21443,18 +21458,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H75" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I75" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J75" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$10</f>
@@ -21465,18 +21480,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H76" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I76" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J76" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$10</f>
@@ -21487,18 +21502,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H77" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I77" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J77" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$10</f>
@@ -21509,18 +21524,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H78" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I78" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J78" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$10</f>
@@ -21531,18 +21546,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H79" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I79" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J79" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$10</f>
@@ -21553,18 +21568,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H80" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I80" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J80" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$10</f>
@@ -21575,18 +21590,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H81" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I81" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J81" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$10</f>
@@ -21597,18 +21612,18 @@
         <v>iam_menu-125</v>
       </c>
       <c r="H82" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I82" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J82" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$10</f>
@@ -21619,18 +21634,18 @@
         <v>iam_menu-128</v>
       </c>
       <c r="H83" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I83" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J83" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$12</f>
@@ -21641,18 +21656,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H84" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I84" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J84" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$12</f>
@@ -21663,18 +21678,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H85" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I85" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J85" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="86" spans="5:10">
       <c r="E86" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="F86" t="str">
         <f>角色!$E$12</f>
@@ -21685,18 +21700,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H86" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I86" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J86" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="87" spans="5:10">
       <c r="E87" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F87" t="str">
         <f>角色!$E$12</f>
@@ -21707,18 +21722,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H87" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I87" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J87" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="88" spans="5:10">
       <c r="E88" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="F88" t="str">
         <f>角色!$E$12</f>
@@ -21729,18 +21744,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H88" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I88" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J88" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="89" spans="5:10">
       <c r="E89" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="F89" t="str">
         <f>角色!$E$12</f>
@@ -21751,18 +21766,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H89" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I89" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J89" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="90" spans="5:10">
       <c r="E90" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="F90" t="str">
         <f>角色!$E$12</f>
@@ -21773,18 +21788,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H90" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I90" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J90" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="91" spans="5:10">
       <c r="E91" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="F91" t="str">
         <f>角色!$E$12</f>
@@ -21795,18 +21810,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H91" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I91" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J91" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="92" spans="5:10">
       <c r="E92" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="F92" t="str">
         <f>角色!$E$12</f>
@@ -21817,18 +21832,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H92" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I92" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J92" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="93" spans="5:10">
       <c r="E93" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F93" t="str">
         <f>角色!$E$12</f>
@@ -21839,18 +21854,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H93" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I93" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J93" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="94" spans="5:10">
       <c r="E94" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="F94" t="str">
         <f>角色!$E$12</f>
@@ -21861,18 +21876,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H94" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I94" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J94" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="95" spans="5:10">
       <c r="E95" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="F95" t="str">
         <f>角色!$E$12</f>
@@ -21883,18 +21898,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H95" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I95" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J95" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="96" spans="5:10">
       <c r="E96" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="F96" t="str">
         <f>角色!$E$12</f>
@@ -21905,18 +21920,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H96" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I96" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J96" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="97" spans="5:10">
       <c r="E97" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="F97" t="str">
         <f>角色!$E$12</f>
@@ -21927,18 +21942,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H97" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I97" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J97" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="98" spans="5:10">
       <c r="E98" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="F98" t="str">
         <f>角色!$E$12</f>
@@ -21949,18 +21964,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H98" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I98" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J98" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="99" spans="5:10">
       <c r="E99" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="F99" t="str">
         <f>角色!$E$12</f>
@@ -21971,18 +21986,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H99" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I99" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J99" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="100" spans="5:10">
       <c r="E100" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="F100" t="str">
         <f>角色!$E$12</f>
@@ -21993,18 +22008,18 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H100" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I100" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J100" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="101" spans="5:10">
       <c r="E101" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="F101" t="str">
         <f>角色!$E$12</f>
@@ -22015,18 +22030,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H101" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I101" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J101" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="102" spans="5:10">
       <c r="E102" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="F102" t="str">
         <f>角色!$E$12</f>
@@ -22037,18 +22052,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H102" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I102" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J102" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="103" spans="5:10">
       <c r="E103" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="F103" t="str">
         <f>角色!$E$12</f>
@@ -22059,18 +22074,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H103" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I103" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J103" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="104" spans="5:10">
       <c r="E104" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="F104" t="str">
         <f>角色!$E$12</f>
@@ -22081,18 +22096,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H104" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I104" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J104" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="105" spans="5:10">
       <c r="E105" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F105" t="str">
         <f>角色!$E$12</f>
@@ -22103,18 +22118,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H105" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I105" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J105" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="106" spans="5:10">
       <c r="E106" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="F106" t="str">
         <f>角色!$E$12</f>
@@ -22125,18 +22140,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H106" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I106" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J106" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="107" spans="5:10">
       <c r="E107" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="F107" t="str">
         <f>角色!$E$12</f>
@@ -22147,18 +22162,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H107" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I107" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J107" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="108" spans="5:10">
       <c r="E108" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="F108" t="str">
         <f>角色!$E$12</f>
@@ -22169,18 +22184,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H108" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I108" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J108" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="109" spans="5:10">
       <c r="E109" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F109" t="str">
         <f>角色!$E$12</f>
@@ -22191,18 +22206,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H109" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I109" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J109" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="110" spans="5:10">
       <c r="E110" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="F110" t="str">
         <f>角色!$E$12</f>
@@ -22213,18 +22228,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H110" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I110" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J110" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="111" spans="5:10">
       <c r="E111" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F111" t="str">
         <f>角色!$E$12</f>
@@ -22235,18 +22250,18 @@
         <v>iam_menu-61</v>
       </c>
       <c r="H111" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I111" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J111" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="112" spans="5:10">
       <c r="E112" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="F112" t="str">
         <f>角色!$E$12</f>
@@ -22257,18 +22272,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H112" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I112" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J112" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="113" spans="5:10">
       <c r="E113" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="F113" t="str">
         <f>角色!$E$12</f>
@@ -22279,18 +22294,18 @@
         <v>iam_menu-62</v>
       </c>
       <c r="H113" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I113" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J113" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="114" spans="5:10">
       <c r="E114" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="F114" t="str">
         <f>角色!$E$12</f>
@@ -22301,18 +22316,18 @@
         <v>iam_menu-67</v>
       </c>
       <c r="H114" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I114" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J114" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="115" spans="5:10">
       <c r="E115" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="F115" t="str">
         <f>角色!$E$12</f>
@@ -22323,18 +22338,18 @@
         <v>iam_menu-69</v>
       </c>
       <c r="H115" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I115" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J115" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="116" spans="5:10">
       <c r="E116" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="F116" t="str">
         <f>角色!$E$12</f>
@@ -22345,18 +22360,18 @@
         <v>iam_menu-68</v>
       </c>
       <c r="H116" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I116" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J116" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="117" spans="5:10">
       <c r="E117" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="F117" t="str">
         <f>角色!$E$12</f>
@@ -22367,18 +22382,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H117" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I117" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J117" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="118" spans="5:10">
       <c r="E118" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="F118" t="str">
         <f>角色!$E$12</f>
@@ -22389,18 +22404,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H118" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I118" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J118" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="119" spans="5:10">
       <c r="E119" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="F119" t="str">
         <f>角色!$E$12</f>
@@ -22411,18 +22426,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H119" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I119" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J119" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="120" spans="5:10">
       <c r="E120" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="F120" t="str">
         <f>角色!$E$12</f>
@@ -22433,18 +22448,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H120" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I120" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J120" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="121" spans="5:10">
       <c r="E121" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="F121" t="str">
         <f>角色!$E$12</f>
@@ -22455,18 +22470,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H121" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I121" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J121" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="122" spans="5:10">
       <c r="E122" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="F122" t="str">
         <f>角色!$E$12</f>
@@ -22477,18 +22492,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H122" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I122" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J122" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="123" spans="5:10">
       <c r="E123" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="F123" t="str">
         <f>角色!$E$12</f>
@@ -22499,18 +22514,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H123" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I123" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J123" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="124" spans="5:10">
       <c r="E124" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="F124" t="str">
         <f>角色!$E$12</f>
@@ -22521,18 +22536,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H124" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I124" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J124" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="125" spans="5:10">
       <c r="E125" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="F125" t="str">
         <f>角色!$E$12</f>
@@ -22543,18 +22558,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H125" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I125" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J125" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="126" spans="5:10">
       <c r="E126" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="F126" t="str">
         <f>角色!$E$12</f>
@@ -22565,18 +22580,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H126" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I126" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J126" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="127" spans="5:10">
       <c r="E127" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="F127" t="str">
         <f>角色!$E$12</f>
@@ -22587,18 +22602,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H127" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I127" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J127" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="128" spans="5:10">
       <c r="E128" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="F128" t="str">
         <f>角色!$E$12</f>
@@ -22609,18 +22624,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H128" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I128" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J128" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="129" spans="5:10">
       <c r="E129" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="F129" t="str">
         <f>角色!$E$12</f>
@@ -22631,18 +22646,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H129" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I129" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J129" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="130" spans="5:10">
       <c r="E130" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="F130" t="str">
         <f>角色!$E$12</f>
@@ -22653,18 +22668,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H130" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I130" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J130" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="131" spans="5:10">
       <c r="E131" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="F131" t="str">
         <f>角色!$E$12</f>
@@ -22675,18 +22690,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H131" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I131" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J131" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="132" spans="5:10">
       <c r="E132" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="F132" t="str">
         <f>角色!$E$12</f>
@@ -22697,18 +22712,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H132" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I132" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J132" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="133" spans="5:10">
       <c r="E133" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="F133" t="str">
         <f>角色!$E$12</f>
@@ -22719,18 +22734,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H133" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I133" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J133" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="134" spans="5:10">
       <c r="E134" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="F134" t="str">
         <f>角色!$E$12</f>
@@ -22741,18 +22756,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H134" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I134" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J134" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="135" spans="5:10">
       <c r="E135" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="F135" t="str">
         <f>角色!$E$12</f>
@@ -22763,18 +22778,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H135" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I135" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J135" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="136" spans="5:10">
       <c r="E136" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="F136" t="str">
         <f>角色!$E$12</f>
@@ -22785,18 +22800,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H136" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I136" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J136" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="137" spans="5:10">
       <c r="E137" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="F137" t="str">
         <f>角色!$E$12</f>
@@ -22807,18 +22822,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H137" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I137" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J137" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="138" spans="5:10">
       <c r="E138" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="F138" t="str">
         <f>角色!$E$12</f>
@@ -22829,18 +22844,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H138" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I138" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J138" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="139" spans="5:10">
       <c r="E139" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="F139" t="str">
         <f>角色!$E$12</f>
@@ -22851,18 +22866,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H139" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I139" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J139" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="140" spans="5:10">
       <c r="E140" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="F140" t="str">
         <f>角色!$E$12</f>
@@ -22873,18 +22888,18 @@
         <v>iam_menu-125</v>
       </c>
       <c r="H140" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I140" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J140" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="141" spans="5:10">
       <c r="E141" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="F141" t="str">
         <f>角色!$E$12</f>
@@ -22895,18 +22910,18 @@
         <v>iam_menu-128</v>
       </c>
       <c r="H141" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I141" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J141" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="142" spans="5:10">
       <c r="E142" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="F142" t="str">
         <f>角色!$E$13</f>
@@ -22917,18 +22932,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H142" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I142" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J142" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="143" spans="5:10">
       <c r="E143" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="F143" t="str">
         <f>角色!$E$13</f>
@@ -22939,18 +22954,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H143" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I143" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J143" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="144" spans="5:10">
       <c r="E144" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="F144" t="str">
         <f>角色!$E$13</f>
@@ -22961,18 +22976,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H144" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I144" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J144" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="145" spans="5:10">
       <c r="E145" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="F145" t="str">
         <f>角色!$E$13</f>
@@ -22983,18 +22998,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H145" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I145" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J145" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="146" spans="5:10">
       <c r="E146" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="F146" t="str">
         <f>角色!$E$13</f>
@@ -23005,18 +23020,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H146" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I146" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J146" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="147" spans="5:10">
       <c r="E147" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="F147" t="str">
         <f>角色!$E$13</f>
@@ -23027,18 +23042,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H147" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I147" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J147" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="148" spans="5:10">
       <c r="E148" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="F148" t="str">
         <f>角色!$E$13</f>
@@ -23049,18 +23064,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H148" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I148" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J148" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="149" spans="5:10">
       <c r="E149" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="F149" t="str">
         <f>角色!$E$13</f>
@@ -23071,18 +23086,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H149" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="I149" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J149" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="150" spans="5:10">
       <c r="E150" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="F150" t="str">
         <f>角色!$E$13</f>
@@ -23093,18 +23108,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H150" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="I150" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J150" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="151" spans="5:10">
       <c r="E151" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="F151" t="str">
         <f>角色!$E$13</f>
@@ -23115,18 +23130,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H151" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="I151" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J151" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="152" spans="5:10">
       <c r="E152" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="F152" t="str">
         <f>角色!$E$13</f>
@@ -23137,18 +23152,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H152" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="I152" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J152" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="153" spans="5:10">
       <c r="E153" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="F153" t="str">
         <f>角色!$E$13</f>
@@ -23159,18 +23174,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H153" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="I153" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J153" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="154" spans="5:10">
       <c r="E154" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="F154" t="str">
         <f>角色!$E$13</f>
@@ -23181,18 +23196,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H154" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="I154" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J154" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="155" spans="5:10">
       <c r="E155" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="F155" t="str">
         <f>角色!$E$13</f>
@@ -23203,18 +23218,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H155" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="I155" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J155" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="156" spans="5:10">
       <c r="E156" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="F156" t="str">
         <f>角色!$E$13</f>
@@ -23225,18 +23240,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H156" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I156" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J156" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="157" spans="5:10">
       <c r="E157" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="F157" t="str">
         <f>角色!$E$13</f>
@@ -23247,18 +23262,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H157" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I157" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J157" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="158" spans="5:10">
       <c r="E158" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="F158" t="str">
         <f>角色!$E$13</f>
@@ -23269,18 +23284,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H158" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I158" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J158" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="159" spans="5:10">
       <c r="E159" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="F159" t="str">
         <f>角色!$E$13</f>
@@ -23291,18 +23306,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H159" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I159" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J159" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="160" spans="5:10">
       <c r="E160" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="F160" t="str">
         <f>角色!$E$13</f>
@@ -23313,18 +23328,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H160" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I160" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J160" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="161" spans="5:10">
       <c r="E161" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="F161" t="str">
         <f>角色!$E$13</f>
@@ -23335,18 +23350,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H161" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I161" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J161" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="162" spans="5:10">
       <c r="E162" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="F162" t="str">
         <f>角色!$E$13</f>
@@ -23357,18 +23372,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H162" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I162" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J162" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="163" spans="5:10">
       <c r="E163" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="F163" t="str">
         <f>角色!$E$13</f>
@@ -23379,18 +23394,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H163" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I163" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J163" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="164" spans="5:10">
       <c r="E164" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="F164" t="str">
         <f>角色!$E$13</f>
@@ -23401,18 +23416,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H164" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I164" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J164" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="165" spans="5:10">
       <c r="E165" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="F165" t="str">
         <f>角色!$E$13</f>
@@ -23423,18 +23438,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H165" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I165" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J165" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="166" spans="5:10">
       <c r="E166" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="F166" t="str">
         <f>角色!$E$13</f>
@@ -23445,18 +23460,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H166" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I166" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J166" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="167" spans="5:10">
       <c r="E167" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="F167" t="str">
         <f>角色!$E$13</f>
@@ -23467,18 +23482,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H167" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I167" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J167" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="168" spans="5:10">
       <c r="E168" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="F168" t="str">
         <f>角色!$E$13</f>
@@ -23489,18 +23504,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H168" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I168" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J168" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="169" spans="5:10">
       <c r="E169" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="F169" t="str">
         <f>角色!$E$13</f>
@@ -23511,18 +23526,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H169" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I169" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J169" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="170" spans="5:10">
       <c r="E170" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="F170" t="str">
         <f>角色!$E$13</f>
@@ -23533,18 +23548,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H170" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I170" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J170" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="171" spans="5:10">
       <c r="E171" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="F171" t="str">
         <f>角色!$E$13</f>
@@ -23555,18 +23570,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H171" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I171" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J171" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="172" spans="5:10">
       <c r="E172" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="F172" t="str">
         <f>角色!$E$13</f>
@@ -23577,18 +23592,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H172" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I172" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J172" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="173" spans="5:10">
       <c r="E173" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="F173" t="str">
         <f>角色!$E$13</f>
@@ -23599,18 +23614,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H173" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="I173" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J173" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="174" spans="5:10">
       <c r="E174" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="F174" t="str">
         <f>角色!$E$13</f>
@@ -23621,18 +23636,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H174" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="I174" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J174" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="175" spans="5:10">
       <c r="E175" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="F175" t="str">
         <f>角色!$E$13</f>
@@ -23643,18 +23658,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H175" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="I175" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J175" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="176" spans="5:10">
       <c r="E176" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="F176" t="str">
         <f>角色!$E$13</f>
@@ -23665,18 +23680,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H176" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I176" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J176" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="177" spans="5:10">
       <c r="E177" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="F177" t="str">
         <f>角色!$E$13</f>
@@ -23687,18 +23702,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H177" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I177" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J177" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="178" spans="5:10">
       <c r="E178" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="F178" t="str">
         <f>角色!$E$13</f>
@@ -23709,18 +23724,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H178" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I178" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J178" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="179" spans="5:10">
       <c r="E179" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="F179" t="str">
         <f>角色!$E$13</f>
@@ -23731,18 +23746,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H179" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I179" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J179" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="180" spans="5:10">
       <c r="E180" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="F180" t="str">
         <f>角色!$E$13</f>
@@ -23753,18 +23768,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H180" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I180" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J180" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="181" spans="5:10">
       <c r="E181" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="F181" t="str">
         <f>角色!$E$13</f>
@@ -23775,18 +23790,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H181" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I181" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J181" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="182" spans="5:10">
       <c r="E182" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="F182" t="str">
         <f>角色!$E$10</f>
@@ -23797,18 +23812,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H182" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I182" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J182" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="183" spans="5:10">
       <c r="E183" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="F183" t="str">
         <f>角色!$E$12</f>
@@ -23819,18 +23834,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H183" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I183" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J183" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="184" spans="5:10">
       <c r="E184" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="F184" t="str">
         <f>角色!$E$13</f>
@@ -23841,13 +23856,13 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H184" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="I184" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="J184" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
   </sheetData>
@@ -23865,7 +23880,7 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="20.3333333333333" customWidth="1"/>
@@ -23904,66 +23919,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="H7" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="I7" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="J7" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="K7" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="L7" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="M7" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="N7" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="O7" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="F8" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="G8" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J8" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="K8" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -23977,22 +23992,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="F9" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="G9" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="J9" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -24006,25 +24021,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="F10" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="G10" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J10" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="K10" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -24038,25 +24053,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F11" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="G11" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J11" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="K11" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -24070,25 +24085,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="F12" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="G12" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J12" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="K12" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -24102,25 +24117,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="F13" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="G13" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J13" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="K13" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -24134,25 +24149,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="F14" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="G14" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J14" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="K14" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -24166,25 +24181,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="F15" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="G15" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J15" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="K15" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -24198,25 +24213,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="F16" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="G16" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J16" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="K16" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -24230,25 +24245,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="F17" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="G17" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J17" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="K17" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -24262,25 +24277,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="F18" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="G18" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J18" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="K18" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -24294,25 +24309,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="F19" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="G19" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="J19" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="K19" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -24332,33 +24347,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="I21" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F22" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -24369,15 +24384,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F23" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -24388,15 +24403,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F24" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -24407,15 +24422,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F25" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -24426,15 +24441,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F26" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -24445,15 +24460,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F27" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -24464,15 +24479,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F28" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -24483,15 +24498,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F29" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -24502,15 +24517,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F30" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -24521,15 +24536,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F31" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -24540,15 +24555,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F32" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -24559,15 +24574,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F33" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -24578,15 +24593,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F34" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -24597,15 +24612,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F35" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -24616,7 +24631,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3688" uniqueCount="1461">
   <si>
     <r>
       <rPr>
@@ -5056,6 +5056,18 @@
     <t>agile-service.encryption.startArt</t>
   </si>
   <si>
+    <t>iam_menu_permission-502</t>
+  </si>
+  <si>
+    <t>devops-service.issue.getMergeRequestsByIssueId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-503</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.queryUrl</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -6115,9 +6127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -6189,13 +6201,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6204,15 +6209,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6241,7 +6238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6256,14 +6253,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6294,7 +6306,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6303,6 +6322,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6319,21 +6346,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6415,7 +6427,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6433,115 +6517,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6559,7 +6541,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6571,31 +6607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6702,31 +6714,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -6759,8 +6756,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6775,175 +6811,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7413,22 +7425,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5571428571429" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.3357142857143" style="7" customWidth="1"/>
+    <col min="3" max="3" width="28.1142857142857" customWidth="1"/>
+    <col min="4" max="4" width="35.3357142857143" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
+    <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
+    <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5571428571429" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.1142857142857" customWidth="1"/>
+    <col min="12" max="12" width="18.5571428571429" customWidth="1"/>
+    <col min="13" max="13" width="13.1142857142857" customWidth="1"/>
+    <col min="14" max="1025" width="10.3357142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -7442,7 +7454,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="11"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -7456,7 +7468,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
@@ -7477,7 +7489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
@@ -7497,7 +7509,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="49.5" spans="3:6">
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
@@ -7511,7 +7523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="49.5" spans="3:5">
       <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
@@ -7522,7 +7534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="66" spans="3:5">
       <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
@@ -7554,7 +7566,7 @@
       <c r="D14" s="22"/>
       <c r="E14" s="23"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="33" spans="3:5">
       <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
@@ -7577,7 +7589,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
@@ -7585,7 +7597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
@@ -7593,7 +7605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
@@ -7601,7 +7613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
@@ -7627,7 +7639,7 @@
       </c>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="49.5" spans="3:3">
       <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
@@ -7653,16 +7665,16 @@
   <sheetPr/>
   <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="14.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="70.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="15.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="14.8857142857143" customWidth="1"/>
+    <col min="6" max="6" width="70.6642857142857" customWidth="1"/>
+    <col min="7" max="7" width="29.1142857142857" customWidth="1"/>
+    <col min="11" max="11" width="15.2214285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11992,14 +12004,15 @@
   <sheetPr/>
   <dimension ref="A1:G378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="F374" sqref="F374"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="F380" sqref="F380"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="28.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="29.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="28.8857142857143" customWidth="1"/>
+    <col min="6" max="6" width="29.1142857142857" customWidth="1"/>
+    <col min="7" max="7" width="42.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -16478,11 +16491,29 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="377" spans="5:5">
-      <c r="E377" s="5"/>
-    </row>
-    <row r="378" spans="5:5">
-      <c r="E378" s="5"/>
+    <row r="377" spans="5:7">
+      <c r="E377" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F377" t="str">
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-32</v>
+      </c>
+      <c r="G377" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="378" spans="5:7">
+      <c r="E378" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F378" t="str">
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-32</v>
+      </c>
+      <c r="G378" t="s">
+        <v>1109</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16499,10 +16530,10 @@
       <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="7" max="7" width="27.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="18.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="27.1142857142857" customWidth="1"/>
+    <col min="8" max="8" width="18.1142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -16538,66 +16569,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="H7" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="I7" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="J7" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="K7" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="L7" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="M7" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="N7" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="O7" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="F8" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="G8" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J8" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="K8" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -16611,25 +16642,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="F9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G9" t="s">
         <v>1124</v>
       </c>
-      <c r="G9" t="s">
-        <v>1120</v>
-      </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J9" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="K9" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -16643,19 +16674,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="F10" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="G10" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -16669,19 +16700,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="F11" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="G11" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -16695,25 +16726,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="F12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s">
         <v>1132</v>
       </c>
-      <c r="G12" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1128</v>
-      </c>
       <c r="J12" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="K12" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -16727,22 +16758,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="F13" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="G13" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J13" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -16756,22 +16787,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="F14" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="G14" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J14" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -16785,22 +16816,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="F15" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="G15" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J15" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -16814,22 +16845,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="F16" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="G16" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J16" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -16843,25 +16874,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="F17" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="G17" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J17" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="K17" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -16875,25 +16906,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="F18" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="G18" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J18" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="K18" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -16907,25 +16938,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="F19" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="G19" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J19" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="K19" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -16939,19 +16970,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="F20" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="G20" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -16965,25 +16996,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="F21" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="G21" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="J21" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="K21" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -16997,25 +17028,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="F22" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="G22" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="J22" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="K22" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -17029,25 +17060,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="F23" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="G23" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="J23" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="K23" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -17061,19 +17092,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
       <c r="F24" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="G24" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -17087,22 +17118,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="F25" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="G25" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="J25" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -17116,22 +17147,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="F26" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="G26" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="J26" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -17151,33 +17182,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="I28" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F29" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -17188,15 +17219,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F30" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -17207,15 +17238,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I30" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F31" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -17226,15 +17257,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I31" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F32" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -17245,15 +17276,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I32" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F33" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17264,15 +17295,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F34" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17283,15 +17314,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I34" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F35" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17302,15 +17333,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I35" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F36" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17321,15 +17352,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I36" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F37" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17340,15 +17371,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I37" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F38" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17359,15 +17390,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I38" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F39" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17378,15 +17409,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I39" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F40" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -17397,15 +17428,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I40" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F41" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -17416,15 +17447,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I41" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F42" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -17435,15 +17466,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I42" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F43" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -17454,15 +17485,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I43" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F44" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -17473,15 +17504,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I44" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F45" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -17492,15 +17523,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I45" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F46" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -17511,15 +17542,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I46" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F47" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17530,15 +17561,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I47" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F48" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17549,15 +17580,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I48" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F49" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17568,15 +17599,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I49" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F50" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17587,15 +17618,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I50" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F51" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17606,15 +17637,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I51" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F52" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17625,15 +17656,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I52" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F53" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17644,15 +17675,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I53" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F54" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -17663,15 +17694,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I54" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F55" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -17682,15 +17713,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I55" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F56" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -17701,15 +17732,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I56" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F57" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -17720,15 +17751,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I57" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F58" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -17739,15 +17770,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I58" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F59" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -17758,15 +17789,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I59" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F60" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -17777,15 +17808,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I60" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F61" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17796,15 +17827,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I61" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F62" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17815,15 +17846,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I62" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F63" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17834,15 +17865,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I63" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F64" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17853,15 +17884,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I64" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F65" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17872,15 +17903,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I65" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F66" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17891,15 +17922,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I66" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F67" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17910,15 +17941,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I67" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F68" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17929,15 +17960,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I68" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F69" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -17948,15 +17979,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I69" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="70" spans="5:9">
       <c r="E70" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F70" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G70" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -17967,15 +17998,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I70" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="71" spans="5:9">
       <c r="E71" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F71" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G71" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -17986,15 +18017,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I71" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="72" spans="5:9">
       <c r="E72" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F72" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G72" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -18005,15 +18036,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I72" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F73" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G73" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -18024,15 +18055,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I73" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="74" spans="5:9">
       <c r="E74" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F74" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G74" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -18043,15 +18074,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I74" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F75" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G75" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -18062,15 +18093,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I75" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F76" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G76" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -18081,15 +18112,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I76" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="77" spans="5:9">
       <c r="E77" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F77" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G77" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -18100,15 +18131,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I77" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="78" spans="5:9">
       <c r="E78" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F78" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G78" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -18119,15 +18150,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I78" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="79" spans="5:9">
       <c r="E79" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F79" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G79" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -18138,15 +18169,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I79" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="80" spans="5:9">
       <c r="E80" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F80" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G80" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -18157,15 +18188,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I80" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="81" spans="5:9">
       <c r="E81" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F81" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G81" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -18176,15 +18207,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I81" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="82" spans="5:9">
       <c r="E82" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F82" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G82" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -18195,15 +18226,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I82" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="83" spans="5:9">
       <c r="E83" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F83" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G83" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -18214,15 +18245,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I83" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="84" spans="5:9">
       <c r="E84" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F84" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G84" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -18233,15 +18264,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I84" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="85" spans="5:9">
       <c r="E85" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F85" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G85" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -18252,15 +18283,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I85" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="86" spans="5:9">
       <c r="E86" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F86" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G86" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -18271,15 +18302,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I86" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="87" spans="5:9">
       <c r="E87" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F87" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G87" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -18290,15 +18321,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I87" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="88" spans="5:9">
       <c r="E88" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F88" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G88" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -18309,15 +18340,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I88" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="89" spans="5:9">
       <c r="E89" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F89" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G89" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -18328,15 +18359,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I89" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="90" spans="5:9">
       <c r="E90" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F90" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G90" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -18347,15 +18378,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I90" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="91" spans="5:9">
       <c r="E91" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F91" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G91" t="str">
         <f>菜单SAAS版!$E$19</f>
@@ -18366,15 +18397,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I91" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="92" spans="5:9">
       <c r="E92" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F92" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G92" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -18385,15 +18416,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I92" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="93" spans="5:9">
       <c r="E93" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F93" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G93" t="str">
         <f>菜单SAAS版!$E$22</f>
@@ -18404,15 +18435,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I93" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="94" spans="5:9">
       <c r="E94" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F94" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G94" t="str">
         <f>菜单SAAS版!$E$20</f>
@@ -18423,15 +18454,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I94" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="95" spans="5:9">
       <c r="E95" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F95" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G95" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -18442,15 +18473,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I95" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="96" spans="5:9">
       <c r="E96" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F96" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G96" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -18461,15 +18492,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I96" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="97" spans="5:9">
       <c r="E97" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F97" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G97" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -18480,15 +18511,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I97" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="98" spans="5:9">
       <c r="E98" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F98" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G98" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -18499,15 +18530,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I98" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="99" spans="5:9">
       <c r="E99" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F99" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G99" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -18518,15 +18549,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I99" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="100" spans="5:9">
       <c r="E100" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F100" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G100" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -18537,15 +18568,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I100" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="101" spans="5:9">
       <c r="E101" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F101" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G101" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -18556,15 +18587,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I101" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="102" spans="5:9">
       <c r="E102" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F102" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G102" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -18575,15 +18606,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I102" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="103" spans="5:9">
       <c r="E103" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F103" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G103" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -18594,15 +18625,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I103" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="104" spans="5:9">
       <c r="E104" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F104" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G104" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -18613,15 +18644,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I104" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="105" spans="5:9">
       <c r="E105" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F105" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G105" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -18632,15 +18663,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I105" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="106" spans="5:9">
       <c r="E106" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F106" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G106" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -18651,15 +18682,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I106" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="107" spans="5:9">
       <c r="E107" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F107" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G107" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -18670,15 +18701,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I107" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="108" spans="5:9">
       <c r="E108" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F108" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G108" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -18689,15 +18720,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I108" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="109" spans="5:9">
       <c r="E109" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F109" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G109" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -18708,15 +18739,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I109" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="110" spans="5:9">
       <c r="E110" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F110" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G110" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -18727,15 +18758,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I110" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="111" spans="5:9">
       <c r="E111" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F111" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G111" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -18746,15 +18777,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I111" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="112" spans="5:9">
       <c r="E112" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F112" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G112" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -18765,15 +18796,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I112" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="113" spans="5:9">
       <c r="E113" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F113" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G113" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -18784,15 +18815,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I113" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="114" spans="5:9">
       <c r="E114" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F114" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G114" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -18803,15 +18834,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I114" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="115" spans="5:9">
       <c r="E115" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F115" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G115" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -18822,15 +18853,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I115" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="116" spans="5:9">
       <c r="E116" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F116" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G116" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -18841,15 +18872,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I116" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="117" spans="5:9">
       <c r="E117" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F117" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G117" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -18860,15 +18891,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I117" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="118" spans="5:9">
       <c r="E118" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F118" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G118" t="str">
         <f>菜单SAAS版!$E$80</f>
@@ -18879,15 +18910,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I118" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="119" spans="5:9">
       <c r="E119" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F119" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G119" t="str">
         <f>菜单SAAS版!$E$80</f>
@@ -18898,15 +18929,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I119" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="120" spans="5:9">
       <c r="E120" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F120" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G120" t="str">
         <f>菜单SAAS版!$E$77</f>
@@ -18917,15 +18948,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I120" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="121" spans="5:9">
       <c r="E121" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F121" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G121" t="str">
         <f>菜单SAAS版!$E$77</f>
@@ -18936,15 +18967,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I121" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="122" spans="5:9">
       <c r="E122" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F122" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G122" t="str">
         <f>菜单SAAS版!$E$83</f>
@@ -18955,15 +18986,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I122" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="123" spans="5:9">
       <c r="E123" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F123" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G123" t="str">
         <f>菜单SAAS版!$E$83</f>
@@ -18974,15 +19005,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I123" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="124" spans="5:9">
       <c r="E124" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F124" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G124" t="str">
         <f>菜单SAAS版!$E$84</f>
@@ -18993,15 +19024,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I124" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="125" spans="5:9">
       <c r="E125" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F125" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G125" t="str">
         <f>菜单SAAS版!$E$84</f>
@@ -19012,15 +19043,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I125" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="126" spans="5:9">
       <c r="E126" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F126" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G126" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -19031,15 +19062,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I126" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="127" spans="5:9">
       <c r="E127" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F127" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G127" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -19050,15 +19081,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I127" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="128" spans="5:9">
       <c r="E128" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F128" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G128" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -19069,15 +19100,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I128" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="129" spans="5:9">
       <c r="E129" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F129" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G129" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -19088,15 +19119,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I129" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="130" spans="5:9">
       <c r="E130" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F130" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G130" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -19107,15 +19138,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I130" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="131" spans="5:9">
       <c r="E131" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F131" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G131" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -19126,15 +19157,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I131" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="132" spans="5:9">
       <c r="E132" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F132" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G132" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -19145,15 +19176,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I132" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="133" spans="5:9">
       <c r="E133" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F133" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G133" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -19164,15 +19195,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I133" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="134" spans="5:9">
       <c r="E134" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F134" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G134" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -19183,15 +19214,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I134" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="135" spans="5:9">
       <c r="E135" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F135" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G135" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -19202,15 +19233,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I135" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="136" spans="5:9">
       <c r="E136" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F136" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G136" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -19221,15 +19252,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I136" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="137" spans="5:9">
       <c r="E137" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F137" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G137" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -19240,15 +19271,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I137" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="138" spans="5:9">
       <c r="E138" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F138" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G138" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -19259,15 +19290,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I138" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="139" spans="5:9">
       <c r="E139" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F139" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G139" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -19278,15 +19309,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I139" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="140" spans="5:9">
       <c r="E140" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F140" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G140" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -19297,15 +19328,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I140" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="141" spans="5:9">
       <c r="E141" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F141" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G141" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -19316,15 +19347,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I141" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="142" spans="5:9">
       <c r="E142" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F142" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G142" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -19335,15 +19366,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I142" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="143" spans="5:9">
       <c r="E143" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F143" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G143" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -19354,15 +19385,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I143" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="144" spans="5:9">
       <c r="E144" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F144" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G144" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -19373,15 +19404,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I144" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="145" spans="5:9">
       <c r="E145" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F145" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G145" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -19392,15 +19423,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I145" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="146" spans="5:9">
       <c r="E146" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F146" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G146" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -19411,15 +19442,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I146" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="147" spans="5:9">
       <c r="E147" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F147" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G147" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -19430,15 +19461,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I147" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="148" spans="5:9">
       <c r="E148" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F148" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G148" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -19449,15 +19480,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I148" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="149" spans="5:9">
       <c r="E149" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F149" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G149" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -19468,15 +19499,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I149" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="150" spans="5:9">
       <c r="E150" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F150" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G150" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -19487,15 +19518,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I150" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="151" spans="5:9">
       <c r="E151" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F151" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G151" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -19506,15 +19537,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I151" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="152" spans="5:9">
       <c r="E152" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F152" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G152" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -19525,15 +19556,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I152" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="153" spans="5:9">
       <c r="E153" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F153" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G153" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -19544,15 +19575,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I153" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="154" spans="5:9">
       <c r="E154" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F154" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G154" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -19563,15 +19594,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I154" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="155" spans="5:9">
       <c r="E155" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F155" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="G155" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -19582,7 +19613,7 @@
         <v>iam_label-21</v>
       </c>
       <c r="I155" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
@@ -19600,11 +19631,11 @@
       <selection activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="28.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="22.3357142857143" customWidth="1"/>
+    <col min="6" max="6" width="14.4428571428571" customWidth="1"/>
+    <col min="7" max="7" width="28.5571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -19640,10 +19671,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -19658,75 +19689,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
       <c r="J7" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="O7" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="P7" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="Q7" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="R7" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="S7" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="T7" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="X7" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
       <c r="Y7" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="F8" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="G8" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="H8" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="I8" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="J8" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -19759,10 +19790,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="V8" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -19770,19 +19801,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="F9" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
       <c r="G9" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="H9" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="I9" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -19818,10 +19849,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="V9" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -19829,16 +19860,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
       <c r="F10" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="G10" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
       <c r="H10" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -19875,33 +19906,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="V10" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="Y10" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="F11" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="G11" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
       <c r="H11" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -19938,33 +19969,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="V11" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="Y11" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
       <c r="F12" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="G12" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="H12" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -20001,33 +20032,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
       <c r="V12" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
       <c r="Y12" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="F13" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="G13" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
       <c r="H13" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -20064,36 +20095,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="V13" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="Y13" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="14" spans="5:24">
       <c r="E14" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="F14" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="G14" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="H14" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
       <c r="J14" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -20127,10 +20158,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="V14" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -20145,33 +20176,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
       <c r="H16" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="I16" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -20182,18 +20213,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H17" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I17" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J17" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -20204,18 +20235,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H18" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I18" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J18" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -20226,18 +20257,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H19" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I19" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J19" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -20248,18 +20279,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H20" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I20" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J20" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -20270,18 +20301,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H21" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I21" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J21" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -20292,18 +20323,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I22" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J22" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -20314,18 +20345,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H23" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I23" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J23" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>1264</v>
+        <v>1268</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -20336,18 +20367,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H24" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I24" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J24" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -20358,18 +20389,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H25" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I25" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J25" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>1266</v>
+        <v>1270</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -20380,18 +20411,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H26" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I26" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J26" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -20402,18 +20433,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H27" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I27" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J27" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>1268</v>
+        <v>1272</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -20424,18 +20455,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H28" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I28" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J28" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -20446,18 +20477,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H29" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I29" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J29" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>1270</v>
+        <v>1274</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -20468,18 +20499,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H30" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I30" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J30" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>1271</v>
+        <v>1275</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -20490,18 +20521,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H31" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I31" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J31" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>1272</v>
+        <v>1276</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -20512,18 +20543,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H32" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I32" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J32" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>1273</v>
+        <v>1277</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -20534,18 +20565,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H33" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I33" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J33" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -20556,18 +20587,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H34" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I34" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J34" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -20578,18 +20609,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H35" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I35" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J35" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>1276</v>
+        <v>1280</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -20600,18 +20631,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H36" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I36" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J36" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>1277</v>
+        <v>1281</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -20622,18 +20653,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H37" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I37" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J37" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>1278</v>
+        <v>1282</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -20644,18 +20675,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H38" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I38" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J38" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>1279</v>
+        <v>1283</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -20666,18 +20697,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H39" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I39" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J39" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$10</f>
@@ -20688,18 +20719,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H40" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I40" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J40" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$10</f>
@@ -20710,18 +20741,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H41" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I41" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J41" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>1282</v>
+        <v>1286</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$10</f>
@@ -20732,18 +20763,18 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H42" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I42" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J42" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$10</f>
@@ -20754,18 +20785,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H43" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I43" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J43" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>1284</v>
+        <v>1288</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$10</f>
@@ -20776,18 +20807,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H44" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I44" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J44" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>1285</v>
+        <v>1289</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$10</f>
@@ -20798,18 +20829,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H45" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I45" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J45" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>1286</v>
+        <v>1290</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$10</f>
@@ -20820,18 +20851,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H46" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I46" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J46" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>1287</v>
+        <v>1291</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$10</f>
@@ -20842,18 +20873,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H47" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I47" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J47" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>1288</v>
+        <v>1292</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$10</f>
@@ -20864,18 +20895,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H48" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I48" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J48" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>1289</v>
+        <v>1293</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$10</f>
@@ -20886,18 +20917,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H49" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I49" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J49" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>1290</v>
+        <v>1294</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$10</f>
@@ -20908,18 +20939,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H50" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I50" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J50" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>1291</v>
+        <v>1295</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$10</f>
@@ -20930,18 +20961,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H51" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I51" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J51" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>1292</v>
+        <v>1296</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$10</f>
@@ -20952,18 +20983,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H52" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I52" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J52" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$10</f>
@@ -20974,18 +21005,18 @@
         <v>iam_menu-61</v>
       </c>
       <c r="H53" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I53" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J53" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>1294</v>
+        <v>1298</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$10</f>
@@ -20996,18 +21027,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H54" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I54" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J54" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>1295</v>
+        <v>1299</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$10</f>
@@ -21018,18 +21049,18 @@
         <v>iam_menu-62</v>
       </c>
       <c r="H55" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I55" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J55" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>1296</v>
+        <v>1300</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$10</f>
@@ -21040,18 +21071,18 @@
         <v>iam_menu-67</v>
       </c>
       <c r="H56" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I56" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J56" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>1297</v>
+        <v>1301</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$10</f>
@@ -21062,18 +21093,18 @@
         <v>iam_menu-69</v>
       </c>
       <c r="H57" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I57" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J57" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$10</f>
@@ -21084,18 +21115,18 @@
         <v>iam_menu-68</v>
       </c>
       <c r="H58" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I58" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J58" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>1299</v>
+        <v>1303</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$10</f>
@@ -21106,18 +21137,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H59" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I59" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J59" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>1300</v>
+        <v>1304</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$10</f>
@@ -21128,18 +21159,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H60" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I60" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J60" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>1301</v>
+        <v>1305</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$10</f>
@@ -21150,18 +21181,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H61" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I61" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J61" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>1302</v>
+        <v>1306</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$10</f>
@@ -21172,18 +21203,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H62" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I62" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J62" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>1303</v>
+        <v>1307</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$10</f>
@@ -21194,18 +21225,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H63" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I63" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J63" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>1304</v>
+        <v>1308</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$10</f>
@@ -21216,18 +21247,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H64" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I64" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J64" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$10</f>
@@ -21238,18 +21269,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H65" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I65" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J65" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>1306</v>
+        <v>1310</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$10</f>
@@ -21260,18 +21291,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H66" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I66" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J66" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$10</f>
@@ -21282,18 +21313,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H67" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I67" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J67" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$10</f>
@@ -21304,18 +21335,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H68" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I68" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J68" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$10</f>
@@ -21326,18 +21357,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H69" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I69" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J69" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>1310</v>
+        <v>1314</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$10</f>
@@ -21348,18 +21379,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H70" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I70" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J70" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>1311</v>
+        <v>1315</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$10</f>
@@ -21370,18 +21401,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H71" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I71" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J71" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>1312</v>
+        <v>1316</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$10</f>
@@ -21392,18 +21423,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H72" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I72" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J72" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>1313</v>
+        <v>1317</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$10</f>
@@ -21414,18 +21445,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H73" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I73" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J73" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>1314</v>
+        <v>1318</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$10</f>
@@ -21436,18 +21467,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H74" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I74" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J74" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>1315</v>
+        <v>1319</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$10</f>
@@ -21458,18 +21489,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H75" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I75" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J75" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$10</f>
@@ -21480,18 +21511,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H76" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I76" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J76" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$10</f>
@@ -21502,18 +21533,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H77" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I77" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J77" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$10</f>
@@ -21524,18 +21555,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H78" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I78" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J78" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$10</f>
@@ -21546,18 +21577,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H79" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I79" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J79" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$10</f>
@@ -21568,18 +21599,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H80" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I80" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J80" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$10</f>
@@ -21590,18 +21621,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H81" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I81" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J81" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$10</f>
@@ -21612,18 +21643,18 @@
         <v>iam_menu-125</v>
       </c>
       <c r="H82" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I82" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J82" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$10</f>
@@ -21634,18 +21665,18 @@
         <v>iam_menu-128</v>
       </c>
       <c r="H83" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I83" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J83" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$12</f>
@@ -21656,18 +21687,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H84" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I84" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J84" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$12</f>
@@ -21678,18 +21709,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H85" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I85" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J85" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="86" spans="5:10">
       <c r="E86" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="F86" t="str">
         <f>角色!$E$12</f>
@@ -21700,18 +21731,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H86" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I86" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J86" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="87" spans="5:10">
       <c r="E87" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="F87" t="str">
         <f>角色!$E$12</f>
@@ -21722,18 +21753,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H87" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I87" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J87" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="88" spans="5:10">
       <c r="E88" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="F88" t="str">
         <f>角色!$E$12</f>
@@ -21744,18 +21775,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H88" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I88" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J88" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="89" spans="5:10">
       <c r="E89" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="F89" t="str">
         <f>角色!$E$12</f>
@@ -21766,18 +21797,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H89" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I89" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J89" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="90" spans="5:10">
       <c r="E90" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="F90" t="str">
         <f>角色!$E$12</f>
@@ -21788,18 +21819,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H90" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I90" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J90" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="91" spans="5:10">
       <c r="E91" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="F91" t="str">
         <f>角色!$E$12</f>
@@ -21810,18 +21841,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H91" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I91" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J91" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="92" spans="5:10">
       <c r="E92" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="F92" t="str">
         <f>角色!$E$12</f>
@@ -21832,18 +21863,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H92" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I92" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J92" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="93" spans="5:10">
       <c r="E93" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="F93" t="str">
         <f>角色!$E$12</f>
@@ -21854,18 +21885,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H93" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I93" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J93" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="94" spans="5:10">
       <c r="E94" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="F94" t="str">
         <f>角色!$E$12</f>
@@ -21876,18 +21907,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H94" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I94" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J94" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="95" spans="5:10">
       <c r="E95" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="F95" t="str">
         <f>角色!$E$12</f>
@@ -21898,18 +21929,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H95" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I95" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J95" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="96" spans="5:10">
       <c r="E96" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="F96" t="str">
         <f>角色!$E$12</f>
@@ -21920,18 +21951,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H96" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I96" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J96" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="97" spans="5:10">
       <c r="E97" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="F97" t="str">
         <f>角色!$E$12</f>
@@ -21942,18 +21973,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H97" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I97" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J97" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="98" spans="5:10">
       <c r="E98" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="F98" t="str">
         <f>角色!$E$12</f>
@@ -21964,18 +21995,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H98" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I98" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J98" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="99" spans="5:10">
       <c r="E99" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="F99" t="str">
         <f>角色!$E$12</f>
@@ -21986,18 +22017,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H99" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I99" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J99" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="100" spans="5:10">
       <c r="E100" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="F100" t="str">
         <f>角色!$E$12</f>
@@ -22008,18 +22039,18 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H100" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I100" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J100" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="101" spans="5:10">
       <c r="E101" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="F101" t="str">
         <f>角色!$E$12</f>
@@ -22030,18 +22061,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H101" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I101" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J101" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="102" spans="5:10">
       <c r="E102" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="F102" t="str">
         <f>角色!$E$12</f>
@@ -22052,18 +22083,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H102" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I102" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J102" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="103" spans="5:10">
       <c r="E103" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="F103" t="str">
         <f>角色!$E$12</f>
@@ -22074,18 +22105,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H103" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I103" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J103" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="104" spans="5:10">
       <c r="E104" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="F104" t="str">
         <f>角色!$E$12</f>
@@ -22096,18 +22127,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H104" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I104" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J104" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="105" spans="5:10">
       <c r="E105" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="F105" t="str">
         <f>角色!$E$12</f>
@@ -22118,18 +22149,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H105" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I105" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J105" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="106" spans="5:10">
       <c r="E106" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="F106" t="str">
         <f>角色!$E$12</f>
@@ -22140,18 +22171,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H106" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I106" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J106" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="107" spans="5:10">
       <c r="E107" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="F107" t="str">
         <f>角色!$E$12</f>
@@ -22162,18 +22193,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H107" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I107" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J107" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="108" spans="5:10">
       <c r="E108" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="F108" t="str">
         <f>角色!$E$12</f>
@@ -22184,18 +22215,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H108" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I108" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J108" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="109" spans="5:10">
       <c r="E109" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="F109" t="str">
         <f>角色!$E$12</f>
@@ -22206,18 +22237,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H109" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I109" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J109" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="110" spans="5:10">
       <c r="E110" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="F110" t="str">
         <f>角色!$E$12</f>
@@ -22228,18 +22259,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H110" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I110" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J110" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="111" spans="5:10">
       <c r="E111" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="F111" t="str">
         <f>角色!$E$12</f>
@@ -22250,18 +22281,18 @@
         <v>iam_menu-61</v>
       </c>
       <c r="H111" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I111" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J111" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="112" spans="5:10">
       <c r="E112" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="F112" t="str">
         <f>角色!$E$12</f>
@@ -22272,18 +22303,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H112" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I112" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J112" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="113" spans="5:10">
       <c r="E113" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="F113" t="str">
         <f>角色!$E$12</f>
@@ -22294,18 +22325,18 @@
         <v>iam_menu-62</v>
       </c>
       <c r="H113" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I113" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J113" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="114" spans="5:10">
       <c r="E114" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="F114" t="str">
         <f>角色!$E$12</f>
@@ -22316,18 +22347,18 @@
         <v>iam_menu-67</v>
       </c>
       <c r="H114" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I114" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J114" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="115" spans="5:10">
       <c r="E115" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="F115" t="str">
         <f>角色!$E$12</f>
@@ -22338,18 +22369,18 @@
         <v>iam_menu-69</v>
       </c>
       <c r="H115" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I115" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J115" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="116" spans="5:10">
       <c r="E116" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="F116" t="str">
         <f>角色!$E$12</f>
@@ -22360,18 +22391,18 @@
         <v>iam_menu-68</v>
       </c>
       <c r="H116" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I116" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J116" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="117" spans="5:10">
       <c r="E117" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="F117" t="str">
         <f>角色!$E$12</f>
@@ -22382,18 +22413,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H117" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I117" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J117" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="118" spans="5:10">
       <c r="E118" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="F118" t="str">
         <f>角色!$E$12</f>
@@ -22404,18 +22435,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H118" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I118" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J118" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="119" spans="5:10">
       <c r="E119" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="F119" t="str">
         <f>角色!$E$12</f>
@@ -22426,18 +22457,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H119" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I119" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J119" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="120" spans="5:10">
       <c r="E120" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="F120" t="str">
         <f>角色!$E$12</f>
@@ -22448,18 +22479,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H120" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I120" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J120" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="121" spans="5:10">
       <c r="E121" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="F121" t="str">
         <f>角色!$E$12</f>
@@ -22470,18 +22501,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H121" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I121" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J121" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="122" spans="5:10">
       <c r="E122" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="F122" t="str">
         <f>角色!$E$12</f>
@@ -22492,18 +22523,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H122" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I122" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J122" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="123" spans="5:10">
       <c r="E123" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="F123" t="str">
         <f>角色!$E$12</f>
@@ -22514,18 +22545,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H123" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I123" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J123" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="124" spans="5:10">
       <c r="E124" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="F124" t="str">
         <f>角色!$E$12</f>
@@ -22536,18 +22567,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H124" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I124" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J124" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="125" spans="5:10">
       <c r="E125" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="F125" t="str">
         <f>角色!$E$12</f>
@@ -22558,18 +22589,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H125" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I125" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J125" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="126" spans="5:10">
       <c r="E126" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="F126" t="str">
         <f>角色!$E$12</f>
@@ -22580,18 +22611,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H126" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I126" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J126" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="127" spans="5:10">
       <c r="E127" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="F127" t="str">
         <f>角色!$E$12</f>
@@ -22602,18 +22633,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H127" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I127" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J127" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="128" spans="5:10">
       <c r="E128" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="F128" t="str">
         <f>角色!$E$12</f>
@@ -22624,18 +22655,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H128" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I128" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J128" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="129" spans="5:10">
       <c r="E129" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="F129" t="str">
         <f>角色!$E$12</f>
@@ -22646,18 +22677,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H129" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I129" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J129" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="130" spans="5:10">
       <c r="E130" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="F130" t="str">
         <f>角色!$E$12</f>
@@ -22668,18 +22699,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H130" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I130" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J130" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="131" spans="5:10">
       <c r="E131" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="F131" t="str">
         <f>角色!$E$12</f>
@@ -22690,18 +22721,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H131" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I131" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J131" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="132" spans="5:10">
       <c r="E132" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="F132" t="str">
         <f>角色!$E$12</f>
@@ -22712,18 +22743,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H132" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I132" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J132" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="133" spans="5:10">
       <c r="E133" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="F133" t="str">
         <f>角色!$E$12</f>
@@ -22734,18 +22765,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H133" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I133" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J133" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="134" spans="5:10">
       <c r="E134" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="F134" t="str">
         <f>角色!$E$12</f>
@@ -22756,18 +22787,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H134" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I134" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J134" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="135" spans="5:10">
       <c r="E135" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="F135" t="str">
         <f>角色!$E$12</f>
@@ -22778,18 +22809,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H135" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I135" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J135" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="136" spans="5:10">
       <c r="E136" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="F136" t="str">
         <f>角色!$E$12</f>
@@ -22800,18 +22831,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H136" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I136" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J136" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="137" spans="5:10">
       <c r="E137" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="F137" t="str">
         <f>角色!$E$12</f>
@@ -22822,18 +22853,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H137" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I137" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J137" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="138" spans="5:10">
       <c r="E138" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="F138" t="str">
         <f>角色!$E$12</f>
@@ -22844,18 +22875,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H138" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I138" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J138" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="139" spans="5:10">
       <c r="E139" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="F139" t="str">
         <f>角色!$E$12</f>
@@ -22866,18 +22897,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H139" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I139" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J139" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="140" spans="5:10">
       <c r="E140" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="F140" t="str">
         <f>角色!$E$12</f>
@@ -22888,18 +22919,18 @@
         <v>iam_menu-125</v>
       </c>
       <c r="H140" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I140" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J140" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="141" spans="5:10">
       <c r="E141" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="F141" t="str">
         <f>角色!$E$12</f>
@@ -22910,18 +22941,18 @@
         <v>iam_menu-128</v>
       </c>
       <c r="H141" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I141" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J141" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="142" spans="5:10">
       <c r="E142" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="F142" t="str">
         <f>角色!$E$13</f>
@@ -22932,18 +22963,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H142" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I142" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J142" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="143" spans="5:10">
       <c r="E143" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="F143" t="str">
         <f>角色!$E$13</f>
@@ -22954,18 +22985,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H143" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I143" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J143" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="144" spans="5:10">
       <c r="E144" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="F144" t="str">
         <f>角色!$E$13</f>
@@ -22976,18 +23007,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H144" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I144" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J144" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="145" spans="5:10">
       <c r="E145" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="F145" t="str">
         <f>角色!$E$13</f>
@@ -22998,18 +23029,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H145" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I145" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J145" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="146" spans="5:10">
       <c r="E146" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="F146" t="str">
         <f>角色!$E$13</f>
@@ -23020,18 +23051,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H146" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I146" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J146" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="147" spans="5:10">
       <c r="E147" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="F147" t="str">
         <f>角色!$E$13</f>
@@ -23042,18 +23073,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H147" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I147" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J147" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="148" spans="5:10">
       <c r="E148" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="F148" t="str">
         <f>角色!$E$13</f>
@@ -23064,18 +23095,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H148" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I148" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J148" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="149" spans="5:10">
       <c r="E149" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="F149" t="str">
         <f>角色!$E$13</f>
@@ -23086,18 +23117,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H149" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="I149" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J149" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="150" spans="5:10">
       <c r="E150" t="s">
-        <v>1391</v>
+        <v>1395</v>
       </c>
       <c r="F150" t="str">
         <f>角色!$E$13</f>
@@ -23108,18 +23139,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H150" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="I150" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J150" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="151" spans="5:10">
       <c r="E151" t="s">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="F151" t="str">
         <f>角色!$E$13</f>
@@ -23130,18 +23161,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H151" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="I151" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J151" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="152" spans="5:10">
       <c r="E152" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="F152" t="str">
         <f>角色!$E$13</f>
@@ -23152,18 +23183,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H152" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="I152" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J152" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="153" spans="5:10">
       <c r="E153" t="s">
-        <v>1394</v>
+        <v>1398</v>
       </c>
       <c r="F153" t="str">
         <f>角色!$E$13</f>
@@ -23174,18 +23205,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H153" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="I153" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J153" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="154" spans="5:10">
       <c r="E154" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="F154" t="str">
         <f>角色!$E$13</f>
@@ -23196,18 +23227,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H154" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="I154" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J154" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="155" spans="5:10">
       <c r="E155" t="s">
-        <v>1396</v>
+        <v>1400</v>
       </c>
       <c r="F155" t="str">
         <f>角色!$E$13</f>
@@ -23218,18 +23249,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H155" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="I155" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J155" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="156" spans="5:10">
       <c r="E156" t="s">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="F156" t="str">
         <f>角色!$E$13</f>
@@ -23240,18 +23271,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H156" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I156" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J156" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="157" spans="5:10">
       <c r="E157" t="s">
-        <v>1398</v>
+        <v>1402</v>
       </c>
       <c r="F157" t="str">
         <f>角色!$E$13</f>
@@ -23262,18 +23293,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H157" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I157" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J157" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="158" spans="5:10">
       <c r="E158" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="F158" t="str">
         <f>角色!$E$13</f>
@@ -23284,18 +23315,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H158" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I158" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J158" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="159" spans="5:10">
       <c r="E159" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="F159" t="str">
         <f>角色!$E$13</f>
@@ -23306,18 +23337,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H159" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I159" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J159" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="160" spans="5:10">
       <c r="E160" t="s">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="F160" t="str">
         <f>角色!$E$13</f>
@@ -23328,18 +23359,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H160" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I160" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J160" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="161" spans="5:10">
       <c r="E161" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="F161" t="str">
         <f>角色!$E$13</f>
@@ -23350,18 +23381,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H161" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I161" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J161" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="162" spans="5:10">
       <c r="E162" t="s">
-        <v>1403</v>
+        <v>1407</v>
       </c>
       <c r="F162" t="str">
         <f>角色!$E$13</f>
@@ -23372,18 +23403,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H162" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I162" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J162" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="163" spans="5:10">
       <c r="E163" t="s">
-        <v>1404</v>
+        <v>1408</v>
       </c>
       <c r="F163" t="str">
         <f>角色!$E$13</f>
@@ -23394,18 +23425,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H163" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I163" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J163" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="164" spans="5:10">
       <c r="E164" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="F164" t="str">
         <f>角色!$E$13</f>
@@ -23416,18 +23447,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H164" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I164" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J164" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="165" spans="5:10">
       <c r="E165" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="F165" t="str">
         <f>角色!$E$13</f>
@@ -23438,18 +23469,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H165" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I165" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J165" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="166" spans="5:10">
       <c r="E166" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="F166" t="str">
         <f>角色!$E$13</f>
@@ -23460,18 +23491,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H166" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I166" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J166" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="167" spans="5:10">
       <c r="E167" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="F167" t="str">
         <f>角色!$E$13</f>
@@ -23482,18 +23513,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H167" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I167" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J167" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="168" spans="5:10">
       <c r="E168" t="s">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="F168" t="str">
         <f>角色!$E$13</f>
@@ -23504,18 +23535,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H168" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I168" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J168" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="169" spans="5:10">
       <c r="E169" t="s">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="F169" t="str">
         <f>角色!$E$13</f>
@@ -23526,18 +23557,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H169" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I169" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J169" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="170" spans="5:10">
       <c r="E170" t="s">
-        <v>1411</v>
+        <v>1415</v>
       </c>
       <c r="F170" t="str">
         <f>角色!$E$13</f>
@@ -23548,18 +23579,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H170" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I170" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J170" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="171" spans="5:10">
       <c r="E171" t="s">
-        <v>1412</v>
+        <v>1416</v>
       </c>
       <c r="F171" t="str">
         <f>角色!$E$13</f>
@@ -23570,18 +23601,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H171" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I171" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J171" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="172" spans="5:10">
       <c r="E172" t="s">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="F172" t="str">
         <f>角色!$E$13</f>
@@ -23592,18 +23623,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H172" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I172" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J172" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="173" spans="5:10">
       <c r="E173" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="F173" t="str">
         <f>角色!$E$13</f>
@@ -23614,18 +23645,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H173" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="I173" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J173" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="174" spans="5:10">
       <c r="E174" t="s">
-        <v>1415</v>
+        <v>1419</v>
       </c>
       <c r="F174" t="str">
         <f>角色!$E$13</f>
@@ -23636,18 +23667,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H174" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="I174" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J174" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="175" spans="5:10">
       <c r="E175" t="s">
-        <v>1416</v>
+        <v>1420</v>
       </c>
       <c r="F175" t="str">
         <f>角色!$E$13</f>
@@ -23658,18 +23689,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H175" t="s">
-        <v>1390</v>
+        <v>1394</v>
       </c>
       <c r="I175" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J175" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="176" spans="5:10">
       <c r="E176" t="s">
-        <v>1417</v>
+        <v>1421</v>
       </c>
       <c r="F176" t="str">
         <f>角色!$E$13</f>
@@ -23680,18 +23711,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H176" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I176" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J176" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="177" spans="5:10">
       <c r="E177" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="F177" t="str">
         <f>角色!$E$13</f>
@@ -23702,18 +23733,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H177" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I177" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J177" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="178" spans="5:10">
       <c r="E178" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="F178" t="str">
         <f>角色!$E$13</f>
@@ -23724,18 +23755,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H178" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I178" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J178" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="179" spans="5:10">
       <c r="E179" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="F179" t="str">
         <f>角色!$E$13</f>
@@ -23746,18 +23777,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H179" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I179" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J179" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="180" spans="5:10">
       <c r="E180" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="F180" t="str">
         <f>角色!$E$13</f>
@@ -23768,18 +23799,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H180" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I180" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J180" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="181" spans="5:10">
       <c r="E181" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="F181" t="str">
         <f>角色!$E$13</f>
@@ -23790,18 +23821,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H181" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I181" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J181" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="182" spans="5:10">
       <c r="E182" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="F182" t="str">
         <f>角色!$E$10</f>
@@ -23812,18 +23843,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H182" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I182" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J182" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="183" spans="5:10">
       <c r="E183" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="F183" t="str">
         <f>角色!$E$12</f>
@@ -23834,18 +23865,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H183" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I183" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J183" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="184" spans="5:10">
       <c r="E184" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="F184" t="str">
         <f>角色!$E$13</f>
@@ -23856,13 +23887,13 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H184" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="I184" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="J184" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
   </sheetData>
@@ -23880,10 +23911,10 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="20.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.1142857142857" customWidth="1"/>
+    <col min="8" max="8" width="20.3357142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -23919,66 +23950,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="H7" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="I7" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="J7" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="K7" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="L7" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="M7" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="N7" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="O7" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="F8" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="G8" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J8" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="K8" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -23992,22 +24023,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="F9" t="s">
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="G9" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="J9" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -24021,25 +24052,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="F10" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="G10" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J10" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="K10" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -24053,25 +24084,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="F11" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="G11" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J11" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="K11" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -24085,25 +24116,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="F12" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="G12" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J12" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="K12" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -24117,25 +24148,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="F13" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="G13" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J13" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="K13" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -24149,25 +24180,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="F14" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="G14" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J14" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="K14" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -24181,25 +24212,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="F15" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="G15" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J15" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="K15" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -24213,25 +24244,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="F16" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="G16" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J16" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="K16" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -24245,25 +24276,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="F17" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="G17" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J17" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="K17" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -24277,25 +24308,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="F18" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="G18" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J18" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="K18" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -24309,25 +24340,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="F19" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="G19" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="J19" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="K19" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -24347,33 +24378,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="I21" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F22" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -24384,15 +24415,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F23" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -24403,15 +24434,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F24" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -24422,15 +24453,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F25" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -24441,15 +24472,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F26" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -24460,15 +24491,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F27" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -24479,15 +24510,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F28" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -24498,15 +24529,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F29" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -24517,15 +24548,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F30" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -24536,15 +24567,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F31" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -24555,15 +24586,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F32" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -24574,15 +24605,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F33" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -24593,15 +24624,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F34" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -24612,15 +24643,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="F35" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -24631,7 +24662,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\agile-service-0616\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BA591A-C557-4ECC-9763-E1B2160B1C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188BC9C7-0C34-4EDF-B5D2-BDFCB2ACFC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5057" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3745" uniqueCount="1479">
   <si>
     <r>
       <rPr>
@@ -7266,14 +7266,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="I83" workbookViewId="0">
+      <selection activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
     <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="70.6640625" customWidth="1"/>
+    <col min="6" max="6" width="102.77734375" customWidth="1"/>
     <col min="7" max="7" width="29.109375" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" customWidth="1"/>
     <col min="11" max="11" width="15.21875" customWidth="1"/>
@@ -11675,8 +11675,8 @@
         <v>79</v>
       </c>
       <c r="K93" t="str">
-        <f>菜单SAAS版!$E$75</f>
-        <v>iam_menu-112</v>
+        <f>菜单SAAS版!$E$92</f>
+        <v>iam_menu-135</v>
       </c>
       <c r="L93" s="31" t="s">
         <v>1472</v>
@@ -11723,8 +11723,8 @@
         <v>79</v>
       </c>
       <c r="K94" t="str">
-        <f>菜单SAAS版!$E$75</f>
-        <v>iam_menu-112</v>
+        <f>菜单SAAS版!$E$92</f>
+        <v>iam_menu-135</v>
       </c>
       <c r="L94" s="31" t="s">
         <v>1472</v>
@@ -19445,7 +19445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y186"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\agile-service-0616\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188BC9C7-0C34-4EDF-B5D2-BDFCB2ACFC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F9D0E4-6FE2-44C1-8CB0-6FA2D5A2374F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3745" uniqueCount="1479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="1480">
   <si>
     <r>
       <rPr>
@@ -6313,6 +6313,10 @@
   </si>
   <si>
     <t>routeroutline</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_label-15</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -7266,8 +7270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I83" workbookViewId="0">
-      <selection activeCell="M94" sqref="M94"/>
+    <sheetView topLeftCell="T80" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -11763,7 +11767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G378"/>
   <sheetViews>
-    <sheetView topLeftCell="A365" workbookViewId="0">
+    <sheetView topLeftCell="A98" workbookViewId="0">
       <selection activeCell="F380" sqref="F380"/>
     </sheetView>
   </sheetViews>
@@ -16282,10 +16286,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O158"/>
+  <dimension ref="A1:O159"/>
   <sheetViews>
-    <sheetView topLeftCell="B97" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="D147" workbookViewId="0">
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -16577,8 +16581,8 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="E15" t="s">
-        <v>1143</v>
+      <c r="E15" s="31" t="s">
+        <v>1479</v>
       </c>
       <c r="F15" t="s">
         <v>1144</v>
@@ -19432,6 +19436,25 @@
         <v>iam_label-21</v>
       </c>
       <c r="I158" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="159" spans="5:9">
+      <c r="E159" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G159" t="str">
+        <f>菜单SAAS版!$E$92</f>
+        <v>iam_menu-135</v>
+      </c>
+      <c r="H159" t="str">
+        <f>菜单标签数据!$E$15</f>
+        <v>iam_label-15</v>
+      </c>
+      <c r="I159" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -23768,7 +23791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\agile-service-0616\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F9D0E4-6FE2-44C1-8CB0-6FA2D5A2374F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1290C4C-9A69-402D-971A-FA917D485103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="1480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="1482">
   <si>
     <r>
       <rPr>
@@ -6317,6 +6317,14 @@
   </si>
   <si>
     <t>iam_label-15</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_role_permission-277</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_role_permission-278</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -16288,8 +16296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D147" workbookViewId="0">
-      <selection activeCell="H154" sqref="H154"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -19466,10 +19474,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y186"/>
+  <dimension ref="A1:Y188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F190" sqref="F190"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -23764,26 +23772,73 @@
         <v>1477</v>
       </c>
       <c r="F186" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G186" t="str">
+        <f>菜单SAAS版!$E$93</f>
+        <v>iam_menu-136</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J186" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="187" spans="5:10">
+      <c r="E187" s="31" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F187" t="str">
         <f>角色!$E$12</f>
         <v>iam_role-12</v>
       </c>
-      <c r="G186" t="str">
+      <c r="G187" t="str">
         <f>菜单SAAS版!$E$94</f>
         <v>iam_menu-137</v>
       </c>
-      <c r="H186" t="s">
+      <c r="H187" t="s">
         <v>1258</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I187" t="s">
         <v>1259</v>
       </c>
-      <c r="J186" t="s">
+      <c r="J187" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="188" spans="5:10">
+      <c r="E188" s="31" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F188" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G188" t="str">
+        <f>菜单SAAS版!$E$94</f>
+        <v>iam_menu-137</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1258</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J188" t="s">
         <v>1260</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F187" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\agile-service-0616\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47394212-5D98-4033-9BB9-E3D775CA0000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,17 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,6 +48,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +67,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +80,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +99,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +118,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +137,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +207,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +229,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +250,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +271,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +292,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +313,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +325,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +344,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +356,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +413,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +432,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +480,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +499,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +518,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +537,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +549,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +587,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +607,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +646,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +665,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +677,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +696,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +715,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +739,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +758,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +796,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +815,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +846,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +857,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +908,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +927,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +990,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1010,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1030,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1051,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1071,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1106,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1139,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1158,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1179,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1198,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1230,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1249,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1268,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1283,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1302,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1321,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1340,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1359,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1404,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1430,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1464,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1483,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1502,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1565,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1584,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1604,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1625,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1646,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1677,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1696,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1715,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1735,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1773,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1793,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1812,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1831,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1850,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1870,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1882,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1903,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1915,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1934,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1946,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1965,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1985,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6352,14 +6474,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="42">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -6370,25 +6486,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6434,163 +6550,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -6613,6 +6572,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6626,18 +6586,21 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6646,8 +6609,28 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6678,194 +6661,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -6966,251 +6763,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
@@ -7228,20 +6783,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7275,9 +6818,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7285,59 +6825,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -7410,6 +6918,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7667,277 +7178,274 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="22" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="30" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y94"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="D84" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="14.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="58.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="20.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="18.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="19" max="19" width="107.555555555556" customWidth="1"/>
-    <col min="21" max="21" width="20.8888888888889" customWidth="1"/>
-    <col min="22" max="22" width="24.2222222222222" customWidth="1"/>
+    <col min="19" max="19" width="107.5546875" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" customWidth="1"/>
+    <col min="22" max="22" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7951,7 +7459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -8039,7 +7547,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -8089,7 +7597,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -8143,7 +7651,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>92</v>
       </c>
@@ -8200,7 +7708,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>101</v>
       </c>
@@ -8248,7 +7756,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>106</v>
       </c>
@@ -8305,7 +7813,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>114</v>
       </c>
@@ -8359,7 +7867,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>120</v>
       </c>
@@ -8410,7 +7918,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>125</v>
       </c>
@@ -8461,7 +7969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>129</v>
       </c>
@@ -12407,28 +11915,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="29.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="42.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -12442,7 +11949,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -12476,7 +11983,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>468</v>
       </c>
@@ -12488,7 +11995,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>470</v>
       </c>
@@ -12500,7 +12007,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>472</v>
       </c>
@@ -12512,7 +12019,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>474</v>
       </c>
@@ -12524,7 +12031,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>476</v>
       </c>
@@ -12536,7 +12043,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>478</v>
       </c>
@@ -12548,7 +12055,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>480</v>
       </c>
@@ -12560,7 +12067,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>482</v>
       </c>
@@ -12572,7 +12079,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>484</v>
       </c>
@@ -17289,31 +16796,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O159"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
+    <sheetView topLeftCell="F110" workbookViewId="0">
       <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="26.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="26.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="18.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="24.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="37.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -17327,7 +16833,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -17385,7 +16891,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1194</v>
       </c>
@@ -17417,7 +16923,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1199</v>
       </c>
@@ -17449,7 +16955,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1202</v>
       </c>
@@ -17475,7 +16981,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1205</v>
       </c>
@@ -17501,7 +17007,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1207</v>
       </c>
@@ -17533,7 +17039,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1210</v>
       </c>
@@ -17562,7 +17068,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1213</v>
       </c>
@@ -17591,7 +17097,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" s="5" t="s">
         <v>1216</v>
       </c>
@@ -17620,7 +17126,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1219</v>
       </c>
@@ -17649,7 +17155,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1222</v>
       </c>
@@ -17681,7 +17187,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1225</v>
       </c>
@@ -17713,7 +17219,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1228</v>
       </c>
@@ -17745,7 +17251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1231</v>
       </c>
@@ -17771,7 +17277,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1233</v>
       </c>
@@ -17803,7 +17309,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1236</v>
       </c>
@@ -17835,7 +17341,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1239</v>
       </c>
@@ -17867,7 +17373,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1242</v>
       </c>
@@ -17893,7 +17399,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1244</v>
       </c>
@@ -17922,7 +17428,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1247</v>
       </c>
@@ -17951,7 +17457,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -17980,7 +17486,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1257</v>
       </c>
@@ -17999,7 +17505,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1257</v>
       </c>
@@ -18018,7 +17524,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1257</v>
       </c>
@@ -18037,7 +17543,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1257</v>
       </c>
@@ -20470,28 +19976,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y188"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="F189" sqref="F189"/>
+    <sheetView tabSelected="1" topLeftCell="C175" workbookViewId="0">
+      <selection activeCell="G187" sqref="G187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="28.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -20505,7 +20010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -20593,7 +20098,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1276</v>
       </c>
@@ -20652,7 +20157,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1282</v>
       </c>
@@ -20711,7 +20216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1287</v>
       </c>
@@ -20774,7 +20279,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1295</v>
       </c>
@@ -20837,7 +20342,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1303</v>
       </c>
@@ -20900,7 +20405,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1311</v>
       </c>
@@ -20963,7 +20468,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>1319</v>
       </c>
@@ -21021,7 +20526,7 @@
       </c>
       <c r="X14" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -24754,8 +24259,8 @@
         <v>1502</v>
       </c>
       <c r="F185" t="str">
-        <f>角色!$E$13</f>
-        <v>iam_role-13</v>
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
       </c>
       <c r="G185" t="str">
         <f>菜单SAAS版!$E$93</f>
@@ -24838,8 +24343,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="F187" formula="1"/>
   </ignoredErrors>
@@ -24847,21 +24352,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="C22" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="20.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -24875,7 +24381,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24933,7 +24439,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1194</v>
       </c>
@@ -24965,7 +24471,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1199</v>
       </c>
@@ -24994,7 +24500,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1202</v>
       </c>
@@ -25026,7 +24532,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1205</v>
       </c>
@@ -25058,7 +24564,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1207</v>
       </c>
@@ -25090,7 +24596,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1210</v>
       </c>
@@ -25122,7 +24628,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1213</v>
       </c>
@@ -25154,7 +24660,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1216</v>
       </c>
@@ -25186,7 +24692,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1219</v>
       </c>
@@ -25218,7 +24724,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1222</v>
       </c>
@@ -25250,7 +24756,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1225</v>
       </c>
@@ -25282,7 +24788,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1228</v>
       </c>
@@ -25314,7 +24820,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -25343,7 +24849,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1257</v>
       </c>
@@ -25362,7 +24868,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1257</v>
       </c>
@@ -25381,7 +24887,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1257</v>
       </c>
@@ -25400,7 +24906,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1257</v>
       </c>
@@ -25419,7 +24925,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1257</v>
       </c>
@@ -25438,7 +24944,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1257</v>
       </c>
@@ -25457,7 +24963,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1257</v>
       </c>
@@ -25476,7 +24982,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1257</v>
       </c>
@@ -25495,7 +25001,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1257</v>
       </c>
@@ -25514,7 +25020,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1257</v>
       </c>
@@ -25533,7 +25039,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1257</v>
       </c>
@@ -25610,8 +25116,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\agile-service-0616\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47394212-5D98-4033-9BB9-E3D775CA0000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999B241F-B192-4838-8BA3-8730F1AE0ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="1537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="1538">
   <si>
     <r>
       <rPr>
@@ -6366,116 +6366,121 @@
     <t>iam_role_permission-274</t>
   </si>
   <si>
+    <t>iam_role_permission-276</t>
+  </si>
+  <si>
+    <t>iam_role_permission-277</t>
+  </si>
+  <si>
+    <t>iam_role_permission-278</t>
+  </si>
+  <si>
+    <t>TENANT_MGR</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>租户管理员标签</t>
+  </si>
+  <si>
+    <t>Tenant Manager Label</t>
+  </si>
+  <si>
+    <t>SITE_MGR</t>
+  </si>
+  <si>
+    <t>平台管理员标签</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE_TPL</t>
+  </si>
+  <si>
+    <t>标识内置模板角色</t>
+  </si>
+  <si>
+    <t>TENANT_ROLE</t>
+  </si>
+  <si>
+    <t>标识租户层角色</t>
+  </si>
+  <si>
+    <t>Tenant Role</t>
+  </si>
+  <si>
+    <t>TENANT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识租户管理员角色</t>
+  </si>
+  <si>
+    <t>PROJECT_ROLE</t>
+  </si>
+  <si>
+    <t>标识项目层角色</t>
+  </si>
+  <si>
+    <t>Project Role</t>
+  </si>
+  <si>
+    <t>PROJECT_ADMIN</t>
+  </si>
+  <si>
+    <t>标识项目管理员角色</t>
+  </si>
+  <si>
+    <t>TENANT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识租户成员角色</t>
+  </si>
+  <si>
+    <t>Tenant Member</t>
+  </si>
+  <si>
+    <t>PROJECT_MEMBER</t>
+  </si>
+  <si>
+    <t>标识项目成员角色</t>
+  </si>
+  <si>
+    <t>Project Member</t>
+  </si>
+  <si>
+    <t>TENANT_TPL</t>
+  </si>
+  <si>
+    <t>租户管理员模板标签</t>
+  </si>
+  <si>
+    <t>Tenant Template Label</t>
+  </si>
+  <si>
+    <t>GITLAB_OWNER</t>
+  </si>
+  <si>
+    <t>标识gitlab_owner</t>
+  </si>
+  <si>
+    <t>GITLAB_DEVELOPER</t>
+  </si>
+  <si>
+    <t>标识gitlab_developer</t>
+  </si>
+  <si>
+    <t>iam_role_permission-279</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>iam_role_permission-275</t>
-  </si>
-  <si>
-    <t>iam_role_permission-276</t>
-  </si>
-  <si>
-    <t>iam_role_permission-277</t>
-  </si>
-  <si>
-    <t>iam_role_permission-278</t>
-  </si>
-  <si>
-    <t>TENANT_MGR</t>
-  </si>
-  <si>
-    <t>ROLE</t>
-  </si>
-  <si>
-    <t>租户管理员标签</t>
-  </si>
-  <si>
-    <t>Tenant Manager Label</t>
-  </si>
-  <si>
-    <t>SITE_MGR</t>
-  </si>
-  <si>
-    <t>平台管理员标签</t>
-  </si>
-  <si>
-    <t>TENANT_ROLE_TPL</t>
-  </si>
-  <si>
-    <t>标识内置模板角色</t>
-  </si>
-  <si>
-    <t>TENANT_ROLE</t>
-  </si>
-  <si>
-    <t>标识租户层角色</t>
-  </si>
-  <si>
-    <t>Tenant Role</t>
-  </si>
-  <si>
-    <t>TENANT_ADMIN</t>
-  </si>
-  <si>
-    <t>标识租户管理员角色</t>
-  </si>
-  <si>
-    <t>PROJECT_ROLE</t>
-  </si>
-  <si>
-    <t>标识项目层角色</t>
-  </si>
-  <si>
-    <t>Project Role</t>
-  </si>
-  <si>
-    <t>PROJECT_ADMIN</t>
-  </si>
-  <si>
-    <t>标识项目管理员角色</t>
-  </si>
-  <si>
-    <t>TENANT_MEMBER</t>
-  </si>
-  <si>
-    <t>标识租户成员角色</t>
-  </si>
-  <si>
-    <t>Tenant Member</t>
-  </si>
-  <si>
-    <t>PROJECT_MEMBER</t>
-  </si>
-  <si>
-    <t>标识项目成员角色</t>
-  </si>
-  <si>
-    <t>Project Member</t>
-  </si>
-  <si>
-    <t>TENANT_TPL</t>
-  </si>
-  <si>
-    <t>租户管理员模板标签</t>
-  </si>
-  <si>
-    <t>Tenant Template Label</t>
-  </si>
-  <si>
-    <t>GITLAB_OWNER</t>
-  </si>
-  <si>
-    <t>标识gitlab_owner</t>
-  </si>
-  <si>
-    <t>GITLAB_DEVELOPER</t>
-  </si>
-  <si>
-    <t>标识gitlab_developer</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -6629,6 +6634,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -6768,7 +6781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6825,11 +6838,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6840,6 +6853,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7208,11 +7223,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -7221,10 +7236,10 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
@@ -7388,19 +7403,19 @@
       <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="33"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="31" t="s">
@@ -19983,10 +19998,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y188"/>
+  <dimension ref="A1:Y189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C175" workbookViewId="0">
-      <selection activeCell="G187" sqref="G187"/>
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -24255,8 +24270,8 @@
       </c>
     </row>
     <row r="185" spans="5:10">
-      <c r="E185" s="5" t="s">
-        <v>1502</v>
+      <c r="E185" s="38" t="s">
+        <v>1537</v>
       </c>
       <c r="F185" t="str">
         <f>角色!$E$12</f>
@@ -24278,7 +24293,7 @@
     </row>
     <row r="186" spans="5:10">
       <c r="E186" s="5" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="F186" t="str">
         <f>角色!$E$10</f>
@@ -24300,7 +24315,7 @@
     </row>
     <row r="187" spans="5:10">
       <c r="E187" s="5" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="F187" t="str">
         <f>角色!$E$12</f>
@@ -24322,7 +24337,7 @@
     </row>
     <row r="188" spans="5:10">
       <c r="E188" s="5" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="F188" t="str">
         <f>角色!$E$10</f>
@@ -24339,6 +24354,28 @@
         <v>1332</v>
       </c>
       <c r="J188" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="189" spans="5:10">
+      <c r="E189" s="37" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F189" t="str">
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G189" t="str">
+        <f>菜单SAAS版!$E$93</f>
+        <v>iam_menu-136</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J189" t="s">
         <v>1333</v>
       </c>
     </row>
@@ -24444,10 +24481,10 @@
         <v>1194</v>
       </c>
       <c r="F8" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G8" t="s">
         <v>1506</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1507</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -24456,10 +24493,10 @@
         <v>1197</v>
       </c>
       <c r="J8" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K8" t="s">
         <v>1508</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1509</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -24476,10 +24513,10 @@
         <v>1199</v>
       </c>
       <c r="F9" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="G9" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
@@ -24488,7 +24525,7 @@
         <v>1204</v>
       </c>
       <c r="J9" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -24505,10 +24542,10 @@
         <v>1202</v>
       </c>
       <c r="F10" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="G10" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -24517,10 +24554,10 @@
         <v>1197</v>
       </c>
       <c r="J10" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="K10" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -24537,10 +24574,10 @@
         <v>1205</v>
       </c>
       <c r="F11" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G11" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -24549,10 +24586,10 @@
         <v>1197</v>
       </c>
       <c r="J11" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K11" t="s">
         <v>1515</v>
-      </c>
-      <c r="K11" t="s">
-        <v>1516</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -24569,10 +24606,10 @@
         <v>1207</v>
       </c>
       <c r="F12" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G12" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -24581,10 +24618,10 @@
         <v>1197</v>
       </c>
       <c r="J12" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="K12" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -24601,10 +24638,10 @@
         <v>1210</v>
       </c>
       <c r="F13" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="G13" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -24613,10 +24650,10 @@
         <v>1197</v>
       </c>
       <c r="J13" t="s">
+        <v>1519</v>
+      </c>
+      <c r="K13" t="s">
         <v>1520</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1521</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -24633,10 +24670,10 @@
         <v>1213</v>
       </c>
       <c r="F14" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G14" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -24645,7 +24682,7 @@
         <v>1197</v>
       </c>
       <c r="J14" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="K14" t="s">
         <v>1310</v>
@@ -24665,10 +24702,10 @@
         <v>1216</v>
       </c>
       <c r="F15" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="G15" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -24677,10 +24714,10 @@
         <v>1197</v>
       </c>
       <c r="J15" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K15" t="s">
         <v>1525</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1526</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -24697,10 +24734,10 @@
         <v>1219</v>
       </c>
       <c r="F16" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="G16" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -24709,10 +24746,10 @@
         <v>1197</v>
       </c>
       <c r="J16" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K16" t="s">
         <v>1528</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1529</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -24729,10 +24766,10 @@
         <v>1222</v>
       </c>
       <c r="F17" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="G17" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -24741,10 +24778,10 @@
         <v>1197</v>
       </c>
       <c r="J17" t="s">
+        <v>1530</v>
+      </c>
+      <c r="K17" t="s">
         <v>1531</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1532</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -24761,10 +24798,10 @@
         <v>1225</v>
       </c>
       <c r="F18" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="G18" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
@@ -24773,10 +24810,10 @@
         <v>1197</v>
       </c>
       <c r="J18" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="K18" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -24793,10 +24830,10 @@
         <v>1228</v>
       </c>
       <c r="F19" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="G19" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
@@ -24805,10 +24842,10 @@
         <v>1197</v>
       </c>
       <c r="J19" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="K19" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -24854,7 +24891,7 @@
         <v>1257</v>
       </c>
       <c r="F22" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -24873,7 +24910,7 @@
         <v>1257</v>
       </c>
       <c r="F23" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -24892,7 +24929,7 @@
         <v>1257</v>
       </c>
       <c r="F24" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -24911,7 +24948,7 @@
         <v>1257</v>
       </c>
       <c r="F25" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -24930,7 +24967,7 @@
         <v>1257</v>
       </c>
       <c r="F26" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -24949,7 +24986,7 @@
         <v>1257</v>
       </c>
       <c r="F27" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -24968,7 +25005,7 @@
         <v>1257</v>
       </c>
       <c r="F28" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -24987,7 +25024,7 @@
         <v>1257</v>
       </c>
       <c r="F29" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -25006,7 +25043,7 @@
         <v>1257</v>
       </c>
       <c r="F30" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -25025,7 +25062,7 @@
         <v>1257</v>
       </c>
       <c r="F31" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -25044,7 +25081,7 @@
         <v>1257</v>
       </c>
       <c r="F32" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -25063,7 +25100,7 @@
         <v>1257</v>
       </c>
       <c r="F33" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -25082,7 +25119,7 @@
         <v>1257</v>
       </c>
       <c r="F34" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -25101,7 +25138,7 @@
         <v>1257</v>
       </c>
       <c r="F35" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\agile-service-0616\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B7ECE3-52E7-441C-94FE-C28DE13D50C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,17 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,6 +48,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +67,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +80,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +99,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +118,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +137,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +169,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +188,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +207,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +229,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +250,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +271,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +292,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +313,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +325,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +344,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +356,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +394,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +413,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +432,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +480,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +499,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +518,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +537,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +549,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +568,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +587,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +607,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +646,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +665,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +677,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +696,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +715,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +739,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +758,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +777,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +796,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +815,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +846,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +857,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +878,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +908,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +927,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +970,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +990,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1010,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1030,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1051,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1071,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1106,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1127,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1139,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1158,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1179,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1198,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1211,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1230,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1249,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1268,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1283,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1302,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1321,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1340,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1359,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1375,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1385,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1404,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1420,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1430,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1449,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1464,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1483,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1502,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1522,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1546,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1565,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1584,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1604,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1625,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1636,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1646,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1658,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1677,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1696,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1715,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1735,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1773,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1793,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1812,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1831,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1850,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1870,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1882,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1893,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1903,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1915,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1934,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1946,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1965,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1985,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6367,14 +6489,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="43">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -6385,25 +6501,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -6456,163 +6572,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -6635,6 +6594,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6648,18 +6608,21 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6668,8 +6631,28 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6700,194 +6683,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -6988,252 +6785,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7251,20 +6806,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7298,9 +6841,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7308,59 +6848,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -7433,6 +6941,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7690,277 +7201,274 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="20" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="24" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="29" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="23" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="31" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="35" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="35" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="35" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="32" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y94"/>
   <sheetViews>
     <sheetView topLeftCell="D84" workbookViewId="0">
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="14.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="58.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="20.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="18.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="19" max="19" width="107.555555555556" customWidth="1"/>
-    <col min="21" max="21" width="20.8888888888889" customWidth="1"/>
-    <col min="22" max="22" width="24.2222222222222" customWidth="1"/>
+    <col min="19" max="19" width="107.5546875" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" customWidth="1"/>
+    <col min="22" max="22" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7974,7 +7482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -8062,7 +7570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -8112,7 +7620,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -8166,7 +7674,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>92</v>
       </c>
@@ -8223,7 +7731,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>101</v>
       </c>
@@ -8271,7 +7779,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>106</v>
       </c>
@@ -8328,7 +7836,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>114</v>
       </c>
@@ -8382,7 +7890,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>120</v>
       </c>
@@ -8433,7 +7941,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>125</v>
       </c>
@@ -8484,7 +7992,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>129</v>
       </c>
@@ -12430,28 +11938,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="29.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="42.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -12465,7 +11972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -12499,7 +12006,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>468</v>
       </c>
@@ -12511,7 +12018,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>470</v>
       </c>
@@ -12523,7 +12030,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>472</v>
       </c>
@@ -12535,7 +12042,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>474</v>
       </c>
@@ -12547,7 +12054,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>476</v>
       </c>
@@ -12559,7 +12066,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>478</v>
       </c>
@@ -12571,7 +12078,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>480</v>
       </c>
@@ -12583,7 +12090,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>482</v>
       </c>
@@ -12595,7 +12102,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>484</v>
       </c>
@@ -17348,31 +16855,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O159"/>
   <sheetViews>
-    <sheetView topLeftCell="F110" workbookViewId="0">
+    <sheetView topLeftCell="C149" workbookViewId="0">
       <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="26.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="26.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="18.1111111111111" customWidth="1"/>
-    <col min="9" max="9" width="24.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="37.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -17386,7 +16892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -17444,7 +16950,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1198</v>
       </c>
@@ -17476,7 +16982,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1203</v>
       </c>
@@ -17508,7 +17014,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1206</v>
       </c>
@@ -17534,7 +17040,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1209</v>
       </c>
@@ -17560,7 +17066,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1211</v>
       </c>
@@ -17592,7 +17098,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1214</v>
       </c>
@@ -17621,7 +17127,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1217</v>
       </c>
@@ -17650,7 +17156,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" s="5" t="s">
         <v>1220</v>
       </c>
@@ -17679,7 +17185,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1223</v>
       </c>
@@ -17708,7 +17214,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1226</v>
       </c>
@@ -17740,7 +17246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1229</v>
       </c>
@@ -17772,7 +17278,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1232</v>
       </c>
@@ -17804,7 +17310,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1235</v>
       </c>
@@ -17830,7 +17336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1237</v>
       </c>
@@ -17862,7 +17368,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1240</v>
       </c>
@@ -17894,7 +17400,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1243</v>
       </c>
@@ -17926,7 +17432,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1246</v>
       </c>
@@ -17952,7 +17458,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1248</v>
       </c>
@@ -17981,7 +17487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1251</v>
       </c>
@@ -18010,7 +17516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -18039,7 +17545,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1261</v>
       </c>
@@ -18058,7 +17564,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1261</v>
       </c>
@@ -18077,7 +17583,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1261</v>
       </c>
@@ -18096,7 +17602,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1261</v>
       </c>
@@ -20529,28 +20035,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView topLeftCell="C175" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView tabSelected="1" topLeftCell="C178" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="14.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="28.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -20564,7 +20069,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -20652,7 +20157,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1280</v>
       </c>
@@ -20711,7 +20216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1286</v>
       </c>
@@ -20770,7 +20275,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1291</v>
       </c>
@@ -20833,7 +20338,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1299</v>
       </c>
@@ -20896,7 +20401,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1307</v>
       </c>
@@ -20959,7 +20464,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1315</v>
       </c>
@@ -21022,7 +20527,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>1323</v>
       </c>
@@ -21080,7 +20585,7 @@
       </c>
       <c r="X14" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -24813,8 +24318,8 @@
         <v>1506</v>
       </c>
       <c r="F185" t="str">
-        <f>角色!$E$12</f>
-        <v>iam_role-12</v>
+        <f>角色!$E$13</f>
+        <v>iam_role-13</v>
       </c>
       <c r="G185" t="str">
         <f>菜单SAAS版!$E$93</f>
@@ -24919,8 +24424,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="F187" formula="1"/>
   </ignoredErrors>
@@ -24928,23 +24433,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="C22" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="25.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="29.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="20.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -24958,7 +24462,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -25016,7 +24520,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1198</v>
       </c>
@@ -25048,7 +24552,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1203</v>
       </c>
@@ -25077,7 +24581,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1206</v>
       </c>
@@ -25109,7 +24613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1209</v>
       </c>
@@ -25141,7 +24645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1211</v>
       </c>
@@ -25173,7 +24677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1214</v>
       </c>
@@ -25205,7 +24709,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1217</v>
       </c>
@@ -25237,7 +24741,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1220</v>
       </c>
@@ -25269,7 +24773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1223</v>
       </c>
@@ -25301,7 +24805,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1226</v>
       </c>
@@ -25333,7 +24837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1229</v>
       </c>
@@ -25365,7 +24869,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1232</v>
       </c>
@@ -25397,7 +24901,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -25426,7 +24930,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1261</v>
       </c>
@@ -25445,7 +24949,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1261</v>
       </c>
@@ -25464,7 +24968,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1261</v>
       </c>
@@ -25483,7 +24987,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1261</v>
       </c>
@@ -25502,7 +25006,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1261</v>
       </c>
@@ -25521,7 +25025,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1261</v>
       </c>
@@ -25540,7 +25044,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1261</v>
       </c>
@@ -25559,7 +25063,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1261</v>
       </c>
@@ -25578,7 +25082,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1261</v>
       </c>
@@ -25597,7 +25101,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1261</v>
       </c>
@@ -25616,7 +25120,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1261</v>
       </c>
@@ -25693,8 +25197,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\agile-service-0616\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B7ECE3-52E7-441C-94FE-C28DE13D50C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -26,29 +20,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="1542">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -67,7 +50,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -80,7 +62,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -99,7 +80,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -118,7 +98,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -137,7 +116,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -169,7 +147,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -188,7 +165,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -207,7 +183,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -229,7 +204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -250,7 +224,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -271,7 +244,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -292,7 +264,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -313,7 +284,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -325,7 +295,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -344,7 +313,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -356,7 +324,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -375,7 +342,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -394,7 +360,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -413,7 +378,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -432,7 +396,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -480,7 +443,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -499,7 +461,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -518,7 +479,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -537,7 +497,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -549,7 +508,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -568,7 +526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -587,7 +544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -607,7 +563,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -626,7 +581,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -646,7 +600,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -665,7 +618,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -677,7 +629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -696,7 +647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -715,7 +665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -739,7 +688,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -758,7 +706,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -777,7 +724,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -796,7 +742,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -815,7 +760,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -827,7 +771,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -846,7 +789,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -857,7 +799,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -878,7 +819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -889,7 +829,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -908,7 +847,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -927,7 +865,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -951,7 +888,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -970,7 +906,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -990,7 +925,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -1010,7 +944,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1030,7 +963,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1051,7 +983,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1071,7 +1002,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1106,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1127,7 +1056,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1139,7 +1067,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1158,7 +1085,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1179,7 +1105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1198,7 +1123,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1211,7 +1135,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1230,7 +1153,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1249,7 +1171,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1268,7 +1189,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1283,7 +1203,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1302,7 +1221,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1321,7 +1239,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1340,7 +1257,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1359,7 +1275,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1375,7 +1290,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1385,7 +1299,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1404,7 +1317,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1420,7 +1332,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1430,7 +1341,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1449,7 +1359,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1464,7 +1373,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1483,7 +1391,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1502,7 +1409,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1522,7 +1428,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1546,7 +1451,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1565,7 +1469,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1584,7 +1487,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1604,7 +1506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1625,7 +1526,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1636,7 +1536,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1646,7 +1545,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1658,7 +1556,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1677,7 +1574,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1696,7 +1592,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1715,7 +1610,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1735,7 +1629,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1754,7 +1647,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1773,7 +1665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1793,7 +1684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1812,7 +1702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1831,7 +1720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1850,7 +1738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1870,7 +1757,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1882,7 +1768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1893,7 +1778,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1903,7 +1787,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1915,7 +1798,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1934,7 +1816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1946,7 +1827,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1965,7 +1845,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1985,7 +1864,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6489,8 +6367,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -6501,34 +6385,28 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <strike/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -6572,9 +6450,172 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6594,7 +6635,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6608,21 +6648,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6631,28 +6668,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6683,8 +6700,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -6785,12 +6988,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6798,7 +7243,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6806,32 +7250,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6841,34 +7297,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -6941,9 +7432,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7201,274 +7689,277 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="C1" s="33" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="5:5">
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="34" t="s">
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="36" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="13" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="16" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="22" t="s">
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="25" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="19" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="27" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="30" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="30" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="30" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="30" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="31" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="34"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="20" t="s">
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="34"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="32" t="s">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y94"/>
   <sheetViews>
-    <sheetView topLeftCell="D84" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView topLeftCell="D70" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" customWidth="1"/>
-    <col min="15" max="15" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="58.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="29.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="20.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="18.2222222222222" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="19" max="19" width="107.5546875" customWidth="1"/>
-    <col min="21" max="21" width="20.88671875" customWidth="1"/>
-    <col min="22" max="22" width="24.21875" customWidth="1"/>
+    <col min="19" max="19" width="107.555555555556" customWidth="1"/>
+    <col min="21" max="21" width="20.8888888888889" customWidth="1"/>
+    <col min="22" max="22" width="24.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -7482,7 +7973,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -7570,7 +8061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="5:24">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -7620,7 +8111,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:24">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -7674,7 +8165,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:24">
       <c r="E10" t="s">
         <v>92</v>
       </c>
@@ -7731,7 +8222,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="5:24">
       <c r="E11" t="s">
         <v>101</v>
       </c>
@@ -7779,7 +8270,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="5:24">
       <c r="E12" t="s">
         <v>106</v>
       </c>
@@ -7836,7 +8327,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="5:24">
       <c r="E13" t="s">
         <v>114</v>
       </c>
@@ -7890,7 +8381,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="5:24">
       <c r="E14" t="s">
         <v>120</v>
       </c>
@@ -7941,7 +8432,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="5:24">
       <c r="E15" t="s">
         <v>125</v>
       </c>
@@ -7992,7 +8483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="5:24">
       <c r="E16" t="s">
         <v>129</v>
       </c>
@@ -11938,27 +12429,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G411"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A123" workbookViewId="0">
       <selection activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="28.88671875" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" customWidth="1"/>
-    <col min="7" max="7" width="42.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="29.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="42.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -11972,7 +12464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -12006,7 +12498,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
         <v>468</v>
       </c>
@@ -12018,7 +12510,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
         <v>470</v>
       </c>
@@ -12030,7 +12522,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
         <v>472</v>
       </c>
@@ -12042,7 +12534,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
         <v>474</v>
       </c>
@@ -12054,7 +12546,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
         <v>476</v>
       </c>
@@ -12066,7 +12558,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
         <v>478</v>
       </c>
@@ -12078,7 +12570,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="5:7">
       <c r="E14" t="s">
         <v>480</v>
       </c>
@@ -12090,7 +12582,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="5:7">
       <c r="E15" t="s">
         <v>482</v>
       </c>
@@ -12102,7 +12594,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="5:7">
       <c r="E16" t="s">
         <v>484</v>
       </c>
@@ -16855,30 +17347,31 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O163"/>
   <sheetViews>
-    <sheetView topLeftCell="C149" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="D102" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="27.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" customWidth="1"/>
-    <col min="10" max="10" width="37.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="26.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="18.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="24.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="37.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -16892,7 +17385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -16950,7 +17443,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
         <v>1198</v>
       </c>
@@ -16982,7 +17475,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
         <v>1203</v>
       </c>
@@ -17014,7 +17507,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
         <v>1206</v>
       </c>
@@ -17040,7 +17533,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
         <v>1209</v>
       </c>
@@ -17066,7 +17559,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
         <v>1211</v>
       </c>
@@ -17098,7 +17591,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
         <v>1214</v>
       </c>
@@ -17127,7 +17620,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
         <v>1217</v>
       </c>
@@ -17156,7 +17649,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="5:15">
       <c r="E15" s="5" t="s">
         <v>1220</v>
       </c>
@@ -17185,7 +17678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
         <v>1223</v>
       </c>
@@ -17214,7 +17707,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="5:15">
       <c r="E17" t="s">
         <v>1226</v>
       </c>
@@ -17246,7 +17739,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="5:15">
       <c r="E18" t="s">
         <v>1229</v>
       </c>
@@ -17278,7 +17771,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="5:15">
       <c r="E19" t="s">
         <v>1232</v>
       </c>
@@ -17310,7 +17803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="5:15">
       <c r="E20" t="s">
         <v>1235</v>
       </c>
@@ -17336,7 +17829,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="5:15">
       <c r="E21" t="s">
         <v>1237</v>
       </c>
@@ -17368,7 +17861,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="5:15">
       <c r="E22" t="s">
         <v>1240</v>
       </c>
@@ -17400,7 +17893,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="5:15">
       <c r="E23" t="s">
         <v>1243</v>
       </c>
@@ -17432,7 +17925,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="5:15">
       <c r="E24" t="s">
         <v>1246</v>
       </c>
@@ -17458,7 +17951,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="5:15">
       <c r="E25" t="s">
         <v>1248</v>
       </c>
@@ -17487,7 +17980,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="5:15">
       <c r="E26" t="s">
         <v>1251</v>
       </c>
@@ -17516,7 +18009,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -17545,7 +18038,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="5:9">
       <c r="E29" t="s">
         <v>1261</v>
       </c>
@@ -17564,7 +18057,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="5:9">
       <c r="E30" t="s">
         <v>1261</v>
       </c>
@@ -17583,7 +18076,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="5:9">
       <c r="E31" t="s">
         <v>1261</v>
       </c>
@@ -17602,7 +18095,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="5:9">
       <c r="E32" t="s">
         <v>1261</v>
       </c>
@@ -19046,7 +19539,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="108" spans="5:9">
+    <row r="108" customFormat="1" spans="5:9">
       <c r="E108" t="s">
         <v>1261</v>
       </c>
@@ -19073,18 +19566,18 @@
         <v>1200</v>
       </c>
       <c r="G109" t="str">
-        <f>菜单SAAS版!$E$87</f>
-        <v>iam_menu-130</v>
+        <f>菜单SAAS版!$E$86</f>
+        <v>iam_menu-129</v>
       </c>
       <c r="H109" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>菜单标签数据!$E$15</f>
+        <v>iam_label-15</v>
       </c>
       <c r="I109" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="110" spans="5:9">
+    <row r="110" customFormat="1" spans="5:9">
       <c r="E110" t="s">
         <v>1261</v>
       </c>
@@ -19096,8 +19589,8 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H110" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
+        <f>菜单标签数据!$E$15</f>
+        <v>iam_label-15</v>
       </c>
       <c r="I110" t="s">
         <v>1263</v>
@@ -19111,8 +19604,8 @@
         <v>1200</v>
       </c>
       <c r="G111" t="str">
-        <f>菜单SAAS版!$E$88</f>
-        <v>iam_menu-131</v>
+        <f>菜单SAAS版!$E$87</f>
+        <v>iam_menu-130</v>
       </c>
       <c r="H111" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19130,8 +19623,8 @@
         <v>1200</v>
       </c>
       <c r="G112" t="str">
-        <f>菜单SAAS版!$E$88</f>
-        <v>iam_menu-131</v>
+        <f>菜单SAAS版!$E$87</f>
+        <v>iam_menu-130</v>
       </c>
       <c r="H112" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19141,7 +19634,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="113" spans="5:9">
+    <row r="113" customFormat="1" spans="5:9">
       <c r="E113" t="s">
         <v>1261</v>
       </c>
@@ -19149,12 +19642,12 @@
         <v>1200</v>
       </c>
       <c r="G113" t="str">
-        <f>菜单SAAS版!$E$89</f>
-        <v>iam_menu-132</v>
+        <f>菜单SAAS版!$E$88</f>
+        <v>iam_menu-131</v>
       </c>
       <c r="H113" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>菜单标签数据!$E$15</f>
+        <v>iam_label-15</v>
       </c>
       <c r="I113" t="s">
         <v>1263</v>
@@ -19168,12 +19661,12 @@
         <v>1200</v>
       </c>
       <c r="G114" t="str">
-        <f>菜单SAAS版!$E$89</f>
-        <v>iam_menu-132</v>
+        <f>菜单SAAS版!$E$88</f>
+        <v>iam_menu-131</v>
       </c>
       <c r="H114" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
+        <f>菜单标签数据!$E$13</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I114" t="s">
         <v>1263</v>
@@ -19187,18 +19680,18 @@
         <v>1200</v>
       </c>
       <c r="G115" t="str">
-        <f>菜单SAAS版!$E$76</f>
-        <v>iam_menu-119</v>
+        <f>菜单SAAS版!$E$88</f>
+        <v>iam_menu-131</v>
       </c>
       <c r="H115" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I115" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="116" spans="5:9">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="116" customFormat="1" spans="5:9">
       <c r="E116" t="s">
         <v>1261</v>
       </c>
@@ -19206,15 +19699,15 @@
         <v>1200</v>
       </c>
       <c r="G116" t="str">
-        <f>菜单SAAS版!$E$76</f>
-        <v>iam_menu-119</v>
+        <f>菜单SAAS版!$E$89</f>
+        <v>iam_menu-132</v>
       </c>
       <c r="H116" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
+        <f>菜单标签数据!$E$15</f>
+        <v>iam_label-15</v>
       </c>
       <c r="I116" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="117" spans="5:9">
@@ -19225,15 +19718,15 @@
         <v>1200</v>
       </c>
       <c r="G117" t="str">
-        <f>菜单SAAS版!$E$76</f>
-        <v>iam_menu-119</v>
+        <f>菜单SAAS版!$E$89</f>
+        <v>iam_menu-132</v>
       </c>
       <c r="H117" t="str">
-        <f>菜单标签数据!$E$21</f>
-        <v>iam_label-21</v>
+        <f>菜单标签数据!$E$13</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I117" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="118" spans="5:9">
@@ -19244,12 +19737,12 @@
         <v>1200</v>
       </c>
       <c r="G118" t="str">
-        <f>菜单SAAS版!$E$80</f>
-        <v>iam_menu-123</v>
+        <f>菜单SAAS版!$E$89</f>
+        <v>iam_menu-132</v>
       </c>
       <c r="H118" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I118" t="s">
         <v>1263</v>
@@ -19263,15 +19756,15 @@
         <v>1200</v>
       </c>
       <c r="G119" t="str">
-        <f>菜单SAAS版!$E$80</f>
-        <v>iam_menu-123</v>
+        <f>菜单SAAS版!$E$76</f>
+        <v>iam_menu-119</v>
       </c>
       <c r="H119" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
+        <f>菜单标签数据!$E$13</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I119" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="120" spans="5:9">
@@ -19282,15 +19775,15 @@
         <v>1200</v>
       </c>
       <c r="G120" t="str">
-        <f>菜单SAAS版!$E$77</f>
-        <v>iam_menu-120</v>
+        <f>菜单SAAS版!$E$76</f>
+        <v>iam_menu-119</v>
       </c>
       <c r="H120" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I120" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="121" spans="5:9">
@@ -19301,15 +19794,15 @@
         <v>1200</v>
       </c>
       <c r="G121" t="str">
-        <f>菜单SAAS版!$E$77</f>
-        <v>iam_menu-120</v>
+        <f>菜单SAAS版!$E$76</f>
+        <v>iam_menu-119</v>
       </c>
       <c r="H121" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
+        <f>菜单标签数据!$E$21</f>
+        <v>iam_label-21</v>
       </c>
       <c r="I121" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="122" spans="5:9">
@@ -19320,8 +19813,8 @@
         <v>1200</v>
       </c>
       <c r="G122" t="str">
-        <f>菜单SAAS版!$E$83</f>
-        <v>iam_menu-126</v>
+        <f>菜单SAAS版!$E$80</f>
+        <v>iam_menu-123</v>
       </c>
       <c r="H122" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19339,8 +19832,8 @@
         <v>1200</v>
       </c>
       <c r="G123" t="str">
-        <f>菜单SAAS版!$E$83</f>
-        <v>iam_menu-126</v>
+        <f>菜单SAAS版!$E$80</f>
+        <v>iam_menu-123</v>
       </c>
       <c r="H123" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19358,8 +19851,8 @@
         <v>1200</v>
       </c>
       <c r="G124" t="str">
-        <f>菜单SAAS版!$E$84</f>
-        <v>iam_menu-127</v>
+        <f>菜单SAAS版!$E$77</f>
+        <v>iam_menu-120</v>
       </c>
       <c r="H124" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19377,8 +19870,8 @@
         <v>1200</v>
       </c>
       <c r="G125" t="str">
-        <f>菜单SAAS版!$E$84</f>
-        <v>iam_menu-127</v>
+        <f>菜单SAAS版!$E$77</f>
+        <v>iam_menu-120</v>
       </c>
       <c r="H125" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19396,12 +19889,12 @@
         <v>1200</v>
       </c>
       <c r="G126" t="str">
-        <f>菜单SAAS版!$E$13</f>
-        <v>iam_menu-13</v>
+        <f>菜单SAAS版!$E$83</f>
+        <v>iam_menu-126</v>
       </c>
       <c r="H126" t="str">
-        <f>菜单标签数据!$E$8</f>
-        <v>iam_label-8</v>
+        <f>菜单标签数据!$E$13</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I126" t="s">
         <v>1263</v>
@@ -19415,12 +19908,12 @@
         <v>1200</v>
       </c>
       <c r="G127" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-32</v>
+        <f>菜单SAAS版!$E$83</f>
+        <v>iam_menu-126</v>
       </c>
       <c r="H127" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I127" t="s">
         <v>1263</v>
@@ -19434,12 +19927,12 @@
         <v>1200</v>
       </c>
       <c r="G128" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-32</v>
+        <f>菜单SAAS版!$E$84</f>
+        <v>iam_menu-127</v>
       </c>
       <c r="H128" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
+        <f>菜单标签数据!$E$13</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I128" t="s">
         <v>1263</v>
@@ -19453,12 +19946,12 @@
         <v>1200</v>
       </c>
       <c r="G129" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-36</v>
+        <f>菜单SAAS版!$E$84</f>
+        <v>iam_menu-127</v>
       </c>
       <c r="H129" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I129" t="s">
         <v>1263</v>
@@ -19472,12 +19965,12 @@
         <v>1200</v>
       </c>
       <c r="G130" t="str">
-        <f>菜单SAAS版!$E$32</f>
-        <v>iam_menu-36</v>
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-13</v>
       </c>
       <c r="H130" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
       <c r="I130" t="s">
         <v>1263</v>
@@ -19491,8 +19984,8 @@
         <v>1200</v>
       </c>
       <c r="G131" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-29</v>
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="H131" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19510,8 +20003,8 @@
         <v>1200</v>
       </c>
       <c r="G132" t="str">
-        <f>菜单SAAS版!$E$25</f>
-        <v>iam_menu-29</v>
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="H132" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19529,8 +20022,8 @@
         <v>1200</v>
       </c>
       <c r="G133" t="str">
-        <f>菜单SAAS版!$E$36</f>
-        <v>iam_menu-40</v>
+        <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-36</v>
       </c>
       <c r="H133" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19548,8 +20041,8 @@
         <v>1200</v>
       </c>
       <c r="G134" t="str">
-        <f>菜单SAAS版!$E$36</f>
-        <v>iam_menu-40</v>
+        <f>菜单SAAS版!$E$32</f>
+        <v>iam_menu-36</v>
       </c>
       <c r="H134" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19567,8 +20060,8 @@
         <v>1200</v>
       </c>
       <c r="G135" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-39</v>
+        <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="H135" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19586,8 +20079,8 @@
         <v>1200</v>
       </c>
       <c r="G136" t="str">
-        <f>菜单SAAS版!$E$35</f>
-        <v>iam_menu-39</v>
+        <f>菜单SAAS版!$E$25</f>
+        <v>iam_menu-29</v>
       </c>
       <c r="H136" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19605,8 +20098,8 @@
         <v>1200</v>
       </c>
       <c r="G137" t="str">
-        <f>菜单SAAS版!$E$37</f>
-        <v>iam_menu-41</v>
+        <f>菜单SAAS版!$E$36</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="H137" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19624,8 +20117,8 @@
         <v>1200</v>
       </c>
       <c r="G138" t="str">
-        <f>菜单SAAS版!$E$37</f>
-        <v>iam_menu-41</v>
+        <f>菜单SAAS版!$E$36</f>
+        <v>iam_menu-40</v>
       </c>
       <c r="H138" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19643,8 +20136,8 @@
         <v>1200</v>
       </c>
       <c r="G139" t="str">
-        <f>菜单SAAS版!$E$31</f>
-        <v>iam_menu-35</v>
+        <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-39</v>
       </c>
       <c r="H139" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19662,8 +20155,8 @@
         <v>1200</v>
       </c>
       <c r="G140" t="str">
-        <f>菜单SAAS版!$E$31</f>
-        <v>iam_menu-35</v>
+        <f>菜单SAAS版!$E$35</f>
+        <v>iam_menu-39</v>
       </c>
       <c r="H140" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19681,8 +20174,8 @@
         <v>1200</v>
       </c>
       <c r="G141" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-30</v>
+        <f>菜单SAAS版!$E$37</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="H141" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19700,8 +20193,8 @@
         <v>1200</v>
       </c>
       <c r="G142" t="str">
-        <f>菜单SAAS版!$E$26</f>
-        <v>iam_menu-30</v>
+        <f>菜单SAAS版!$E$37</f>
+        <v>iam_menu-41</v>
       </c>
       <c r="H142" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19719,8 +20212,8 @@
         <v>1200</v>
       </c>
       <c r="G143" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-31</v>
+        <f>菜单SAAS版!$E$31</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="H143" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19738,8 +20231,8 @@
         <v>1200</v>
       </c>
       <c r="G144" t="str">
-        <f>菜单SAAS版!$E$27</f>
-        <v>iam_menu-31</v>
+        <f>菜单SAAS版!$E$31</f>
+        <v>iam_menu-35</v>
       </c>
       <c r="H144" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19757,8 +20250,8 @@
         <v>1200</v>
       </c>
       <c r="G145" t="str">
-        <f>菜单SAAS版!$E$30</f>
-        <v>iam_menu-34</v>
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-30</v>
       </c>
       <c r="H145" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19776,8 +20269,8 @@
         <v>1200</v>
       </c>
       <c r="G146" t="str">
-        <f>菜单SAAS版!$E$30</f>
-        <v>iam_menu-34</v>
+        <f>菜单SAAS版!$E$26</f>
+        <v>iam_menu-30</v>
       </c>
       <c r="H146" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19795,8 +20288,8 @@
         <v>1200</v>
       </c>
       <c r="G147" t="str">
-        <f>菜单SAAS版!$E$39</f>
-        <v>iam_menu-43</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-31</v>
       </c>
       <c r="H147" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19814,8 +20307,8 @@
         <v>1200</v>
       </c>
       <c r="G148" t="str">
-        <f>菜单SAAS版!$E$39</f>
-        <v>iam_menu-43</v>
+        <f>菜单SAAS版!$E$27</f>
+        <v>iam_menu-31</v>
       </c>
       <c r="H148" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19833,8 +20326,8 @@
         <v>1200</v>
       </c>
       <c r="G149" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-42</v>
+        <f>菜单SAAS版!$E$30</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="H149" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19852,8 +20345,8 @@
         <v>1200</v>
       </c>
       <c r="G150" t="str">
-        <f>菜单SAAS版!$E$38</f>
-        <v>iam_menu-42</v>
+        <f>菜单SAAS版!$E$30</f>
+        <v>iam_menu-34</v>
       </c>
       <c r="H150" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19871,8 +20364,8 @@
         <v>1200</v>
       </c>
       <c r="G151" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-44</v>
+        <f>菜单SAAS版!$E$39</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="H151" t="str">
         <f>菜单标签数据!$E$13</f>
@@ -19890,8 +20383,8 @@
         <v>1200</v>
       </c>
       <c r="G152" t="str">
-        <f>菜单SAAS版!$E$40</f>
-        <v>iam_menu-44</v>
+        <f>菜单SAAS版!$E$39</f>
+        <v>iam_menu-43</v>
       </c>
       <c r="H152" t="str">
         <f>菜单标签数据!$E$14</f>
@@ -19909,12 +20402,12 @@
         <v>1200</v>
       </c>
       <c r="G153" t="str">
-        <f>菜单SAAS版!$E$90</f>
-        <v>iam_menu-133</v>
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-42</v>
       </c>
       <c r="H153" t="str">
-        <f>菜单标签数据!$E$14</f>
-        <v>iam_label-14</v>
+        <f>菜单标签数据!$E$13</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I153" t="s">
         <v>1263</v>
@@ -19928,12 +20421,12 @@
         <v>1200</v>
       </c>
       <c r="G154" t="str">
-        <f>菜单SAAS版!$E$90</f>
-        <v>iam_menu-133</v>
+        <f>菜单SAAS版!$E$38</f>
+        <v>iam_menu-42</v>
       </c>
       <c r="H154" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I154" t="s">
         <v>1263</v>
@@ -19947,12 +20440,12 @@
         <v>1200</v>
       </c>
       <c r="G155" t="str">
-        <f>菜单SAAS版!$E$90</f>
-        <v>iam_menu-133</v>
+        <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="H155" t="str">
-        <f>菜单标签数据!$E$21</f>
-        <v>iam_label-21</v>
+        <f>菜单标签数据!$E$13</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I155" t="s">
         <v>1263</v>
@@ -19966,15 +20459,15 @@
         <v>1200</v>
       </c>
       <c r="G156" t="str">
-        <f>菜单SAAS版!$E$92</f>
-        <v>iam_menu-135</v>
+        <f>菜单SAAS版!$E$40</f>
+        <v>iam_menu-44</v>
       </c>
       <c r="H156" t="str">
-        <f>菜单标签数据!$E$13</f>
-        <v>iam_label-13</v>
+        <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
       </c>
       <c r="I156" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="157" spans="5:9">
@@ -19985,15 +20478,15 @@
         <v>1200</v>
       </c>
       <c r="G157" t="str">
-        <f>菜单SAAS版!$E$92</f>
-        <v>iam_menu-135</v>
+        <f>菜单SAAS版!$E$90</f>
+        <v>iam_menu-133</v>
       </c>
       <c r="H157" t="str">
         <f>菜单标签数据!$E$14</f>
         <v>iam_label-14</v>
       </c>
       <c r="I157" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="158" spans="5:9">
@@ -20004,15 +20497,15 @@
         <v>1200</v>
       </c>
       <c r="G158" t="str">
-        <f>菜单SAAS版!$E$92</f>
-        <v>iam_menu-135</v>
+        <f>菜单SAAS版!$E$90</f>
+        <v>iam_menu-133</v>
       </c>
       <c r="H158" t="str">
-        <f>菜单标签数据!$E$21</f>
-        <v>iam_label-21</v>
+        <f>菜单标签数据!$E$13</f>
+        <v>iam_label-13</v>
       </c>
       <c r="I158" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="159" spans="5:9">
@@ -20023,39 +20516,116 @@
         <v>1200</v>
       </c>
       <c r="G159" t="str">
+        <f>菜单SAAS版!$E$90</f>
+        <v>iam_menu-133</v>
+      </c>
+      <c r="H159" t="str">
+        <f>菜单标签数据!$E$21</f>
+        <v>iam_label-21</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="160" spans="5:9">
+      <c r="E160" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G160" t="str">
         <f>菜单SAAS版!$E$92</f>
         <v>iam_menu-135</v>
       </c>
-      <c r="H159" t="str">
+      <c r="H160" t="str">
+        <f>菜单标签数据!$E$13</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="161" spans="5:9">
+      <c r="E161" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G161" t="str">
+        <f>菜单SAAS版!$E$92</f>
+        <v>iam_menu-135</v>
+      </c>
+      <c r="H161" t="str">
+        <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="162" spans="5:9">
+      <c r="E162" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G162" t="str">
+        <f>菜单SAAS版!$E$92</f>
+        <v>iam_menu-135</v>
+      </c>
+      <c r="H162" t="str">
+        <f>菜单标签数据!$E$21</f>
+        <v>iam_label-21</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="163" spans="5:9">
+      <c r="E163" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G163" t="str">
+        <f>菜单SAAS版!$E$92</f>
+        <v>iam_menu-135</v>
+      </c>
+      <c r="H163" t="str">
         <f>菜单标签数据!$E$15</f>
         <v>iam_label-15</v>
       </c>
-      <c r="I159" t="s">
+      <c r="I163" t="s">
         <v>1262</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C178" workbookViewId="0">
+    <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1"/>
+    <col min="5" max="5" width="22.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="28.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -20069,7 +20639,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -20157,7 +20727,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="5:23">
       <c r="E8" t="s">
         <v>1280</v>
       </c>
@@ -20216,7 +20786,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="5:23">
       <c r="E9" t="s">
         <v>1286</v>
       </c>
@@ -20275,7 +20845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="5:25">
       <c r="E10" t="s">
         <v>1291</v>
       </c>
@@ -20338,7 +20908,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="5:25">
       <c r="E11" t="s">
         <v>1299</v>
       </c>
@@ -20401,7 +20971,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="5:25">
       <c r="E12" t="s">
         <v>1307</v>
       </c>
@@ -20464,7 +21034,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="5:25">
       <c r="E13" t="s">
         <v>1315</v>
       </c>
@@ -20527,7 +21097,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="5:24">
       <c r="E14" t="s">
         <v>1323</v>
       </c>
@@ -20585,7 +21155,7 @@
       </c>
       <c r="X14" s="5"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -24402,7 +24972,7 @@
       </c>
     </row>
     <row r="189" spans="5:10">
-      <c r="E189" s="7" t="s">
+      <c r="E189" s="5" t="s">
         <v>1510</v>
       </c>
       <c r="F189" t="str">
@@ -24424,8 +24994,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="F187" formula="1"/>
   </ignoredErrors>
@@ -24433,22 +25003,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="C22" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="6" max="6" width="29.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="29.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="18.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="20.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -24462,7 +25033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -24520,7 +25091,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
         <v>1198</v>
       </c>
@@ -24552,7 +25123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="5:15">
       <c r="E9" t="s">
         <v>1203</v>
       </c>
@@ -24581,7 +25152,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="5:15">
       <c r="E10" t="s">
         <v>1206</v>
       </c>
@@ -24613,7 +25184,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="5:15">
       <c r="E11" t="s">
         <v>1209</v>
       </c>
@@ -24645,7 +25216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="5:15">
       <c r="E12" t="s">
         <v>1211</v>
       </c>
@@ -24677,7 +25248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="5:15">
       <c r="E13" t="s">
         <v>1214</v>
       </c>
@@ -24709,7 +25280,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="5:15">
       <c r="E14" t="s">
         <v>1217</v>
       </c>
@@ -24741,7 +25312,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="5:15">
       <c r="E15" t="s">
         <v>1220</v>
       </c>
@@ -24773,7 +25344,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="5:15">
       <c r="E16" t="s">
         <v>1223</v>
       </c>
@@ -24805,7 +25376,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="5:15">
       <c r="E17" t="s">
         <v>1226</v>
       </c>
@@ -24837,7 +25408,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="5:15">
       <c r="E18" t="s">
         <v>1229</v>
       </c>
@@ -24869,7 +25440,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="5:15">
       <c r="E19" t="s">
         <v>1232</v>
       </c>
@@ -24901,7 +25472,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -24930,7 +25501,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
         <v>1261</v>
       </c>
@@ -24949,7 +25520,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="5:9">
       <c r="E23" t="s">
         <v>1261</v>
       </c>
@@ -24968,7 +25539,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="5:9">
       <c r="E24" t="s">
         <v>1261</v>
       </c>
@@ -24987,7 +25558,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="5:9">
       <c r="E25" t="s">
         <v>1261</v>
       </c>
@@ -25006,7 +25577,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="5:9">
       <c r="E26" t="s">
         <v>1261</v>
       </c>
@@ -25025,7 +25596,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="5:9">
       <c r="E27" t="s">
         <v>1261</v>
       </c>
@@ -25044,7 +25615,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="5:9">
       <c r="E28" t="s">
         <v>1261</v>
       </c>
@@ -25063,7 +25634,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="5:9">
       <c r="E29" t="s">
         <v>1261</v>
       </c>
@@ -25082,7 +25653,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="5:9">
       <c r="E30" t="s">
         <v>1261</v>
       </c>
@@ -25101,7 +25672,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="5:9">
       <c r="E31" t="s">
         <v>1261</v>
       </c>
@@ -25120,7 +25691,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="5:9">
       <c r="E32" t="s">
         <v>1261</v>
       </c>
@@ -25197,8 +25768,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3840" uniqueCount="1544">
   <si>
     <r>
       <rPr>
@@ -5167,130 +5167,136 @@
     <t>iam_menu_permission-390</t>
   </si>
   <si>
+    <t>devops-service.devops-project-overview.getCiCount</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-391</t>
+  </si>
+  <si>
     <t>agile-service.encryption.startArt</t>
   </si>
   <si>
-    <t>iam_menu_permission-391</t>
+    <t>iam_menu_permission-392</t>
   </si>
   <si>
     <t>devops-service.issue.getMergeRequestsByIssueId</t>
   </si>
   <si>
-    <t>iam_menu_permission-392</t>
+    <t>iam_menu_permission-393</t>
   </si>
   <si>
     <t>devops-service.devops-git.queryUrl</t>
   </si>
   <si>
-    <t>iam_menu_permission-393</t>
+    <t>iam_menu_permission-394</t>
   </si>
   <si>
     <t>agile-service.status.listStatusByProjectId</t>
   </si>
   <si>
-    <t>iam_menu_permission-394</t>
+    <t>iam_menu_permission-395</t>
   </si>
   <si>
     <t>agile-service.status.checkDeleteStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-395</t>
+    <t>iam_menu_permission-396</t>
   </si>
   <si>
     <t>agile-service.status.deleteStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-396</t>
+    <t>iam_menu_permission-397</t>
   </si>
   <si>
     <t>agile-service.scheme.statusTransformList</t>
   </si>
   <si>
-    <t>iam_menu_permission-397</t>
+    <t>iam_menu_permission-398</t>
   </si>
   <si>
     <t>agile-service.scheme.updateTransformByIssueTypeId</t>
   </si>
   <si>
-    <t>iam_menu_permission-398</t>
+    <t>iam_menu_permission-399</t>
   </si>
   <si>
     <t>agile-service.scheme.settingDefaultStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-399</t>
+    <t>iam_menu_permission-400</t>
   </si>
   <si>
     <t>agile-service.scheme.createStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-400</t>
+    <t>iam_menu_permission-401</t>
   </si>
   <si>
     <t>agile-service.scheme.linkStatus</t>
   </si>
   <si>
-    <t>iam_menu_permission-401</t>
+    <t>iam_menu_permission-402</t>
   </si>
   <si>
     <t>agile-service.scheme.deleteNode</t>
   </si>
   <si>
-    <t>iam_menu_permission-402</t>
+    <t>iam_menu_permission-403</t>
   </si>
   <si>
     <t>agile-service.scheme.statusTransformSettingList</t>
   </si>
   <si>
-    <t>iam_menu_permission-403</t>
+    <t>iam_menu_permission-404</t>
   </si>
   <si>
     <t>agile-service.status-transfer-setting.queryStatusTransferSetting</t>
   </si>
   <si>
-    <t>iam_menu_permission-404</t>
+    <t>iam_menu_permission-405</t>
   </si>
   <si>
     <t>agile-service.status-transfer-setting.createOrUpdate</t>
   </si>
   <si>
-    <t>iam_menu_permission-405</t>
+    <t>iam_menu_permission-406</t>
   </si>
   <si>
     <t>agile-service.project-object-scheme-field.selectMemberList</t>
   </si>
   <si>
-    <t>iam_menu_permission-406</t>
+    <t>iam_menu_permission-407</t>
   </si>
   <si>
     <t>agile-service.status-notice-setting.detail</t>
   </si>
   <si>
-    <t>iam_menu_permission-407</t>
+    <t>iam_menu_permission-408</t>
   </si>
   <si>
     <t>agile-service.status-notice-setting.save</t>
   </si>
   <si>
-    <t>iam_menu_permission-408</t>
+    <t>iam_menu_permission-409</t>
   </si>
   <si>
     <t>agile-service.status-field-setting.listFieldSetting</t>
   </si>
   <si>
-    <t>iam_menu_permission-409</t>
+    <t>iam_menu_permission-410</t>
   </si>
   <si>
     <t>agile-service.status-field-setting.createOrUpdate</t>
   </si>
   <si>
-    <t>iam_menu_permission-410</t>
+    <t>iam_menu_permission-411</t>
   </si>
   <si>
     <t>agile-service.status-linkage.listStatusLinkage</t>
   </si>
   <si>
-    <t>iam_menu_permission-411</t>
+    <t>iam_menu_permission-412</t>
   </si>
   <si>
     <t>agile-service.status-linkage.createOrUpdate</t>
@@ -6370,11 +6376,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -6451,29 +6457,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6482,13 +6465,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6516,8 +6492,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6538,84 +6607,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6634,13 +6628,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -6653,12 +6640,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -6702,49 +6683,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6756,43 +6725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6810,13 +6743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6828,19 +6755,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6858,31 +6791,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6989,25 +6970,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7028,15 +7005,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7048,6 +7016,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7069,168 +7061,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7941,7 +7922,7 @@
   <sheetPr/>
   <dimension ref="A1:Y94"/>
   <sheetViews>
-    <sheetView topLeftCell="D70" workbookViewId="0">
+    <sheetView topLeftCell="D78" workbookViewId="0">
       <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
@@ -12437,10 +12418,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G411"/>
+  <dimension ref="A1:G412"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="G136" sqref="G136"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="E407" sqref="E407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -17087,8 +17068,8 @@
         <v>1142</v>
       </c>
       <c r="F390" t="str">
-        <f>菜单SAAS版!$E$52</f>
-        <v>iam_menu-71</v>
+        <f>菜单SAAS版!$E$91</f>
+        <v>iam_menu-134</v>
       </c>
       <c r="G390" t="s">
         <v>1143</v>
@@ -17099,8 +17080,8 @@
         <v>1144</v>
       </c>
       <c r="F391" t="str">
-        <f>菜单SAAS版!$E$28</f>
-        <v>iam_menu-32</v>
+        <f>菜单SAAS版!$E$52</f>
+        <v>iam_menu-71</v>
       </c>
       <c r="G391" t="s">
         <v>1145</v>
@@ -17123,8 +17104,8 @@
         <v>1148</v>
       </c>
       <c r="F393" t="str">
-        <f>菜单SAAS版!$E$94</f>
-        <v>iam_menu-137</v>
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-32</v>
       </c>
       <c r="G393" t="s">
         <v>1149</v>
@@ -17330,7 +17311,7 @@
         <f>菜单SAAS版!$E$94</f>
         <v>iam_menu-137</v>
       </c>
-      <c r="G410" s="5" t="s">
+      <c r="G410" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -17344,6 +17325,18 @@
       </c>
       <c r="G411" s="5" t="s">
         <v>1185</v>
+      </c>
+    </row>
+    <row r="412" spans="5:7">
+      <c r="E412" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F412" t="str">
+        <f>菜单SAAS版!$E$94</f>
+        <v>iam_menu-137</v>
+      </c>
+      <c r="G412" s="5" t="s">
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
@@ -17357,7 +17350,7 @@
   <sheetPr/>
   <dimension ref="A1:O163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D102" workbookViewId="0">
+    <sheetView topLeftCell="D102" workbookViewId="0">
       <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
@@ -17404,66 +17397,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="H7" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="I7" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="J7" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="K7" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="L7" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="M7" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="N7" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="O7" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="F8" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="G8" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1204</v>
+      </c>
+      <c r="K8" t="s">
         <v>1201</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1202</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1199</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -17477,25 +17470,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
         <v>1203</v>
       </c>
-      <c r="F9" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1201</v>
-      </c>
       <c r="J9" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="K9" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -17509,19 +17502,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="F10" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="G10" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -17535,19 +17528,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="F11" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="G11" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -17561,25 +17554,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="F12" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="G12" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J12" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="K12" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -17593,22 +17586,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="F13" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="G13" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J13" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -17622,22 +17615,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="F14" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="G14" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J14" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -17651,22 +17644,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" s="5" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F15" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="G15" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J15" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -17680,22 +17673,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="F16" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="G16" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J16" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -17709,25 +17702,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="F17" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="G17" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J17" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="K17" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -17741,25 +17734,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="F18" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="G18" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J18" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="K18" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -17773,25 +17766,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="F19" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="G19" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J19" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="K19" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -17805,19 +17798,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="F20" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="G20" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -17831,25 +17824,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="F21" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="G21" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J21" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="K21" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -17863,25 +17856,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="F22" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="G22" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J22" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="K22" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -17895,25 +17888,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="F23" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="G23" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J23" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="K23" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -17927,19 +17920,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="F24" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="G24" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -17953,22 +17946,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="F25" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="G25" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J25" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -17982,22 +17975,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="F26" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="G26" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J26" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -18017,33 +18010,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="I28" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F29" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18054,15 +18047,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F30" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18073,15 +18066,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I30" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F31" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18092,15 +18085,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I31" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F32" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18111,15 +18104,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I32" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F33" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18130,15 +18123,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F34" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18149,15 +18142,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I34" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F35" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18168,15 +18161,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I35" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F36" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18187,15 +18180,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I36" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F37" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18206,15 +18199,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I37" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F38" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18225,15 +18218,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I38" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F39" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18244,15 +18237,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I39" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F40" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18263,15 +18256,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I40" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F41" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -18282,15 +18275,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I41" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F42" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -18301,15 +18294,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I42" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F43" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -18320,15 +18313,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I43" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F44" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -18339,15 +18332,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I44" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F45" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -18358,15 +18351,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I45" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F46" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -18377,15 +18370,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I46" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F47" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18396,15 +18389,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I47" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F48" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18415,15 +18408,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I48" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F49" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18434,15 +18427,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I49" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F50" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18453,15 +18446,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I50" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F51" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18472,15 +18465,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I51" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F52" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18491,15 +18484,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I52" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F53" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18510,15 +18503,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I53" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F54" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18529,15 +18522,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I54" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F55" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18548,15 +18541,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I55" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F56" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18567,15 +18560,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I56" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F57" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18586,15 +18579,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I57" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F58" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18605,15 +18598,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I58" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F59" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18624,15 +18617,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I59" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F60" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18643,15 +18636,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I60" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F61" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18662,15 +18655,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I61" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F62" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18681,15 +18674,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I62" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F63" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18700,15 +18693,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I63" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F64" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18719,15 +18712,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I64" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F65" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18738,15 +18731,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I65" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F66" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18757,15 +18750,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I66" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F67" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18776,15 +18769,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I67" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F68" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18795,15 +18788,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I68" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F69" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18814,15 +18807,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I69" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="70" spans="5:9">
       <c r="E70" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F70" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G70" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -18833,15 +18826,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I70" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="71" spans="5:9">
       <c r="E71" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F71" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G71" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -18852,15 +18845,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I71" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="72" spans="5:9">
       <c r="E72" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F72" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G72" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -18871,15 +18864,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I72" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F73" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G73" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -18890,15 +18883,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I73" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="74" spans="5:9">
       <c r="E74" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F74" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G74" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -18909,15 +18902,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I74" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F75" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G75" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -18928,15 +18921,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I75" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F76" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G76" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -18947,15 +18940,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I76" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="77" spans="5:9">
       <c r="E77" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F77" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G77" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -18966,15 +18959,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I77" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="78" spans="5:9">
       <c r="E78" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F78" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G78" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -18985,15 +18978,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I78" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="79" spans="5:9">
       <c r="E79" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F79" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G79" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -19004,15 +18997,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I79" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="80" spans="5:9">
       <c r="E80" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F80" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G80" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -19023,15 +19016,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I80" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="81" spans="5:9">
       <c r="E81" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F81" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G81" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -19042,15 +19035,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I81" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="82" spans="5:9">
       <c r="E82" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F82" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G82" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -19061,15 +19054,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I82" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="83" spans="5:9">
       <c r="E83" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F83" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G83" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -19080,15 +19073,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I83" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="84" spans="5:9">
       <c r="E84" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F84" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G84" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -19099,15 +19092,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I84" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="85" spans="5:9">
       <c r="E85" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F85" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G85" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -19118,15 +19111,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I85" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="86" spans="5:9">
       <c r="E86" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F86" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G86" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -19137,15 +19130,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I86" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="87" spans="5:9">
       <c r="E87" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F87" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G87" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -19156,15 +19149,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I87" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="88" spans="5:9">
       <c r="E88" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F88" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G88" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -19175,15 +19168,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I88" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="89" spans="5:9">
       <c r="E89" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F89" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G89" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -19194,15 +19187,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I89" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="90" spans="5:9">
       <c r="E90" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F90" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G90" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -19213,15 +19206,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I90" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="91" spans="5:9">
       <c r="E91" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F91" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G91" t="str">
         <f>菜单SAAS版!$E$19</f>
@@ -19232,15 +19225,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I91" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="92" spans="5:9">
       <c r="E92" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F92" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G92" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -19251,15 +19244,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I92" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="93" spans="5:9">
       <c r="E93" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F93" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G93" t="str">
         <f>菜单SAAS版!$E$22</f>
@@ -19270,15 +19263,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I93" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="94" spans="5:9">
       <c r="E94" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F94" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G94" t="str">
         <f>菜单SAAS版!$E$20</f>
@@ -19289,15 +19282,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I94" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="95" spans="5:9">
       <c r="E95" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F95" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G95" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -19308,15 +19301,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I95" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="96" spans="5:9">
       <c r="E96" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F96" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G96" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -19327,15 +19320,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I96" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="97" spans="5:9">
       <c r="E97" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F97" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G97" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -19346,15 +19339,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I97" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="98" spans="5:9">
       <c r="E98" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F98" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G98" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -19365,15 +19358,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I98" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="99" spans="5:9">
       <c r="E99" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F99" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G99" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -19384,15 +19377,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I99" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="100" spans="5:9">
       <c r="E100" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F100" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G100" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -19403,15 +19396,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I100" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="101" spans="5:9">
       <c r="E101" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F101" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G101" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -19422,15 +19415,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I101" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="102" spans="5:9">
       <c r="E102" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F102" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G102" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -19441,15 +19434,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I102" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="103" spans="5:9">
       <c r="E103" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F103" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G103" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -19460,15 +19453,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I103" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="104" spans="5:9">
       <c r="E104" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F104" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G104" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -19479,15 +19472,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I104" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="105" spans="5:9">
       <c r="E105" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F105" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G105" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -19498,15 +19491,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I105" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="106" spans="5:9">
       <c r="E106" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F106" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G106" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -19517,15 +19510,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I106" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="107" spans="5:9">
       <c r="E107" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F107" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G107" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -19536,15 +19529,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I107" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="5:9">
       <c r="E108" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F108" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G108" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -19555,15 +19548,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I108" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="109" spans="5:9">
       <c r="E109" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F109" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G109" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -19574,15 +19567,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I109" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="110" customFormat="1" spans="5:9">
       <c r="E110" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F110" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G110" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -19593,15 +19586,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I110" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="111" spans="5:9">
       <c r="E111" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F111" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G111" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -19612,15 +19605,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I111" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="112" spans="5:9">
       <c r="E112" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F112" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G112" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -19631,15 +19624,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I112" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="113" customFormat="1" spans="5:9">
       <c r="E113" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F113" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G113" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -19650,15 +19643,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I113" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="114" spans="5:9">
       <c r="E114" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F114" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G114" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -19669,15 +19662,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I114" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="115" spans="5:9">
       <c r="E115" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F115" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G115" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -19688,15 +19681,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I115" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="116" customFormat="1" spans="5:9">
       <c r="E116" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F116" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G116" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -19707,15 +19700,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I116" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="117" spans="5:9">
       <c r="E117" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F117" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G117" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -19726,15 +19719,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I117" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="118" spans="5:9">
       <c r="E118" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F118" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G118" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -19745,15 +19738,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I118" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="119" spans="5:9">
       <c r="E119" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F119" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G119" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -19764,15 +19757,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I119" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="120" spans="5:9">
       <c r="E120" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F120" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G120" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -19783,15 +19776,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I120" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="121" spans="5:9">
       <c r="E121" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F121" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G121" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -19802,15 +19795,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I121" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="122" spans="5:9">
       <c r="E122" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F122" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G122" t="str">
         <f>菜单SAAS版!$E$80</f>
@@ -19821,15 +19814,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I122" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="123" spans="5:9">
       <c r="E123" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F123" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G123" t="str">
         <f>菜单SAAS版!$E$80</f>
@@ -19840,15 +19833,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I123" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="124" spans="5:9">
       <c r="E124" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F124" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G124" t="str">
         <f>菜单SAAS版!$E$77</f>
@@ -19859,15 +19852,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I124" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="125" spans="5:9">
       <c r="E125" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F125" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G125" t="str">
         <f>菜单SAAS版!$E$77</f>
@@ -19878,15 +19871,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I125" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="126" spans="5:9">
       <c r="E126" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F126" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G126" t="str">
         <f>菜单SAAS版!$E$83</f>
@@ -19897,15 +19890,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I126" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="127" spans="5:9">
       <c r="E127" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F127" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G127" t="str">
         <f>菜单SAAS版!$E$83</f>
@@ -19916,15 +19909,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I127" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="128" spans="5:9">
       <c r="E128" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F128" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G128" t="str">
         <f>菜单SAAS版!$E$84</f>
@@ -19935,15 +19928,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I128" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="129" spans="5:9">
       <c r="E129" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F129" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G129" t="str">
         <f>菜单SAAS版!$E$84</f>
@@ -19954,15 +19947,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I129" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="130" spans="5:9">
       <c r="E130" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F130" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G130" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -19973,15 +19966,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I130" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="131" spans="5:9">
       <c r="E131" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F131" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G131" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -19992,15 +19985,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I131" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="132" spans="5:9">
       <c r="E132" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F132" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G132" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -20011,15 +20004,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I132" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="133" spans="5:9">
       <c r="E133" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F133" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G133" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -20030,15 +20023,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I133" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="134" spans="5:9">
       <c r="E134" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F134" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G134" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -20049,15 +20042,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I134" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="135" spans="5:9">
       <c r="E135" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F135" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G135" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -20068,15 +20061,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I135" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="136" spans="5:9">
       <c r="E136" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F136" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G136" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -20087,15 +20080,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I136" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="137" spans="5:9">
       <c r="E137" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F137" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G137" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -20106,15 +20099,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I137" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="138" spans="5:9">
       <c r="E138" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F138" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G138" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -20125,15 +20118,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I138" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="139" spans="5:9">
       <c r="E139" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F139" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G139" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -20144,15 +20137,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I139" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="140" spans="5:9">
       <c r="E140" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F140" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G140" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -20163,15 +20156,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I140" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="141" spans="5:9">
       <c r="E141" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F141" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G141" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -20182,15 +20175,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I141" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="142" spans="5:9">
       <c r="E142" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F142" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G142" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -20201,15 +20194,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I142" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="143" spans="5:9">
       <c r="E143" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F143" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G143" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -20220,15 +20213,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I143" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="144" spans="5:9">
       <c r="E144" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F144" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G144" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -20239,15 +20232,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I144" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="145" spans="5:9">
       <c r="E145" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F145" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G145" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -20258,15 +20251,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I145" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="146" spans="5:9">
       <c r="E146" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F146" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G146" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -20277,15 +20270,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I146" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="147" spans="5:9">
       <c r="E147" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F147" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G147" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -20296,15 +20289,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I147" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="148" spans="5:9">
       <c r="E148" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F148" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G148" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -20315,15 +20308,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I148" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="149" spans="5:9">
       <c r="E149" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F149" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G149" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -20334,15 +20327,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I149" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="150" spans="5:9">
       <c r="E150" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F150" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G150" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -20353,15 +20346,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I150" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="151" spans="5:9">
       <c r="E151" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F151" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G151" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -20372,15 +20365,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I151" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="152" spans="5:9">
       <c r="E152" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F152" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G152" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -20391,15 +20384,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I152" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="153" spans="5:9">
       <c r="E153" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F153" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G153" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -20410,15 +20403,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I153" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="154" spans="5:9">
       <c r="E154" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F154" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G154" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -20429,15 +20422,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I154" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="155" spans="5:9">
       <c r="E155" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F155" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G155" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -20448,15 +20441,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I155" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="156" spans="5:9">
       <c r="E156" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F156" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G156" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -20467,15 +20460,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I156" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="157" spans="5:9">
       <c r="E157" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F157" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G157" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -20486,15 +20479,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I157" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="158" spans="5:9">
       <c r="E158" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F158" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G158" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -20505,15 +20498,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I158" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="159" spans="5:9">
       <c r="E159" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F159" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G159" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -20524,15 +20517,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I159" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="160" spans="5:9">
       <c r="E160" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F160" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G160" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -20543,15 +20536,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I160" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="161" spans="5:9">
       <c r="E161" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F161" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G161" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -20562,15 +20555,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I161" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="162" spans="5:9">
       <c r="E162" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F162" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G162" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -20581,15 +20574,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I162" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="163" spans="5:9">
       <c r="E163" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F163" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="G163" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -20600,7 +20593,7 @@
         <v>iam_label-15</v>
       </c>
       <c r="I163" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -20658,10 +20651,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -20676,75 +20669,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="J7" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="O7" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="P7" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="Q7" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="R7" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="S7" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="T7" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="X7" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="Y7" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="F8" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="G8" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="H8" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="I8" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="J8" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -20777,10 +20770,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="V8" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -20788,19 +20781,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="F9" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="G9" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="H9" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="I9" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -20836,10 +20829,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="V9" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -20847,16 +20840,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="F10" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="G10" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="H10" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -20893,33 +20886,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="V10" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="Y10" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="F11" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="G11" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="H11" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -20956,33 +20949,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="V11" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="Y11" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F12" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="G12" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="H12" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -21019,33 +21012,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="V12" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="Y12" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="F13" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="G13" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="H13" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -21082,36 +21075,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="V13" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="Y13" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="14" spans="5:24">
       <c r="E14" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="F14" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="G14" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="H14" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="J14" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -21145,10 +21138,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="V14" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -21163,33 +21156,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="H16" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="I16" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -21200,18 +21193,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H17" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I17" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J17" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -21222,18 +21215,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H18" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I18" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J18" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -21244,18 +21237,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H19" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I19" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J19" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -21266,18 +21259,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H20" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I20" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J20" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -21288,18 +21281,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H21" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I21" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J21" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -21310,18 +21303,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I22" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J22" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -21332,18 +21325,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H23" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I23" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J23" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -21354,18 +21347,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H24" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I24" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J24" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -21376,18 +21369,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H25" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I25" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J25" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -21398,18 +21391,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H26" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I26" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J26" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -21420,18 +21413,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H27" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I27" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J27" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -21442,18 +21435,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H28" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I28" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J28" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -21464,18 +21457,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H29" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I29" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J29" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -21486,18 +21479,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H30" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I30" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J30" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -21508,18 +21501,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H31" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I31" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J31" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -21530,18 +21523,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H32" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I32" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J32" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -21552,18 +21545,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H33" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I33" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J33" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -21574,18 +21567,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H34" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I34" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J34" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -21596,18 +21589,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H35" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I35" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J35" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -21618,18 +21611,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H36" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I36" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J36" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -21640,18 +21633,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H37" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I37" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J37" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -21662,18 +21655,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H38" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I38" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J38" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -21684,18 +21677,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H39" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I39" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J39" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$10</f>
@@ -21706,18 +21699,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H40" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I40" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J40" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$10</f>
@@ -21728,18 +21721,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H41" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I41" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J41" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$10</f>
@@ -21750,18 +21743,18 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H42" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I42" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J42" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$10</f>
@@ -21772,18 +21765,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H43" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I43" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J43" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$10</f>
@@ -21794,18 +21787,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H44" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I44" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J44" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$10</f>
@@ -21816,18 +21809,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H45" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I45" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J45" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$10</f>
@@ -21838,18 +21831,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H46" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I46" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J46" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$10</f>
@@ -21860,18 +21853,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H47" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I47" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J47" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$10</f>
@@ -21882,18 +21875,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H48" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I48" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J48" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$10</f>
@@ -21904,18 +21897,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H49" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I49" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J49" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$10</f>
@@ -21926,18 +21919,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H50" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I50" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J50" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$10</f>
@@ -21948,18 +21941,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H51" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I51" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J51" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$10</f>
@@ -21970,18 +21963,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H52" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I52" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J52" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$10</f>
@@ -21992,18 +21985,18 @@
         <v>iam_menu-61</v>
       </c>
       <c r="H53" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I53" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J53" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$10</f>
@@ -22014,18 +22007,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H54" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I54" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J54" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$10</f>
@@ -22036,18 +22029,18 @@
         <v>iam_menu-62</v>
       </c>
       <c r="H55" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I55" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J55" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$10</f>
@@ -22058,18 +22051,18 @@
         <v>iam_menu-67</v>
       </c>
       <c r="H56" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I56" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J56" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$10</f>
@@ -22080,18 +22073,18 @@
         <v>iam_menu-69</v>
       </c>
       <c r="H57" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I57" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J57" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$10</f>
@@ -22102,18 +22095,18 @@
         <v>iam_menu-68</v>
       </c>
       <c r="H58" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I58" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J58" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$10</f>
@@ -22124,18 +22117,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H59" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I59" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J59" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$10</f>
@@ -22146,18 +22139,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H60" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I60" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J60" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$10</f>
@@ -22168,18 +22161,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H61" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I61" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J61" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$10</f>
@@ -22190,18 +22183,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H62" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I62" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J62" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$10</f>
@@ -22212,18 +22205,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H63" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I63" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J63" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$10</f>
@@ -22234,18 +22227,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H64" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I64" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J64" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$10</f>
@@ -22256,18 +22249,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H65" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I65" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J65" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$10</f>
@@ -22278,18 +22271,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H66" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I66" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J66" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$10</f>
@@ -22300,18 +22293,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H67" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I67" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J67" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$10</f>
@@ -22322,18 +22315,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H68" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I68" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J68" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$10</f>
@@ -22344,18 +22337,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H69" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I69" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J69" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$10</f>
@@ -22366,18 +22359,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H70" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I70" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J70" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$10</f>
@@ -22388,18 +22381,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H71" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I71" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J71" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$10</f>
@@ -22410,18 +22403,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H72" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I72" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J72" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$10</f>
@@ -22432,18 +22425,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H73" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I73" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J73" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$10</f>
@@ -22454,18 +22447,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H74" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I74" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J74" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$10</f>
@@ -22476,18 +22469,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H75" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I75" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J75" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$10</f>
@@ -22498,18 +22491,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H76" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I76" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J76" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$10</f>
@@ -22520,18 +22513,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H77" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I77" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J77" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$10</f>
@@ -22542,18 +22535,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H78" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I78" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J78" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$10</f>
@@ -22564,18 +22557,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H79" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I79" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J79" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$10</f>
@@ -22586,18 +22579,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H80" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I80" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J80" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$10</f>
@@ -22608,18 +22601,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H81" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I81" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J81" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$10</f>
@@ -22630,18 +22623,18 @@
         <v>iam_menu-125</v>
       </c>
       <c r="H82" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I82" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J82" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$10</f>
@@ -22652,18 +22645,18 @@
         <v>iam_menu-128</v>
       </c>
       <c r="H83" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I83" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J83" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$12</f>
@@ -22674,18 +22667,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H84" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I84" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J84" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$12</f>
@@ -22696,18 +22689,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H85" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I85" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J85" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="86" spans="5:10">
       <c r="E86" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="F86" t="str">
         <f>角色!$E$12</f>
@@ -22718,18 +22711,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H86" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I86" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J86" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="87" spans="5:10">
       <c r="E87" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="F87" t="str">
         <f>角色!$E$12</f>
@@ -22740,18 +22733,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H87" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I87" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J87" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="88" spans="5:10">
       <c r="E88" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="F88" t="str">
         <f>角色!$E$12</f>
@@ -22762,18 +22755,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H88" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I88" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J88" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="89" spans="5:10">
       <c r="E89" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="F89" t="str">
         <f>角色!$E$12</f>
@@ -22784,18 +22777,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H89" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I89" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J89" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="90" spans="5:10">
       <c r="E90" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="F90" t="str">
         <f>角色!$E$12</f>
@@ -22806,18 +22799,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H90" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I90" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J90" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="91" spans="5:10">
       <c r="E91" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="F91" t="str">
         <f>角色!$E$12</f>
@@ -22828,18 +22821,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H91" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I91" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J91" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="92" spans="5:10">
       <c r="E92" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="F92" t="str">
         <f>角色!$E$12</f>
@@ -22850,18 +22843,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H92" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I92" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J92" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="93" spans="5:10">
       <c r="E93" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="F93" t="str">
         <f>角色!$E$12</f>
@@ -22872,18 +22865,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H93" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I93" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J93" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="94" spans="5:10">
       <c r="E94" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="F94" t="str">
         <f>角色!$E$12</f>
@@ -22894,18 +22887,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H94" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I94" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J94" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="95" spans="5:10">
       <c r="E95" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="F95" t="str">
         <f>角色!$E$12</f>
@@ -22916,18 +22909,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H95" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I95" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J95" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="96" spans="5:10">
       <c r="E96" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="F96" t="str">
         <f>角色!$E$12</f>
@@ -22938,18 +22931,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H96" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I96" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J96" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="97" spans="5:10">
       <c r="E97" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="F97" t="str">
         <f>角色!$E$12</f>
@@ -22960,18 +22953,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H97" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I97" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J97" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="98" spans="5:10">
       <c r="E98" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="F98" t="str">
         <f>角色!$E$12</f>
@@ -22982,18 +22975,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H98" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I98" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J98" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="99" spans="5:10">
       <c r="E99" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="F99" t="str">
         <f>角色!$E$12</f>
@@ -23004,18 +22997,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H99" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I99" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J99" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="100" spans="5:10">
       <c r="E100" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="F100" t="str">
         <f>角色!$E$12</f>
@@ -23026,18 +23019,18 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H100" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I100" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J100" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="101" spans="5:10">
       <c r="E101" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="F101" t="str">
         <f>角色!$E$12</f>
@@ -23048,18 +23041,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H101" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I101" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J101" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="102" spans="5:10">
       <c r="E102" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="F102" t="str">
         <f>角色!$E$12</f>
@@ -23070,18 +23063,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H102" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I102" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J102" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="103" spans="5:10">
       <c r="E103" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="F103" t="str">
         <f>角色!$E$12</f>
@@ -23092,18 +23085,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H103" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I103" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J103" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="104" spans="5:10">
       <c r="E104" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="F104" t="str">
         <f>角色!$E$12</f>
@@ -23114,18 +23107,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H104" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I104" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J104" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="105" spans="5:10">
       <c r="E105" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="F105" t="str">
         <f>角色!$E$12</f>
@@ -23136,18 +23129,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H105" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I105" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J105" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="106" spans="5:10">
       <c r="E106" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="F106" t="str">
         <f>角色!$E$12</f>
@@ -23158,18 +23151,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H106" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I106" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J106" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="107" spans="5:10">
       <c r="E107" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="F107" t="str">
         <f>角色!$E$12</f>
@@ -23180,18 +23173,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H107" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I107" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J107" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="108" spans="5:10">
       <c r="E108" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="F108" t="str">
         <f>角色!$E$12</f>
@@ -23202,18 +23195,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H108" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I108" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J108" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="109" spans="5:10">
       <c r="E109" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="F109" t="str">
         <f>角色!$E$12</f>
@@ -23224,18 +23217,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H109" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I109" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J109" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="110" spans="5:10">
       <c r="E110" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="F110" t="str">
         <f>角色!$E$12</f>
@@ -23246,18 +23239,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H110" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I110" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J110" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="111" spans="5:10">
       <c r="E111" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="F111" t="str">
         <f>角色!$E$12</f>
@@ -23268,18 +23261,18 @@
         <v>iam_menu-61</v>
       </c>
       <c r="H111" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I111" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J111" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="112" spans="5:10">
       <c r="E112" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="F112" t="str">
         <f>角色!$E$12</f>
@@ -23290,18 +23283,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H112" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I112" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J112" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="113" spans="5:10">
       <c r="E113" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="F113" t="str">
         <f>角色!$E$12</f>
@@ -23312,18 +23305,18 @@
         <v>iam_menu-62</v>
       </c>
       <c r="H113" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I113" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J113" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="114" spans="5:10">
       <c r="E114" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="F114" t="str">
         <f>角色!$E$12</f>
@@ -23334,18 +23327,18 @@
         <v>iam_menu-67</v>
       </c>
       <c r="H114" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I114" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J114" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="115" spans="5:10">
       <c r="E115" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="F115" t="str">
         <f>角色!$E$12</f>
@@ -23356,18 +23349,18 @@
         <v>iam_menu-69</v>
       </c>
       <c r="H115" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I115" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J115" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="116" spans="5:10">
       <c r="E116" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="F116" t="str">
         <f>角色!$E$12</f>
@@ -23378,18 +23371,18 @@
         <v>iam_menu-68</v>
       </c>
       <c r="H116" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I116" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J116" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="117" spans="5:10">
       <c r="E117" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="F117" t="str">
         <f>角色!$E$12</f>
@@ -23400,18 +23393,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H117" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I117" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J117" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="118" spans="5:10">
       <c r="E118" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="F118" t="str">
         <f>角色!$E$12</f>
@@ -23422,18 +23415,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H118" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I118" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J118" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="119" spans="5:10">
       <c r="E119" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="F119" t="str">
         <f>角色!$E$12</f>
@@ -23444,18 +23437,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H119" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I119" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J119" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="120" spans="5:10">
       <c r="E120" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="F120" t="str">
         <f>角色!$E$12</f>
@@ -23466,18 +23459,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H120" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I120" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J120" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="121" spans="5:10">
       <c r="E121" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="F121" t="str">
         <f>角色!$E$12</f>
@@ -23488,18 +23481,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H121" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I121" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J121" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="122" spans="5:10">
       <c r="E122" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="F122" t="str">
         <f>角色!$E$12</f>
@@ -23510,18 +23503,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H122" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I122" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J122" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="123" spans="5:10">
       <c r="E123" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="F123" t="str">
         <f>角色!$E$12</f>
@@ -23532,18 +23525,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H123" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I123" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J123" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="124" spans="5:10">
       <c r="E124" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="F124" t="str">
         <f>角色!$E$12</f>
@@ -23554,18 +23547,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H124" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I124" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J124" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="125" spans="5:10">
       <c r="E125" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="F125" t="str">
         <f>角色!$E$12</f>
@@ -23576,18 +23569,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H125" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I125" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J125" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="126" spans="5:10">
       <c r="E126" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="F126" t="str">
         <f>角色!$E$12</f>
@@ -23598,18 +23591,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H126" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I126" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J126" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="127" spans="5:10">
       <c r="E127" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="F127" t="str">
         <f>角色!$E$12</f>
@@ -23620,18 +23613,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H127" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I127" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J127" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="128" spans="5:10">
       <c r="E128" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="F128" t="str">
         <f>角色!$E$12</f>
@@ -23642,18 +23635,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H128" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I128" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J128" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="129" spans="5:10">
       <c r="E129" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="F129" t="str">
         <f>角色!$E$12</f>
@@ -23664,18 +23657,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H129" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I129" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J129" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="130" spans="5:10">
       <c r="E130" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="F130" t="str">
         <f>角色!$E$12</f>
@@ -23686,18 +23679,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H130" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I130" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J130" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="131" spans="5:10">
       <c r="E131" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="F131" t="str">
         <f>角色!$E$12</f>
@@ -23708,18 +23701,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H131" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I131" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J131" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="132" spans="5:10">
       <c r="E132" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="F132" t="str">
         <f>角色!$E$12</f>
@@ -23730,18 +23723,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H132" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I132" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J132" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="133" spans="5:10">
       <c r="E133" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="F133" t="str">
         <f>角色!$E$12</f>
@@ -23752,18 +23745,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H133" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I133" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J133" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="134" spans="5:10">
       <c r="E134" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="F134" t="str">
         <f>角色!$E$12</f>
@@ -23774,18 +23767,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H134" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I134" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J134" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="135" spans="5:10">
       <c r="E135" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="F135" t="str">
         <f>角色!$E$12</f>
@@ -23796,18 +23789,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H135" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I135" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J135" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="136" spans="5:10">
       <c r="E136" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="F136" t="str">
         <f>角色!$E$12</f>
@@ -23818,18 +23811,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H136" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I136" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J136" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="137" spans="5:10">
       <c r="E137" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="F137" t="str">
         <f>角色!$E$12</f>
@@ -23840,18 +23833,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H137" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I137" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J137" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="138" spans="5:10">
       <c r="E138" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="F138" t="str">
         <f>角色!$E$12</f>
@@ -23862,18 +23855,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H138" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I138" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J138" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="139" spans="5:10">
       <c r="E139" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="F139" t="str">
         <f>角色!$E$12</f>
@@ -23884,18 +23877,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H139" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I139" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J139" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="140" spans="5:10">
       <c r="E140" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="F140" t="str">
         <f>角色!$E$12</f>
@@ -23906,18 +23899,18 @@
         <v>iam_menu-125</v>
       </c>
       <c r="H140" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I140" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J140" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="141" spans="5:10">
       <c r="E141" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="F141" t="str">
         <f>角色!$E$12</f>
@@ -23928,18 +23921,18 @@
         <v>iam_menu-128</v>
       </c>
       <c r="H141" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I141" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J141" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="142" spans="5:10">
       <c r="E142" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="F142" t="str">
         <f>角色!$E$13</f>
@@ -23950,18 +23943,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H142" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I142" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J142" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="143" spans="5:10">
       <c r="E143" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="F143" t="str">
         <f>角色!$E$13</f>
@@ -23972,18 +23965,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H143" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I143" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J143" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="144" spans="5:10">
       <c r="E144" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="F144" t="str">
         <f>角色!$E$13</f>
@@ -23994,18 +23987,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H144" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I144" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J144" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="145" spans="5:10">
       <c r="E145" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="F145" t="str">
         <f>角色!$E$13</f>
@@ -24016,18 +24009,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H145" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I145" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J145" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="146" spans="5:10">
       <c r="E146" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="F146" t="str">
         <f>角色!$E$13</f>
@@ -24038,18 +24031,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H146" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I146" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J146" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="147" spans="5:10">
       <c r="E147" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="F147" t="str">
         <f>角色!$E$13</f>
@@ -24060,18 +24053,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H147" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I147" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J147" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="148" spans="5:10">
       <c r="E148" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="F148" t="str">
         <f>角色!$E$13</f>
@@ -24082,18 +24075,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H148" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I148" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J148" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="149" spans="5:10">
       <c r="E149" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="F149" t="str">
         <f>角色!$E$13</f>
@@ -24104,18 +24097,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H149" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="I149" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J149" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="150" spans="5:10">
       <c r="E150" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="F150" t="str">
         <f>角色!$E$13</f>
@@ -24126,18 +24119,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H150" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="I150" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J150" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="151" spans="5:10">
       <c r="E151" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="F151" t="str">
         <f>角色!$E$13</f>
@@ -24148,18 +24141,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H151" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="I151" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J151" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="152" spans="5:10">
       <c r="E152" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="F152" t="str">
         <f>角色!$E$13</f>
@@ -24170,18 +24163,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H152" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="I152" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J152" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="153" spans="5:10">
       <c r="E153" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="F153" t="str">
         <f>角色!$E$13</f>
@@ -24192,18 +24185,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H153" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="I153" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J153" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="154" spans="5:10">
       <c r="E154" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="F154" t="str">
         <f>角色!$E$13</f>
@@ -24214,18 +24207,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H154" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="I154" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J154" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="155" spans="5:10">
       <c r="E155" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="F155" t="str">
         <f>角色!$E$13</f>
@@ -24236,18 +24229,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H155" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="I155" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J155" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="156" spans="5:10">
       <c r="E156" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="F156" t="str">
         <f>角色!$E$13</f>
@@ -24258,18 +24251,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H156" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I156" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J156" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="157" spans="5:10">
       <c r="E157" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="F157" t="str">
         <f>角色!$E$13</f>
@@ -24280,18 +24273,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H157" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I157" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J157" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="158" spans="5:10">
       <c r="E158" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="F158" t="str">
         <f>角色!$E$13</f>
@@ -24302,18 +24295,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H158" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I158" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J158" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="159" spans="5:10">
       <c r="E159" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="F159" t="str">
         <f>角色!$E$13</f>
@@ -24324,18 +24317,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H159" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I159" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J159" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="160" spans="5:10">
       <c r="E160" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="F160" t="str">
         <f>角色!$E$13</f>
@@ -24346,18 +24339,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H160" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I160" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J160" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="161" spans="5:10">
       <c r="E161" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="F161" t="str">
         <f>角色!$E$13</f>
@@ -24368,18 +24361,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H161" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I161" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J161" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="162" spans="5:10">
       <c r="E162" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="F162" t="str">
         <f>角色!$E$13</f>
@@ -24390,18 +24383,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H162" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I162" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J162" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="163" spans="5:10">
       <c r="E163" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="F163" t="str">
         <f>角色!$E$13</f>
@@ -24412,18 +24405,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H163" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I163" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J163" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="164" spans="5:10">
       <c r="E164" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="F164" t="str">
         <f>角色!$E$13</f>
@@ -24434,18 +24427,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H164" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I164" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J164" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="165" spans="5:10">
       <c r="E165" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="F165" t="str">
         <f>角色!$E$13</f>
@@ -24456,18 +24449,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H165" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I165" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J165" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="166" spans="5:10">
       <c r="E166" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="F166" t="str">
         <f>角色!$E$13</f>
@@ -24478,18 +24471,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H166" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I166" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J166" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="167" spans="5:10">
       <c r="E167" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="F167" t="str">
         <f>角色!$E$13</f>
@@ -24500,18 +24493,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H167" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I167" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J167" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="168" spans="5:10">
       <c r="E168" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="F168" t="str">
         <f>角色!$E$13</f>
@@ -24522,18 +24515,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H168" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I168" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J168" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="169" spans="5:10">
       <c r="E169" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="F169" t="str">
         <f>角色!$E$13</f>
@@ -24544,18 +24537,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H169" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I169" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J169" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="170" spans="5:10">
       <c r="E170" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="F170" t="str">
         <f>角色!$E$13</f>
@@ -24566,18 +24559,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H170" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I170" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J170" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="171" spans="5:10">
       <c r="E171" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="F171" t="str">
         <f>角色!$E$13</f>
@@ -24588,18 +24581,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H171" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I171" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J171" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="172" spans="5:10">
       <c r="E172" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="F172" t="str">
         <f>角色!$E$13</f>
@@ -24610,18 +24603,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H172" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I172" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J172" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="173" spans="5:10">
       <c r="E173" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="F173" t="str">
         <f>角色!$E$13</f>
@@ -24632,18 +24625,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H173" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="I173" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J173" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="174" spans="5:10">
       <c r="E174" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="F174" t="str">
         <f>角色!$E$13</f>
@@ -24654,18 +24647,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H174" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="I174" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J174" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="175" spans="5:10">
       <c r="E175" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="F175" t="str">
         <f>角色!$E$13</f>
@@ -24676,18 +24669,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H175" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="I175" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J175" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="176" spans="5:10">
       <c r="E176" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F176" t="str">
         <f>角色!$E$13</f>
@@ -24698,18 +24691,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H176" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I176" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J176" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="177" spans="5:10">
       <c r="E177" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F177" t="str">
         <f>角色!$E$13</f>
@@ -24720,18 +24713,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H177" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I177" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J177" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="178" spans="5:10">
       <c r="E178" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="F178" t="str">
         <f>角色!$E$13</f>
@@ -24742,18 +24735,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H178" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I178" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J178" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="179" spans="5:10">
       <c r="E179" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="F179" t="str">
         <f>角色!$E$13</f>
@@ -24764,18 +24757,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H179" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I179" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J179" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="180" spans="5:10">
       <c r="E180" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="F180" t="str">
         <f>角色!$E$13</f>
@@ -24786,18 +24779,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H180" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I180" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J180" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="181" spans="5:10">
       <c r="E181" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="F181" t="str">
         <f>角色!$E$13</f>
@@ -24808,18 +24801,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H181" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I181" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J181" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="182" spans="5:10">
       <c r="E182" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="F182" t="str">
         <f>角色!$E$10</f>
@@ -24830,18 +24823,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H182" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I182" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J182" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="183" spans="5:10">
       <c r="E183" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="F183" t="str">
         <f>角色!$E$12</f>
@@ -24852,18 +24845,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H183" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I183" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J183" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="184" spans="5:10">
       <c r="E184" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="F184" t="str">
         <f>角色!$E$13</f>
@@ -24874,18 +24867,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H184" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I184" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J184" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="185" spans="5:10">
       <c r="E185" s="6" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="F185" t="str">
         <f>角色!$E$13</f>
@@ -24896,18 +24889,18 @@
         <v>iam_menu-136</v>
       </c>
       <c r="H185" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I185" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J185" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="186" spans="5:10">
       <c r="E186" s="5" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="F186" t="str">
         <f>角色!$E$10</f>
@@ -24918,18 +24911,18 @@
         <v>iam_menu-136</v>
       </c>
       <c r="H186" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I186" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J186" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="187" spans="5:10">
       <c r="E187" s="5" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="F187" t="str">
         <f>角色!$E$12</f>
@@ -24940,18 +24933,18 @@
         <v>iam_menu-137</v>
       </c>
       <c r="H187" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I187" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J187" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="188" spans="5:10">
       <c r="E188" s="5" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="F188" t="str">
         <f>角色!$E$10</f>
@@ -24962,18 +24955,18 @@
         <v>iam_menu-137</v>
       </c>
       <c r="H188" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I188" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J188" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="189" spans="5:10">
       <c r="E189" s="5" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="F189" t="str">
         <f>角色!$E$12</f>
@@ -24984,13 +24977,13 @@
         <v>iam_menu-136</v>
       </c>
       <c r="H189" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="I189" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="J189" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
   </sheetData>
@@ -25052,66 +25045,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="H7" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="I7" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="J7" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="K7" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="L7" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="M7" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="N7" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="O7" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="F8" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="G8" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J8" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="K8" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -25125,22 +25118,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="F9" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="G9" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J9" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -25154,25 +25147,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="F10" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="G10" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J10" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="K10" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -25186,25 +25179,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="F11" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="G11" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J11" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="K11" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -25218,25 +25211,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="F12" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="G12" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J12" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="K12" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -25250,25 +25243,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="F13" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="G13" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J13" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="K13" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -25282,25 +25275,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="F14" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="G14" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J14" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="K14" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -25314,25 +25307,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F15" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="G15" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J15" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="K15" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -25346,25 +25339,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="F16" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="G16" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J16" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="K16" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -25378,25 +25371,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="F17" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="G17" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J17" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="K17" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -25410,25 +25403,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="F18" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="G18" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J18" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="K18" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -25442,25 +25435,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="F19" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="G19" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="J19" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="K19" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -25480,33 +25473,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="I21" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F22" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -25517,15 +25510,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F23" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -25536,15 +25529,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F24" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -25555,15 +25548,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F25" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -25574,15 +25567,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F26" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -25593,15 +25586,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F27" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -25612,15 +25605,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F28" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -25631,15 +25624,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F29" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -25650,15 +25643,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F30" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -25669,15 +25662,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F31" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -25688,15 +25681,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F32" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -25707,15 +25700,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F33" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -25726,15 +25719,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F34" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -25745,15 +25738,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F35" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -25764,7 +25757,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3876" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="1558">
   <si>
     <r>
       <rPr>
@@ -6418,9 +6418,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -6505,9 +6505,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6521,14 +6520,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6542,20 +6557,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -6566,7 +6567,36 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6580,13 +6610,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -6595,32 +6618,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6636,14 +6636,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6725,7 +6725,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6737,7 +6785,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6749,7 +6893,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6761,151 +6905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7016,7 +7016,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7036,17 +7051,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7057,30 +7075,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7101,11 +7095,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7115,10 +7115,10 @@
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7127,34 +7127,34 @@
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7163,97 +7163,97 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7964,8 +7964,8 @@
   <sheetPr/>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H82" workbookViewId="0">
-      <selection activeCell="N101" sqref="N101"/>
+    <sheetView topLeftCell="B82" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17507,10 +17507,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O163"/>
+  <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView topLeftCell="D102" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="D142" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -20752,6 +20752,101 @@
         <v>iam_label-15</v>
       </c>
       <c r="I163" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="164" customFormat="1" spans="5:9">
+      <c r="E164" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G164" t="str">
+        <f>菜单SAAS版!$E$95</f>
+        <v>iam_menu-138</v>
+      </c>
+      <c r="H164" t="str">
+        <f>菜单标签数据!$E$13</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="165" customFormat="1" spans="5:9">
+      <c r="E165" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G165" t="str">
+        <f>菜单SAAS版!$E$95</f>
+        <v>iam_menu-138</v>
+      </c>
+      <c r="H165" t="str">
+        <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="166" customFormat="1" spans="5:9">
+      <c r="E166" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G166" t="str">
+        <f>菜单SAAS版!$E$95</f>
+        <v>iam_menu-138</v>
+      </c>
+      <c r="H166" t="str">
+        <f>菜单标签数据!$E$17</f>
+        <v>iam_label-17</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="167" customFormat="1" spans="5:9">
+      <c r="E167" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G167" t="str">
+        <f>菜单SAAS版!$E$95</f>
+        <v>iam_menu-138</v>
+      </c>
+      <c r="H167" t="str">
+        <f>菜单标签数据!$E$15</f>
+        <v>iam_label-15</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="168" customFormat="1" spans="5:9">
+      <c r="E168" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G168" t="str">
+        <f>菜单SAAS版!$E$95</f>
+        <v>iam_menu-138</v>
+      </c>
+      <c r="H168" t="str">
+        <f>菜单标签数据!$E$21</f>
+        <v>iam_label-21</v>
+      </c>
+      <c r="I168" t="s">
         <v>1277</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3891" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="1572">
   <si>
     <r>
       <rPr>
@@ -5341,6 +5341,48 @@
     <t>agile-service.field-value.listFieldsWithOptionals</t>
   </si>
   <si>
+    <t>iam_menu_permission-414</t>
+  </si>
+  <si>
+    <t>agile-service.project-report.delete</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-415</t>
+  </si>
+  <si>
+    <t>agile-service.project-report.detail</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-416</t>
+  </si>
+  <si>
+    <t>agile-service.project-report.export</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-417</t>
+  </si>
+  <si>
+    <t>agile-service.project-report.send</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-418</t>
+  </si>
+  <si>
+    <t>agile-service.project-report.update</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-419</t>
+  </si>
+  <si>
+    <t>agile-service.project-report.create</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-420</t>
+  </si>
+  <si>
+    <t>agile-service.project-report.page</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -6417,10 +6459,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -6501,13 +6543,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -6519,15 +6554,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6535,7 +6563,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6574,7 +6624,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6582,21 +6632,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6626,9 +6662,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6637,6 +6672,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6725,19 +6767,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6755,7 +6863,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6767,25 +6929,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6797,115 +6941,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7021,17 +7063,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7060,11 +7102,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7076,21 +7124,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7109,151 +7142,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7964,8 +8006,8 @@
   <sheetPr/>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView topLeftCell="D80" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12525,8 +12567,8 @@
         <v>79</v>
       </c>
       <c r="K96" t="str">
-        <f>菜单SAAS版!$E$54</f>
-        <v>iam_menu-73</v>
+        <f>菜单SAAS版!$E$95</f>
+        <v>iam_menu-138</v>
       </c>
       <c r="L96" t="s">
         <v>104</v>
@@ -12565,10 +12607,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G413"/>
+  <dimension ref="A1:G420"/>
   <sheetViews>
-    <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="G413" sqref="G413"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="G421" sqref="G421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -17487,7 +17529,7 @@
       </c>
     </row>
     <row r="413" spans="5:7">
-      <c r="E413" s="5" t="s">
+      <c r="E413" t="s">
         <v>1199</v>
       </c>
       <c r="F413" t="str">
@@ -17496,6 +17538,90 @@
       </c>
       <c r="G413" s="5" t="s">
         <v>1200</v>
+      </c>
+    </row>
+    <row r="414" spans="5:7">
+      <c r="E414" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F414" t="str">
+        <f>菜单SAAS版!$E$96</f>
+        <v>iam_menu-139</v>
+      </c>
+      <c r="G414" s="5" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="415" spans="5:7">
+      <c r="E415" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F415" t="str">
+        <f>菜单SAAS版!$E$96</f>
+        <v>iam_menu-139</v>
+      </c>
+      <c r="G415" s="5" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="416" spans="5:7">
+      <c r="E416" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F416" t="str">
+        <f>菜单SAAS版!$E$96</f>
+        <v>iam_menu-139</v>
+      </c>
+      <c r="G416" s="5" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="417" spans="5:7">
+      <c r="E417" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F417" t="str">
+        <f>菜单SAAS版!$E$96</f>
+        <v>iam_menu-139</v>
+      </c>
+      <c r="G417" s="5" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="418" spans="5:7">
+      <c r="E418" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F418" t="str">
+        <f>菜单SAAS版!$E$96</f>
+        <v>iam_menu-139</v>
+      </c>
+      <c r="G418" s="5" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="419" spans="5:7">
+      <c r="E419" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F419" t="str">
+        <f>菜单SAAS版!$E$96</f>
+        <v>iam_menu-139</v>
+      </c>
+      <c r="G419" s="5" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="420" spans="5:7">
+      <c r="E420" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F420" t="str">
+        <f>菜单SAAS版!$E$96</f>
+        <v>iam_menu-139</v>
+      </c>
+      <c r="G420" s="5" t="s">
+        <v>1214</v>
       </c>
     </row>
   </sheetData>
@@ -17509,8 +17635,8 @@
   <sheetPr/>
   <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D142" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView topLeftCell="D148" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -17556,66 +17682,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1201</v>
+        <v>1215</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1202</v>
+        <v>1216</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1203</v>
+        <v>1217</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1204</v>
+        <v>1218</v>
       </c>
       <c r="H7" t="s">
-        <v>1205</v>
+        <v>1219</v>
       </c>
       <c r="I7" t="s">
-        <v>1206</v>
+        <v>1220</v>
       </c>
       <c r="J7" t="s">
-        <v>1207</v>
+        <v>1221</v>
       </c>
       <c r="K7" t="s">
-        <v>1208</v>
+        <v>1222</v>
       </c>
       <c r="L7" t="s">
-        <v>1209</v>
+        <v>1223</v>
       </c>
       <c r="M7" t="s">
-        <v>1210</v>
+        <v>1224</v>
       </c>
       <c r="N7" t="s">
-        <v>1211</v>
+        <v>1225</v>
       </c>
       <c r="O7" t="s">
-        <v>1212</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>1213</v>
+        <v>1227</v>
       </c>
       <c r="F8" t="s">
-        <v>1214</v>
+        <v>1228</v>
       </c>
       <c r="G8" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J8" t="s">
-        <v>1217</v>
+        <v>1231</v>
       </c>
       <c r="K8" t="s">
-        <v>1214</v>
+        <v>1228</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -17629,25 +17755,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>1218</v>
+        <v>1232</v>
       </c>
       <c r="F9" t="s">
-        <v>1219</v>
+        <v>1233</v>
       </c>
       <c r="G9" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J9" t="s">
-        <v>1220</v>
+        <v>1234</v>
       </c>
       <c r="K9" t="s">
-        <v>1219</v>
+        <v>1233</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -17661,19 +17787,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>1221</v>
+        <v>1235</v>
       </c>
       <c r="F10" t="s">
-        <v>1222</v>
+        <v>1236</v>
       </c>
       <c r="G10" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -17687,19 +17813,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>1224</v>
+        <v>1238</v>
       </c>
       <c r="F11" t="s">
-        <v>1225</v>
+        <v>1239</v>
       </c>
       <c r="G11" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -17713,25 +17839,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>1226</v>
+        <v>1240</v>
       </c>
       <c r="F12" t="s">
-        <v>1227</v>
+        <v>1241</v>
       </c>
       <c r="G12" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
       <c r="J12" t="s">
-        <v>1228</v>
+        <v>1242</v>
       </c>
       <c r="K12" t="s">
-        <v>1228</v>
+        <v>1242</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -17745,22 +17871,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G13" t="s">
         <v>1229</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s">
         <v>1230</v>
       </c>
-      <c r="G13" t="s">
-        <v>1215</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1216</v>
-      </c>
       <c r="J13" t="s">
-        <v>1231</v>
+        <v>1245</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -17774,22 +17900,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>1232</v>
+        <v>1246</v>
       </c>
       <c r="F14" t="s">
-        <v>1233</v>
+        <v>1247</v>
       </c>
       <c r="G14" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J14" t="s">
-        <v>1234</v>
+        <v>1248</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -17803,22 +17929,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" s="5" t="s">
-        <v>1235</v>
+        <v>1249</v>
       </c>
       <c r="F15" t="s">
-        <v>1236</v>
+        <v>1250</v>
       </c>
       <c r="G15" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J15" t="s">
-        <v>1237</v>
+        <v>1251</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -17832,22 +17958,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>1238</v>
+        <v>1252</v>
       </c>
       <c r="F16" t="s">
-        <v>1239</v>
+        <v>1253</v>
       </c>
       <c r="G16" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J16" t="s">
-        <v>1240</v>
+        <v>1254</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -17861,25 +17987,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>1241</v>
+        <v>1255</v>
       </c>
       <c r="F17" t="s">
-        <v>1242</v>
+        <v>1256</v>
       </c>
       <c r="G17" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J17" t="s">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="K17" t="s">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -17893,25 +18019,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>1244</v>
+        <v>1258</v>
       </c>
       <c r="F18" t="s">
-        <v>1245</v>
+        <v>1259</v>
       </c>
       <c r="G18" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J18" t="s">
-        <v>1246</v>
+        <v>1260</v>
       </c>
       <c r="K18" t="s">
-        <v>1246</v>
+        <v>1260</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -17925,25 +18051,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>1247</v>
+        <v>1261</v>
       </c>
       <c r="F19" t="s">
-        <v>1248</v>
+        <v>1262</v>
       </c>
       <c r="G19" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J19" t="s">
-        <v>1249</v>
+        <v>1263</v>
       </c>
       <c r="K19" t="s">
-        <v>1248</v>
+        <v>1262</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -17957,19 +18083,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>1250</v>
+        <v>1264</v>
       </c>
       <c r="F20" t="s">
-        <v>1251</v>
+        <v>1265</v>
       </c>
       <c r="G20" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -17983,25 +18109,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="F21" t="s">
-        <v>1253</v>
+        <v>1267</v>
       </c>
       <c r="G21" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
       <c r="J21" t="s">
-        <v>1254</v>
+        <v>1268</v>
       </c>
       <c r="K21" t="s">
-        <v>1254</v>
+        <v>1268</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -18015,25 +18141,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>1255</v>
+        <v>1269</v>
       </c>
       <c r="F22" t="s">
-        <v>1256</v>
+        <v>1270</v>
       </c>
       <c r="G22" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
       <c r="J22" t="s">
-        <v>1257</v>
+        <v>1271</v>
       </c>
       <c r="K22" t="s">
-        <v>1257</v>
+        <v>1271</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -18047,25 +18173,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>1258</v>
+        <v>1272</v>
       </c>
       <c r="F23" t="s">
-        <v>1259</v>
+        <v>1273</v>
       </c>
       <c r="G23" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
       <c r="J23" t="s">
-        <v>1260</v>
+        <v>1274</v>
       </c>
       <c r="K23" t="s">
-        <v>1260</v>
+        <v>1274</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -18079,19 +18205,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>1261</v>
+        <v>1275</v>
       </c>
       <c r="F24" t="s">
-        <v>1262</v>
+        <v>1276</v>
       </c>
       <c r="G24" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -18105,22 +18231,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>1263</v>
+        <v>1277</v>
       </c>
       <c r="F25" t="s">
-        <v>1264</v>
+        <v>1278</v>
       </c>
       <c r="G25" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
       <c r="J25" t="s">
-        <v>1265</v>
+        <v>1279</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -18134,22 +18260,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>1266</v>
+        <v>1280</v>
       </c>
       <c r="F26" t="s">
-        <v>1267</v>
+        <v>1281</v>
       </c>
       <c r="G26" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
       <c r="J26" t="s">
-        <v>1268</v>
+        <v>1282</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -18169,33 +18295,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>1269</v>
+        <v>1283</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1270</v>
+        <v>1284</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1271</v>
+        <v>1285</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1272</v>
+        <v>1286</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>1273</v>
+        <v>1287</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1274</v>
+        <v>1288</v>
       </c>
       <c r="I28" t="s">
-        <v>1275</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F29" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18206,15 +18332,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F30" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18225,15 +18351,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I30" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F31" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18244,15 +18370,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I31" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F32" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18263,15 +18389,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I32" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F33" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18282,15 +18408,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F34" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18301,15 +18427,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I34" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F35" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18320,15 +18446,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I35" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F36" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18339,15 +18465,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I36" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F37" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18358,15 +18484,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I37" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F38" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18377,15 +18503,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I38" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F39" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18396,15 +18522,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I39" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F40" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18415,15 +18541,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I40" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F41" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -18434,15 +18560,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I41" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F42" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -18453,15 +18579,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I42" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F43" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -18472,15 +18598,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I43" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F44" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -18491,15 +18617,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I44" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F45" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -18510,15 +18636,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I45" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F46" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -18529,15 +18655,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I46" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F47" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18548,15 +18674,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I47" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F48" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18567,15 +18693,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I48" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F49" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18586,15 +18712,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I49" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F50" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18605,15 +18731,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I50" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F51" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18624,15 +18750,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I51" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F52" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18643,15 +18769,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I52" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F53" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18662,15 +18788,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I53" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F54" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18681,15 +18807,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I54" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F55" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18700,15 +18826,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I55" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F56" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18719,15 +18845,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I56" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F57" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18738,15 +18864,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I57" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18757,15 +18883,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I58" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F59" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18776,15 +18902,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I59" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F60" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18795,15 +18921,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I60" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F61" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18814,15 +18940,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I61" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F62" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18833,15 +18959,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I62" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F63" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18852,15 +18978,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I63" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F64" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18871,15 +18997,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I64" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F65" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18890,15 +19016,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I65" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F66" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18909,15 +19035,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I66" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F67" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18928,15 +19054,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I67" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F68" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18947,15 +19073,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I68" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F69" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -18966,15 +19092,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I69" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="70" spans="5:9">
       <c r="E70" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F70" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G70" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -18985,15 +19111,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I70" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="71" spans="5:9">
       <c r="E71" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F71" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G71" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -19004,15 +19130,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I71" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="72" spans="5:9">
       <c r="E72" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F72" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G72" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -19023,15 +19149,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I72" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F73" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G73" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -19042,15 +19168,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I73" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="74" spans="5:9">
       <c r="E74" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F74" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G74" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -19061,15 +19187,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I74" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F75" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G75" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -19080,15 +19206,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I75" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F76" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G76" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -19099,15 +19225,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I76" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="77" spans="5:9">
       <c r="E77" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F77" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G77" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -19118,15 +19244,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I77" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="78" spans="5:9">
       <c r="E78" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F78" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G78" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -19137,15 +19263,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I78" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="79" spans="5:9">
       <c r="E79" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F79" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G79" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -19156,15 +19282,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I79" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="80" spans="5:9">
       <c r="E80" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F80" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G80" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -19175,15 +19301,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I80" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="81" spans="5:9">
       <c r="E81" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F81" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G81" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -19194,15 +19320,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I81" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="82" spans="5:9">
       <c r="E82" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F82" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G82" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -19213,15 +19339,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I82" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="83" spans="5:9">
       <c r="E83" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F83" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G83" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -19232,15 +19358,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I83" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="84" spans="5:9">
       <c r="E84" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F84" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G84" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -19251,15 +19377,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I84" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="85" spans="5:9">
       <c r="E85" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F85" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G85" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -19270,15 +19396,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I85" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="86" spans="5:9">
       <c r="E86" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F86" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G86" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -19289,15 +19415,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I86" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="87" spans="5:9">
       <c r="E87" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F87" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G87" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -19308,15 +19434,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I87" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="88" spans="5:9">
       <c r="E88" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F88" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G88" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -19327,15 +19453,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I88" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="89" spans="5:9">
       <c r="E89" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F89" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G89" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -19346,15 +19472,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I89" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="90" spans="5:9">
       <c r="E90" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F90" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G90" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -19365,15 +19491,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I90" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="91" spans="5:9">
       <c r="E91" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F91" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G91" t="str">
         <f>菜单SAAS版!$E$19</f>
@@ -19384,15 +19510,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I91" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="92" spans="5:9">
       <c r="E92" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F92" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G92" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -19403,15 +19529,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I92" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="93" spans="5:9">
       <c r="E93" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F93" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G93" t="str">
         <f>菜单SAAS版!$E$22</f>
@@ -19422,15 +19548,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I93" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="94" spans="5:9">
       <c r="E94" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F94" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G94" t="str">
         <f>菜单SAAS版!$E$20</f>
@@ -19441,15 +19567,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I94" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="95" spans="5:9">
       <c r="E95" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F95" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G95" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -19460,15 +19586,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I95" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="96" spans="5:9">
       <c r="E96" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F96" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G96" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -19479,15 +19605,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I96" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="97" spans="5:9">
       <c r="E97" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F97" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G97" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -19498,15 +19624,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I97" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="98" spans="5:9">
       <c r="E98" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F98" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G98" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -19517,15 +19643,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I98" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="99" spans="5:9">
       <c r="E99" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F99" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G99" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -19536,15 +19662,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I99" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="100" spans="5:9">
       <c r="E100" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F100" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G100" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -19555,15 +19681,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I100" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="101" spans="5:9">
       <c r="E101" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F101" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G101" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -19574,15 +19700,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I101" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="102" spans="5:9">
       <c r="E102" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F102" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G102" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -19593,15 +19719,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I102" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="103" spans="5:9">
       <c r="E103" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F103" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G103" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -19612,15 +19738,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I103" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="104" spans="5:9">
       <c r="E104" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F104" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G104" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -19631,15 +19757,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I104" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="105" spans="5:9">
       <c r="E105" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F105" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G105" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -19650,15 +19776,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I105" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="106" spans="5:9">
       <c r="E106" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F106" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G106" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -19669,15 +19795,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I106" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="107" spans="5:9">
       <c r="E107" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F107" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G107" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -19688,15 +19814,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I107" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="108" spans="5:9">
       <c r="E108" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F108" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G108" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -19707,15 +19833,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I108" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="109" spans="5:9">
       <c r="E109" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F109" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G109" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -19726,15 +19852,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I109" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="110" spans="5:9">
       <c r="E110" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F110" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G110" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -19745,15 +19871,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I110" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="111" spans="5:9">
       <c r="E111" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F111" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G111" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -19764,15 +19890,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I111" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="112" spans="5:9">
       <c r="E112" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F112" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G112" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -19783,15 +19909,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I112" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="113" spans="5:9">
       <c r="E113" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F113" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G113" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -19802,15 +19928,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I113" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="114" spans="5:9">
       <c r="E114" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F114" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G114" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -19821,15 +19947,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I114" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="115" spans="5:9">
       <c r="E115" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F115" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G115" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -19840,15 +19966,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I115" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="116" spans="5:9">
       <c r="E116" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F116" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G116" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -19859,15 +19985,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I116" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="117" spans="5:9">
       <c r="E117" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F117" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G117" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -19878,15 +20004,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I117" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="118" spans="5:9">
       <c r="E118" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F118" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G118" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -19897,15 +20023,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I118" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="119" spans="5:9">
       <c r="E119" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F119" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G119" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -19916,15 +20042,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I119" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="120" spans="5:9">
       <c r="E120" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F120" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G120" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -19935,15 +20061,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I120" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="121" spans="5:9">
       <c r="E121" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F121" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G121" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -19954,15 +20080,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I121" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="122" spans="5:9">
       <c r="E122" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F122" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G122" t="str">
         <f>菜单SAAS版!$E$80</f>
@@ -19973,15 +20099,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I122" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="123" spans="5:9">
       <c r="E123" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F123" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G123" t="str">
         <f>菜单SAAS版!$E$80</f>
@@ -19992,15 +20118,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I123" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="124" spans="5:9">
       <c r="E124" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F124" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G124" t="str">
         <f>菜单SAAS版!$E$77</f>
@@ -20011,15 +20137,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I124" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="125" spans="5:9">
       <c r="E125" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F125" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G125" t="str">
         <f>菜单SAAS版!$E$77</f>
@@ -20030,15 +20156,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I125" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="126" spans="5:9">
       <c r="E126" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F126" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G126" t="str">
         <f>菜单SAAS版!$E$83</f>
@@ -20049,15 +20175,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I126" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="127" spans="5:9">
       <c r="E127" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F127" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G127" t="str">
         <f>菜单SAAS版!$E$83</f>
@@ -20068,15 +20194,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I127" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="128" spans="5:9">
       <c r="E128" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F128" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G128" t="str">
         <f>菜单SAAS版!$E$84</f>
@@ -20087,15 +20213,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I128" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="129" spans="5:9">
       <c r="E129" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F129" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G129" t="str">
         <f>菜单SAAS版!$E$84</f>
@@ -20106,15 +20232,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I129" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="130" spans="5:9">
       <c r="E130" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F130" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G130" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -20125,15 +20251,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I130" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="131" spans="5:9">
       <c r="E131" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F131" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G131" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -20144,15 +20270,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I131" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="132" spans="5:9">
       <c r="E132" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F132" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G132" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -20163,15 +20289,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I132" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="133" spans="5:9">
       <c r="E133" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F133" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G133" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -20182,15 +20308,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I133" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="134" spans="5:9">
       <c r="E134" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F134" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G134" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -20201,15 +20327,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I134" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="135" spans="5:9">
       <c r="E135" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F135" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G135" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -20220,15 +20346,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I135" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="136" spans="5:9">
       <c r="E136" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F136" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G136" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -20239,15 +20365,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I136" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="137" spans="5:9">
       <c r="E137" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F137" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G137" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -20258,15 +20384,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I137" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="138" spans="5:9">
       <c r="E138" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F138" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G138" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -20277,15 +20403,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I138" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="139" spans="5:9">
       <c r="E139" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F139" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G139" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -20296,15 +20422,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I139" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="140" spans="5:9">
       <c r="E140" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F140" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G140" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -20315,15 +20441,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I140" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="141" spans="5:9">
       <c r="E141" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F141" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G141" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -20334,15 +20460,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I141" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="142" spans="5:9">
       <c r="E142" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F142" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G142" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -20353,15 +20479,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I142" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="143" spans="5:9">
       <c r="E143" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F143" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G143" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -20372,15 +20498,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I143" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="144" spans="5:9">
       <c r="E144" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F144" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G144" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -20391,15 +20517,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I144" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="145" spans="5:9">
       <c r="E145" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F145" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G145" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -20410,15 +20536,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I145" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="146" spans="5:9">
       <c r="E146" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F146" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G146" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -20429,15 +20555,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I146" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="147" spans="5:9">
       <c r="E147" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F147" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G147" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -20448,15 +20574,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I147" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="148" spans="5:9">
       <c r="E148" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F148" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G148" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -20467,15 +20593,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I148" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="149" spans="5:9">
       <c r="E149" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F149" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G149" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -20486,15 +20612,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I149" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="150" spans="5:9">
       <c r="E150" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F150" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G150" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -20505,15 +20631,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I150" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="151" spans="5:9">
       <c r="E151" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F151" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G151" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -20524,15 +20650,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I151" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="152" spans="5:9">
       <c r="E152" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F152" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G152" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -20543,15 +20669,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I152" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="153" spans="5:9">
       <c r="E153" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F153" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G153" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -20562,15 +20688,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I153" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="154" spans="5:9">
       <c r="E154" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F154" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G154" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -20581,15 +20707,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I154" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="155" spans="5:9">
       <c r="E155" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F155" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G155" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -20600,15 +20726,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I155" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="156" spans="5:9">
       <c r="E156" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F156" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G156" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -20619,15 +20745,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I156" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="157" spans="5:9">
       <c r="E157" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F157" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G157" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -20638,15 +20764,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I157" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="158" spans="5:9">
       <c r="E158" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F158" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G158" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -20657,15 +20783,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I158" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="159" spans="5:9">
       <c r="E159" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F159" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G159" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -20676,15 +20802,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I159" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="160" spans="5:9">
       <c r="E160" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F160" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G160" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -20695,15 +20821,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I160" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="161" spans="5:9">
       <c r="E161" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F161" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G161" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -20714,15 +20840,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I161" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="162" spans="5:9">
       <c r="E162" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F162" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G162" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -20733,15 +20859,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I162" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="163" spans="5:9">
       <c r="E163" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F163" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G163" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -20752,15 +20878,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I163" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="164" customFormat="1" spans="5:9">
       <c r="E164" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F164" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G164" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -20771,15 +20897,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I164" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="165" customFormat="1" spans="5:9">
       <c r="E165" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F165" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G165" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -20790,15 +20916,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I165" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="166" customFormat="1" spans="5:9">
       <c r="E166" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F166" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G166" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -20809,15 +20935,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I166" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="167" customFormat="1" spans="5:9">
       <c r="E167" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F167" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G167" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -20828,15 +20954,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I167" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="168" customFormat="1" spans="5:9">
       <c r="E168" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F168" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="G168" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -20847,7 +20973,7 @@
         <v>iam_label-21</v>
       </c>
       <c r="I168" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
     </row>
   </sheetData>
@@ -20905,10 +21031,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1279</v>
+        <v>1293</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1280</v>
+        <v>1294</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -20923,75 +21049,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>1281</v>
+        <v>1295</v>
       </c>
       <c r="J7" t="s">
-        <v>1206</v>
+        <v>1220</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>1282</v>
+        <v>1296</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>1283</v>
+        <v>1297</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1284</v>
+        <v>1298</v>
       </c>
       <c r="O7" t="s">
-        <v>1285</v>
+        <v>1299</v>
       </c>
       <c r="P7" t="s">
-        <v>1286</v>
+        <v>1300</v>
       </c>
       <c r="Q7" t="s">
-        <v>1287</v>
+        <v>1301</v>
       </c>
       <c r="R7" t="s">
-        <v>1288</v>
+        <v>1302</v>
       </c>
       <c r="S7" t="s">
-        <v>1289</v>
+        <v>1303</v>
       </c>
       <c r="T7" t="s">
-        <v>1290</v>
+        <v>1304</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>1291</v>
+        <v>1305</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>1292</v>
+        <v>1306</v>
       </c>
       <c r="X7" t="s">
-        <v>1293</v>
+        <v>1307</v>
       </c>
       <c r="Y7" t="s">
-        <v>1294</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>1295</v>
+        <v>1309</v>
       </c>
       <c r="F8" t="s">
-        <v>1296</v>
+        <v>1310</v>
       </c>
       <c r="G8" t="s">
-        <v>1297</v>
+        <v>1311</v>
       </c>
       <c r="H8" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="I8" t="s">
-        <v>1299</v>
+        <v>1313</v>
       </c>
       <c r="J8" t="s">
-        <v>1300</v>
+        <v>1314</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -21024,10 +21150,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="V8" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -21035,19 +21161,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>1301</v>
+        <v>1315</v>
       </c>
       <c r="F9" t="s">
-        <v>1302</v>
+        <v>1316</v>
       </c>
       <c r="G9" t="s">
-        <v>1303</v>
+        <v>1317</v>
       </c>
       <c r="H9" t="s">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="I9" t="s">
-        <v>1305</v>
+        <v>1319</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -21083,10 +21209,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="V9" t="s">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -21094,16 +21220,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>1306</v>
+        <v>1320</v>
       </c>
       <c r="F10" t="s">
-        <v>1307</v>
+        <v>1321</v>
       </c>
       <c r="G10" t="s">
-        <v>1308</v>
+        <v>1322</v>
       </c>
       <c r="H10" t="s">
-        <v>1309</v>
+        <v>1323</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -21140,33 +21266,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>1310</v>
+        <v>1324</v>
       </c>
       <c r="V10" t="s">
-        <v>1311</v>
+        <v>1325</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>1312</v>
+        <v>1326</v>
       </c>
       <c r="Y10" t="s">
-        <v>1313</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>1314</v>
+        <v>1328</v>
       </c>
       <c r="F11" t="s">
-        <v>1315</v>
+        <v>1329</v>
       </c>
       <c r="G11" t="s">
-        <v>1316</v>
+        <v>1330</v>
       </c>
       <c r="H11" t="s">
-        <v>1317</v>
+        <v>1331</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -21203,33 +21329,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>1318</v>
+        <v>1332</v>
       </c>
       <c r="V11" t="s">
-        <v>1319</v>
+        <v>1333</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>1320</v>
+        <v>1334</v>
       </c>
       <c r="Y11" t="s">
-        <v>1321</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>1322</v>
+        <v>1336</v>
       </c>
       <c r="F12" t="s">
-        <v>1323</v>
+        <v>1337</v>
       </c>
       <c r="G12" t="s">
-        <v>1324</v>
+        <v>1338</v>
       </c>
       <c r="H12" t="s">
-        <v>1325</v>
+        <v>1339</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -21266,33 +21392,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>1326</v>
+        <v>1340</v>
       </c>
       <c r="V12" t="s">
-        <v>1327</v>
+        <v>1341</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>1328</v>
+        <v>1342</v>
       </c>
       <c r="Y12" t="s">
-        <v>1329</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>1330</v>
+        <v>1344</v>
       </c>
       <c r="F13" t="s">
-        <v>1331</v>
+        <v>1345</v>
       </c>
       <c r="G13" t="s">
-        <v>1332</v>
+        <v>1346</v>
       </c>
       <c r="H13" t="s">
-        <v>1333</v>
+        <v>1347</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -21329,36 +21455,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>1334</v>
+        <v>1348</v>
       </c>
       <c r="V13" t="s">
-        <v>1335</v>
+        <v>1349</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>1336</v>
+        <v>1350</v>
       </c>
       <c r="Y13" t="s">
-        <v>1337</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="14" spans="5:24">
       <c r="E14" t="s">
-        <v>1338</v>
+        <v>1352</v>
       </c>
       <c r="F14" t="s">
-        <v>1339</v>
+        <v>1353</v>
       </c>
       <c r="G14" t="s">
-        <v>1339</v>
+        <v>1353</v>
       </c>
       <c r="H14" t="s">
-        <v>1340</v>
+        <v>1354</v>
       </c>
       <c r="J14" t="s">
-        <v>1300</v>
+        <v>1314</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -21392,10 +21518,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>1341</v>
+        <v>1355</v>
       </c>
       <c r="V14" t="s">
-        <v>1342</v>
+        <v>1356</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -21410,33 +21536,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>1343</v>
+        <v>1357</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1344</v>
+        <v>1358</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1345</v>
+        <v>1359</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1346</v>
+        <v>1360</v>
       </c>
       <c r="H16" t="s">
-        <v>1347</v>
+        <v>1361</v>
       </c>
       <c r="I16" t="s">
-        <v>1348</v>
+        <v>1362</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1204</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>1349</v>
+        <v>1363</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -21447,18 +21573,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H17" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I17" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J17" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>1353</v>
+        <v>1367</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -21469,18 +21595,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H18" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I18" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J18" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>1354</v>
+        <v>1368</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -21491,18 +21617,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H19" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I19" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J19" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>1355</v>
+        <v>1369</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -21513,18 +21639,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H20" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I20" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J20" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>1356</v>
+        <v>1370</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -21535,18 +21661,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H21" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I21" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J21" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>1357</v>
+        <v>1371</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -21557,18 +21683,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I22" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J22" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>1358</v>
+        <v>1372</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -21579,18 +21705,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H23" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I23" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J23" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>1359</v>
+        <v>1373</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -21601,18 +21727,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H24" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I24" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J24" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>1360</v>
+        <v>1374</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -21623,18 +21749,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H25" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I25" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J25" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>1361</v>
+        <v>1375</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -21645,18 +21771,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H26" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I26" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J26" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>1362</v>
+        <v>1376</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -21667,18 +21793,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H27" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I27" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J27" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>1363</v>
+        <v>1377</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -21689,18 +21815,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H28" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I28" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J28" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -21711,18 +21837,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H29" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I29" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J29" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>1365</v>
+        <v>1379</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -21733,18 +21859,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H30" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I30" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J30" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>1366</v>
+        <v>1380</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -21755,18 +21881,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H31" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I31" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J31" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>1367</v>
+        <v>1381</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -21777,18 +21903,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H32" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I32" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J32" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>1368</v>
+        <v>1382</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -21799,18 +21925,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H33" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I33" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J33" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>1369</v>
+        <v>1383</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -21821,18 +21947,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H34" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I34" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J34" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>1370</v>
+        <v>1384</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -21843,18 +21969,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H35" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I35" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J35" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>1371</v>
+        <v>1385</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -21865,18 +21991,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H36" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I36" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J36" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>1372</v>
+        <v>1386</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -21887,18 +22013,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H37" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I37" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J37" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>1373</v>
+        <v>1387</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -21909,18 +22035,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H38" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I38" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J38" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>1374</v>
+        <v>1388</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -21931,18 +22057,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H39" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I39" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J39" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>1375</v>
+        <v>1389</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$10</f>
@@ -21953,18 +22079,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H40" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I40" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J40" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>1376</v>
+        <v>1390</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$10</f>
@@ -21975,18 +22101,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H41" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I41" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J41" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>1377</v>
+        <v>1391</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$10</f>
@@ -21997,18 +22123,18 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H42" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I42" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J42" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>1378</v>
+        <v>1392</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$10</f>
@@ -22019,18 +22145,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H43" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I43" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J43" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>1379</v>
+        <v>1393</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$10</f>
@@ -22041,18 +22167,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H44" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I44" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J44" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>1380</v>
+        <v>1394</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$10</f>
@@ -22063,18 +22189,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H45" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I45" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J45" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>1381</v>
+        <v>1395</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$10</f>
@@ -22085,18 +22211,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H46" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I46" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J46" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$10</f>
@@ -22107,18 +22233,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H47" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I47" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J47" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>1383</v>
+        <v>1397</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$10</f>
@@ -22129,18 +22255,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H48" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I48" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J48" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$10</f>
@@ -22151,18 +22277,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H49" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I49" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J49" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>1385</v>
+        <v>1399</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$10</f>
@@ -22173,18 +22299,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H50" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I50" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J50" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>1386</v>
+        <v>1400</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$10</f>
@@ -22195,18 +22321,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H51" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I51" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J51" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>1387</v>
+        <v>1401</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$10</f>
@@ -22217,18 +22343,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H52" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I52" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J52" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>1388</v>
+        <v>1402</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$10</f>
@@ -22239,18 +22365,18 @@
         <v>iam_menu-61</v>
       </c>
       <c r="H53" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I53" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J53" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$10</f>
@@ -22261,18 +22387,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H54" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I54" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J54" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>1390</v>
+        <v>1404</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$10</f>
@@ -22283,18 +22409,18 @@
         <v>iam_menu-62</v>
       </c>
       <c r="H55" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I55" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J55" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>1391</v>
+        <v>1405</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$10</f>
@@ -22305,18 +22431,18 @@
         <v>iam_menu-67</v>
       </c>
       <c r="H56" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I56" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J56" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>1392</v>
+        <v>1406</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$10</f>
@@ -22327,18 +22453,18 @@
         <v>iam_menu-69</v>
       </c>
       <c r="H57" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I57" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J57" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>1393</v>
+        <v>1407</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$10</f>
@@ -22349,18 +22475,18 @@
         <v>iam_menu-68</v>
       </c>
       <c r="H58" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I58" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J58" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>1394</v>
+        <v>1408</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$10</f>
@@ -22371,18 +22497,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H59" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I59" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J59" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>1395</v>
+        <v>1409</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$10</f>
@@ -22393,18 +22519,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H60" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I60" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J60" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>1396</v>
+        <v>1410</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$10</f>
@@ -22415,18 +22541,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H61" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I61" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J61" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>1397</v>
+        <v>1411</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$10</f>
@@ -22437,18 +22563,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H62" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I62" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J62" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$10</f>
@@ -22459,18 +22585,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H63" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I63" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J63" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>1399</v>
+        <v>1413</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$10</f>
@@ -22481,18 +22607,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H64" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I64" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J64" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>1400</v>
+        <v>1414</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$10</f>
@@ -22503,18 +22629,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H65" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I65" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J65" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>1401</v>
+        <v>1415</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$10</f>
@@ -22525,18 +22651,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H66" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I66" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J66" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>1402</v>
+        <v>1416</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$10</f>
@@ -22547,18 +22673,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H67" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I67" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J67" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>1403</v>
+        <v>1417</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$10</f>
@@ -22569,18 +22695,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H68" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I68" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J68" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>1404</v>
+        <v>1418</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$10</f>
@@ -22591,18 +22717,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H69" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I69" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J69" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>1405</v>
+        <v>1419</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$10</f>
@@ -22613,18 +22739,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H70" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I70" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J70" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>1406</v>
+        <v>1420</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$10</f>
@@ -22635,18 +22761,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H71" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I71" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J71" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>1407</v>
+        <v>1421</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$10</f>
@@ -22657,18 +22783,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H72" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I72" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J72" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>1408</v>
+        <v>1422</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$10</f>
@@ -22679,18 +22805,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H73" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I73" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J73" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>1409</v>
+        <v>1423</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$10</f>
@@ -22701,18 +22827,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H74" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I74" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J74" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>1410</v>
+        <v>1424</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$10</f>
@@ -22723,18 +22849,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H75" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I75" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J75" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$10</f>
@@ -22745,18 +22871,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H76" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I76" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J76" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>1412</v>
+        <v>1426</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$10</f>
@@ -22767,18 +22893,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H77" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I77" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J77" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>1413</v>
+        <v>1427</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$10</f>
@@ -22789,18 +22915,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H78" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I78" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J78" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>1414</v>
+        <v>1428</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$10</f>
@@ -22811,18 +22937,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H79" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I79" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J79" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>1415</v>
+        <v>1429</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$10</f>
@@ -22833,18 +22959,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H80" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I80" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J80" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>1416</v>
+        <v>1430</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$10</f>
@@ -22855,18 +22981,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H81" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I81" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J81" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>1417</v>
+        <v>1431</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$10</f>
@@ -22877,18 +23003,18 @@
         <v>iam_menu-125</v>
       </c>
       <c r="H82" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I82" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J82" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>1418</v>
+        <v>1432</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$10</f>
@@ -22899,18 +23025,18 @@
         <v>iam_menu-128</v>
       </c>
       <c r="H83" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I83" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J83" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>1419</v>
+        <v>1433</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$12</f>
@@ -22921,18 +23047,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H84" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I84" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J84" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>1420</v>
+        <v>1434</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$12</f>
@@ -22943,18 +23069,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H85" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I85" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J85" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="86" spans="5:10">
       <c r="E86" t="s">
-        <v>1421</v>
+        <v>1435</v>
       </c>
       <c r="F86" t="str">
         <f>角色!$E$12</f>
@@ -22965,18 +23091,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H86" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I86" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J86" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="87" spans="5:10">
       <c r="E87" t="s">
-        <v>1422</v>
+        <v>1436</v>
       </c>
       <c r="F87" t="str">
         <f>角色!$E$12</f>
@@ -22987,18 +23113,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H87" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I87" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J87" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="88" spans="5:10">
       <c r="E88" t="s">
-        <v>1423</v>
+        <v>1437</v>
       </c>
       <c r="F88" t="str">
         <f>角色!$E$12</f>
@@ -23009,18 +23135,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H88" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I88" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J88" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="89" spans="5:10">
       <c r="E89" t="s">
-        <v>1424</v>
+        <v>1438</v>
       </c>
       <c r="F89" t="str">
         <f>角色!$E$12</f>
@@ -23031,18 +23157,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H89" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I89" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J89" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="90" spans="5:10">
       <c r="E90" t="s">
-        <v>1425</v>
+        <v>1439</v>
       </c>
       <c r="F90" t="str">
         <f>角色!$E$12</f>
@@ -23053,18 +23179,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H90" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I90" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J90" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="91" spans="5:10">
       <c r="E91" t="s">
-        <v>1426</v>
+        <v>1440</v>
       </c>
       <c r="F91" t="str">
         <f>角色!$E$12</f>
@@ -23075,18 +23201,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H91" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I91" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J91" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="92" spans="5:10">
       <c r="E92" t="s">
-        <v>1427</v>
+        <v>1441</v>
       </c>
       <c r="F92" t="str">
         <f>角色!$E$12</f>
@@ -23097,18 +23223,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H92" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I92" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J92" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="93" spans="5:10">
       <c r="E93" t="s">
-        <v>1428</v>
+        <v>1442</v>
       </c>
       <c r="F93" t="str">
         <f>角色!$E$12</f>
@@ -23119,18 +23245,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H93" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I93" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J93" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="94" spans="5:10">
       <c r="E94" t="s">
-        <v>1429</v>
+        <v>1443</v>
       </c>
       <c r="F94" t="str">
         <f>角色!$E$12</f>
@@ -23141,18 +23267,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H94" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I94" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J94" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="95" spans="5:10">
       <c r="E95" t="s">
-        <v>1430</v>
+        <v>1444</v>
       </c>
       <c r="F95" t="str">
         <f>角色!$E$12</f>
@@ -23163,18 +23289,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H95" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I95" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J95" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="96" spans="5:10">
       <c r="E96" t="s">
-        <v>1431</v>
+        <v>1445</v>
       </c>
       <c r="F96" t="str">
         <f>角色!$E$12</f>
@@ -23185,18 +23311,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H96" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I96" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J96" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="97" spans="5:10">
       <c r="E97" t="s">
-        <v>1432</v>
+        <v>1446</v>
       </c>
       <c r="F97" t="str">
         <f>角色!$E$12</f>
@@ -23207,18 +23333,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H97" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I97" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J97" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="98" spans="5:10">
       <c r="E98" t="s">
-        <v>1433</v>
+        <v>1447</v>
       </c>
       <c r="F98" t="str">
         <f>角色!$E$12</f>
@@ -23229,18 +23355,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H98" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I98" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J98" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="99" spans="5:10">
       <c r="E99" t="s">
-        <v>1434</v>
+        <v>1448</v>
       </c>
       <c r="F99" t="str">
         <f>角色!$E$12</f>
@@ -23251,18 +23377,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H99" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I99" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J99" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="100" spans="5:10">
       <c r="E100" t="s">
-        <v>1435</v>
+        <v>1449</v>
       </c>
       <c r="F100" t="str">
         <f>角色!$E$12</f>
@@ -23273,18 +23399,18 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H100" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I100" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J100" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="101" spans="5:10">
       <c r="E101" t="s">
-        <v>1436</v>
+        <v>1450</v>
       </c>
       <c r="F101" t="str">
         <f>角色!$E$12</f>
@@ -23295,18 +23421,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H101" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I101" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J101" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="102" spans="5:10">
       <c r="E102" t="s">
-        <v>1437</v>
+        <v>1451</v>
       </c>
       <c r="F102" t="str">
         <f>角色!$E$12</f>
@@ -23317,18 +23443,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H102" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I102" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J102" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="103" spans="5:10">
       <c r="E103" t="s">
-        <v>1438</v>
+        <v>1452</v>
       </c>
       <c r="F103" t="str">
         <f>角色!$E$12</f>
@@ -23339,18 +23465,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H103" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I103" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J103" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="104" spans="5:10">
       <c r="E104" t="s">
-        <v>1439</v>
+        <v>1453</v>
       </c>
       <c r="F104" t="str">
         <f>角色!$E$12</f>
@@ -23361,18 +23487,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H104" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I104" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J104" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="105" spans="5:10">
       <c r="E105" t="s">
-        <v>1440</v>
+        <v>1454</v>
       </c>
       <c r="F105" t="str">
         <f>角色!$E$12</f>
@@ -23383,18 +23509,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H105" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I105" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J105" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="106" spans="5:10">
       <c r="E106" t="s">
-        <v>1441</v>
+        <v>1455</v>
       </c>
       <c r="F106" t="str">
         <f>角色!$E$12</f>
@@ -23405,18 +23531,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H106" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I106" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J106" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="107" spans="5:10">
       <c r="E107" t="s">
-        <v>1442</v>
+        <v>1456</v>
       </c>
       <c r="F107" t="str">
         <f>角色!$E$12</f>
@@ -23427,18 +23553,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H107" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I107" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J107" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="108" spans="5:10">
       <c r="E108" t="s">
-        <v>1443</v>
+        <v>1457</v>
       </c>
       <c r="F108" t="str">
         <f>角色!$E$12</f>
@@ -23449,18 +23575,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H108" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I108" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J108" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="109" spans="5:10">
       <c r="E109" t="s">
-        <v>1444</v>
+        <v>1458</v>
       </c>
       <c r="F109" t="str">
         <f>角色!$E$12</f>
@@ -23471,18 +23597,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H109" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I109" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J109" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="110" spans="5:10">
       <c r="E110" t="s">
-        <v>1445</v>
+        <v>1459</v>
       </c>
       <c r="F110" t="str">
         <f>角色!$E$12</f>
@@ -23493,18 +23619,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H110" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I110" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J110" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="111" spans="5:10">
       <c r="E111" t="s">
-        <v>1446</v>
+        <v>1460</v>
       </c>
       <c r="F111" t="str">
         <f>角色!$E$12</f>
@@ -23515,18 +23641,18 @@
         <v>iam_menu-61</v>
       </c>
       <c r="H111" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I111" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J111" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="112" spans="5:10">
       <c r="E112" t="s">
-        <v>1447</v>
+        <v>1461</v>
       </c>
       <c r="F112" t="str">
         <f>角色!$E$12</f>
@@ -23537,18 +23663,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H112" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I112" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J112" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="113" spans="5:10">
       <c r="E113" t="s">
-        <v>1448</v>
+        <v>1462</v>
       </c>
       <c r="F113" t="str">
         <f>角色!$E$12</f>
@@ -23559,18 +23685,18 @@
         <v>iam_menu-62</v>
       </c>
       <c r="H113" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I113" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J113" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="114" spans="5:10">
       <c r="E114" t="s">
-        <v>1449</v>
+        <v>1463</v>
       </c>
       <c r="F114" t="str">
         <f>角色!$E$12</f>
@@ -23581,18 +23707,18 @@
         <v>iam_menu-67</v>
       </c>
       <c r="H114" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I114" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J114" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="115" spans="5:10">
       <c r="E115" t="s">
-        <v>1450</v>
+        <v>1464</v>
       </c>
       <c r="F115" t="str">
         <f>角色!$E$12</f>
@@ -23603,18 +23729,18 @@
         <v>iam_menu-69</v>
       </c>
       <c r="H115" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I115" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J115" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="116" spans="5:10">
       <c r="E116" t="s">
-        <v>1451</v>
+        <v>1465</v>
       </c>
       <c r="F116" t="str">
         <f>角色!$E$12</f>
@@ -23625,18 +23751,18 @@
         <v>iam_menu-68</v>
       </c>
       <c r="H116" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I116" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J116" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="117" spans="5:10">
       <c r="E117" t="s">
-        <v>1452</v>
+        <v>1466</v>
       </c>
       <c r="F117" t="str">
         <f>角色!$E$12</f>
@@ -23647,18 +23773,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H117" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I117" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J117" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="118" spans="5:10">
       <c r="E118" t="s">
-        <v>1453</v>
+        <v>1467</v>
       </c>
       <c r="F118" t="str">
         <f>角色!$E$12</f>
@@ -23669,18 +23795,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H118" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I118" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J118" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="119" spans="5:10">
       <c r="E119" t="s">
-        <v>1454</v>
+        <v>1468</v>
       </c>
       <c r="F119" t="str">
         <f>角色!$E$12</f>
@@ -23691,18 +23817,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H119" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I119" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J119" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="120" spans="5:10">
       <c r="E120" t="s">
-        <v>1455</v>
+        <v>1469</v>
       </c>
       <c r="F120" t="str">
         <f>角色!$E$12</f>
@@ -23713,18 +23839,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H120" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I120" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J120" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="121" spans="5:10">
       <c r="E121" t="s">
-        <v>1456</v>
+        <v>1470</v>
       </c>
       <c r="F121" t="str">
         <f>角色!$E$12</f>
@@ -23735,18 +23861,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H121" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I121" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J121" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="122" spans="5:10">
       <c r="E122" t="s">
-        <v>1457</v>
+        <v>1471</v>
       </c>
       <c r="F122" t="str">
         <f>角色!$E$12</f>
@@ -23757,18 +23883,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H122" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I122" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J122" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="123" spans="5:10">
       <c r="E123" t="s">
-        <v>1458</v>
+        <v>1472</v>
       </c>
       <c r="F123" t="str">
         <f>角色!$E$12</f>
@@ -23779,18 +23905,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H123" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I123" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J123" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="124" spans="5:10">
       <c r="E124" t="s">
-        <v>1459</v>
+        <v>1473</v>
       </c>
       <c r="F124" t="str">
         <f>角色!$E$12</f>
@@ -23801,18 +23927,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H124" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I124" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J124" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="125" spans="5:10">
       <c r="E125" t="s">
-        <v>1460</v>
+        <v>1474</v>
       </c>
       <c r="F125" t="str">
         <f>角色!$E$12</f>
@@ -23823,18 +23949,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H125" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I125" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J125" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="126" spans="5:10">
       <c r="E126" t="s">
-        <v>1461</v>
+        <v>1475</v>
       </c>
       <c r="F126" t="str">
         <f>角色!$E$12</f>
@@ -23845,18 +23971,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H126" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I126" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J126" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="127" spans="5:10">
       <c r="E127" t="s">
-        <v>1462</v>
+        <v>1476</v>
       </c>
       <c r="F127" t="str">
         <f>角色!$E$12</f>
@@ -23867,18 +23993,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H127" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I127" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J127" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="128" spans="5:10">
       <c r="E128" t="s">
-        <v>1463</v>
+        <v>1477</v>
       </c>
       <c r="F128" t="str">
         <f>角色!$E$12</f>
@@ -23889,18 +24015,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H128" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I128" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J128" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="129" spans="5:10">
       <c r="E129" t="s">
-        <v>1464</v>
+        <v>1478</v>
       </c>
       <c r="F129" t="str">
         <f>角色!$E$12</f>
@@ -23911,18 +24037,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H129" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I129" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J129" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="130" spans="5:10">
       <c r="E130" t="s">
-        <v>1465</v>
+        <v>1479</v>
       </c>
       <c r="F130" t="str">
         <f>角色!$E$12</f>
@@ -23933,18 +24059,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H130" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I130" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J130" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="131" spans="5:10">
       <c r="E131" t="s">
-        <v>1466</v>
+        <v>1480</v>
       </c>
       <c r="F131" t="str">
         <f>角色!$E$12</f>
@@ -23955,18 +24081,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H131" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I131" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J131" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="132" spans="5:10">
       <c r="E132" t="s">
-        <v>1467</v>
+        <v>1481</v>
       </c>
       <c r="F132" t="str">
         <f>角色!$E$12</f>
@@ -23977,18 +24103,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H132" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I132" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J132" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="133" spans="5:10">
       <c r="E133" t="s">
-        <v>1468</v>
+        <v>1482</v>
       </c>
       <c r="F133" t="str">
         <f>角色!$E$12</f>
@@ -23999,18 +24125,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H133" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I133" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J133" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="134" spans="5:10">
       <c r="E134" t="s">
-        <v>1469</v>
+        <v>1483</v>
       </c>
       <c r="F134" t="str">
         <f>角色!$E$12</f>
@@ -24021,18 +24147,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H134" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I134" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J134" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="135" spans="5:10">
       <c r="E135" t="s">
-        <v>1470</v>
+        <v>1484</v>
       </c>
       <c r="F135" t="str">
         <f>角色!$E$12</f>
@@ -24043,18 +24169,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H135" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I135" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J135" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="136" spans="5:10">
       <c r="E136" t="s">
-        <v>1471</v>
+        <v>1485</v>
       </c>
       <c r="F136" t="str">
         <f>角色!$E$12</f>
@@ -24065,18 +24191,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H136" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I136" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J136" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="137" spans="5:10">
       <c r="E137" t="s">
-        <v>1472</v>
+        <v>1486</v>
       </c>
       <c r="F137" t="str">
         <f>角色!$E$12</f>
@@ -24087,18 +24213,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H137" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I137" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J137" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="138" spans="5:10">
       <c r="E138" t="s">
-        <v>1473</v>
+        <v>1487</v>
       </c>
       <c r="F138" t="str">
         <f>角色!$E$12</f>
@@ -24109,18 +24235,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H138" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I138" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J138" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="139" spans="5:10">
       <c r="E139" t="s">
-        <v>1474</v>
+        <v>1488</v>
       </c>
       <c r="F139" t="str">
         <f>角色!$E$12</f>
@@ -24131,18 +24257,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H139" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I139" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J139" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="140" spans="5:10">
       <c r="E140" t="s">
-        <v>1475</v>
+        <v>1489</v>
       </c>
       <c r="F140" t="str">
         <f>角色!$E$12</f>
@@ -24153,18 +24279,18 @@
         <v>iam_menu-125</v>
       </c>
       <c r="H140" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I140" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J140" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="141" spans="5:10">
       <c r="E141" t="s">
-        <v>1476</v>
+        <v>1490</v>
       </c>
       <c r="F141" t="str">
         <f>角色!$E$12</f>
@@ -24175,18 +24301,18 @@
         <v>iam_menu-128</v>
       </c>
       <c r="H141" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I141" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J141" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="142" spans="5:10">
       <c r="E142" t="s">
-        <v>1477</v>
+        <v>1491</v>
       </c>
       <c r="F142" t="str">
         <f>角色!$E$13</f>
@@ -24197,18 +24323,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H142" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I142" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J142" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="143" spans="5:10">
       <c r="E143" t="s">
-        <v>1478</v>
+        <v>1492</v>
       </c>
       <c r="F143" t="str">
         <f>角色!$E$13</f>
@@ -24219,18 +24345,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H143" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I143" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J143" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="144" spans="5:10">
       <c r="E144" t="s">
-        <v>1479</v>
+        <v>1493</v>
       </c>
       <c r="F144" t="str">
         <f>角色!$E$13</f>
@@ -24241,18 +24367,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H144" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I144" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J144" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="145" spans="5:10">
       <c r="E145" t="s">
-        <v>1480</v>
+        <v>1494</v>
       </c>
       <c r="F145" t="str">
         <f>角色!$E$13</f>
@@ -24263,18 +24389,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H145" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I145" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J145" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="146" spans="5:10">
       <c r="E146" t="s">
-        <v>1481</v>
+        <v>1495</v>
       </c>
       <c r="F146" t="str">
         <f>角色!$E$13</f>
@@ -24285,18 +24411,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H146" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I146" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J146" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="147" spans="5:10">
       <c r="E147" t="s">
-        <v>1482</v>
+        <v>1496</v>
       </c>
       <c r="F147" t="str">
         <f>角色!$E$13</f>
@@ -24307,18 +24433,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H147" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I147" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J147" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="148" spans="5:10">
       <c r="E148" t="s">
-        <v>1483</v>
+        <v>1497</v>
       </c>
       <c r="F148" t="str">
         <f>角色!$E$13</f>
@@ -24329,18 +24455,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H148" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I148" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J148" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="149" spans="5:10">
       <c r="E149" t="s">
-        <v>1484</v>
+        <v>1498</v>
       </c>
       <c r="F149" t="str">
         <f>角色!$E$13</f>
@@ -24351,18 +24477,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H149" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="I149" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J149" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="150" spans="5:10">
       <c r="E150" t="s">
-        <v>1486</v>
+        <v>1500</v>
       </c>
       <c r="F150" t="str">
         <f>角色!$E$13</f>
@@ -24373,18 +24499,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H150" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="I150" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J150" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="151" spans="5:10">
       <c r="E151" t="s">
-        <v>1487</v>
+        <v>1501</v>
       </c>
       <c r="F151" t="str">
         <f>角色!$E$13</f>
@@ -24395,18 +24521,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H151" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="I151" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J151" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="152" spans="5:10">
       <c r="E152" t="s">
-        <v>1488</v>
+        <v>1502</v>
       </c>
       <c r="F152" t="str">
         <f>角色!$E$13</f>
@@ -24417,18 +24543,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H152" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="I152" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J152" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="153" spans="5:10">
       <c r="E153" t="s">
-        <v>1489</v>
+        <v>1503</v>
       </c>
       <c r="F153" t="str">
         <f>角色!$E$13</f>
@@ -24439,18 +24565,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H153" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="I153" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J153" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="154" spans="5:10">
       <c r="E154" t="s">
-        <v>1490</v>
+        <v>1504</v>
       </c>
       <c r="F154" t="str">
         <f>角色!$E$13</f>
@@ -24461,18 +24587,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H154" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="I154" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J154" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="155" spans="5:10">
       <c r="E155" t="s">
-        <v>1491</v>
+        <v>1505</v>
       </c>
       <c r="F155" t="str">
         <f>角色!$E$13</f>
@@ -24483,18 +24609,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H155" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="I155" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J155" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="156" spans="5:10">
       <c r="E156" t="s">
-        <v>1492</v>
+        <v>1506</v>
       </c>
       <c r="F156" t="str">
         <f>角色!$E$13</f>
@@ -24505,18 +24631,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H156" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I156" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J156" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="157" spans="5:10">
       <c r="E157" t="s">
-        <v>1493</v>
+        <v>1507</v>
       </c>
       <c r="F157" t="str">
         <f>角色!$E$13</f>
@@ -24527,18 +24653,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H157" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I157" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J157" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="158" spans="5:10">
       <c r="E158" t="s">
-        <v>1494</v>
+        <v>1508</v>
       </c>
       <c r="F158" t="str">
         <f>角色!$E$13</f>
@@ -24549,18 +24675,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H158" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I158" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J158" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="159" spans="5:10">
       <c r="E159" t="s">
-        <v>1495</v>
+        <v>1509</v>
       </c>
       <c r="F159" t="str">
         <f>角色!$E$13</f>
@@ -24571,18 +24697,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H159" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I159" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J159" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="160" spans="5:10">
       <c r="E160" t="s">
-        <v>1496</v>
+        <v>1510</v>
       </c>
       <c r="F160" t="str">
         <f>角色!$E$13</f>
@@ -24593,18 +24719,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H160" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I160" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J160" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="161" spans="5:10">
       <c r="E161" t="s">
-        <v>1497</v>
+        <v>1511</v>
       </c>
       <c r="F161" t="str">
         <f>角色!$E$13</f>
@@ -24615,18 +24741,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H161" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I161" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J161" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="162" spans="5:10">
       <c r="E162" t="s">
-        <v>1498</v>
+        <v>1512</v>
       </c>
       <c r="F162" t="str">
         <f>角色!$E$13</f>
@@ -24637,18 +24763,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H162" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I162" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J162" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="163" spans="5:10">
       <c r="E163" t="s">
-        <v>1499</v>
+        <v>1513</v>
       </c>
       <c r="F163" t="str">
         <f>角色!$E$13</f>
@@ -24659,18 +24785,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H163" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I163" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J163" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="164" spans="5:10">
       <c r="E164" t="s">
-        <v>1500</v>
+        <v>1514</v>
       </c>
       <c r="F164" t="str">
         <f>角色!$E$13</f>
@@ -24681,18 +24807,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H164" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I164" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J164" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="165" spans="5:10">
       <c r="E165" t="s">
-        <v>1501</v>
+        <v>1515</v>
       </c>
       <c r="F165" t="str">
         <f>角色!$E$13</f>
@@ -24703,18 +24829,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H165" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I165" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J165" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="166" spans="5:10">
       <c r="E166" t="s">
-        <v>1502</v>
+        <v>1516</v>
       </c>
       <c r="F166" t="str">
         <f>角色!$E$13</f>
@@ -24725,18 +24851,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H166" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I166" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J166" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="167" spans="5:10">
       <c r="E167" t="s">
-        <v>1503</v>
+        <v>1517</v>
       </c>
       <c r="F167" t="str">
         <f>角色!$E$13</f>
@@ -24747,18 +24873,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H167" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I167" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J167" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="168" spans="5:10">
       <c r="E168" t="s">
-        <v>1504</v>
+        <v>1518</v>
       </c>
       <c r="F168" t="str">
         <f>角色!$E$13</f>
@@ -24769,18 +24895,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H168" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I168" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J168" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="169" spans="5:10">
       <c r="E169" t="s">
-        <v>1505</v>
+        <v>1519</v>
       </c>
       <c r="F169" t="str">
         <f>角色!$E$13</f>
@@ -24791,18 +24917,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H169" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I169" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J169" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="170" spans="5:10">
       <c r="E170" t="s">
-        <v>1506</v>
+        <v>1520</v>
       </c>
       <c r="F170" t="str">
         <f>角色!$E$13</f>
@@ -24813,18 +24939,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H170" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I170" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J170" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="171" spans="5:10">
       <c r="E171" t="s">
-        <v>1507</v>
+        <v>1521</v>
       </c>
       <c r="F171" t="str">
         <f>角色!$E$13</f>
@@ -24835,18 +24961,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H171" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I171" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J171" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="172" spans="5:10">
       <c r="E172" t="s">
-        <v>1508</v>
+        <v>1522</v>
       </c>
       <c r="F172" t="str">
         <f>角色!$E$13</f>
@@ -24857,18 +24983,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H172" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I172" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J172" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="173" spans="5:10">
       <c r="E173" t="s">
-        <v>1509</v>
+        <v>1523</v>
       </c>
       <c r="F173" t="str">
         <f>角色!$E$13</f>
@@ -24879,18 +25005,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H173" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="I173" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J173" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="174" spans="5:10">
       <c r="E174" t="s">
-        <v>1510</v>
+        <v>1524</v>
       </c>
       <c r="F174" t="str">
         <f>角色!$E$13</f>
@@ -24901,18 +25027,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H174" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="I174" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J174" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="175" spans="5:10">
       <c r="E175" t="s">
-        <v>1511</v>
+        <v>1525</v>
       </c>
       <c r="F175" t="str">
         <f>角色!$E$13</f>
@@ -24923,18 +25049,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H175" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="I175" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J175" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="176" spans="5:10">
       <c r="E176" t="s">
-        <v>1512</v>
+        <v>1526</v>
       </c>
       <c r="F176" t="str">
         <f>角色!$E$13</f>
@@ -24945,18 +25071,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H176" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I176" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J176" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="177" spans="5:10">
       <c r="E177" t="s">
-        <v>1513</v>
+        <v>1527</v>
       </c>
       <c r="F177" t="str">
         <f>角色!$E$13</f>
@@ -24967,18 +25093,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H177" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I177" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J177" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="178" spans="5:10">
       <c r="E178" t="s">
-        <v>1514</v>
+        <v>1528</v>
       </c>
       <c r="F178" t="str">
         <f>角色!$E$13</f>
@@ -24989,18 +25115,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H178" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I178" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J178" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="179" spans="5:10">
       <c r="E179" t="s">
-        <v>1515</v>
+        <v>1529</v>
       </c>
       <c r="F179" t="str">
         <f>角色!$E$13</f>
@@ -25011,18 +25137,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H179" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I179" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J179" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="180" spans="5:10">
       <c r="E180" t="s">
-        <v>1516</v>
+        <v>1530</v>
       </c>
       <c r="F180" t="str">
         <f>角色!$E$13</f>
@@ -25033,18 +25159,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H180" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I180" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J180" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="181" spans="5:10">
       <c r="E181" t="s">
-        <v>1517</v>
+        <v>1531</v>
       </c>
       <c r="F181" t="str">
         <f>角色!$E$13</f>
@@ -25055,18 +25181,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H181" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I181" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J181" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="182" spans="5:10">
       <c r="E182" t="s">
-        <v>1518</v>
+        <v>1532</v>
       </c>
       <c r="F182" t="str">
         <f>角色!$E$10</f>
@@ -25077,18 +25203,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H182" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I182" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J182" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="183" spans="5:10">
       <c r="E183" t="s">
-        <v>1519</v>
+        <v>1533</v>
       </c>
       <c r="F183" t="str">
         <f>角色!$E$12</f>
@@ -25099,18 +25225,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H183" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I183" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J183" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="184" spans="5:10">
       <c r="E184" t="s">
-        <v>1520</v>
+        <v>1534</v>
       </c>
       <c r="F184" t="str">
         <f>角色!$E$13</f>
@@ -25121,18 +25247,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H184" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I184" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J184" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="185" spans="5:10">
       <c r="E185" s="6" t="s">
-        <v>1521</v>
+        <v>1535</v>
       </c>
       <c r="F185" t="str">
         <f>角色!$E$13</f>
@@ -25143,18 +25269,18 @@
         <v>iam_menu-136</v>
       </c>
       <c r="H185" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I185" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J185" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="186" spans="5:10">
       <c r="E186" s="5" t="s">
-        <v>1522</v>
+        <v>1536</v>
       </c>
       <c r="F186" t="str">
         <f>角色!$E$10</f>
@@ -25165,18 +25291,18 @@
         <v>iam_menu-136</v>
       </c>
       <c r="H186" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I186" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J186" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="187" spans="5:10">
       <c r="E187" s="5" t="s">
-        <v>1523</v>
+        <v>1537</v>
       </c>
       <c r="F187" t="str">
         <f>角色!$E$12</f>
@@ -25187,18 +25313,18 @@
         <v>iam_menu-137</v>
       </c>
       <c r="H187" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I187" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J187" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="188" spans="5:10">
       <c r="E188" s="5" t="s">
-        <v>1524</v>
+        <v>1538</v>
       </c>
       <c r="F188" t="str">
         <f>角色!$E$10</f>
@@ -25209,18 +25335,18 @@
         <v>iam_menu-137</v>
       </c>
       <c r="H188" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I188" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J188" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="189" spans="5:10">
       <c r="E189" s="5" t="s">
-        <v>1525</v>
+        <v>1539</v>
       </c>
       <c r="F189" t="str">
         <f>角色!$E$12</f>
@@ -25231,18 +25357,18 @@
         <v>iam_menu-136</v>
       </c>
       <c r="H189" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I189" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J189" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="190" spans="5:10">
       <c r="E190" s="5" t="s">
-        <v>1526</v>
+        <v>1540</v>
       </c>
       <c r="F190" t="str">
         <f>角色!$E$13</f>
@@ -25253,13 +25379,13 @@
         <v>iam_menu-139</v>
       </c>
       <c r="H190" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="I190" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="J190" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
     </row>
   </sheetData>
@@ -25321,66 +25447,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1201</v>
+        <v>1215</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1202</v>
+        <v>1216</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1203</v>
+        <v>1217</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1204</v>
+        <v>1218</v>
       </c>
       <c r="H7" t="s">
-        <v>1205</v>
+        <v>1219</v>
       </c>
       <c r="I7" t="s">
-        <v>1206</v>
+        <v>1220</v>
       </c>
       <c r="J7" t="s">
-        <v>1207</v>
+        <v>1221</v>
       </c>
       <c r="K7" t="s">
-        <v>1208</v>
+        <v>1222</v>
       </c>
       <c r="L7" t="s">
-        <v>1209</v>
+        <v>1223</v>
       </c>
       <c r="M7" t="s">
-        <v>1210</v>
+        <v>1224</v>
       </c>
       <c r="N7" t="s">
-        <v>1211</v>
+        <v>1225</v>
       </c>
       <c r="O7" t="s">
-        <v>1212</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>1213</v>
+        <v>1227</v>
       </c>
       <c r="F8" t="s">
-        <v>1527</v>
+        <v>1541</v>
       </c>
       <c r="G8" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J8" t="s">
-        <v>1529</v>
+        <v>1543</v>
       </c>
       <c r="K8" t="s">
-        <v>1530</v>
+        <v>1544</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -25394,22 +25520,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>1218</v>
+        <v>1232</v>
       </c>
       <c r="F9" t="s">
-        <v>1531</v>
+        <v>1545</v>
       </c>
       <c r="G9" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
       <c r="J9" t="s">
-        <v>1532</v>
+        <v>1546</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -25423,25 +25549,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>1221</v>
+        <v>1235</v>
       </c>
       <c r="F10" t="s">
-        <v>1533</v>
+        <v>1547</v>
       </c>
       <c r="G10" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J10" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
       <c r="K10" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -25455,25 +25581,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>1224</v>
+        <v>1238</v>
       </c>
       <c r="F11" t="s">
-        <v>1535</v>
+        <v>1549</v>
       </c>
       <c r="G11" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J11" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="K11" t="s">
-        <v>1537</v>
+        <v>1551</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -25487,25 +25613,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>1226</v>
+        <v>1240</v>
       </c>
       <c r="F12" t="s">
-        <v>1538</v>
+        <v>1552</v>
       </c>
       <c r="G12" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J12" t="s">
-        <v>1539</v>
+        <v>1553</v>
       </c>
       <c r="K12" t="s">
-        <v>1539</v>
+        <v>1553</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -25519,25 +25645,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>1229</v>
+        <v>1243</v>
       </c>
       <c r="F13" t="s">
-        <v>1540</v>
+        <v>1554</v>
       </c>
       <c r="G13" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J13" t="s">
-        <v>1541</v>
+        <v>1555</v>
       </c>
       <c r="K13" t="s">
-        <v>1542</v>
+        <v>1556</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -25551,25 +25677,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>1232</v>
+        <v>1246</v>
       </c>
       <c r="F14" t="s">
-        <v>1543</v>
+        <v>1557</v>
       </c>
       <c r="G14" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J14" t="s">
-        <v>1544</v>
+        <v>1558</v>
       </c>
       <c r="K14" t="s">
-        <v>1329</v>
+        <v>1343</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -25583,25 +25709,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>1235</v>
+        <v>1249</v>
       </c>
       <c r="F15" t="s">
-        <v>1545</v>
+        <v>1559</v>
       </c>
       <c r="G15" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J15" t="s">
-        <v>1546</v>
+        <v>1560</v>
       </c>
       <c r="K15" t="s">
-        <v>1547</v>
+        <v>1561</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -25615,25 +25741,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>1238</v>
+        <v>1252</v>
       </c>
       <c r="F16" t="s">
-        <v>1548</v>
+        <v>1562</v>
       </c>
       <c r="G16" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J16" t="s">
-        <v>1549</v>
+        <v>1563</v>
       </c>
       <c r="K16" t="s">
-        <v>1550</v>
+        <v>1564</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -25647,25 +25773,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>1241</v>
+        <v>1255</v>
       </c>
       <c r="F17" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="G17" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J17" t="s">
-        <v>1552</v>
+        <v>1566</v>
       </c>
       <c r="K17" t="s">
-        <v>1553</v>
+        <v>1567</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -25679,25 +25805,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>1244</v>
+        <v>1258</v>
       </c>
       <c r="F18" t="s">
-        <v>1554</v>
+        <v>1568</v>
       </c>
       <c r="G18" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J18" t="s">
-        <v>1555</v>
+        <v>1569</v>
       </c>
       <c r="K18" t="s">
-        <v>1554</v>
+        <v>1568</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -25711,25 +25837,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>1247</v>
+        <v>1261</v>
       </c>
       <c r="F19" t="s">
-        <v>1556</v>
+        <v>1570</v>
       </c>
       <c r="G19" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
       <c r="J19" t="s">
-        <v>1557</v>
+        <v>1571</v>
       </c>
       <c r="K19" t="s">
-        <v>1556</v>
+        <v>1570</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -25749,33 +25875,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>1269</v>
+        <v>1283</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1270</v>
+        <v>1284</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1271</v>
+        <v>1285</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1272</v>
+        <v>1286</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>1273</v>
+        <v>1287</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1274</v>
+        <v>1288</v>
       </c>
       <c r="I21" t="s">
-        <v>1275</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F22" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -25786,15 +25912,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F23" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -25805,15 +25931,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F24" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -25824,15 +25950,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F25" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -25843,15 +25969,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F26" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -25862,15 +25988,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F27" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -25881,15 +26007,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F28" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -25900,15 +26026,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F29" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -25919,15 +26045,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F30" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -25938,15 +26064,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F31" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -25957,15 +26083,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F32" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -25976,15 +26102,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F33" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -25995,15 +26121,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F34" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -26014,15 +26140,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="F35" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -26033,7 +26159,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3913" uniqueCount="1574">
   <si>
     <r>
       <rPr>
@@ -6361,6 +6361,12 @@
     <t>iam_role_permission-280</t>
   </si>
   <si>
+    <t>iam_role_permission-281</t>
+  </si>
+  <si>
+    <t>iam_role_permission-282</t>
+  </si>
+  <si>
     <t>TENANT_MGR</t>
   </si>
   <si>
@@ -6459,8 +6465,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -6554,6 +6560,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -6577,6 +6590,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6594,6 +6614,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6624,15 +6659,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6663,29 +6691,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6767,7 +6773,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6779,13 +6863,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6797,73 +6911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6881,43 +6929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6929,25 +6953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7063,21 +7069,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7093,11 +7084,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7119,11 +7116,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7145,6 +7140,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -7154,148 +7160,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8006,8 +8012,8 @@
   <sheetPr/>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView topLeftCell="D80" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView topLeftCell="C38" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12609,7 +12615,7 @@
   <sheetPr/>
   <dimension ref="A1:G420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+    <sheetView topLeftCell="A399" workbookViewId="0">
       <selection activeCell="G421" sqref="G421"/>
     </sheetView>
   </sheetViews>
@@ -17635,7 +17641,7 @@
   <sheetPr/>
   <dimension ref="A1:O168"/>
   <sheetViews>
-    <sheetView topLeftCell="D148" workbookViewId="0">
+    <sheetView topLeftCell="D55" workbookViewId="0">
       <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
@@ -20985,10 +20991,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y190"/>
+  <dimension ref="A1:Y192"/>
   <sheetViews>
-    <sheetView topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="G190" sqref="G190"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -25366,7 +25372,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="190" spans="5:10">
+    <row r="190" ht="16" customHeight="1" spans="5:10">
       <c r="E190" s="5" t="s">
         <v>1540</v>
       </c>
@@ -25385,6 +25391,50 @@
         <v>1365</v>
       </c>
       <c r="J190" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="191" ht="16" customHeight="1" spans="5:10">
+      <c r="E191" s="5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F191" t="str">
+        <f>角色!$E$12</f>
+        <v>iam_role-12</v>
+      </c>
+      <c r="G191" t="str">
+        <f>菜单SAAS版!$E$96</f>
+        <v>iam_menu-139</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I191" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J191" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="192" ht="16" customHeight="1" spans="5:10">
+      <c r="E192" s="5" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F192" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G192" t="str">
+        <f>菜单SAAS版!$E$96</f>
+        <v>iam_menu-139</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I192" t="s">
+        <v>1365</v>
+      </c>
+      <c r="J192" t="s">
         <v>1366</v>
       </c>
     </row>
@@ -25491,10 +25541,10 @@
         <v>1227</v>
       </c>
       <c r="F8" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="G8" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
@@ -25503,10 +25553,10 @@
         <v>1230</v>
       </c>
       <c r="J8" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="K8" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -25523,10 +25573,10 @@
         <v>1232</v>
       </c>
       <c r="F9" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="G9" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
@@ -25535,7 +25585,7 @@
         <v>1237</v>
       </c>
       <c r="J9" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -25552,10 +25602,10 @@
         <v>1235</v>
       </c>
       <c r="F10" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="G10" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
@@ -25564,10 +25614,10 @@
         <v>1230</v>
       </c>
       <c r="J10" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="K10" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -25584,10 +25634,10 @@
         <v>1238</v>
       </c>
       <c r="F11" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="G11" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
@@ -25596,10 +25646,10 @@
         <v>1230</v>
       </c>
       <c r="J11" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="K11" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -25616,10 +25666,10 @@
         <v>1240</v>
       </c>
       <c r="F12" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="G12" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
@@ -25628,10 +25678,10 @@
         <v>1230</v>
       </c>
       <c r="J12" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="K12" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -25648,10 +25698,10 @@
         <v>1243</v>
       </c>
       <c r="F13" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="G13" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
@@ -25660,10 +25710,10 @@
         <v>1230</v>
       </c>
       <c r="J13" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="K13" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -25680,10 +25730,10 @@
         <v>1246</v>
       </c>
       <c r="F14" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="G14" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
@@ -25692,7 +25742,7 @@
         <v>1230</v>
       </c>
       <c r="J14" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="K14" t="s">
         <v>1343</v>
@@ -25712,10 +25762,10 @@
         <v>1249</v>
       </c>
       <c r="F15" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="G15" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
@@ -25724,10 +25774,10 @@
         <v>1230</v>
       </c>
       <c r="J15" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="K15" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -25744,10 +25794,10 @@
         <v>1252</v>
       </c>
       <c r="F16" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="G16" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
@@ -25756,10 +25806,10 @@
         <v>1230</v>
       </c>
       <c r="J16" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="K16" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -25776,10 +25826,10 @@
         <v>1255</v>
       </c>
       <c r="F17" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="G17" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
@@ -25788,10 +25838,10 @@
         <v>1230</v>
       </c>
       <c r="J17" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="K17" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -25808,10 +25858,10 @@
         <v>1258</v>
       </c>
       <c r="F18" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="G18" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
@@ -25820,10 +25870,10 @@
         <v>1230</v>
       </c>
       <c r="J18" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="K18" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -25840,10 +25890,10 @@
         <v>1261</v>
       </c>
       <c r="F19" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="G19" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
@@ -25852,10 +25902,10 @@
         <v>1230</v>
       </c>
       <c r="J19" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="K19" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -25901,7 +25951,7 @@
         <v>1290</v>
       </c>
       <c r="F22" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -25920,7 +25970,7 @@
         <v>1290</v>
       </c>
       <c r="F23" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -25939,7 +25989,7 @@
         <v>1290</v>
       </c>
       <c r="F24" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -25958,7 +26008,7 @@
         <v>1290</v>
       </c>
       <c r="F25" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -25977,7 +26027,7 @@
         <v>1290</v>
       </c>
       <c r="F26" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -25996,7 +26046,7 @@
         <v>1290</v>
       </c>
       <c r="F27" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -26015,7 +26065,7 @@
         <v>1290</v>
       </c>
       <c r="F28" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -26034,7 +26084,7 @@
         <v>1290</v>
       </c>
       <c r="F29" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -26053,7 +26103,7 @@
         <v>1290</v>
       </c>
       <c r="F30" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -26072,7 +26122,7 @@
         <v>1290</v>
       </c>
       <c r="F31" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -26091,7 +26141,7 @@
         <v>1290</v>
       </c>
       <c r="F32" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -26110,7 +26160,7 @@
         <v>1290</v>
       </c>
       <c r="F33" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -26129,7 +26179,7 @@
         <v>1290</v>
       </c>
       <c r="F34" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -26148,7 +26198,7 @@
         <v>1290</v>
       </c>
       <c r="F35" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -3904,7 +3904,7 @@
     <t>iam_menu_permission-138</t>
   </si>
   <si>
-    <t>agile-service.issue.exportIssues</t>
+    <t>agile-service.excel.exportIssues</t>
   </si>
   <si>
     <t>iam_menu_permission-139</t>
@@ -6465,10 +6465,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -6547,14 +6547,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6568,17 +6568,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6589,8 +6582,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6620,7 +6630,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6628,17 +6638,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6658,9 +6660,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6674,24 +6675,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6773,7 +6773,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6785,7 +6821,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6797,121 +6893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6929,19 +6917,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6953,7 +6953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7070,16 +7070,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7100,16 +7100,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7119,21 +7119,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7157,151 +7142,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7772,22 +7772,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5571428571429" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3285714285714" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
-    <col min="4" max="4" width="35.3285714285714" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
-    <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
-    <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3263888888889" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.1041666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.3263888888889" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5571428571429" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
-    <col min="12" max="12" width="18.5571428571429" customWidth="1"/>
-    <col min="13" max="13" width="13.1071428571429" customWidth="1"/>
-    <col min="14" max="1025" width="10.3285714285714" customWidth="1"/>
+    <col min="11" max="11" width="19.1041666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1041666666667" customWidth="1"/>
+    <col min="14" max="1025" width="10.3263888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" ht="49.5" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="49.5" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="66" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
@@ -7913,7 +7913,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" ht="33" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" ht="49.5" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
@@ -8012,22 +8012,22 @@
   <sheetPr/>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView topLeftCell="C38" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="C41" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="14.8857142857143" customWidth="1"/>
-    <col min="6" max="6" width="58.6642857142857" customWidth="1"/>
-    <col min="7" max="7" width="29.1071428571429" customWidth="1"/>
-    <col min="10" max="10" width="20.6642857142857" customWidth="1"/>
-    <col min="11" max="11" width="15.2214285714286" customWidth="1"/>
-    <col min="15" max="15" width="18.2214285714286" customWidth="1"/>
+    <col min="5" max="5" width="14.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="58.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="29.1041666666667" customWidth="1"/>
+    <col min="10" max="10" width="20.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="15.2222222222222" customWidth="1"/>
+    <col min="15" max="15" width="18.2222222222222" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="19" max="19" width="107.557142857143" customWidth="1"/>
-    <col min="21" max="21" width="20.8857142857143" customWidth="1"/>
-    <col min="22" max="22" width="24.2214285714286" customWidth="1"/>
+    <col min="19" max="19" width="107.555555555556" customWidth="1"/>
+    <col min="21" max="21" width="20.8888888888889" customWidth="1"/>
+    <col min="22" max="22" width="24.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12615,15 +12615,15 @@
   <sheetPr/>
   <dimension ref="A1:G420"/>
   <sheetViews>
-    <sheetView topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="G421" sqref="G421"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="G138" sqref="G138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="28.8857142857143" customWidth="1"/>
-    <col min="6" max="6" width="29.1071428571429" customWidth="1"/>
-    <col min="7" max="7" width="42.3285714285714" customWidth="1"/>
+    <col min="5" max="5" width="28.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="29.1041666666667" customWidth="1"/>
+    <col min="7" max="7" width="42.3263888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -17645,14 +17645,14 @@
       <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="26.4428571428571" customWidth="1"/>
-    <col min="6" max="6" width="26.3285714285714" customWidth="1"/>
-    <col min="7" max="7" width="27.1071428571429" customWidth="1"/>
-    <col min="8" max="8" width="18.1071428571429" customWidth="1"/>
-    <col min="9" max="9" width="24.8857142857143" customWidth="1"/>
-    <col min="10" max="10" width="37.1071428571429" customWidth="1"/>
+    <col min="5" max="5" width="26.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="26.3263888888889" customWidth="1"/>
+    <col min="7" max="7" width="27.1041666666667" customWidth="1"/>
+    <col min="8" max="8" width="18.1041666666667" customWidth="1"/>
+    <col min="9" max="9" width="24.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="37.1041666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20993,15 +20993,15 @@
   <sheetPr/>
   <dimension ref="A1:Y192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G194" sqref="G194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="22.3285714285714" customWidth="1"/>
-    <col min="6" max="6" width="14.4428571428571" customWidth="1"/>
-    <col min="7" max="7" width="28.5571428571429" customWidth="1"/>
+    <col min="5" max="5" width="22.3263888888889" customWidth="1"/>
+    <col min="6" max="6" width="14.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="28.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -25456,12 +25456,12 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="25.3285714285714" customWidth="1"/>
-    <col min="6" max="6" width="29.1071428571429" customWidth="1"/>
-    <col min="7" max="7" width="18.1071428571429" customWidth="1"/>
-    <col min="8" max="8" width="20.3285714285714" customWidth="1"/>
+    <col min="5" max="5" width="25.3263888888889" customWidth="1"/>
+    <col min="6" max="6" width="29.1041666666667" customWidth="1"/>
+    <col min="7" max="7" width="18.1041666666667" customWidth="1"/>
+    <col min="8" max="8" width="20.3263888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -3235,13 +3235,13 @@
     <t>iam_menu_permission-29</t>
   </si>
   <si>
-    <t>hzero-iam.choerodon-organization-project.getGroupInfoByEnableProject</t>
+    <t>choerodon-iam.choerodon-organization-project.getGroupInfoByEnableProject</t>
   </si>
   <si>
     <t>iam_menu_permission-30</t>
   </si>
   <si>
-    <t>hzero-iam.choerodon-project.list</t>
+    <t>choerodon-iam.choerodon-project.list</t>
   </si>
   <si>
     <t>iam_menu_permission-31</t>
@@ -3295,7 +3295,7 @@
     <t>iam_menu_permission-39</t>
   </si>
   <si>
-    <t>hzero-iam.choerodon-project-user.queryReportList</t>
+    <t>choerodon-iam.choerodon-project-user.queryReportList</t>
   </si>
   <si>
     <t>iam_menu_permission-89</t>
@@ -3343,7 +3343,7 @@
     <t>iam_menu_permission-96</t>
   </si>
   <si>
-    <t>hzero-iam.choerodon-tenant.pagingQueryUsersOnOrganization</t>
+    <t>choerodon-iam.choerodon-tenant.pagingQueryUsersOnOrganization</t>
   </si>
   <si>
     <t>iam_menu_permission-97</t>
@@ -4330,7 +4330,7 @@
     <t>iam_menu_permission-280</t>
   </si>
   <si>
-    <t>hzero-iam.choerodon-work-calendar-project.queryTimeZoneWorkCalendarDetail</t>
+    <t>choerodon-iam.choerodon-work-calendar-project.queryTimeZoneWorkCalendarDetail</t>
   </si>
   <si>
     <t>iam_menu_permission-281</t>
@@ -5035,7 +5035,7 @@
     <t>iam_menu_permission-498</t>
   </si>
   <si>
-    <t>hzero-asgard.saga-instance-project.statisticsFailure</t>
+    <t>choerodon-asgard.saga-instance-project.statisticsFailure</t>
   </si>
   <si>
     <t>iam_menu_permission-499</t>
@@ -5047,7 +5047,7 @@
     <t>iam_menu_permission-500</t>
   </si>
   <si>
-    <t>hzero-iam.choerodon-project-user.getUserCount</t>
+    <t>choerodon-iam.choerodon-project-user.getUserCount</t>
   </si>
   <si>
     <t>iam_menu_permission-501</t>
@@ -6127,9 +6127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -6200,16 +6200,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6238,7 +6238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6253,29 +6253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6306,14 +6284,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6322,14 +6308,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6346,6 +6324,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6427,7 +6427,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6439,7 +6535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6451,7 +6547,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6463,151 +6607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6714,16 +6714,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -6753,39 +6753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6803,11 +6770,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6817,10 +6817,10 @@
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6829,43 +6829,43 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6874,88 +6874,88 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -12005,7 +12005,7 @@
   <dimension ref="A1:G378"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
-      <selection activeCell="F380" sqref="F380"/>
+      <selection activeCell="G379" sqref="G379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\agile-service-0616\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91ED8A9-A87C-4489-85F7-88342FAD527C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1302EC04-AC05-4BEA-92A1-C58C7AA0C265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6717,7 +6717,7 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>operation_service_re</t>
+    <t>operation_service_request</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -7680,7 +7680,7 @@
   <dimension ref="A1:Y98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G87" workbookViewId="0">
-      <selection activeCell="M101" sqref="M101"/>
+      <selection activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\agile-service-0616\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1302EC04-AC05-4BEA-92A1-C58C7AA0C265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D4C712-EE0E-45E2-960F-CB93914D476C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3979" uniqueCount="1608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3981" uniqueCount="1610">
   <si>
     <r>
       <rPr>
@@ -6718,6 +6718,14 @@
   </si>
   <si>
     <t>operation_service_request</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>iam_menu_permission-431</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.backlog-issue.relateBacklog</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -7679,8 +7687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G87" workbookViewId="0">
-      <selection activeCell="O97" sqref="O97"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -12385,10 +12393,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G430"/>
+  <dimension ref="A1:G431"/>
   <sheetViews>
-    <sheetView topLeftCell="E415" workbookViewId="0">
-      <selection activeCell="G426" sqref="G426"/>
+    <sheetView tabSelected="1" topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="F435" sqref="F435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -17520,6 +17528,18 @@
       </c>
       <c r="G430" s="32" t="s">
         <v>1606</v>
+      </c>
+    </row>
+    <row r="431" spans="5:7">
+      <c r="E431" s="32" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F431" t="str">
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-32</v>
+      </c>
+      <c r="G431" s="32" t="s">
+        <v>1609</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="1580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="1582">
   <si>
     <r>
       <rPr>
@@ -5401,6 +5401,12 @@
     <t>agile-service.status-linkage.listStatusLinkageByProjectId</t>
   </si>
   <si>
+    <t>iam_menu_permission-433</t>
+  </si>
+  <si>
+    <t>agile-service.issue.pagingQueryAvailableParents</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -6483,10 +6489,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -6572,21 +6578,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6596,74 +6595,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6691,6 +6622,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -6709,7 +6684,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6791,25 +6797,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6827,19 +6881,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6857,67 +6935,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6935,43 +6959,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7087,17 +7093,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7106,6 +7121,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7127,199 +7168,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -7790,22 +7796,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3259259259259" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.1037037037037" customWidth="1"/>
-    <col min="4" max="4" width="35.3259259259259" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="15.5571428571429" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3285714285714" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
+    <col min="4" max="4" width="35.3285714285714" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
+    <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
+    <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="24.5571428571429" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1037037037037" customWidth="1"/>
-    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="13.1037037037037" customWidth="1"/>
-    <col min="14" max="1025" width="10.3259259259259" customWidth="1"/>
+    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
+    <col min="12" max="12" width="18.5571428571429" customWidth="1"/>
+    <col min="13" max="13" width="13.1071428571429" customWidth="1"/>
+    <col min="14" max="1025" width="10.3285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -7819,7 +7825,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -7833,7 +7839,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
@@ -7854,7 +7860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
@@ -7874,7 +7880,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="49.5" spans="3:6">
       <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
@@ -7888,7 +7894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="49.5" spans="3:5">
       <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
@@ -7899,7 +7905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="66" spans="3:5">
       <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
@@ -7931,7 +7937,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="33" spans="3:5">
       <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
@@ -7954,7 +7960,7 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
@@ -7962,7 +7968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
@@ -7970,7 +7976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
@@ -7978,7 +7984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
@@ -8004,7 +8010,7 @@
       </c>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="49.5" spans="3:3">
       <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
@@ -8030,23 +8036,23 @@
   <sheetPr/>
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView topLeftCell="C90" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="14.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="92.3259259259259" customWidth="1"/>
-    <col min="7" max="7" width="29.1037037037037" customWidth="1"/>
-    <col min="8" max="8" width="21.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="20.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.2222222222222" customWidth="1"/>
-    <col min="15" max="15" width="18.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="14.8857142857143" customWidth="1"/>
+    <col min="6" max="6" width="92.3285714285714" customWidth="1"/>
+    <col min="7" max="7" width="29.1071428571429" customWidth="1"/>
+    <col min="8" max="8" width="21.6642857142857" customWidth="1"/>
+    <col min="10" max="10" width="20.6642857142857" customWidth="1"/>
+    <col min="11" max="11" width="15.2214285714286" customWidth="1"/>
+    <col min="15" max="15" width="18.2214285714286" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="19" max="19" width="107.555555555556" customWidth="1"/>
-    <col min="21" max="21" width="20.8888888888889" customWidth="1"/>
-    <col min="22" max="22" width="24.2222222222222" customWidth="1"/>
+    <col min="19" max="19" width="107.557142857143" customWidth="1"/>
+    <col min="21" max="21" width="20.8857142857143" customWidth="1"/>
+    <col min="22" max="22" width="24.2214285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12632,17 +12638,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G423"/>
+  <dimension ref="A1:G424"/>
   <sheetViews>
-    <sheetView topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="E429" sqref="E429"/>
+    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
+      <selection activeCell="F426" sqref="F426"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="28.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="29.1037037037037" customWidth="1"/>
-    <col min="7" max="7" width="51.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="28.8857142857143" customWidth="1"/>
+    <col min="6" max="6" width="29.1071428571429" customWidth="1"/>
+    <col min="7" max="7" width="51.5571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -17683,6 +17689,18 @@
       </c>
       <c r="G423" s="5" t="s">
         <v>1220</v>
+      </c>
+    </row>
+    <row r="424" spans="5:7">
+      <c r="E424" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F424" t="str">
+        <f>菜单SAAS版!$E$52</f>
+        <v>iam_menu-71</v>
+      </c>
+      <c r="G424" s="5" t="s">
+        <v>1222</v>
       </c>
     </row>
   </sheetData>
@@ -17700,14 +17718,14 @@
       <selection activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="26.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="26.3259259259259" customWidth="1"/>
-    <col min="7" max="7" width="27.1037037037037" customWidth="1"/>
-    <col min="8" max="8" width="18.1037037037037" customWidth="1"/>
-    <col min="9" max="9" width="24.8888888888889" customWidth="1"/>
-    <col min="10" max="10" width="37.1037037037037" customWidth="1"/>
+    <col min="5" max="5" width="26.4428571428571" customWidth="1"/>
+    <col min="6" max="6" width="26.3285714285714" customWidth="1"/>
+    <col min="7" max="7" width="27.1071428571429" customWidth="1"/>
+    <col min="8" max="8" width="18.1071428571429" customWidth="1"/>
+    <col min="9" max="9" width="24.8857142857143" customWidth="1"/>
+    <col min="10" max="10" width="37.1071428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -17743,66 +17761,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="H7" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="I7" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J7" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="K7" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="L7" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="M7" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="N7" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="O7" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="F8" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="G8" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K8" t="s">
         <v>1236</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1237</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1234</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -17816,25 +17834,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
         <v>1238</v>
       </c>
-      <c r="F9" t="s">
-        <v>1239</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1235</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1236</v>
-      </c>
       <c r="J9" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="K9" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -17848,19 +17866,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="F10" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="G10" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -17874,19 +17892,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="F11" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="G11" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -17900,25 +17918,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="F12" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="G12" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="J12" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="K12" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -17932,22 +17950,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="F13" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="G13" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J13" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -17961,22 +17979,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="F14" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="G14" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J14" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -17990,22 +18008,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" s="5" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="F15" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="G15" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J15" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -18019,22 +18037,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="F16" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="G16" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J16" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -18048,25 +18066,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F17" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="G17" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J17" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="K17" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -18080,25 +18098,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="F18" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="G18" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J18" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="K18" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -18112,25 +18130,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="F19" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="G19" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J19" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="K19" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -18144,19 +18162,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="F20" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="G20" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -18170,25 +18188,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="F21" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="G21" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="J21" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="K21" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -18202,25 +18220,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="F22" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G22" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="J22" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="K22" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -18234,25 +18252,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="F23" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="G23" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="J23" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="K23" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -18266,19 +18284,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="F24" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="G24" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -18292,22 +18310,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="F25" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="G25" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="J25" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -18321,22 +18339,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="F26" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="G26" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="J26" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -18356,33 +18374,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F29" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18393,15 +18411,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F30" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18412,15 +18430,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I30" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F31" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18431,15 +18449,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I31" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F32" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18450,15 +18468,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I32" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F33" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18469,15 +18487,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F34" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18488,15 +18506,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I34" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F35" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18507,15 +18525,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I35" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F36" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18526,15 +18544,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I36" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F37" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18545,15 +18563,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I37" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F38" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18564,15 +18582,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I38" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F39" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18583,15 +18601,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I39" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F40" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18602,15 +18620,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I40" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F41" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -18621,15 +18639,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I41" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F42" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -18640,15 +18658,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I42" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F43" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -18659,15 +18677,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I43" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F44" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -18678,15 +18696,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I44" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F45" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -18697,15 +18715,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I45" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F46" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -18716,15 +18734,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I46" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F47" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18735,15 +18753,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I47" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F48" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18754,15 +18772,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I48" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F49" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18773,15 +18791,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I49" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F50" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18792,15 +18810,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I50" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F51" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18811,15 +18829,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I51" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F52" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18830,15 +18848,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I52" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F53" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18849,15 +18867,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I53" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F54" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18868,15 +18886,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I54" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F55" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18887,15 +18905,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I55" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F56" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18906,15 +18924,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I56" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F57" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18925,15 +18943,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I57" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F58" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18944,15 +18962,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I58" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F59" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18963,15 +18981,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I59" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F60" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -18982,15 +19000,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I60" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F61" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19001,15 +19019,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I61" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F62" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19020,15 +19038,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I62" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F63" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19039,15 +19057,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I63" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F64" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19058,15 +19076,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I64" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F65" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19077,15 +19095,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I65" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F66" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19096,15 +19114,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I66" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F67" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19115,15 +19133,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I67" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F68" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19134,15 +19152,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I68" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F69" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19153,15 +19171,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I69" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="70" spans="5:9">
       <c r="E70" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F70" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G70" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -19172,15 +19190,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I70" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="71" spans="5:9">
       <c r="E71" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F71" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G71" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -19191,15 +19209,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I71" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="72" spans="5:9">
       <c r="E72" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F72" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G72" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -19210,15 +19228,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I72" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F73" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G73" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -19229,15 +19247,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I73" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="74" spans="5:9">
       <c r="E74" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F74" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G74" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -19248,15 +19266,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I74" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F75" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G75" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -19267,15 +19285,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I75" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F76" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G76" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -19286,15 +19304,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I76" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="77" spans="5:9">
       <c r="E77" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F77" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G77" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -19305,15 +19323,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I77" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="78" spans="5:9">
       <c r="E78" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F78" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G78" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -19324,15 +19342,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I78" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="79" spans="5:9">
       <c r="E79" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F79" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G79" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -19343,15 +19361,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I79" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="80" spans="5:9">
       <c r="E80" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F80" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G80" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -19362,15 +19380,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I80" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="81" spans="5:9">
       <c r="E81" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F81" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G81" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -19381,15 +19399,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I81" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="82" spans="5:9">
       <c r="E82" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F82" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G82" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -19400,15 +19418,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I82" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="83" spans="5:9">
       <c r="E83" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F83" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G83" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -19419,15 +19437,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I83" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="84" spans="5:9">
       <c r="E84" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F84" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G84" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -19438,15 +19456,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I84" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="85" spans="5:9">
       <c r="E85" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F85" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G85" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -19457,15 +19475,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I85" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="86" spans="5:9">
       <c r="E86" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F86" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G86" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -19476,15 +19494,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I86" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="87" spans="5:9">
       <c r="E87" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F87" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G87" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -19495,15 +19513,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I87" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="88" spans="5:9">
       <c r="E88" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F88" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G88" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -19514,15 +19532,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I88" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="89" spans="5:9">
       <c r="E89" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F89" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G89" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -19533,15 +19551,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I89" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="90" spans="5:9">
       <c r="E90" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F90" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G90" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -19552,15 +19570,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I90" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="91" spans="5:9">
       <c r="E91" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F91" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G91" t="str">
         <f>菜单SAAS版!$E$19</f>
@@ -19571,15 +19589,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I91" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="92" spans="5:9">
       <c r="E92" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F92" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G92" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -19590,15 +19608,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I92" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="93" spans="5:9">
       <c r="E93" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F93" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G93" t="str">
         <f>菜单SAAS版!$E$22</f>
@@ -19609,15 +19627,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I93" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="94" spans="5:9">
       <c r="E94" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F94" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G94" t="str">
         <f>菜单SAAS版!$E$20</f>
@@ -19628,15 +19646,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I94" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="95" spans="5:9">
       <c r="E95" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F95" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G95" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -19647,15 +19665,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I95" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="96" spans="5:9">
       <c r="E96" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F96" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G96" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -19666,15 +19684,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I96" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="97" spans="5:9">
       <c r="E97" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F97" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G97" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -19685,15 +19703,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I97" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="98" spans="5:9">
       <c r="E98" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F98" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G98" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -19704,15 +19722,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I98" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="99" spans="5:9">
       <c r="E99" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F99" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G99" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -19723,15 +19741,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I99" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="100" spans="5:9">
       <c r="E100" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F100" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G100" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -19742,15 +19760,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I100" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="101" spans="5:9">
       <c r="E101" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F101" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G101" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -19761,15 +19779,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I101" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="102" spans="5:9">
       <c r="E102" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F102" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G102" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -19780,15 +19798,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I102" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="103" spans="5:9">
       <c r="E103" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F103" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G103" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -19799,15 +19817,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I103" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="104" spans="5:9">
       <c r="E104" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F104" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G104" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -19818,15 +19836,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I104" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="105" spans="5:9">
       <c r="E105" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F105" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G105" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -19837,15 +19855,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I105" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="106" spans="5:9">
       <c r="E106" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F106" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G106" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -19856,15 +19874,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I106" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="107" spans="5:9">
       <c r="E107" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F107" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G107" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -19875,15 +19893,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I107" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="108" spans="5:9">
       <c r="E108" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F108" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G108" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -19894,15 +19912,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I108" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="109" spans="5:9">
       <c r="E109" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F109" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G109" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -19913,15 +19931,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I109" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="110" spans="5:9">
       <c r="E110" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F110" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G110" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -19932,15 +19950,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I110" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="111" spans="5:9">
       <c r="E111" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F111" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G111" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -19951,15 +19969,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I111" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="112" spans="5:9">
       <c r="E112" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F112" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G112" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -19970,15 +19988,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I112" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="113" spans="5:9">
       <c r="E113" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F113" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G113" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -19989,15 +20007,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I113" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="114" spans="5:9">
       <c r="E114" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F114" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G114" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -20008,15 +20026,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I114" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="115" spans="5:9">
       <c r="E115" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F115" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G115" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -20027,15 +20045,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I115" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="116" spans="5:9">
       <c r="E116" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F116" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G116" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -20046,15 +20064,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I116" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="117" spans="5:9">
       <c r="E117" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F117" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G117" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -20065,15 +20083,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I117" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="118" spans="5:9">
       <c r="E118" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F118" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G118" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -20084,15 +20102,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I118" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="119" spans="5:9">
       <c r="E119" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F119" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G119" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -20103,15 +20121,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I119" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="120" spans="5:9">
       <c r="E120" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F120" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G120" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -20122,15 +20140,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I120" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="121" spans="5:9">
       <c r="E121" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F121" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G121" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -20141,15 +20159,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I121" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="122" spans="5:9">
       <c r="E122" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F122" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G122" t="str">
         <f>菜单SAAS版!$E$80</f>
@@ -20160,15 +20178,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I122" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="123" spans="5:9">
       <c r="E123" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F123" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G123" t="str">
         <f>菜单SAAS版!$E$80</f>
@@ -20179,15 +20197,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I123" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="124" spans="5:9">
       <c r="E124" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F124" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G124" t="str">
         <f>菜单SAAS版!$E$77</f>
@@ -20198,15 +20216,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I124" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="125" spans="5:9">
       <c r="E125" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F125" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G125" t="str">
         <f>菜单SAAS版!$E$77</f>
@@ -20217,15 +20235,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I125" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="126" spans="5:9">
       <c r="E126" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F126" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G126" t="str">
         <f>菜单SAAS版!$E$83</f>
@@ -20236,15 +20254,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I126" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="127" spans="5:9">
       <c r="E127" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F127" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G127" t="str">
         <f>菜单SAAS版!$E$83</f>
@@ -20255,15 +20273,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I127" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="128" spans="5:9">
       <c r="E128" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F128" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G128" t="str">
         <f>菜单SAAS版!$E$84</f>
@@ -20274,15 +20292,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I128" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="129" spans="5:9">
       <c r="E129" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F129" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G129" t="str">
         <f>菜单SAAS版!$E$84</f>
@@ -20293,15 +20311,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I129" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="130" spans="5:9">
       <c r="E130" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F130" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G130" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -20312,15 +20330,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I130" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="131" spans="5:9">
       <c r="E131" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F131" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G131" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -20331,15 +20349,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I131" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="132" spans="5:9">
       <c r="E132" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F132" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G132" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -20350,15 +20368,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I132" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="133" spans="5:9">
       <c r="E133" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F133" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G133" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -20369,15 +20387,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I133" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="134" spans="5:9">
       <c r="E134" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F134" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G134" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -20388,15 +20406,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I134" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="135" spans="5:9">
       <c r="E135" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F135" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G135" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -20407,15 +20425,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I135" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="136" spans="5:9">
       <c r="E136" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F136" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G136" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -20426,15 +20444,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I136" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="137" spans="5:9">
       <c r="E137" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F137" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G137" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -20445,15 +20463,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I137" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="138" spans="5:9">
       <c r="E138" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F138" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G138" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -20464,15 +20482,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I138" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="139" spans="5:9">
       <c r="E139" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F139" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G139" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -20483,15 +20501,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I139" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="140" spans="5:9">
       <c r="E140" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F140" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G140" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -20502,15 +20520,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I140" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="141" spans="5:9">
       <c r="E141" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F141" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G141" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -20521,15 +20539,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I141" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="142" spans="5:9">
       <c r="E142" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F142" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G142" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -20540,15 +20558,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I142" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="143" spans="5:9">
       <c r="E143" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F143" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G143" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -20559,15 +20577,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I143" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="144" spans="5:9">
       <c r="E144" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F144" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G144" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -20578,15 +20596,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I144" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="145" spans="5:9">
       <c r="E145" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F145" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G145" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -20597,15 +20615,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I145" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="146" spans="5:9">
       <c r="E146" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F146" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G146" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -20616,15 +20634,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I146" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="147" spans="5:9">
       <c r="E147" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F147" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G147" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -20635,15 +20653,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I147" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="148" spans="5:9">
       <c r="E148" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F148" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G148" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -20654,15 +20672,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I148" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="149" spans="5:9">
       <c r="E149" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F149" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G149" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -20673,15 +20691,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I149" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="150" spans="5:9">
       <c r="E150" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F150" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G150" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -20692,15 +20710,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I150" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="151" spans="5:9">
       <c r="E151" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F151" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G151" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -20711,15 +20729,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I151" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="152" spans="5:9">
       <c r="E152" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F152" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G152" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -20730,15 +20748,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I152" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="153" spans="5:9">
       <c r="E153" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F153" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G153" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -20749,15 +20767,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I153" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="154" spans="5:9">
       <c r="E154" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F154" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G154" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -20768,15 +20786,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I154" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="155" spans="5:9">
       <c r="E155" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F155" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G155" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -20787,15 +20805,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I155" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="156" spans="5:9">
       <c r="E156" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F156" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G156" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -20806,15 +20824,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I156" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="157" spans="5:9">
       <c r="E157" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F157" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G157" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -20825,15 +20843,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I157" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="158" spans="5:9">
       <c r="E158" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F158" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G158" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -20844,15 +20862,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I158" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="159" spans="5:9">
       <c r="E159" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F159" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G159" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -20863,15 +20881,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I159" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="160" spans="5:9">
       <c r="E160" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F160" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G160" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -20882,15 +20900,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I160" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="161" spans="5:9">
       <c r="E161" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F161" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G161" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -20901,15 +20919,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I161" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="162" spans="5:9">
       <c r="E162" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F162" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G162" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -20920,15 +20938,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I162" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="163" spans="5:9">
       <c r="E163" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F163" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G163" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -20939,15 +20957,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I163" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="164" spans="5:9">
       <c r="E164" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F164" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G164" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -20958,15 +20976,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I164" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="165" spans="5:9">
       <c r="E165" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F165" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G165" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -20977,15 +20995,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I165" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="166" spans="5:9">
       <c r="E166" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F166" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G166" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -20996,15 +21014,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I166" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="167" spans="5:9">
       <c r="E167" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F167" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G167" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -21015,15 +21033,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I167" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="168" spans="5:9">
       <c r="E168" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F168" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="G168" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -21034,7 +21052,7 @@
         <v>iam_label-21</v>
       </c>
       <c r="I168" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
   </sheetData>
@@ -21048,15 +21066,15 @@
   <sheetPr/>
   <dimension ref="A1:Y192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+    <sheetView topLeftCell="A181" workbookViewId="0">
       <selection activeCell="A193" sqref="$A193:$XFD194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="22.3259259259259" customWidth="1"/>
-    <col min="6" max="6" width="14.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="28.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="22.3285714285714" customWidth="1"/>
+    <col min="6" max="6" width="14.4428571428571" customWidth="1"/>
+    <col min="7" max="7" width="28.5571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -21092,10 +21110,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -21110,75 +21128,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="J7" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="O7" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="P7" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="Q7" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="R7" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="S7" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="T7" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="X7" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="Y7" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="F8" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="G8" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="H8" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="I8" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="J8" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -21211,10 +21229,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="V8" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -21222,19 +21240,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="F9" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="G9" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="H9" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="I9" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -21270,10 +21288,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="V9" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -21281,16 +21299,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="F10" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="G10" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="H10" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -21327,33 +21345,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="V10" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="Y10" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="F11" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="G11" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="H11" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -21390,33 +21408,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="V11" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="Y11" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="F12" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="G12" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="H12" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -21453,33 +21471,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="V12" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="Y12" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="F13" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G13" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="H13" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -21516,36 +21534,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="V13" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="Y13" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="14" spans="5:24">
       <c r="E14" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="F14" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="G14" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="H14" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="J14" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -21579,10 +21597,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="V14" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -21597,33 +21615,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="H16" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="I16" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -21634,18 +21652,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H17" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I17" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J17" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -21656,18 +21674,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H18" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I18" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J18" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -21678,18 +21696,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H19" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I19" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J19" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -21700,18 +21718,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H20" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I20" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J20" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -21722,18 +21740,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H21" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I21" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J21" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -21744,18 +21762,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I22" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J22" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -21766,18 +21784,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H23" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I23" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J23" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -21788,18 +21806,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H24" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I24" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J24" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -21810,18 +21828,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H25" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I25" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J25" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -21832,18 +21850,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H26" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I26" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J26" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -21854,18 +21872,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H27" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I27" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J27" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -21876,18 +21894,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H28" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I28" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J28" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -21898,18 +21916,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H29" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I29" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J29" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -21920,18 +21938,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H30" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I30" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J30" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -21942,18 +21960,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H31" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I31" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J31" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -21964,18 +21982,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H32" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I32" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J32" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -21986,18 +22004,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H33" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I33" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J33" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -22008,18 +22026,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H34" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I34" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J34" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -22030,18 +22048,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H35" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I35" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J35" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -22052,18 +22070,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H36" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I36" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J36" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -22074,18 +22092,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H37" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I37" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J37" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -22096,18 +22114,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H38" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I38" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J38" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -22118,18 +22136,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H39" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I39" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J39" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$10</f>
@@ -22140,18 +22158,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H40" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I40" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J40" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$10</f>
@@ -22162,18 +22180,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H41" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I41" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J41" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$10</f>
@@ -22184,18 +22202,18 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H42" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I42" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J42" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$10</f>
@@ -22206,18 +22224,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H43" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I43" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J43" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$10</f>
@@ -22228,18 +22246,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H44" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I44" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J44" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$10</f>
@@ -22250,18 +22268,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H45" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I45" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J45" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$10</f>
@@ -22272,18 +22290,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H46" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I46" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J46" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$10</f>
@@ -22294,18 +22312,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H47" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I47" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J47" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$10</f>
@@ -22316,18 +22334,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H48" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I48" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J48" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$10</f>
@@ -22338,18 +22356,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H49" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I49" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J49" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$10</f>
@@ -22360,18 +22378,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H50" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I50" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J50" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$10</f>
@@ -22382,18 +22400,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H51" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I51" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J51" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$10</f>
@@ -22404,18 +22422,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H52" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I52" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J52" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$10</f>
@@ -22426,18 +22444,18 @@
         <v>iam_menu-61</v>
       </c>
       <c r="H53" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I53" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J53" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$10</f>
@@ -22448,18 +22466,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H54" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I54" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J54" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$10</f>
@@ -22470,18 +22488,18 @@
         <v>iam_menu-62</v>
       </c>
       <c r="H55" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I55" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J55" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$10</f>
@@ -22492,18 +22510,18 @@
         <v>iam_menu-67</v>
       </c>
       <c r="H56" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I56" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J56" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$10</f>
@@ -22514,18 +22532,18 @@
         <v>iam_menu-69</v>
       </c>
       <c r="H57" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I57" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J57" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$10</f>
@@ -22536,18 +22554,18 @@
         <v>iam_menu-68</v>
       </c>
       <c r="H58" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I58" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J58" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$10</f>
@@ -22558,18 +22576,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H59" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I59" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J59" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$10</f>
@@ -22580,18 +22598,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H60" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I60" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J60" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$10</f>
@@ -22602,18 +22620,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H61" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I61" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J61" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$10</f>
@@ -22624,18 +22642,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H62" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I62" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J62" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$10</f>
@@ -22646,18 +22664,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H63" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I63" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J63" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$10</f>
@@ -22668,18 +22686,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H64" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I64" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J64" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$10</f>
@@ -22690,18 +22708,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H65" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I65" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J65" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$10</f>
@@ -22712,18 +22730,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H66" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I66" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J66" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$10</f>
@@ -22734,18 +22752,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H67" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I67" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J67" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$10</f>
@@ -22756,18 +22774,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H68" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I68" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J68" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$10</f>
@@ -22778,18 +22796,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H69" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I69" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J69" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$10</f>
@@ -22800,18 +22818,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H70" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I70" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J70" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$10</f>
@@ -22822,18 +22840,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H71" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I71" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J71" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$10</f>
@@ -22844,18 +22862,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H72" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I72" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J72" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$10</f>
@@ -22866,18 +22884,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H73" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I73" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J73" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$10</f>
@@ -22888,18 +22906,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H74" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I74" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J74" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$10</f>
@@ -22910,18 +22928,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H75" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I75" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J75" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$10</f>
@@ -22932,18 +22950,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H76" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I76" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J76" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$10</f>
@@ -22954,18 +22972,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H77" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I77" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J77" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$10</f>
@@ -22976,18 +22994,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H78" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I78" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J78" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$10</f>
@@ -22998,18 +23016,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H79" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I79" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J79" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$10</f>
@@ -23020,18 +23038,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H80" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I80" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J80" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$10</f>
@@ -23042,18 +23060,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H81" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I81" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J81" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$10</f>
@@ -23064,18 +23082,18 @@
         <v>iam_menu-125</v>
       </c>
       <c r="H82" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I82" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J82" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$10</f>
@@ -23086,18 +23104,18 @@
         <v>iam_menu-128</v>
       </c>
       <c r="H83" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I83" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J83" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$12</f>
@@ -23108,18 +23126,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H84" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I84" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J84" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$12</f>
@@ -23130,18 +23148,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H85" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I85" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J85" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="86" spans="5:10">
       <c r="E86" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="F86" t="str">
         <f>角色!$E$12</f>
@@ -23152,18 +23170,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H86" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I86" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J86" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="87" spans="5:10">
       <c r="E87" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="F87" t="str">
         <f>角色!$E$12</f>
@@ -23174,18 +23192,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H87" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I87" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J87" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="88" spans="5:10">
       <c r="E88" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="F88" t="str">
         <f>角色!$E$12</f>
@@ -23196,18 +23214,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H88" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I88" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J88" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="89" spans="5:10">
       <c r="E89" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="F89" t="str">
         <f>角色!$E$12</f>
@@ -23218,18 +23236,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H89" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I89" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J89" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="90" spans="5:10">
       <c r="E90" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="F90" t="str">
         <f>角色!$E$12</f>
@@ -23240,18 +23258,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H90" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I90" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J90" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="91" spans="5:10">
       <c r="E91" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="F91" t="str">
         <f>角色!$E$12</f>
@@ -23262,18 +23280,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H91" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I91" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J91" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="92" spans="5:10">
       <c r="E92" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="F92" t="str">
         <f>角色!$E$12</f>
@@ -23284,18 +23302,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H92" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I92" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J92" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="93" spans="5:10">
       <c r="E93" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="F93" t="str">
         <f>角色!$E$12</f>
@@ -23306,18 +23324,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H93" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I93" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J93" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="94" spans="5:10">
       <c r="E94" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="F94" t="str">
         <f>角色!$E$12</f>
@@ -23328,18 +23346,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H94" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I94" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J94" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="95" spans="5:10">
       <c r="E95" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="F95" t="str">
         <f>角色!$E$12</f>
@@ -23350,18 +23368,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H95" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I95" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J95" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="96" spans="5:10">
       <c r="E96" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="F96" t="str">
         <f>角色!$E$12</f>
@@ -23372,18 +23390,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H96" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I96" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J96" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="97" spans="5:10">
       <c r="E97" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="F97" t="str">
         <f>角色!$E$12</f>
@@ -23394,18 +23412,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H97" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I97" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J97" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="98" spans="5:10">
       <c r="E98" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="F98" t="str">
         <f>角色!$E$12</f>
@@ -23416,18 +23434,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H98" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I98" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J98" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="99" spans="5:10">
       <c r="E99" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="F99" t="str">
         <f>角色!$E$12</f>
@@ -23438,18 +23456,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H99" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I99" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J99" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="100" spans="5:10">
       <c r="E100" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="F100" t="str">
         <f>角色!$E$12</f>
@@ -23460,18 +23478,18 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H100" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I100" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J100" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="101" spans="5:10">
       <c r="E101" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="F101" t="str">
         <f>角色!$E$12</f>
@@ -23482,18 +23500,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H101" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I101" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J101" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="102" spans="5:10">
       <c r="E102" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="F102" t="str">
         <f>角色!$E$12</f>
@@ -23504,18 +23522,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H102" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I102" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J102" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="103" spans="5:10">
       <c r="E103" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="F103" t="str">
         <f>角色!$E$12</f>
@@ -23526,18 +23544,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H103" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I103" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J103" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="104" spans="5:10">
       <c r="E104" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="F104" t="str">
         <f>角色!$E$12</f>
@@ -23548,18 +23566,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H104" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I104" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J104" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="105" spans="5:10">
       <c r="E105" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="F105" t="str">
         <f>角色!$E$12</f>
@@ -23570,18 +23588,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H105" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I105" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J105" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="106" spans="5:10">
       <c r="E106" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="F106" t="str">
         <f>角色!$E$12</f>
@@ -23592,18 +23610,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H106" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I106" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J106" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="107" spans="5:10">
       <c r="E107" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="F107" t="str">
         <f>角色!$E$12</f>
@@ -23614,18 +23632,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H107" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I107" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J107" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="108" spans="5:10">
       <c r="E108" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="F108" t="str">
         <f>角色!$E$12</f>
@@ -23636,18 +23654,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H108" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I108" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J108" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="109" spans="5:10">
       <c r="E109" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="F109" t="str">
         <f>角色!$E$12</f>
@@ -23658,18 +23676,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H109" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I109" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J109" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="110" spans="5:10">
       <c r="E110" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="F110" t="str">
         <f>角色!$E$12</f>
@@ -23680,18 +23698,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H110" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I110" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J110" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="111" spans="5:10">
       <c r="E111" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="F111" t="str">
         <f>角色!$E$12</f>
@@ -23702,18 +23720,18 @@
         <v>iam_menu-61</v>
       </c>
       <c r="H111" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I111" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J111" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="112" spans="5:10">
       <c r="E112" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="F112" t="str">
         <f>角色!$E$12</f>
@@ -23724,18 +23742,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H112" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I112" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J112" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="113" spans="5:10">
       <c r="E113" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="F113" t="str">
         <f>角色!$E$12</f>
@@ -23746,18 +23764,18 @@
         <v>iam_menu-62</v>
       </c>
       <c r="H113" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I113" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J113" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="114" spans="5:10">
       <c r="E114" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="F114" t="str">
         <f>角色!$E$12</f>
@@ -23768,18 +23786,18 @@
         <v>iam_menu-67</v>
       </c>
       <c r="H114" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I114" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J114" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="115" spans="5:10">
       <c r="E115" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="F115" t="str">
         <f>角色!$E$12</f>
@@ -23790,18 +23808,18 @@
         <v>iam_menu-69</v>
       </c>
       <c r="H115" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I115" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J115" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="116" spans="5:10">
       <c r="E116" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="F116" t="str">
         <f>角色!$E$12</f>
@@ -23812,18 +23830,18 @@
         <v>iam_menu-68</v>
       </c>
       <c r="H116" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I116" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J116" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="117" spans="5:10">
       <c r="E117" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="F117" t="str">
         <f>角色!$E$12</f>
@@ -23834,18 +23852,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H117" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I117" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J117" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="118" spans="5:10">
       <c r="E118" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="F118" t="str">
         <f>角色!$E$12</f>
@@ -23856,18 +23874,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H118" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I118" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J118" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="119" spans="5:10">
       <c r="E119" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="F119" t="str">
         <f>角色!$E$12</f>
@@ -23878,18 +23896,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H119" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I119" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J119" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="120" spans="5:10">
       <c r="E120" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="F120" t="str">
         <f>角色!$E$12</f>
@@ -23900,18 +23918,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H120" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I120" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J120" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="121" spans="5:10">
       <c r="E121" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="F121" t="str">
         <f>角色!$E$12</f>
@@ -23922,18 +23940,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H121" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I121" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J121" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="122" spans="5:10">
       <c r="E122" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="F122" t="str">
         <f>角色!$E$12</f>
@@ -23944,18 +23962,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H122" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I122" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J122" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="123" spans="5:10">
       <c r="E123" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="F123" t="str">
         <f>角色!$E$12</f>
@@ -23966,18 +23984,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H123" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I123" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J123" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="124" spans="5:10">
       <c r="E124" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="F124" t="str">
         <f>角色!$E$12</f>
@@ -23988,18 +24006,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H124" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I124" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J124" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="125" spans="5:10">
       <c r="E125" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="F125" t="str">
         <f>角色!$E$12</f>
@@ -24010,18 +24028,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H125" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I125" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J125" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="126" spans="5:10">
       <c r="E126" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="F126" t="str">
         <f>角色!$E$12</f>
@@ -24032,18 +24050,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H126" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I126" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J126" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="127" spans="5:10">
       <c r="E127" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="F127" t="str">
         <f>角色!$E$12</f>
@@ -24054,18 +24072,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H127" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I127" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J127" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="128" spans="5:10">
       <c r="E128" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="F128" t="str">
         <f>角色!$E$12</f>
@@ -24076,18 +24094,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H128" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I128" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J128" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="129" spans="5:10">
       <c r="E129" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
       <c r="F129" t="str">
         <f>角色!$E$12</f>
@@ -24098,18 +24116,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H129" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I129" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J129" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="130" spans="5:10">
       <c r="E130" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="F130" t="str">
         <f>角色!$E$12</f>
@@ -24120,18 +24138,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H130" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I130" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J130" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="131" spans="5:10">
       <c r="E131" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="F131" t="str">
         <f>角色!$E$12</f>
@@ -24142,18 +24160,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H131" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I131" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J131" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="132" spans="5:10">
       <c r="E132" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
       <c r="F132" t="str">
         <f>角色!$E$12</f>
@@ -24164,18 +24182,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H132" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I132" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J132" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="133" spans="5:10">
       <c r="E133" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="F133" t="str">
         <f>角色!$E$12</f>
@@ -24186,18 +24204,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H133" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I133" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J133" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="134" spans="5:10">
       <c r="E134" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="F134" t="str">
         <f>角色!$E$12</f>
@@ -24208,18 +24226,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H134" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I134" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J134" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="135" spans="5:10">
       <c r="E135" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="F135" t="str">
         <f>角色!$E$12</f>
@@ -24230,18 +24248,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H135" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I135" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J135" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="136" spans="5:10">
       <c r="E136" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="F136" t="str">
         <f>角色!$E$12</f>
@@ -24252,18 +24270,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H136" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I136" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J136" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="137" spans="5:10">
       <c r="E137" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="F137" t="str">
         <f>角色!$E$12</f>
@@ -24274,18 +24292,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H137" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I137" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J137" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="138" spans="5:10">
       <c r="E138" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="F138" t="str">
         <f>角色!$E$12</f>
@@ -24296,18 +24314,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H138" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I138" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J138" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="139" spans="5:10">
       <c r="E139" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="F139" t="str">
         <f>角色!$E$12</f>
@@ -24318,18 +24336,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H139" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I139" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J139" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="140" spans="5:10">
       <c r="E140" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="F140" t="str">
         <f>角色!$E$12</f>
@@ -24340,18 +24358,18 @@
         <v>iam_menu-125</v>
       </c>
       <c r="H140" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I140" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J140" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="141" spans="5:10">
       <c r="E141" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="F141" t="str">
         <f>角色!$E$12</f>
@@ -24362,18 +24380,18 @@
         <v>iam_menu-128</v>
       </c>
       <c r="H141" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I141" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J141" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="142" spans="5:10">
       <c r="E142" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="F142" t="str">
         <f>角色!$E$13</f>
@@ -24384,18 +24402,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H142" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I142" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J142" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="143" spans="5:10">
       <c r="E143" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F143" t="str">
         <f>角色!$E$13</f>
@@ -24406,18 +24424,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H143" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I143" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J143" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="144" spans="5:10">
       <c r="E144" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="F144" t="str">
         <f>角色!$E$13</f>
@@ -24428,18 +24446,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H144" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I144" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J144" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="145" spans="5:10">
       <c r="E145" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="F145" t="str">
         <f>角色!$E$13</f>
@@ -24450,18 +24468,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H145" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I145" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J145" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="146" spans="5:10">
       <c r="E146" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="F146" t="str">
         <f>角色!$E$13</f>
@@ -24472,18 +24490,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H146" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I146" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J146" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="147" spans="5:10">
       <c r="E147" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="F147" t="str">
         <f>角色!$E$13</f>
@@ -24494,18 +24512,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H147" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I147" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J147" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="148" spans="5:10">
       <c r="E148" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="F148" t="str">
         <f>角色!$E$13</f>
@@ -24516,18 +24534,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H148" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I148" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J148" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="149" spans="5:10">
       <c r="E149" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="F149" t="str">
         <f>角色!$E$13</f>
@@ -24538,18 +24556,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H149" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="I149" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J149" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="150" spans="5:10">
       <c r="E150" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="F150" t="str">
         <f>角色!$E$13</f>
@@ -24560,18 +24578,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H150" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="I150" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J150" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="151" spans="5:10">
       <c r="E151" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="F151" t="str">
         <f>角色!$E$13</f>
@@ -24582,18 +24600,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H151" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="I151" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J151" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="152" spans="5:10">
       <c r="E152" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
       <c r="F152" t="str">
         <f>角色!$E$13</f>
@@ -24604,18 +24622,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H152" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="I152" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J152" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="153" spans="5:10">
       <c r="E153" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="F153" t="str">
         <f>角色!$E$13</f>
@@ -24626,18 +24644,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H153" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="I153" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J153" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="154" spans="5:10">
       <c r="E154" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="F154" t="str">
         <f>角色!$E$13</f>
@@ -24648,18 +24666,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H154" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="I154" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J154" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="155" spans="5:10">
       <c r="E155" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="F155" t="str">
         <f>角色!$E$13</f>
@@ -24670,18 +24688,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H155" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="I155" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J155" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="156" spans="5:10">
       <c r="E156" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="F156" t="str">
         <f>角色!$E$13</f>
@@ -24692,18 +24710,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H156" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I156" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J156" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="157" spans="5:10">
       <c r="E157" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
       <c r="F157" t="str">
         <f>角色!$E$13</f>
@@ -24714,18 +24732,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H157" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I157" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J157" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="158" spans="5:10">
       <c r="E158" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="F158" t="str">
         <f>角色!$E$13</f>
@@ -24736,18 +24754,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H158" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I158" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J158" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="159" spans="5:10">
       <c r="E159" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="F159" t="str">
         <f>角色!$E$13</f>
@@ -24758,18 +24776,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H159" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I159" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J159" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="160" spans="5:10">
       <c r="E160" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="F160" t="str">
         <f>角色!$E$13</f>
@@ -24780,18 +24798,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H160" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I160" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J160" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="161" spans="5:10">
       <c r="E161" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="F161" t="str">
         <f>角色!$E$13</f>
@@ -24802,18 +24820,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H161" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I161" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J161" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="162" spans="5:10">
       <c r="E162" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="F162" t="str">
         <f>角色!$E$13</f>
@@ -24824,18 +24842,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H162" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I162" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J162" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="163" spans="5:10">
       <c r="E163" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
       <c r="F163" t="str">
         <f>角色!$E$13</f>
@@ -24846,18 +24864,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H163" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I163" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J163" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="164" spans="5:10">
       <c r="E164" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="F164" t="str">
         <f>角色!$E$13</f>
@@ -24868,18 +24886,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H164" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I164" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J164" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="165" spans="5:10">
       <c r="E165" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="F165" t="str">
         <f>角色!$E$13</f>
@@ -24890,18 +24908,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H165" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I165" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J165" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="166" spans="5:10">
       <c r="E166" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="F166" t="str">
         <f>角色!$E$13</f>
@@ -24912,18 +24930,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H166" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I166" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J166" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="167" spans="5:10">
       <c r="E167" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="F167" t="str">
         <f>角色!$E$13</f>
@@ -24934,18 +24952,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H167" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I167" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J167" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="168" spans="5:10">
       <c r="E168" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="F168" t="str">
         <f>角色!$E$13</f>
@@ -24956,18 +24974,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H168" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I168" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J168" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="169" spans="5:10">
       <c r="E169" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="F169" t="str">
         <f>角色!$E$13</f>
@@ -24978,18 +24996,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H169" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I169" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J169" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="170" spans="5:10">
       <c r="E170" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="F170" t="str">
         <f>角色!$E$13</f>
@@ -25000,18 +25018,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H170" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I170" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J170" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="171" spans="5:10">
       <c r="E171" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="F171" t="str">
         <f>角色!$E$13</f>
@@ -25022,18 +25040,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H171" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I171" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J171" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="172" spans="5:10">
       <c r="E172" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="F172" t="str">
         <f>角色!$E$13</f>
@@ -25044,18 +25062,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H172" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I172" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J172" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="173" spans="5:10">
       <c r="E173" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="F173" t="str">
         <f>角色!$E$13</f>
@@ -25066,18 +25084,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H173" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="I173" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J173" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="174" spans="5:10">
       <c r="E174" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
       <c r="F174" t="str">
         <f>角色!$E$13</f>
@@ -25088,18 +25106,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H174" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="I174" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J174" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="175" spans="5:10">
       <c r="E175" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="F175" t="str">
         <f>角色!$E$13</f>
@@ -25110,18 +25128,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H175" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="I175" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J175" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="176" spans="5:10">
       <c r="E176" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="F176" t="str">
         <f>角色!$E$13</f>
@@ -25132,18 +25150,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H176" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I176" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J176" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="177" spans="5:10">
       <c r="E177" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="F177" t="str">
         <f>角色!$E$13</f>
@@ -25154,18 +25172,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H177" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I177" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J177" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="178" spans="5:10">
       <c r="E178" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="F178" t="str">
         <f>角色!$E$13</f>
@@ -25176,18 +25194,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H178" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I178" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J178" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="179" spans="5:10">
       <c r="E179" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="F179" t="str">
         <f>角色!$E$13</f>
@@ -25198,18 +25216,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H179" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I179" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J179" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="180" spans="5:10">
       <c r="E180" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
       <c r="F180" t="str">
         <f>角色!$E$13</f>
@@ -25220,18 +25238,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H180" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I180" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J180" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="181" spans="5:10">
       <c r="E181" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="F181" t="str">
         <f>角色!$E$13</f>
@@ -25242,18 +25260,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H181" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I181" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J181" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="182" spans="5:10">
       <c r="E182" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="F182" t="str">
         <f>角色!$E$10</f>
@@ -25264,18 +25282,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H182" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I182" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J182" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="183" spans="5:10">
       <c r="E183" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
       <c r="F183" t="str">
         <f>角色!$E$12</f>
@@ -25286,18 +25304,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H183" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I183" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J183" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="184" spans="5:10">
       <c r="E184" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="F184" t="str">
         <f>角色!$E$13</f>
@@ -25308,18 +25326,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H184" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I184" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J184" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="185" spans="5:10">
       <c r="E185" s="6" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="F185" t="str">
         <f>角色!$E$13</f>
@@ -25330,18 +25348,18 @@
         <v>iam_menu-136</v>
       </c>
       <c r="H185" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I185" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J185" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="186" spans="5:10">
       <c r="E186" s="5" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="F186" t="str">
         <f>角色!$E$10</f>
@@ -25352,18 +25370,18 @@
         <v>iam_menu-136</v>
       </c>
       <c r="H186" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I186" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J186" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="187" spans="5:10">
       <c r="E187" s="5" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="F187" t="str">
         <f>角色!$E$12</f>
@@ -25374,18 +25392,18 @@
         <v>iam_menu-137</v>
       </c>
       <c r="H187" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I187" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J187" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="188" spans="5:10">
       <c r="E188" s="5" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="F188" t="str">
         <f>角色!$E$10</f>
@@ -25396,18 +25414,18 @@
         <v>iam_menu-137</v>
       </c>
       <c r="H188" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I188" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J188" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="189" spans="5:10">
       <c r="E189" s="5" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="F189" t="str">
         <f>角色!$E$12</f>
@@ -25418,18 +25436,18 @@
         <v>iam_menu-136</v>
       </c>
       <c r="H189" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I189" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J189" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="190" ht="15.95" customHeight="1" spans="5:10">
       <c r="E190" s="5" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="F190" t="str">
         <f>角色!$E$13</f>
@@ -25440,18 +25458,18 @@
         <v>iam_menu-139</v>
       </c>
       <c r="H190" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I190" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J190" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="191" ht="15.95" customHeight="1" spans="5:10">
       <c r="E191" s="5" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="F191" t="str">
         <f>角色!$E$12</f>
@@ -25462,18 +25480,18 @@
         <v>iam_menu-139</v>
       </c>
       <c r="H191" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I191" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J191" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="192" ht="15.95" customHeight="1" spans="5:10">
       <c r="E192" s="5" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
       <c r="F192" t="str">
         <f>角色!$E$10</f>
@@ -25484,13 +25502,13 @@
         <v>iam_menu-139</v>
       </c>
       <c r="H192" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="I192" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="J192" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
   </sheetData>
@@ -25511,12 +25529,12 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="25.3259259259259" customWidth="1"/>
-    <col min="6" max="6" width="29.1037037037037" customWidth="1"/>
-    <col min="7" max="7" width="18.1037037037037" customWidth="1"/>
-    <col min="8" max="8" width="20.3259259259259" customWidth="1"/>
+    <col min="5" max="5" width="25.3285714285714" customWidth="1"/>
+    <col min="6" max="6" width="29.1071428571429" customWidth="1"/>
+    <col min="7" max="7" width="18.1071428571429" customWidth="1"/>
+    <col min="8" max="8" width="20.3285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -25552,66 +25570,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="H7" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="I7" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J7" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="K7" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="L7" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="M7" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="N7" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="O7" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="F8" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="G8" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J8" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="K8" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="M8" t="s">
         <v>80</v>
@@ -25625,22 +25643,22 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="F9" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="G9" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="J9" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="M9" t="s">
         <v>80</v>
@@ -25654,25 +25672,25 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="F10" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="G10" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J10" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="K10" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="M10" t="s">
         <v>80</v>
@@ -25686,25 +25704,25 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="F11" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="G11" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J11" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="K11" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -25718,25 +25736,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="F12" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="G12" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J12" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="K12" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="M12" t="s">
         <v>80</v>
@@ -25750,25 +25768,25 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="F13" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="G13" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J13" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="K13" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -25782,25 +25800,25 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="F14" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="G14" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J14" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
       <c r="K14" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -25814,25 +25832,25 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="F15" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="G15" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J15" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="K15" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -25846,25 +25864,25 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="F16" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="G16" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J16" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="K16" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -25878,25 +25896,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F17" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="G17" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J17" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="K17" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -25910,25 +25928,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="F18" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="G18" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J18" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
       <c r="K18" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -25942,25 +25960,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="F19" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="G19" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="J19" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="K19" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="M19" t="s">
         <v>80</v>
@@ -25980,33 +25998,33 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="I21" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F22" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G22" t="str">
         <f>角色!$E$10</f>
@@ -26017,15 +26035,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I22" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F23" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G23" t="str">
         <f>角色!$E$10</f>
@@ -26036,15 +26054,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I23" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F24" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G24" t="str">
         <f>角色!$E$10</f>
@@ -26055,15 +26073,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I24" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F25" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G25" t="str">
         <f>角色!$E$11</f>
@@ -26074,15 +26092,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I25" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F26" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G26" t="str">
         <f>角色!$E$11</f>
@@ -26093,15 +26111,15 @@
         <v>iam_label-11</v>
       </c>
       <c r="I26" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F27" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G27" t="str">
         <f>角色!$E$11</f>
@@ -26112,15 +26130,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I27" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F28" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G28" t="str">
         <f>角色!$E$12</f>
@@ -26131,15 +26149,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I28" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F29" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G29" t="str">
         <f>角色!$E$12</f>
@@ -26150,15 +26168,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I29" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F30" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G30" t="str">
         <f>角色!$E$12</f>
@@ -26169,15 +26187,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I30" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F31" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G31" t="str">
         <f>角色!$E$12</f>
@@ -26188,15 +26206,15 @@
         <v>iam_label-18</v>
       </c>
       <c r="I31" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F32" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G32" t="str">
         <f>角色!$E$13</f>
@@ -26207,15 +26225,15 @@
         <v>iam_label-10</v>
       </c>
       <c r="I32" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F33" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G33" t="str">
         <f>角色!$E$13</f>
@@ -26226,15 +26244,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F34" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G34" t="str">
         <f>角色!$E$13</f>
@@ -26245,15 +26263,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I34" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F35" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="G35" t="str">
         <f>角色!$E$13</f>
@@ -26264,7 +26282,7 @@
         <v>iam_label-19</v>
       </c>
       <c r="I35" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019work\agile-service-0616\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBE8C93-F0A8-4213-BE68-15DD825ED6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -20,18 +26,30 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3921" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="1584">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -50,6 +68,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -62,6 +81,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -80,6 +100,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -98,6 +119,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -116,6 +138,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -147,6 +170,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -165,6 +189,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -183,6 +208,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -204,6 +230,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -224,6 +251,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -244,6 +272,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -264,6 +293,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -284,6 +314,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -295,6 +326,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -313,6 +345,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -324,6 +357,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -342,6 +376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -360,6 +395,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -378,6 +414,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -396,6 +433,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -443,6 +481,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -461,6 +500,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -479,6 +519,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -497,6 +538,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -508,6 +550,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -526,6 +569,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -544,6 +588,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -563,6 +608,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -581,6 +627,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -600,6 +647,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -618,6 +666,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -629,6 +678,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -647,6 +697,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -665,6 +716,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -688,6 +740,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -706,6 +759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -724,6 +778,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -742,6 +797,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -760,6 +816,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -771,6 +828,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -789,6 +847,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -799,6 +858,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -819,6 +879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -829,6 +890,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -847,6 +909,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -865,6 +928,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -888,6 +952,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -906,6 +971,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -925,6 +991,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -944,6 +1011,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -963,6 +1031,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -983,6 +1052,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1002,6 +1072,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1036,6 +1107,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1056,6 +1128,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1067,6 +1140,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1085,6 +1159,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1105,6 +1180,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1123,6 +1199,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1135,6 +1212,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1153,6 +1231,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1171,6 +1250,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1189,6 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1203,6 +1284,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1221,6 +1303,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1239,6 +1322,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1257,6 +1341,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1275,6 +1360,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1290,6 +1376,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1299,6 +1386,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1317,6 +1405,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1332,6 +1421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1341,6 +1431,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1359,6 +1450,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1373,6 +1465,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1391,6 +1484,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1409,6 +1503,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1428,6 +1523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1451,6 +1547,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,6 +1566,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,6 +1585,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1506,6 +1605,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1526,6 +1626,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1536,6 +1637,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1545,6 +1647,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1556,6 +1659,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1574,6 +1678,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1592,6 +1697,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1610,6 +1716,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1629,6 +1736,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1647,6 +1755,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1665,6 +1774,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1684,6 +1794,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1702,6 +1813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1720,6 +1832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1738,6 +1851,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1757,6 +1871,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1768,6 +1883,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1778,6 +1894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1787,6 +1904,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1798,6 +1916,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1816,6 +1935,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1827,6 +1947,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1845,6 +1966,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1864,6 +1986,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -6483,18 +6606,20 @@
   <si>
     <t>标识gitlab_developer</t>
   </si>
+  <si>
+    <t>iam_menu_permission-434</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile-service.backlog.dissolve</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -6505,25 +6630,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
@@ -6570,157 +6695,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -6749,12 +6723,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -6763,8 +6739,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6795,194 +6806,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -7083,254 +6908,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7345,20 +6928,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7392,9 +6963,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7402,59 +6970,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -7527,6 +7064,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7784,278 +7324,275 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A12" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5571428571429" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3285714285714" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
-    <col min="4" max="4" width="35.3285714285714" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
-    <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
-    <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5571428571429" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
-    <col min="12" max="12" width="18.5571428571429" customWidth="1"/>
-    <col min="13" max="13" width="13.1071428571429" customWidth="1"/>
-    <col min="14" max="1025" width="10.3285714285714" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="18">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="1:8" ht="18">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="49.5" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="51.75">
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="49.5" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" spans="1:8" ht="51.75">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="66" spans="3:5">
-      <c r="C11" s="22" t="s">
+    <row r="11" spans="1:8" ht="69">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="33" spans="3:5">
-      <c r="C15" s="30" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="34.5">
+      <c r="C15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
+      <c r="C20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" spans="3:5" ht="18">
+      <c r="C21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" spans="3:5" ht="18">
+      <c r="C22" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" spans="3:5" ht="18">
+      <c r="C23" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="49.5" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y96"/>
   <sheetViews>
-    <sheetView topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="14.8857142857143" customWidth="1"/>
-    <col min="6" max="6" width="92.3285714285714" customWidth="1"/>
-    <col min="7" max="7" width="29.1071428571429" customWidth="1"/>
-    <col min="8" max="8" width="21.6642857142857" customWidth="1"/>
-    <col min="10" max="10" width="20.6642857142857" customWidth="1"/>
-    <col min="11" max="11" width="15.2214285714286" customWidth="1"/>
-    <col min="15" max="15" width="18.2214285714286" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="92.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="19" max="19" width="107.557142857143" customWidth="1"/>
-    <col min="21" max="21" width="20.8857142857143" customWidth="1"/>
-    <col min="22" max="22" width="24.2214285714286" customWidth="1"/>
+    <col min="19" max="19" width="107.5546875" customWidth="1"/>
+    <col min="21" max="21" width="20.88671875" customWidth="1"/>
+    <col min="22" max="22" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -8069,7 +7606,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -8157,7 +7694,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="5:24">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -8207,7 +7744,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:24">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -8261,7 +7798,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:24">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>92</v>
       </c>
@@ -8318,7 +7855,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:24">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>101</v>
       </c>
@@ -8366,7 +7903,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:24">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>106</v>
       </c>
@@ -8423,7 +7960,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:24">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>114</v>
       </c>
@@ -8477,7 +8014,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>120</v>
       </c>
@@ -8528,7 +8065,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:24">
+    <row r="15" spans="1:25">
       <c r="E15" t="s">
         <v>125</v>
       </c>
@@ -8579,7 +8116,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:24">
+    <row r="16" spans="1:25">
       <c r="E16" t="s">
         <v>129</v>
       </c>
@@ -12630,28 +12167,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G424"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G425"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="F426" sqref="F426"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="G427" sqref="G427"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="28.8857142857143" customWidth="1"/>
-    <col min="6" max="6" width="29.1071428571429" customWidth="1"/>
-    <col min="7" max="7" width="51.5571428571429" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="51.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -12665,7 +12201,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -12699,7 +12235,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="5:7">
+    <row r="8" spans="1:7">
       <c r="E8" t="s">
         <v>479</v>
       </c>
@@ -12711,7 +12247,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="5:7">
+    <row r="9" spans="1:7">
       <c r="E9" t="s">
         <v>481</v>
       </c>
@@ -12723,7 +12259,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="5:7">
+    <row r="10" spans="1:7">
       <c r="E10" t="s">
         <v>483</v>
       </c>
@@ -12735,7 +12271,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="5:7">
+    <row r="11" spans="1:7">
       <c r="E11" t="s">
         <v>485</v>
       </c>
@@ -12747,7 +12283,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="12" spans="5:7">
+    <row r="12" spans="1:7">
       <c r="E12" t="s">
         <v>487</v>
       </c>
@@ -12759,7 +12295,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="13" spans="5:7">
+    <row r="13" spans="1:7">
       <c r="E13" t="s">
         <v>489</v>
       </c>
@@ -12771,7 +12307,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="5:7">
+    <row r="14" spans="1:7">
       <c r="E14" t="s">
         <v>491</v>
       </c>
@@ -12783,7 +12319,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="15" spans="5:7">
+    <row r="15" spans="1:7">
       <c r="E15" t="s">
         <v>493</v>
       </c>
@@ -12795,7 +12331,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="16" spans="5:7">
+    <row r="16" spans="1:7">
       <c r="E16" t="s">
         <v>495</v>
       </c>
@@ -17703,32 +17239,43 @@
         <v>1222</v>
       </c>
     </row>
+    <row r="425" spans="5:7">
+      <c r="E425" s="37" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F425" t="str">
+        <f>菜单SAAS版!$E$28</f>
+        <v>iam_menu-32</v>
+      </c>
+      <c r="G425" s="37" t="s">
+        <v>1583</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O168"/>
   <sheetViews>
     <sheetView topLeftCell="C154" workbookViewId="0">
       <selection activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="26.4428571428571" customWidth="1"/>
-    <col min="6" max="6" width="26.3285714285714" customWidth="1"/>
-    <col min="7" max="7" width="27.1071428571429" customWidth="1"/>
-    <col min="8" max="8" width="18.1071428571429" customWidth="1"/>
-    <col min="9" max="9" width="24.8857142857143" customWidth="1"/>
-    <col min="10" max="10" width="37.1071428571429" customWidth="1"/>
+    <col min="5" max="5" width="26.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" customWidth="1"/>
+    <col min="10" max="10" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -17742,7 +17289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -17800,7 +17347,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1235</v>
       </c>
@@ -17832,7 +17379,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1240</v>
       </c>
@@ -17864,7 +17411,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1243</v>
       </c>
@@ -17890,7 +17437,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1246</v>
       </c>
@@ -17916,7 +17463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1248</v>
       </c>
@@ -17948,7 +17495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1251</v>
       </c>
@@ -17977,7 +17524,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1254</v>
       </c>
@@ -18006,7 +17553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" s="5" t="s">
         <v>1257</v>
       </c>
@@ -18035,7 +17582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1260</v>
       </c>
@@ -18064,7 +17611,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1263</v>
       </c>
@@ -18096,7 +17643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1266</v>
       </c>
@@ -18128,7 +17675,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1269</v>
       </c>
@@ -18160,7 +17707,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:15">
       <c r="E20" t="s">
         <v>1272</v>
       </c>
@@ -18186,7 +17733,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:15">
       <c r="E21" t="s">
         <v>1274</v>
       </c>
@@ -18218,7 +17765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="5:15">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1277</v>
       </c>
@@ -18250,7 +17797,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="5:15">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1280</v>
       </c>
@@ -18282,7 +17829,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="5:15">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1283</v>
       </c>
@@ -18308,7 +17855,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="5:15">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1285</v>
       </c>
@@ -18337,7 +17884,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="5:15">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1288</v>
       </c>
@@ -18366,7 +17913,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -18395,7 +17942,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1298</v>
       </c>
@@ -18414,7 +17961,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1298</v>
       </c>
@@ -18433,7 +17980,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1298</v>
       </c>
@@ -18452,7 +17999,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1298</v>
       </c>
@@ -21056,28 +20603,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y192"/>
   <sheetViews>
     <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A193" sqref="$A193:$XFD194"/>
+      <selection activeCell="A193" sqref="A193:XFD194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="22.3285714285714" customWidth="1"/>
-    <col min="6" max="6" width="14.4428571428571" customWidth="1"/>
-    <col min="7" max="7" width="28.5571428571429" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -21091,7 +20637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:25">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -21179,7 +20725,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="8" spans="5:23">
+    <row r="8" spans="1:25">
       <c r="E8" t="s">
         <v>1317</v>
       </c>
@@ -21238,7 +20784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="5:23">
+    <row r="9" spans="1:25">
       <c r="E9" t="s">
         <v>1323</v>
       </c>
@@ -21297,7 +20843,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="5:25">
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
         <v>1328</v>
       </c>
@@ -21360,7 +20906,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="11" spans="5:25">
+    <row r="11" spans="1:25">
       <c r="E11" t="s">
         <v>1336</v>
       </c>
@@ -21423,7 +20969,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="12" spans="5:25">
+    <row r="12" spans="1:25">
       <c r="E12" t="s">
         <v>1344</v>
       </c>
@@ -21486,7 +21032,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="13" spans="5:25">
+    <row r="13" spans="1:25">
       <c r="E13" t="s">
         <v>1352</v>
       </c>
@@ -21549,7 +21095,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="14" spans="5:24">
+    <row r="14" spans="1:25">
       <c r="E14" t="s">
         <v>1360</v>
       </c>
@@ -21607,7 +21153,7 @@
       </c>
       <c r="X14" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -25445,7 +24991,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="190" ht="15.95" customHeight="1" spans="5:10">
+    <row r="190" spans="5:10" ht="15.95" customHeight="1">
       <c r="E190" s="5" t="s">
         <v>1548</v>
       </c>
@@ -25467,7 +25013,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="191" ht="15.95" customHeight="1" spans="5:10">
+    <row r="191" spans="5:10" ht="15.95" customHeight="1">
       <c r="E191" s="5" t="s">
         <v>1549</v>
       </c>
@@ -25489,7 +25035,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="192" ht="15.95" customHeight="1" spans="5:10">
+    <row r="192" spans="5:10" ht="15.95" customHeight="1">
       <c r="E192" s="5" t="s">
         <v>1550</v>
       </c>
@@ -25512,8 +25058,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="F187" formula="1"/>
   </ignoredErrors>
@@ -25521,23 +25067,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView topLeftCell="C22" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="25.3285714285714" customWidth="1"/>
-    <col min="6" max="6" width="29.1071428571429" customWidth="1"/>
-    <col min="7" max="7" width="18.1071428571429" customWidth="1"/>
-    <col min="8" max="8" width="20.3285714285714" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -25551,7 +25096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -25609,7 +25154,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="8" spans="5:15">
+    <row r="8" spans="1:15">
       <c r="E8" t="s">
         <v>1235</v>
       </c>
@@ -25641,7 +25186,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="5:15">
+    <row r="9" spans="1:15">
       <c r="E9" t="s">
         <v>1240</v>
       </c>
@@ -25670,7 +25215,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="5:15">
+    <row r="10" spans="1:15">
       <c r="E10" t="s">
         <v>1243</v>
       </c>
@@ -25702,7 +25247,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="5:15">
+    <row r="11" spans="1:15">
       <c r="E11" t="s">
         <v>1246</v>
       </c>
@@ -25734,7 +25279,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="5:15">
+    <row r="12" spans="1:15">
       <c r="E12" t="s">
         <v>1248</v>
       </c>
@@ -25766,7 +25311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="5:15">
+    <row r="13" spans="1:15">
       <c r="E13" t="s">
         <v>1251</v>
       </c>
@@ -25798,7 +25343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="5:15">
+    <row r="14" spans="1:15">
       <c r="E14" t="s">
         <v>1254</v>
       </c>
@@ -25830,7 +25375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="5:15">
+    <row r="15" spans="1:15">
       <c r="E15" t="s">
         <v>1257</v>
       </c>
@@ -25862,7 +25407,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="5:15">
+    <row r="16" spans="1:15">
       <c r="E16" t="s">
         <v>1260</v>
       </c>
@@ -25894,7 +25439,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="5:15">
+    <row r="17" spans="1:15">
       <c r="E17" t="s">
         <v>1263</v>
       </c>
@@ -25926,7 +25471,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:15">
       <c r="E18" t="s">
         <v>1266</v>
       </c>
@@ -25958,7 +25503,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:15">
       <c r="E19" t="s">
         <v>1269</v>
       </c>
@@ -25990,7 +25535,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -26019,7 +25564,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="22" spans="5:9">
+    <row r="22" spans="1:15">
       <c r="E22" t="s">
         <v>1298</v>
       </c>
@@ -26038,7 +25583,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="5:9">
+    <row r="23" spans="1:15">
       <c r="E23" t="s">
         <v>1298</v>
       </c>
@@ -26057,7 +25602,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="5:9">
+    <row r="24" spans="1:15">
       <c r="E24" t="s">
         <v>1298</v>
       </c>
@@ -26076,7 +25621,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="5:9">
+    <row r="25" spans="1:15">
       <c r="E25" t="s">
         <v>1298</v>
       </c>
@@ -26095,7 +25640,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="26" spans="5:9">
+    <row r="26" spans="1:15">
       <c r="E26" t="s">
         <v>1298</v>
       </c>
@@ -26114,7 +25659,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="5:9">
+    <row r="27" spans="1:15">
       <c r="E27" t="s">
         <v>1298</v>
       </c>
@@ -26133,7 +25678,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="28" spans="5:9">
+    <row r="28" spans="1:15">
       <c r="E28" t="s">
         <v>1298</v>
       </c>
@@ -26152,7 +25697,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="29" spans="5:9">
+    <row r="29" spans="1:15">
       <c r="E29" t="s">
         <v>1298</v>
       </c>
@@ -26171,7 +25716,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="30" spans="5:9">
+    <row r="30" spans="1:15">
       <c r="E30" t="s">
         <v>1298</v>
       </c>
@@ -26190,7 +25735,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="31" spans="5:9">
+    <row r="31" spans="1:15">
       <c r="E31" t="s">
         <v>1298</v>
       </c>
@@ -26209,7 +25754,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="32" spans="5:9">
+    <row r="32" spans="1:15">
       <c r="E32" t="s">
         <v>1298</v>
       </c>
@@ -26286,8 +25831,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3969" uniqueCount="1602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="1602">
   <si>
     <r>
       <rPr>
@@ -6549,12 +6549,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -6587,12 +6587,6 @@
     </font>
     <font>
       <strike/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -6637,12 +6631,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -6652,7 +6647,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6695,25 +6697,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6727,18 +6712,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6758,6 +6735,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -6765,16 +6758,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6785,12 +6779,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -6814,13 +6802,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -6833,12 +6814,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -6882,19 +6857,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6906,7 +6893,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6918,13 +6929,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6936,13 +6971,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6960,109 +7037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7169,16 +7144,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -7217,6 +7203,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7231,51 +7241,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7284,138 +7259,138 @@
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7423,7 +7398,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7431,44 +7405,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7481,7 +7455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7884,8 +7858,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5571428571429" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3285714285714" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.5571428571429" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3285714285714" style="8" customWidth="1"/>
     <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
     <col min="4" max="4" width="35.3285714285714" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
@@ -7901,79 +7875,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" ht="49.5" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -7981,56 +7955,56 @@
       </c>
     </row>
     <row r="10" ht="49.5" spans="3:5">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="66" spans="3:5">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" ht="33" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -8040,30 +8014,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -8071,7 +8045,7 @@
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -8079,25 +8053,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" ht="49.5" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8122,8 +8096,8 @@
   <sheetPr/>
   <dimension ref="A1:Y98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G88" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView topLeftCell="B89" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -14122,7 +14096,7 @@
         <f>菜单SAAS版!$E$44</f>
         <v>iam_menu-60</v>
       </c>
-      <c r="G110" s="7" t="s">
+      <c r="G110" s="5" t="s">
         <v>688</v>
       </c>
     </row>
@@ -17939,10 +17913,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O168"/>
+  <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView topLeftCell="C154" workbookViewId="0">
-      <selection activeCell="G169" sqref="G169"/>
+    <sheetView tabSelected="1" topLeftCell="C146" workbookViewId="0">
+      <selection activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -21282,6 +21256,63 @@
         <v>1316</v>
       </c>
     </row>
+    <row r="169" customFormat="1" spans="5:9">
+      <c r="E169" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G169" t="str">
+        <f>菜单SAAS版!$E$97</f>
+        <v>iam_menu-140</v>
+      </c>
+      <c r="H169" t="str">
+        <f>菜单标签数据!$E$13</f>
+        <v>iam_label-13</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="170" customFormat="1" spans="5:9">
+      <c r="E170" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G170" t="str">
+        <f>菜单SAAS版!$E$97</f>
+        <v>iam_menu-140</v>
+      </c>
+      <c r="H170" t="str">
+        <f>菜单标签数据!$E$14</f>
+        <v>iam_label-14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="171" customFormat="1" spans="5:9">
+      <c r="E171" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G171" t="str">
+        <f>菜单SAAS版!$E$97</f>
+        <v>iam_menu-140</v>
+      </c>
+      <c r="H171" t="str">
+        <f>菜单标签数据!$E$21</f>
+        <v>iam_label-21</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -21293,8 +21324,8 @@
   <sheetPr/>
   <dimension ref="A1:Y195"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="E199" sqref="E199"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="1602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="1607">
   <si>
     <r>
       <rPr>
@@ -5458,6 +5458,21 @@
     <t>agile-service.star-beacon.unstarIssue</t>
   </si>
   <si>
+    <t>iam_menu_permission-437</t>
+  </si>
+  <si>
+    <t>agile-service.gantt-chart.listByTask</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-438</t>
+  </si>
+  <si>
+    <t>agile-service.gantt-chart.listByUser</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-439</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -6549,10 +6564,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -6633,11 +6648,10 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -6645,16 +6659,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6676,9 +6682,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6690,8 +6710,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6699,13 +6735,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6737,22 +6766,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6774,10 +6788,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6857,37 +6872,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6899,19 +6896,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6929,7 +6950,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6941,25 +6974,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6971,73 +7016,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7146,32 +7161,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -7194,6 +7183,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -7212,16 +7227,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -7244,148 +7259,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8097,7 +8112,7 @@
   <dimension ref="A1:Y98"/>
   <sheetViews>
     <sheetView topLeftCell="B89" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12803,10 +12818,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G427"/>
+  <dimension ref="A1:G430"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="F433" sqref="F433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -17904,6 +17919,42 @@
         <v>1239</v>
       </c>
     </row>
+    <row r="428" spans="5:7">
+      <c r="E428" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F428" t="str">
+        <f>菜单SAAS版!$E$98</f>
+        <v>iam_menu-141</v>
+      </c>
+      <c r="G428" s="5" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="429" spans="5:7">
+      <c r="E429" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F429" t="str">
+        <f>菜单SAAS版!$E$98</f>
+        <v>iam_menu-141</v>
+      </c>
+      <c r="G429" s="5" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="430" spans="5:7">
+      <c r="E430" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F430" t="str">
+        <f>菜单SAAS版!$E$98</f>
+        <v>iam_menu-141</v>
+      </c>
+      <c r="G430" s="5" t="s">
+        <v>924</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -17915,7 +17966,7 @@
   <sheetPr/>
   <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C146" workbookViewId="0">
+    <sheetView topLeftCell="C155" workbookViewId="0">
       <selection activeCell="F169" sqref="F169"/>
     </sheetView>
   </sheetViews>
@@ -17962,66 +18013,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1241</v>
+        <v>1246</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1242</v>
+        <v>1247</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
       <c r="H7" t="s">
-        <v>1244</v>
+        <v>1249</v>
       </c>
       <c r="I7" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="J7" t="s">
-        <v>1246</v>
+        <v>1251</v>
       </c>
       <c r="K7" t="s">
-        <v>1247</v>
+        <v>1252</v>
       </c>
       <c r="L7" t="s">
-        <v>1248</v>
+        <v>1253</v>
       </c>
       <c r="M7" t="s">
-        <v>1249</v>
+        <v>1254</v>
       </c>
       <c r="N7" t="s">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="O7" t="s">
-        <v>1251</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>1252</v>
+        <v>1257</v>
       </c>
       <c r="F8" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="G8" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="J8" t="s">
-        <v>1256</v>
+        <v>1261</v>
       </c>
       <c r="K8" t="s">
-        <v>1253</v>
+        <v>1258</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -18035,25 +18086,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>1257</v>
+        <v>1262</v>
       </c>
       <c r="F9" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="G9" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="J9" t="s">
-        <v>1259</v>
+        <v>1264</v>
       </c>
       <c r="K9" t="s">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -18067,19 +18118,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>1260</v>
+        <v>1265</v>
       </c>
       <c r="F10" t="s">
-        <v>1261</v>
+        <v>1266</v>
       </c>
       <c r="G10" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -18093,19 +18144,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>1263</v>
+        <v>1268</v>
       </c>
       <c r="F11" t="s">
-        <v>1264</v>
+        <v>1269</v>
       </c>
       <c r="G11" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -18119,25 +18170,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="F12" t="s">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="G12" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="J12" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="K12" t="s">
-        <v>1267</v>
+        <v>1272</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -18151,22 +18202,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>1268</v>
+        <v>1273</v>
       </c>
       <c r="F13" t="s">
-        <v>1269</v>
+        <v>1274</v>
       </c>
       <c r="G13" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="J13" t="s">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="M13" t="s">
         <v>80</v>
@@ -18180,22 +18231,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>1271</v>
+        <v>1276</v>
       </c>
       <c r="F14" t="s">
-        <v>1272</v>
+        <v>1277</v>
       </c>
       <c r="G14" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="J14" t="s">
-        <v>1273</v>
+        <v>1278</v>
       </c>
       <c r="M14" t="s">
         <v>80</v>
@@ -18209,22 +18260,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" s="5" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="F15" t="s">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="G15" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="J15" t="s">
-        <v>1276</v>
+        <v>1281</v>
       </c>
       <c r="M15" t="s">
         <v>80</v>
@@ -18238,22 +18289,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="F16" t="s">
-        <v>1278</v>
+        <v>1283</v>
       </c>
       <c r="G16" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="J16" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
@@ -18267,25 +18318,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
       <c r="F17" t="s">
-        <v>1281</v>
+        <v>1286</v>
       </c>
       <c r="G17" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="J17" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
       <c r="K17" t="s">
-        <v>1282</v>
+        <v>1287</v>
       </c>
       <c r="M17" t="s">
         <v>80</v>
@@ -18299,25 +18350,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>1283</v>
+        <v>1288</v>
       </c>
       <c r="F18" t="s">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="G18" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="J18" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
       <c r="K18" t="s">
-        <v>1285</v>
+        <v>1290</v>
       </c>
       <c r="M18" t="s">
         <v>80</v>
@@ -18331,25 +18382,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>1286</v>
+        <v>1291</v>
       </c>
       <c r="F19" t="s">
-        <v>1287</v>
+        <v>1292</v>
       </c>
       <c r="G19" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="J19" t="s">
-        <v>1288</v>
+        <v>1293</v>
       </c>
       <c r="K19" t="s">
-        <v>1287</v>
+        <v>1292</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -18363,19 +18414,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>1289</v>
+        <v>1294</v>
       </c>
       <c r="F20" t="s">
-        <v>1290</v>
+        <v>1295</v>
       </c>
       <c r="G20" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -18389,25 +18440,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>1291</v>
+        <v>1296</v>
       </c>
       <c r="F21" t="s">
-        <v>1292</v>
+        <v>1297</v>
       </c>
       <c r="G21" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="J21" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
       <c r="K21" t="s">
-        <v>1293</v>
+        <v>1298</v>
       </c>
       <c r="M21" t="s">
         <v>80</v>
@@ -18421,25 +18472,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>1294</v>
+        <v>1299</v>
       </c>
       <c r="F22" t="s">
-        <v>1295</v>
+        <v>1300</v>
       </c>
       <c r="G22" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="J22" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="K22" t="s">
-        <v>1296</v>
+        <v>1301</v>
       </c>
       <c r="M22" t="s">
         <v>80</v>
@@ -18453,25 +18504,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>1297</v>
+        <v>1302</v>
       </c>
       <c r="F23" t="s">
-        <v>1298</v>
+        <v>1303</v>
       </c>
       <c r="G23" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="J23" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="K23" t="s">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="M23" t="s">
         <v>80</v>
@@ -18485,19 +18536,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="F24" t="s">
-        <v>1301</v>
+        <v>1306</v>
       </c>
       <c r="G24" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="M24" t="s">
         <v>80</v>
@@ -18511,22 +18562,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>1302</v>
+        <v>1307</v>
       </c>
       <c r="F25" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="G25" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="J25" t="s">
-        <v>1304</v>
+        <v>1309</v>
       </c>
       <c r="M25" t="s">
         <v>80</v>
@@ -18540,22 +18591,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>1305</v>
+        <v>1310</v>
       </c>
       <c r="F26" t="s">
-        <v>1306</v>
+        <v>1311</v>
       </c>
       <c r="G26" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>1262</v>
+        <v>1267</v>
       </c>
       <c r="J26" t="s">
-        <v>1307</v>
+        <v>1312</v>
       </c>
       <c r="M26" t="s">
         <v>80</v>
@@ -18575,33 +18626,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>1308</v>
+        <v>1313</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1310</v>
+        <v>1315</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>1311</v>
+        <v>1316</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>1312</v>
+        <v>1317</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>1313</v>
+        <v>1318</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1314</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F29" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18612,15 +18663,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F30" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18631,15 +18682,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I30" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F31" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18650,15 +18701,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I31" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F32" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -18669,15 +18720,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I32" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F33" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18688,15 +18739,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I33" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F34" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18707,15 +18758,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I34" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F35" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18726,15 +18777,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I35" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F36" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18745,15 +18796,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I36" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F37" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18764,15 +18815,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I37" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F38" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18783,15 +18834,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I38" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F39" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18802,15 +18853,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I39" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F40" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -18821,15 +18872,15 @@
         <v>iam_label-25</v>
       </c>
       <c r="I40" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F41" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -18840,15 +18891,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I41" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F42" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -18859,15 +18910,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I42" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F43" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -18878,15 +18929,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I43" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F44" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -18897,15 +18948,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I44" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F45" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -18916,15 +18967,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I45" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F46" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -18935,15 +18986,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I46" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F47" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18954,15 +19005,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I47" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F48" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18973,15 +19024,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I48" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F49" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -18992,15 +19043,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I49" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F50" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -19011,15 +19062,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I50" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F51" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -19030,15 +19081,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I51" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F52" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -19049,15 +19100,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I52" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F53" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -19068,15 +19119,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I53" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F54" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -19087,15 +19138,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I54" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F55" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -19106,15 +19157,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I55" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F56" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -19125,15 +19176,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I56" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F57" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -19144,15 +19195,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I57" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F58" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -19163,15 +19214,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I58" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F59" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -19182,15 +19233,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I59" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="60" spans="5:9">
       <c r="E60" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F60" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -19201,15 +19252,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I60" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="61" spans="5:9">
       <c r="E61" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F61" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G61" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19220,15 +19271,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I61" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="62" spans="5:9">
       <c r="E62" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F62" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G62" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19239,15 +19290,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I62" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="63" spans="5:9">
       <c r="E63" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F63" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G63" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19258,15 +19309,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I63" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="64" spans="5:9">
       <c r="E64" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F64" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G64" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19277,15 +19328,15 @@
         <v>iam_label-16</v>
       </c>
       <c r="I64" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="65" spans="5:9">
       <c r="E65" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F65" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G65" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19296,15 +19347,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I65" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="66" spans="5:9">
       <c r="E66" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F66" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G66" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19315,15 +19366,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I66" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="67" spans="5:9">
       <c r="E67" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F67" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G67" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19334,15 +19385,15 @@
         <v>iam_label-22</v>
       </c>
       <c r="I67" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="68" spans="5:9">
       <c r="E68" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F68" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G68" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19353,15 +19404,15 @@
         <v>iam_label-24</v>
       </c>
       <c r="I68" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="69" spans="5:9">
       <c r="E69" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F69" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G69" t="str">
         <f>菜单SAAS版!$E$75</f>
@@ -19372,15 +19423,15 @@
         <v>iam_label-26</v>
       </c>
       <c r="I69" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="70" spans="5:9">
       <c r="E70" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F70" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G70" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -19391,15 +19442,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I70" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="71" spans="5:9">
       <c r="E71" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F71" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G71" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -19410,15 +19461,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I71" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="72" spans="5:9">
       <c r="E72" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F72" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G72" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -19429,15 +19480,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I72" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="73" spans="5:9">
       <c r="E73" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F73" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G73" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -19448,15 +19499,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I73" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="74" spans="5:9">
       <c r="E74" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F74" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G74" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -19467,15 +19518,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I74" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="75" spans="5:9">
       <c r="E75" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F75" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G75" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -19486,15 +19537,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I75" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="76" spans="5:9">
       <c r="E76" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F76" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G76" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -19505,15 +19556,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I76" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="77" spans="5:9">
       <c r="E77" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F77" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G77" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -19524,15 +19575,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I77" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="78" spans="5:9">
       <c r="E78" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F78" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G78" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -19543,15 +19594,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I78" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="79" spans="5:9">
       <c r="E79" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F79" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G79" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -19562,15 +19613,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I79" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="80" spans="5:9">
       <c r="E80" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F80" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G80" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -19581,15 +19632,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I80" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="81" spans="5:9">
       <c r="E81" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F81" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G81" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -19600,15 +19651,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I81" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="82" spans="5:9">
       <c r="E82" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F82" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G82" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -19619,15 +19670,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I82" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="83" spans="5:9">
       <c r="E83" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F83" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G83" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -19638,15 +19689,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I83" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="84" spans="5:9">
       <c r="E84" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F84" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G84" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -19657,15 +19708,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I84" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="85" spans="5:9">
       <c r="E85" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F85" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G85" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -19676,15 +19727,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I85" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="86" spans="5:9">
       <c r="E86" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F86" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G86" t="str">
         <f>菜单SAAS版!$E$71</f>
@@ -19695,15 +19746,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I86" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="87" spans="5:9">
       <c r="E87" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F87" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G87" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -19714,15 +19765,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I87" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="88" spans="5:9">
       <c r="E88" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F88" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G88" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -19733,15 +19784,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I88" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="89" spans="5:9">
       <c r="E89" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F89" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G89" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -19752,15 +19803,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I89" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="90" spans="5:9">
       <c r="E90" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F90" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G90" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -19771,15 +19822,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I90" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="91" spans="5:9">
       <c r="E91" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F91" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G91" t="str">
         <f>菜单SAAS版!$E$19</f>
@@ -19790,15 +19841,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I91" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="92" spans="5:9">
       <c r="E92" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F92" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G92" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -19809,15 +19860,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I92" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="93" spans="5:9">
       <c r="E93" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F93" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G93" t="str">
         <f>菜单SAAS版!$E$22</f>
@@ -19828,15 +19879,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I93" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="94" spans="5:9">
       <c r="E94" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F94" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G94" t="str">
         <f>菜单SAAS版!$E$20</f>
@@ -19847,15 +19898,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I94" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="95" spans="5:9">
       <c r="E95" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F95" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G95" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -19866,15 +19917,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I95" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="96" spans="5:9">
       <c r="E96" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F96" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G96" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -19885,15 +19936,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I96" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="97" spans="5:9">
       <c r="E97" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F97" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G97" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -19904,15 +19955,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I97" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="98" spans="5:9">
       <c r="E98" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F98" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G98" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -19923,15 +19974,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I98" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="99" spans="5:9">
       <c r="E99" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F99" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G99" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -19942,15 +19993,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I99" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="100" spans="5:9">
       <c r="E100" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F100" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G100" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -19961,15 +20012,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I100" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="101" spans="5:9">
       <c r="E101" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F101" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G101" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -19980,15 +20031,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I101" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="102" spans="5:9">
       <c r="E102" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F102" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G102" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -19999,15 +20050,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I102" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="103" spans="5:9">
       <c r="E103" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F103" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G103" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -20018,15 +20069,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I103" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="104" spans="5:9">
       <c r="E104" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F104" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G104" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -20037,15 +20088,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I104" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="105" spans="5:9">
       <c r="E105" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F105" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G105" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -20056,15 +20107,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I105" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="106" spans="5:9">
       <c r="E106" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F106" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G106" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -20075,15 +20126,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I106" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="107" spans="5:9">
       <c r="E107" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F107" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G107" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -20094,15 +20145,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I107" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="108" spans="5:9">
       <c r="E108" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F108" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G108" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -20113,15 +20164,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I108" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="109" spans="5:9">
       <c r="E109" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F109" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G109" t="str">
         <f>菜单SAAS版!$E$86</f>
@@ -20132,15 +20183,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I109" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="110" spans="5:9">
       <c r="E110" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F110" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G110" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -20151,15 +20202,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I110" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="111" spans="5:9">
       <c r="E111" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F111" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G111" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -20170,15 +20221,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I111" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="112" spans="5:9">
       <c r="E112" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F112" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G112" t="str">
         <f>菜单SAAS版!$E$87</f>
@@ -20189,15 +20240,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I112" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="113" spans="5:9">
       <c r="E113" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F113" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G113" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -20208,15 +20259,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I113" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="114" spans="5:9">
       <c r="E114" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F114" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G114" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -20227,15 +20278,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I114" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="115" spans="5:9">
       <c r="E115" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F115" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G115" t="str">
         <f>菜单SAAS版!$E$88</f>
@@ -20246,15 +20297,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I115" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="116" spans="5:9">
       <c r="E116" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F116" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G116" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -20265,15 +20316,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I116" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="117" spans="5:9">
       <c r="E117" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F117" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G117" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -20284,15 +20335,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I117" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="118" spans="5:9">
       <c r="E118" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F118" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G118" t="str">
         <f>菜单SAAS版!$E$89</f>
@@ -20303,15 +20354,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I118" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="119" spans="5:9">
       <c r="E119" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F119" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G119" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -20322,15 +20373,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I119" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="120" spans="5:9">
       <c r="E120" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F120" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G120" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -20341,15 +20392,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I120" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="121" spans="5:9">
       <c r="E121" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F121" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G121" t="str">
         <f>菜单SAAS版!$E$76</f>
@@ -20360,15 +20411,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I121" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="122" spans="5:9">
       <c r="E122" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F122" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G122" t="str">
         <f>菜单SAAS版!$E$80</f>
@@ -20379,15 +20430,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I122" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="123" spans="5:9">
       <c r="E123" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F123" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G123" t="str">
         <f>菜单SAAS版!$E$80</f>
@@ -20398,15 +20449,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I123" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="124" spans="5:9">
       <c r="E124" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F124" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G124" t="str">
         <f>菜单SAAS版!$E$77</f>
@@ -20417,15 +20468,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I124" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="125" spans="5:9">
       <c r="E125" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F125" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G125" t="str">
         <f>菜单SAAS版!$E$77</f>
@@ -20436,15 +20487,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I125" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="126" spans="5:9">
       <c r="E126" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F126" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G126" t="str">
         <f>菜单SAAS版!$E$83</f>
@@ -20455,15 +20506,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I126" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="127" spans="5:9">
       <c r="E127" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F127" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G127" t="str">
         <f>菜单SAAS版!$E$83</f>
@@ -20474,15 +20525,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I127" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="128" spans="5:9">
       <c r="E128" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F128" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G128" t="str">
         <f>菜单SAAS版!$E$84</f>
@@ -20493,15 +20544,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I128" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="129" spans="5:9">
       <c r="E129" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F129" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G129" t="str">
         <f>菜单SAAS版!$E$84</f>
@@ -20512,15 +20563,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I129" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="130" spans="5:9">
       <c r="E130" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F130" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G130" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -20531,15 +20582,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I130" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="131" spans="5:9">
       <c r="E131" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F131" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G131" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -20550,15 +20601,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I131" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="132" spans="5:9">
       <c r="E132" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F132" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G132" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -20569,15 +20620,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I132" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="133" spans="5:9">
       <c r="E133" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F133" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G133" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -20588,15 +20639,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I133" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="134" spans="5:9">
       <c r="E134" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F134" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G134" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -20607,15 +20658,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I134" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="135" spans="5:9">
       <c r="E135" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F135" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G135" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -20626,15 +20677,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I135" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="136" spans="5:9">
       <c r="E136" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F136" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G136" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -20645,15 +20696,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I136" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="137" spans="5:9">
       <c r="E137" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F137" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G137" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -20664,15 +20715,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I137" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="138" spans="5:9">
       <c r="E138" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F138" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G138" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -20683,15 +20734,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I138" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="139" spans="5:9">
       <c r="E139" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F139" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G139" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -20702,15 +20753,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I139" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="140" spans="5:9">
       <c r="E140" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F140" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G140" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -20721,15 +20772,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I140" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="141" spans="5:9">
       <c r="E141" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F141" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G141" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -20740,15 +20791,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I141" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="142" spans="5:9">
       <c r="E142" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F142" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G142" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -20759,15 +20810,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I142" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="143" spans="5:9">
       <c r="E143" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F143" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G143" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -20778,15 +20829,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I143" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="144" spans="5:9">
       <c r="E144" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F144" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G144" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -20797,15 +20848,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I144" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="145" spans="5:9">
       <c r="E145" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F145" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G145" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -20816,15 +20867,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I145" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="146" spans="5:9">
       <c r="E146" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F146" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G146" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -20835,15 +20886,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I146" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="147" spans="5:9">
       <c r="E147" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F147" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G147" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -20854,15 +20905,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I147" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="148" spans="5:9">
       <c r="E148" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F148" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G148" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -20873,15 +20924,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I148" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="149" spans="5:9">
       <c r="E149" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F149" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G149" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -20892,15 +20943,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I149" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="150" spans="5:9">
       <c r="E150" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F150" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G150" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -20911,15 +20962,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I150" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="151" spans="5:9">
       <c r="E151" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F151" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G151" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -20930,15 +20981,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I151" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="152" spans="5:9">
       <c r="E152" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F152" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G152" t="str">
         <f>菜单SAAS版!$E$39</f>
@@ -20949,15 +21000,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I152" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="153" spans="5:9">
       <c r="E153" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F153" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G153" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -20968,15 +21019,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I153" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="154" spans="5:9">
       <c r="E154" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F154" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G154" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -20987,15 +21038,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I154" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="155" spans="5:9">
       <c r="E155" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F155" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G155" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -21006,15 +21057,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I155" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="156" spans="5:9">
       <c r="E156" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F156" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G156" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -21025,15 +21076,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I156" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="157" spans="5:9">
       <c r="E157" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F157" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G157" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -21044,15 +21095,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I157" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="158" spans="5:9">
       <c r="E158" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F158" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G158" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -21063,15 +21114,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I158" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="159" spans="5:9">
       <c r="E159" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F159" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G159" t="str">
         <f>菜单SAAS版!$E$90</f>
@@ -21082,15 +21133,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I159" t="s">
-        <v>1317</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="160" spans="5:9">
       <c r="E160" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F160" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G160" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -21101,15 +21152,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I160" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="161" spans="5:9">
       <c r="E161" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F161" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G161" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -21120,15 +21171,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I161" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="162" spans="5:9">
       <c r="E162" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F162" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G162" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -21139,15 +21190,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I162" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="163" spans="5:9">
       <c r="E163" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F163" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G163" t="str">
         <f>菜单SAAS版!$E$92</f>
@@ -21158,15 +21209,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I163" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="164" spans="5:9">
       <c r="E164" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F164" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G164" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -21177,15 +21228,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I164" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="165" spans="5:9">
       <c r="E165" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F165" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G165" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -21196,15 +21247,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I165" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="166" spans="5:9">
       <c r="E166" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F166" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G166" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -21215,15 +21266,15 @@
         <v>iam_label-17</v>
       </c>
       <c r="I166" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="167" spans="5:9">
       <c r="E167" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F167" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G167" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -21234,15 +21285,15 @@
         <v>iam_label-15</v>
       </c>
       <c r="I167" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="168" spans="5:9">
       <c r="E168" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F168" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G168" t="str">
         <f>菜单SAAS版!$E$95</f>
@@ -21253,15 +21304,15 @@
         <v>iam_label-21</v>
       </c>
       <c r="I168" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="169" customFormat="1" spans="5:9">
       <c r="E169" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F169" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G169" t="str">
         <f>菜单SAAS版!$E$97</f>
@@ -21272,15 +21323,15 @@
         <v>iam_label-13</v>
       </c>
       <c r="I169" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="170" customFormat="1" spans="5:9">
       <c r="E170" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F170" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G170" t="str">
         <f>菜单SAAS版!$E$97</f>
@@ -21291,15 +21342,15 @@
         <v>iam_label-14</v>
       </c>
       <c r="I170" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="171" customFormat="1" spans="5:9">
       <c r="E171" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="F171" t="s">
-        <v>1254</v>
+        <v>1259</v>
       </c>
       <c r="G171" t="str">
         <f>菜单SAAS版!$E$97</f>
@@ -21310,7 +21361,7 @@
         <v>iam_label-21</v>
       </c>
       <c r="I171" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
     </row>
   </sheetData>
@@ -21368,10 +21419,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1318</v>
+        <v>1323</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -21386,75 +21437,75 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>1320</v>
+        <v>1325</v>
       </c>
       <c r="J7" t="s">
-        <v>1245</v>
+        <v>1250</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>1321</v>
+        <v>1326</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>1322</v>
+        <v>1327</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1323</v>
+        <v>1328</v>
       </c>
       <c r="O7" t="s">
-        <v>1324</v>
+        <v>1329</v>
       </c>
       <c r="P7" t="s">
-        <v>1325</v>
+        <v>1330</v>
       </c>
       <c r="Q7" t="s">
-        <v>1326</v>
+        <v>1331</v>
       </c>
       <c r="R7" t="s">
-        <v>1327</v>
+        <v>1332</v>
       </c>
       <c r="S7" t="s">
-        <v>1328</v>
+        <v>1333</v>
       </c>
       <c r="T7" t="s">
-        <v>1329</v>
+        <v>1334</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>1331</v>
+        <v>1336</v>
       </c>
       <c r="X7" t="s">
-        <v>1332</v>
+        <v>1337</v>
       </c>
       <c r="Y7" t="s">
-        <v>1333</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>1334</v>
+        <v>1339</v>
       </c>
       <c r="F8" t="s">
-        <v>1335</v>
+        <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1336</v>
+        <v>1341</v>
       </c>
       <c r="H8" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="I8" t="s">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="J8" t="s">
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -21487,10 +21538,10 @@
         <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="V8" t="s">
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="W8" t="s">
         <v>80</v>
@@ -21498,19 +21549,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="F9" t="s">
-        <v>1341</v>
+        <v>1346</v>
       </c>
       <c r="G9" t="s">
-        <v>1342</v>
+        <v>1347</v>
       </c>
       <c r="H9" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="I9" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="J9" t="s">
         <v>79</v>
@@ -21546,10 +21597,10 @@
         <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="V9" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="W9" t="s">
         <v>80</v>
@@ -21557,16 +21608,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>1345</v>
+        <v>1350</v>
       </c>
       <c r="F10" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="G10" t="s">
-        <v>1347</v>
+        <v>1352</v>
       </c>
       <c r="H10" t="s">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="J10" t="s">
         <v>79</v>
@@ -21603,33 +21654,33 @@
         <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="V10" t="s">
-        <v>1350</v>
+        <v>1355</v>
       </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
-        <v>1351</v>
+        <v>1356</v>
       </c>
       <c r="Y10" t="s">
-        <v>1352</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>1353</v>
+        <v>1358</v>
       </c>
       <c r="F11" t="s">
-        <v>1354</v>
+        <v>1359</v>
       </c>
       <c r="G11" t="s">
-        <v>1355</v>
+        <v>1360</v>
       </c>
       <c r="H11" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="J11" t="s">
         <v>79</v>
@@ -21666,33 +21717,33 @@
         <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="V11" t="s">
-        <v>1358</v>
+        <v>1363</v>
       </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="Y11" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>1361</v>
+        <v>1366</v>
       </c>
       <c r="F12" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="G12" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="H12" t="s">
-        <v>1364</v>
+        <v>1369</v>
       </c>
       <c r="J12" t="s">
         <v>79</v>
@@ -21729,33 +21780,33 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>1365</v>
+        <v>1370</v>
       </c>
       <c r="V12" t="s">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
-        <v>1367</v>
+        <v>1372</v>
       </c>
       <c r="Y12" t="s">
-        <v>1368</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>1369</v>
+        <v>1374</v>
       </c>
       <c r="F13" t="s">
-        <v>1370</v>
+        <v>1375</v>
       </c>
       <c r="G13" t="s">
-        <v>1371</v>
+        <v>1376</v>
       </c>
       <c r="H13" t="s">
-        <v>1372</v>
+        <v>1377</v>
       </c>
       <c r="J13" t="s">
         <v>79</v>
@@ -21792,36 +21843,36 @@
         <v>80</v>
       </c>
       <c r="U13" t="s">
-        <v>1373</v>
+        <v>1378</v>
       </c>
       <c r="V13" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="Y13" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="14" spans="5:24">
       <c r="E14" t="s">
-        <v>1377</v>
+        <v>1382</v>
       </c>
       <c r="F14" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="G14" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="H14" t="s">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="J14" t="s">
-        <v>1339</v>
+        <v>1344</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -21855,10 +21906,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="V14" t="s">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -21873,33 +21924,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="H16" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="I16" t="s">
-        <v>1387</v>
+        <v>1392</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1243</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$10</f>
@@ -21910,18 +21961,18 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H17" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I17" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J17" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -21932,18 +21983,18 @@
         <v>iam_menu-17</v>
       </c>
       <c r="H18" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I18" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J18" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>1393</v>
+        <v>1398</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$10</f>
@@ -21954,18 +22005,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H19" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I19" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J19" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$10</f>
@@ -21976,18 +22027,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H20" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I20" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J20" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -21998,18 +22049,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H21" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I21" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J21" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>1396</v>
+        <v>1401</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -22020,18 +22071,18 @@
         <v>iam_menu-14</v>
       </c>
       <c r="H22" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I22" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J22" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>1397</v>
+        <v>1402</v>
       </c>
       <c r="F23" t="str">
         <f>角色!$E$10</f>
@@ -22042,18 +22093,18 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H23" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I23" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J23" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
       <c r="F24" t="str">
         <f>角色!$E$10</f>
@@ -22064,18 +22115,18 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H24" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I24" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J24" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="F25" t="str">
         <f>角色!$E$10</f>
@@ -22086,18 +22137,18 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H25" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I25" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J25" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="26" spans="5:10">
       <c r="E26" t="s">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="F26" t="str">
         <f>角色!$E$10</f>
@@ -22108,18 +22159,18 @@
         <v>iam_menu-22</v>
       </c>
       <c r="H26" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I26" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J26" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="27" spans="5:10">
       <c r="E27" t="s">
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="F27" t="str">
         <f>角色!$E$10</f>
@@ -22130,18 +22181,18 @@
         <v>iam_menu-20</v>
       </c>
       <c r="H27" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I27" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J27" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="28" spans="5:10">
       <c r="E28" t="s">
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="F28" t="str">
         <f>角色!$E$10</f>
@@ -22152,18 +22203,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H28" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I28" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J28" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="29" spans="5:10">
       <c r="E29" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="F29" t="str">
         <f>角色!$E$10</f>
@@ -22174,18 +22225,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H29" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I29" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J29" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="30" spans="5:10">
       <c r="E30" t="s">
-        <v>1404</v>
+        <v>1409</v>
       </c>
       <c r="F30" t="str">
         <f>角色!$E$10</f>
@@ -22196,18 +22247,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H30" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I30" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J30" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="31" spans="5:10">
       <c r="E31" t="s">
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="F31" t="str">
         <f>角色!$E$10</f>
@@ -22218,18 +22269,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H31" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I31" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J31" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="32" spans="5:10">
       <c r="E32" t="s">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="F32" t="str">
         <f>角色!$E$10</f>
@@ -22240,18 +22291,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H32" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I32" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J32" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="33" spans="5:10">
       <c r="E33" t="s">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="F33" t="str">
         <f>角色!$E$10</f>
@@ -22262,18 +22313,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H33" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I33" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J33" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="34" spans="5:10">
       <c r="E34" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="F34" t="str">
         <f>角色!$E$10</f>
@@ -22284,18 +22335,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H34" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I34" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J34" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="35" spans="5:10">
       <c r="E35" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="F35" t="str">
         <f>角色!$E$10</f>
@@ -22306,18 +22357,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H35" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I35" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J35" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="36" spans="5:10">
       <c r="E36" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="F36" t="str">
         <f>角色!$E$10</f>
@@ -22328,18 +22379,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H36" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I36" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J36" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="37" spans="5:10">
       <c r="E37" t="s">
-        <v>1411</v>
+        <v>1416</v>
       </c>
       <c r="F37" t="str">
         <f>角色!$E$10</f>
@@ -22350,18 +22401,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H37" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I37" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J37" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="38" spans="5:10">
       <c r="E38" t="s">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="F38" t="str">
         <f>角色!$E$10</f>
@@ -22372,18 +22423,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H38" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I38" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J38" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="39" spans="5:10">
       <c r="E39" t="s">
-        <v>1413</v>
+        <v>1418</v>
       </c>
       <c r="F39" t="str">
         <f>角色!$E$10</f>
@@ -22394,18 +22445,18 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H39" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I39" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J39" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="40" spans="5:10">
       <c r="E40" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="F40" t="str">
         <f>角色!$E$10</f>
@@ -22416,18 +22467,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H40" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I40" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J40" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="41" spans="5:10">
       <c r="E41" t="s">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="F41" t="str">
         <f>角色!$E$10</f>
@@ -22438,18 +22489,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H41" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I41" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J41" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="42" spans="5:10">
       <c r="E42" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="F42" t="str">
         <f>角色!$E$10</f>
@@ -22460,18 +22511,18 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H42" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I42" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J42" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="43" spans="5:10">
       <c r="E43" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="F43" t="str">
         <f>角色!$E$10</f>
@@ -22482,18 +22533,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H43" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I43" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J43" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="44" spans="5:10">
       <c r="E44" t="s">
-        <v>1418</v>
+        <v>1423</v>
       </c>
       <c r="F44" t="str">
         <f>角色!$E$10</f>
@@ -22504,18 +22555,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H44" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I44" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J44" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="45" spans="5:10">
       <c r="E45" t="s">
-        <v>1419</v>
+        <v>1424</v>
       </c>
       <c r="F45" t="str">
         <f>角色!$E$10</f>
@@ -22526,18 +22577,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H45" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I45" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J45" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="46" spans="5:10">
       <c r="E46" t="s">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="F46" t="str">
         <f>角色!$E$10</f>
@@ -22548,18 +22599,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H46" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I46" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J46" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="47" spans="5:10">
       <c r="E47" t="s">
-        <v>1421</v>
+        <v>1426</v>
       </c>
       <c r="F47" t="str">
         <f>角色!$E$10</f>
@@ -22570,18 +22621,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H47" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I47" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J47" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="48" spans="5:10">
       <c r="E48" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="F48" t="str">
         <f>角色!$E$10</f>
@@ -22592,18 +22643,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H48" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I48" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J48" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="49" spans="5:10">
       <c r="E49" t="s">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="F49" t="str">
         <f>角色!$E$10</f>
@@ -22614,18 +22665,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H49" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I49" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J49" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="50" spans="5:10">
       <c r="E50" t="s">
-        <v>1424</v>
+        <v>1429</v>
       </c>
       <c r="F50" t="str">
         <f>角色!$E$10</f>
@@ -22636,18 +22687,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H50" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I50" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J50" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="51" spans="5:10">
       <c r="E51" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
       <c r="F51" t="str">
         <f>角色!$E$10</f>
@@ -22658,18 +22709,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H51" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I51" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J51" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="52" spans="5:10">
       <c r="E52" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
       <c r="F52" t="str">
         <f>角色!$E$10</f>
@@ -22680,18 +22731,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H52" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I52" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J52" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="53" spans="5:10">
       <c r="E53" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
       <c r="F53" t="str">
         <f>角色!$E$10</f>
@@ -22702,18 +22753,18 @@
         <v>iam_menu-61</v>
       </c>
       <c r="H53" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I53" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J53" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="54" spans="5:10">
       <c r="E54" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
       <c r="F54" t="str">
         <f>角色!$E$10</f>
@@ -22724,18 +22775,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H54" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I54" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J54" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="55" spans="5:10">
       <c r="E55" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="F55" t="str">
         <f>角色!$E$10</f>
@@ -22746,18 +22797,18 @@
         <v>iam_menu-62</v>
       </c>
       <c r="H55" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I55" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J55" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="56" spans="5:10">
       <c r="E56" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="F56" t="str">
         <f>角色!$E$10</f>
@@ -22768,18 +22819,18 @@
         <v>iam_menu-67</v>
       </c>
       <c r="H56" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I56" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J56" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="57" spans="5:10">
       <c r="E57" t="s">
-        <v>1431</v>
+        <v>1436</v>
       </c>
       <c r="F57" t="str">
         <f>角色!$E$10</f>
@@ -22790,18 +22841,18 @@
         <v>iam_menu-69</v>
       </c>
       <c r="H57" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I57" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J57" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="58" spans="5:10">
       <c r="E58" t="s">
-        <v>1432</v>
+        <v>1437</v>
       </c>
       <c r="F58" t="str">
         <f>角色!$E$10</f>
@@ -22812,18 +22863,18 @@
         <v>iam_menu-68</v>
       </c>
       <c r="H58" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I58" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J58" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="59" spans="5:10">
       <c r="E59" t="s">
-        <v>1433</v>
+        <v>1438</v>
       </c>
       <c r="F59" t="str">
         <f>角色!$E$10</f>
@@ -22834,18 +22885,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H59" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I59" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J59" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="60" spans="5:10">
       <c r="E60" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="F60" t="str">
         <f>角色!$E$10</f>
@@ -22856,18 +22907,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H60" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I60" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J60" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="61" spans="5:10">
       <c r="E61" t="s">
-        <v>1435</v>
+        <v>1440</v>
       </c>
       <c r="F61" t="str">
         <f>角色!$E$10</f>
@@ -22878,18 +22929,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H61" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I61" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J61" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="62" spans="5:10">
       <c r="E62" t="s">
-        <v>1436</v>
+        <v>1441</v>
       </c>
       <c r="F62" t="str">
         <f>角色!$E$10</f>
@@ -22900,18 +22951,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H62" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I62" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J62" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="63" spans="5:10">
       <c r="E63" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
       <c r="F63" t="str">
         <f>角色!$E$10</f>
@@ -22922,18 +22973,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H63" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I63" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J63" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="64" spans="5:10">
       <c r="E64" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="F64" t="str">
         <f>角色!$E$10</f>
@@ -22944,18 +22995,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H64" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I64" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J64" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="65" spans="5:10">
       <c r="E65" t="s">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="F65" t="str">
         <f>角色!$E$10</f>
@@ -22966,18 +23017,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H65" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I65" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J65" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="66" spans="5:10">
       <c r="E66" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
       <c r="F66" t="str">
         <f>角色!$E$10</f>
@@ -22988,18 +23039,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H66" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I66" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J66" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="67" spans="5:10">
       <c r="E67" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
       <c r="F67" t="str">
         <f>角色!$E$10</f>
@@ -23010,18 +23061,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H67" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I67" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J67" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="68" spans="5:10">
       <c r="E68" t="s">
-        <v>1442</v>
+        <v>1447</v>
       </c>
       <c r="F68" t="str">
         <f>角色!$E$10</f>
@@ -23032,18 +23083,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H68" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I68" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J68" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="69" spans="5:10">
       <c r="E69" t="s">
-        <v>1443</v>
+        <v>1448</v>
       </c>
       <c r="F69" t="str">
         <f>角色!$E$10</f>
@@ -23054,18 +23105,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H69" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I69" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J69" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="70" spans="5:10">
       <c r="E70" t="s">
-        <v>1444</v>
+        <v>1449</v>
       </c>
       <c r="F70" t="str">
         <f>角色!$E$10</f>
@@ -23076,18 +23127,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H70" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I70" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J70" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="71" spans="5:10">
       <c r="E71" t="s">
-        <v>1445</v>
+        <v>1450</v>
       </c>
       <c r="F71" t="str">
         <f>角色!$E$10</f>
@@ -23098,18 +23149,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H71" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I71" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J71" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="72" spans="5:10">
       <c r="E72" t="s">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="F72" t="str">
         <f>角色!$E$10</f>
@@ -23120,18 +23171,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H72" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I72" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J72" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="73" spans="5:10">
       <c r="E73" t="s">
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="F73" t="str">
         <f>角色!$E$10</f>
@@ -23142,18 +23193,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H73" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I73" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J73" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="74" spans="5:10">
       <c r="E74" t="s">
-        <v>1448</v>
+        <v>1453</v>
       </c>
       <c r="F74" t="str">
         <f>角色!$E$10</f>
@@ -23164,18 +23215,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H74" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I74" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J74" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="75" spans="5:10">
       <c r="E75" t="s">
-        <v>1449</v>
+        <v>1454</v>
       </c>
       <c r="F75" t="str">
         <f>角色!$E$10</f>
@@ -23186,18 +23237,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H75" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I75" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J75" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="76" spans="5:10">
       <c r="E76" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="F76" t="str">
         <f>角色!$E$10</f>
@@ -23208,18 +23259,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H76" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I76" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J76" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="77" spans="5:10">
       <c r="E77" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="F77" t="str">
         <f>角色!$E$10</f>
@@ -23230,18 +23281,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H77" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I77" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J77" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="78" spans="5:10">
       <c r="E78" t="s">
-        <v>1452</v>
+        <v>1457</v>
       </c>
       <c r="F78" t="str">
         <f>角色!$E$10</f>
@@ -23252,18 +23303,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H78" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I78" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J78" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="79" spans="5:10">
       <c r="E79" t="s">
-        <v>1453</v>
+        <v>1458</v>
       </c>
       <c r="F79" t="str">
         <f>角色!$E$10</f>
@@ -23274,18 +23325,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H79" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I79" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J79" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="80" spans="5:10">
       <c r="E80" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="F80" t="str">
         <f>角色!$E$10</f>
@@ -23296,18 +23347,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H80" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I80" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J80" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="81" spans="5:10">
       <c r="E81" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="F81" t="str">
         <f>角色!$E$10</f>
@@ -23318,18 +23369,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H81" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I81" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J81" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="82" spans="5:10">
       <c r="E82" t="s">
-        <v>1456</v>
+        <v>1461</v>
       </c>
       <c r="F82" t="str">
         <f>角色!$E$10</f>
@@ -23340,18 +23391,18 @@
         <v>iam_menu-125</v>
       </c>
       <c r="H82" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I82" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J82" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="83" spans="5:10">
       <c r="E83" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
       <c r="F83" t="str">
         <f>角色!$E$10</f>
@@ -23362,18 +23413,18 @@
         <v>iam_menu-128</v>
       </c>
       <c r="H83" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I83" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J83" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="84" spans="5:10">
       <c r="E84" t="s">
-        <v>1458</v>
+        <v>1463</v>
       </c>
       <c r="F84" t="str">
         <f>角色!$E$12</f>
@@ -23384,18 +23435,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H84" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I84" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J84" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="85" spans="5:10">
       <c r="E85" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="F85" t="str">
         <f>角色!$E$12</f>
@@ -23406,18 +23457,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H85" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I85" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J85" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="86" spans="5:10">
       <c r="E86" t="s">
-        <v>1460</v>
+        <v>1465</v>
       </c>
       <c r="F86" t="str">
         <f>角色!$E$12</f>
@@ -23428,18 +23479,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H86" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I86" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J86" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="87" spans="5:10">
       <c r="E87" t="s">
-        <v>1461</v>
+        <v>1466</v>
       </c>
       <c r="F87" t="str">
         <f>角色!$E$12</f>
@@ -23450,18 +23501,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H87" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I87" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J87" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="88" spans="5:10">
       <c r="E88" t="s">
-        <v>1462</v>
+        <v>1467</v>
       </c>
       <c r="F88" t="str">
         <f>角色!$E$12</f>
@@ -23472,18 +23523,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H88" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I88" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J88" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="89" spans="5:10">
       <c r="E89" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="F89" t="str">
         <f>角色!$E$12</f>
@@ -23494,18 +23545,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H89" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I89" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J89" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="90" spans="5:10">
       <c r="E90" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="F90" t="str">
         <f>角色!$E$12</f>
@@ -23516,18 +23567,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H90" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I90" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J90" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="91" spans="5:10">
       <c r="E91" t="s">
-        <v>1465</v>
+        <v>1470</v>
       </c>
       <c r="F91" t="str">
         <f>角色!$E$12</f>
@@ -23538,18 +23589,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H91" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I91" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J91" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="92" spans="5:10">
       <c r="E92" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="F92" t="str">
         <f>角色!$E$12</f>
@@ -23560,18 +23611,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H92" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I92" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J92" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="93" spans="5:10">
       <c r="E93" t="s">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="F93" t="str">
         <f>角色!$E$12</f>
@@ -23582,18 +23633,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H93" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I93" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J93" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="94" spans="5:10">
       <c r="E94" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
       <c r="F94" t="str">
         <f>角色!$E$12</f>
@@ -23604,18 +23655,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H94" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I94" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J94" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="95" spans="5:10">
       <c r="E95" t="s">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="F95" t="str">
         <f>角色!$E$12</f>
@@ -23626,18 +23677,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H95" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I95" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J95" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="96" spans="5:10">
       <c r="E96" t="s">
-        <v>1470</v>
+        <v>1475</v>
       </c>
       <c r="F96" t="str">
         <f>角色!$E$12</f>
@@ -23648,18 +23699,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H96" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I96" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J96" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="97" spans="5:10">
       <c r="E97" t="s">
-        <v>1471</v>
+        <v>1476</v>
       </c>
       <c r="F97" t="str">
         <f>角色!$E$12</f>
@@ -23670,18 +23721,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H97" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I97" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J97" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="98" spans="5:10">
       <c r="E98" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
       <c r="F98" t="str">
         <f>角色!$E$12</f>
@@ -23692,18 +23743,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H98" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I98" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J98" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="99" spans="5:10">
       <c r="E99" t="s">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="F99" t="str">
         <f>角色!$E$12</f>
@@ -23714,18 +23765,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H99" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I99" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J99" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="100" spans="5:10">
       <c r="E100" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
       <c r="F100" t="str">
         <f>角色!$E$12</f>
@@ -23736,18 +23787,18 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H100" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I100" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J100" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="101" spans="5:10">
       <c r="E101" t="s">
-        <v>1475</v>
+        <v>1480</v>
       </c>
       <c r="F101" t="str">
         <f>角色!$E$12</f>
@@ -23758,18 +23809,18 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H101" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I101" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J101" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="102" spans="5:10">
       <c r="E102" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="F102" t="str">
         <f>角色!$E$12</f>
@@ -23780,18 +23831,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H102" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I102" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J102" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="103" spans="5:10">
       <c r="E103" t="s">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="F103" t="str">
         <f>角色!$E$12</f>
@@ -23802,18 +23853,18 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H103" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I103" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J103" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="104" spans="5:10">
       <c r="E104" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="F104" t="str">
         <f>角色!$E$12</f>
@@ -23824,18 +23875,18 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H104" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I104" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J104" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="105" spans="5:10">
       <c r="E105" t="s">
-        <v>1479</v>
+        <v>1484</v>
       </c>
       <c r="F105" t="str">
         <f>角色!$E$12</f>
@@ -23846,18 +23897,18 @@
         <v>iam_menu-30</v>
       </c>
       <c r="H105" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I105" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J105" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="106" spans="5:10">
       <c r="E106" t="s">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="F106" t="str">
         <f>角色!$E$12</f>
@@ -23868,18 +23919,18 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H106" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I106" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J106" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="107" spans="5:10">
       <c r="E107" t="s">
-        <v>1481</v>
+        <v>1486</v>
       </c>
       <c r="F107" t="str">
         <f>角色!$E$12</f>
@@ -23890,18 +23941,18 @@
         <v>iam_menu-34</v>
       </c>
       <c r="H107" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I107" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J107" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="108" spans="5:10">
       <c r="E108" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="F108" t="str">
         <f>角色!$E$12</f>
@@ -23912,18 +23963,18 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H108" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I108" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J108" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="109" spans="5:10">
       <c r="E109" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="F109" t="str">
         <f>角色!$E$12</f>
@@ -23934,18 +23985,18 @@
         <v>iam_menu-42</v>
       </c>
       <c r="H109" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I109" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J109" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="110" spans="5:10">
       <c r="E110" t="s">
-        <v>1484</v>
+        <v>1489</v>
       </c>
       <c r="F110" t="str">
         <f>角色!$E$12</f>
@@ -23956,18 +24007,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H110" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I110" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J110" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="111" spans="5:10">
       <c r="E111" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="F111" t="str">
         <f>角色!$E$12</f>
@@ -23978,18 +24029,18 @@
         <v>iam_menu-61</v>
       </c>
       <c r="H111" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I111" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J111" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="112" spans="5:10">
       <c r="E112" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="F112" t="str">
         <f>角色!$E$12</f>
@@ -24000,18 +24051,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H112" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I112" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J112" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="113" spans="5:10">
       <c r="E113" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="F113" t="str">
         <f>角色!$E$12</f>
@@ -24022,18 +24073,18 @@
         <v>iam_menu-62</v>
       </c>
       <c r="H113" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I113" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J113" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="114" spans="5:10">
       <c r="E114" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="F114" t="str">
         <f>角色!$E$12</f>
@@ -24044,18 +24095,18 @@
         <v>iam_menu-67</v>
       </c>
       <c r="H114" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I114" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J114" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="115" spans="5:10">
       <c r="E115" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="F115" t="str">
         <f>角色!$E$12</f>
@@ -24066,18 +24117,18 @@
         <v>iam_menu-69</v>
       </c>
       <c r="H115" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I115" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J115" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="116" spans="5:10">
       <c r="E116" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="F116" t="str">
         <f>角色!$E$12</f>
@@ -24088,18 +24139,18 @@
         <v>iam_menu-68</v>
       </c>
       <c r="H116" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I116" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J116" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="117" spans="5:10">
       <c r="E117" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="F117" t="str">
         <f>角色!$E$12</f>
@@ -24110,18 +24161,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H117" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I117" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J117" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="118" spans="5:10">
       <c r="E118" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="F118" t="str">
         <f>角色!$E$12</f>
@@ -24132,18 +24183,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H118" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I118" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J118" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="119" spans="5:10">
       <c r="E119" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="F119" t="str">
         <f>角色!$E$12</f>
@@ -24154,18 +24205,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H119" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I119" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J119" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="120" spans="5:10">
       <c r="E120" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="F120" t="str">
         <f>角色!$E$12</f>
@@ -24176,18 +24227,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H120" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I120" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J120" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="121" spans="5:10">
       <c r="E121" t="s">
-        <v>1495</v>
+        <v>1500</v>
       </c>
       <c r="F121" t="str">
         <f>角色!$E$12</f>
@@ -24198,18 +24249,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H121" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I121" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J121" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="122" spans="5:10">
       <c r="E122" t="s">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="F122" t="str">
         <f>角色!$E$12</f>
@@ -24220,18 +24271,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H122" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I122" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J122" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="123" spans="5:10">
       <c r="E123" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="F123" t="str">
         <f>角色!$E$12</f>
@@ -24242,18 +24293,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H123" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I123" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J123" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="124" spans="5:10">
       <c r="E124" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="F124" t="str">
         <f>角色!$E$12</f>
@@ -24264,18 +24315,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H124" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I124" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J124" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="125" spans="5:10">
       <c r="E125" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="F125" t="str">
         <f>角色!$E$12</f>
@@ -24286,18 +24337,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H125" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I125" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J125" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="126" spans="5:10">
       <c r="E126" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="F126" t="str">
         <f>角色!$E$12</f>
@@ -24308,18 +24359,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H126" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I126" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J126" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="127" spans="5:10">
       <c r="E127" t="s">
-        <v>1501</v>
+        <v>1506</v>
       </c>
       <c r="F127" t="str">
         <f>角色!$E$12</f>
@@ -24330,18 +24381,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H127" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I127" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J127" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="128" spans="5:10">
       <c r="E128" t="s">
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="F128" t="str">
         <f>角色!$E$12</f>
@@ -24352,18 +24403,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H128" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I128" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J128" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="129" spans="5:10">
       <c r="E129" t="s">
-        <v>1503</v>
+        <v>1508</v>
       </c>
       <c r="F129" t="str">
         <f>角色!$E$12</f>
@@ -24374,18 +24425,18 @@
         <v>iam_menu-38</v>
       </c>
       <c r="H129" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I129" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J129" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="130" spans="5:10">
       <c r="E130" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
       <c r="F130" t="str">
         <f>角色!$E$12</f>
@@ -24396,18 +24447,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H130" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I130" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J130" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="131" spans="5:10">
       <c r="E131" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="F131" t="str">
         <f>角色!$E$12</f>
@@ -24418,18 +24469,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H131" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I131" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J131" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="132" spans="5:10">
       <c r="E132" t="s">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="F132" t="str">
         <f>角色!$E$12</f>
@@ -24440,18 +24491,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H132" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I132" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J132" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="133" spans="5:10">
       <c r="E133" t="s">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="F133" t="str">
         <f>角色!$E$12</f>
@@ -24462,18 +24513,18 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H133" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I133" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J133" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="134" spans="5:10">
       <c r="E134" t="s">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="F134" t="str">
         <f>角色!$E$12</f>
@@ -24484,18 +24535,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H134" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I134" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J134" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="135" spans="5:10">
       <c r="E135" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="F135" t="str">
         <f>角色!$E$12</f>
@@ -24506,18 +24557,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H135" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I135" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J135" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="136" spans="5:10">
       <c r="E136" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="F136" t="str">
         <f>角色!$E$12</f>
@@ -24528,18 +24579,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H136" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I136" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J136" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="137" spans="5:10">
       <c r="E137" t="s">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="F137" t="str">
         <f>角色!$E$12</f>
@@ -24550,18 +24601,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H137" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I137" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J137" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="138" spans="5:10">
       <c r="E138" t="s">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="F138" t="str">
         <f>角色!$E$12</f>
@@ -24572,18 +24623,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H138" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I138" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J138" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="139" spans="5:10">
       <c r="E139" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="F139" t="str">
         <f>角色!$E$12</f>
@@ -24594,18 +24645,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H139" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I139" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J139" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="140" spans="5:10">
       <c r="E140" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="F140" t="str">
         <f>角色!$E$12</f>
@@ -24616,18 +24667,18 @@
         <v>iam_menu-125</v>
       </c>
       <c r="H140" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I140" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J140" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="141" spans="5:10">
       <c r="E141" t="s">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="F141" t="str">
         <f>角色!$E$12</f>
@@ -24638,18 +24689,18 @@
         <v>iam_menu-128</v>
       </c>
       <c r="H141" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I141" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J141" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="142" spans="5:10">
       <c r="E142" t="s">
-        <v>1516</v>
+        <v>1521</v>
       </c>
       <c r="F142" t="str">
         <f>角色!$E$13</f>
@@ -24660,18 +24711,18 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H142" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I142" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J142" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="143" spans="5:10">
       <c r="E143" t="s">
-        <v>1517</v>
+        <v>1522</v>
       </c>
       <c r="F143" t="str">
         <f>角色!$E$13</f>
@@ -24682,18 +24733,18 @@
         <v>iam_menu-58</v>
       </c>
       <c r="H143" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I143" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J143" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="144" spans="5:10">
       <c r="E144" t="s">
-        <v>1518</v>
+        <v>1523</v>
       </c>
       <c r="F144" t="str">
         <f>角色!$E$13</f>
@@ -24704,18 +24755,18 @@
         <v>iam_menu-90</v>
       </c>
       <c r="H144" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I144" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J144" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="145" spans="5:10">
       <c r="E145" t="s">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="F145" t="str">
         <f>角色!$E$13</f>
@@ -24726,18 +24777,18 @@
         <v>iam_menu-70</v>
       </c>
       <c r="H145" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I145" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J145" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="146" spans="5:10">
       <c r="E146" t="s">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="F146" t="str">
         <f>角色!$E$13</f>
@@ -24748,18 +24799,18 @@
         <v>iam_menu-60</v>
       </c>
       <c r="H146" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I146" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J146" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="147" spans="5:10">
       <c r="E147" t="s">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="F147" t="str">
         <f>角色!$E$13</f>
@@ -24770,18 +24821,18 @@
         <v>iam_menu-71</v>
       </c>
       <c r="H147" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I147" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J147" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="148" spans="5:10">
       <c r="E148" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="F148" t="str">
         <f>角色!$E$13</f>
@@ -24792,18 +24843,18 @@
         <v>iam_menu-72</v>
       </c>
       <c r="H148" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I148" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J148" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="149" spans="5:10">
       <c r="E149" t="s">
-        <v>1523</v>
+        <v>1528</v>
       </c>
       <c r="F149" t="str">
         <f>角色!$E$13</f>
@@ -24814,18 +24865,18 @@
         <v>iam_menu-130</v>
       </c>
       <c r="H149" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="I149" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J149" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="150" spans="5:10">
       <c r="E150" t="s">
-        <v>1525</v>
+        <v>1530</v>
       </c>
       <c r="F150" t="str">
         <f>角色!$E$13</f>
@@ -24836,18 +24887,18 @@
         <v>iam_menu-131</v>
       </c>
       <c r="H150" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="I150" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J150" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="151" spans="5:10">
       <c r="E151" t="s">
-        <v>1526</v>
+        <v>1531</v>
       </c>
       <c r="F151" t="str">
         <f>角色!$E$13</f>
@@ -24858,18 +24909,18 @@
         <v>iam_menu-132</v>
       </c>
       <c r="H151" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="I151" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J151" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="152" spans="5:10">
       <c r="E152" t="s">
-        <v>1527</v>
+        <v>1532</v>
       </c>
       <c r="F152" t="str">
         <f>角色!$E$13</f>
@@ -24880,18 +24931,18 @@
         <v>iam_menu-123</v>
       </c>
       <c r="H152" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="I152" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J152" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="153" spans="5:10">
       <c r="E153" t="s">
-        <v>1528</v>
+        <v>1533</v>
       </c>
       <c r="F153" t="str">
         <f>角色!$E$13</f>
@@ -24902,18 +24953,18 @@
         <v>iam_menu-120</v>
       </c>
       <c r="H153" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="I153" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J153" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="154" spans="5:10">
       <c r="E154" t="s">
-        <v>1529</v>
+        <v>1534</v>
       </c>
       <c r="F154" t="str">
         <f>角色!$E$13</f>
@@ -24924,18 +24975,18 @@
         <v>iam_menu-126</v>
       </c>
       <c r="H154" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="I154" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J154" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="155" spans="5:10">
       <c r="E155" t="s">
-        <v>1530</v>
+        <v>1535</v>
       </c>
       <c r="F155" t="str">
         <f>角色!$E$13</f>
@@ -24946,18 +24997,18 @@
         <v>iam_menu-127</v>
       </c>
       <c r="H155" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="I155" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J155" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="156" spans="5:10">
       <c r="E156" t="s">
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="F156" t="str">
         <f>角色!$E$13</f>
@@ -24968,18 +25019,18 @@
         <v>iam_menu-32</v>
       </c>
       <c r="H156" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I156" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J156" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="157" spans="5:10">
       <c r="E157" t="s">
-        <v>1532</v>
+        <v>1537</v>
       </c>
       <c r="F157" t="str">
         <f>角色!$E$13</f>
@@ -24990,18 +25041,18 @@
         <v>iam_menu-36</v>
       </c>
       <c r="H157" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I157" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J157" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="158" spans="5:10">
       <c r="E158" t="s">
-        <v>1533</v>
+        <v>1538</v>
       </c>
       <c r="F158" t="str">
         <f>角色!$E$13</f>
@@ -25012,18 +25063,18 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H158" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I158" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J158" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="159" spans="5:10">
       <c r="E159" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="F159" t="str">
         <f>角色!$E$13</f>
@@ -25034,18 +25085,18 @@
         <v>iam_menu-44</v>
       </c>
       <c r="H159" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I159" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J159" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="160" spans="5:10">
       <c r="E160" t="s">
-        <v>1535</v>
+        <v>1540</v>
       </c>
       <c r="F160" t="str">
         <f>角色!$E$13</f>
@@ -25056,18 +25107,18 @@
         <v>iam_menu-63</v>
       </c>
       <c r="H160" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I160" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J160" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="161" spans="5:10">
       <c r="E161" t="s">
-        <v>1536</v>
+        <v>1541</v>
       </c>
       <c r="F161" t="str">
         <f>角色!$E$13</f>
@@ -25078,18 +25129,18 @@
         <v>iam_menu-77</v>
       </c>
       <c r="H161" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I161" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J161" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="162" spans="5:10">
       <c r="E162" t="s">
-        <v>1537</v>
+        <v>1542</v>
       </c>
       <c r="F162" t="str">
         <f>角色!$E$13</f>
@@ -25100,18 +25151,18 @@
         <v>iam_menu-85</v>
       </c>
       <c r="H162" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I162" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J162" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="163" spans="5:10">
       <c r="E163" t="s">
-        <v>1538</v>
+        <v>1543</v>
       </c>
       <c r="F163" t="str">
         <f>角色!$E$13</f>
@@ -25122,18 +25173,18 @@
         <v>iam_menu-78</v>
       </c>
       <c r="H163" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I163" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J163" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="164" spans="5:10">
       <c r="E164" t="s">
-        <v>1539</v>
+        <v>1544</v>
       </c>
       <c r="F164" t="str">
         <f>角色!$E$13</f>
@@ -25144,18 +25195,18 @@
         <v>iam_menu-88</v>
       </c>
       <c r="H164" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I164" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J164" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="165" spans="5:10">
       <c r="E165" t="s">
-        <v>1540</v>
+        <v>1545</v>
       </c>
       <c r="F165" t="str">
         <f>角色!$E$13</f>
@@ -25166,18 +25217,18 @@
         <v>iam_menu-86</v>
       </c>
       <c r="H165" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I165" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J165" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="166" spans="5:10">
       <c r="E166" t="s">
-        <v>1541</v>
+        <v>1546</v>
       </c>
       <c r="F166" t="str">
         <f>角色!$E$13</f>
@@ -25188,18 +25239,18 @@
         <v>iam_menu-80</v>
       </c>
       <c r="H166" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I166" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J166" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="167" spans="5:10">
       <c r="E167" t="s">
-        <v>1542</v>
+        <v>1547</v>
       </c>
       <c r="F167" t="str">
         <f>角色!$E$13</f>
@@ -25210,18 +25261,18 @@
         <v>iam_menu-82</v>
       </c>
       <c r="H167" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I167" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J167" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="168" spans="5:10">
       <c r="E168" t="s">
-        <v>1543</v>
+        <v>1548</v>
       </c>
       <c r="F168" t="str">
         <f>角色!$E$13</f>
@@ -25232,18 +25283,18 @@
         <v>iam_menu-79</v>
       </c>
       <c r="H168" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I168" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J168" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="169" spans="5:10">
       <c r="E169" t="s">
-        <v>1544</v>
+        <v>1549</v>
       </c>
       <c r="F169" t="str">
         <f>角色!$E$13</f>
@@ -25254,18 +25305,18 @@
         <v>iam_menu-87</v>
       </c>
       <c r="H169" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I169" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J169" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="170" spans="5:10">
       <c r="E170" t="s">
-        <v>1545</v>
+        <v>1550</v>
       </c>
       <c r="F170" t="str">
         <f>角色!$E$13</f>
@@ -25276,18 +25327,18 @@
         <v>iam_menu-84</v>
       </c>
       <c r="H170" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I170" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J170" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="171" spans="5:10">
       <c r="E171" t="s">
-        <v>1546</v>
+        <v>1551</v>
       </c>
       <c r="F171" t="str">
         <f>角色!$E$13</f>
@@ -25298,18 +25349,18 @@
         <v>iam_menu-83</v>
       </c>
       <c r="H171" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I171" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J171" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="172" spans="5:10">
       <c r="E172" t="s">
-        <v>1547</v>
+        <v>1552</v>
       </c>
       <c r="F172" t="str">
         <f>角色!$E$13</f>
@@ -25320,18 +25371,18 @@
         <v>iam_menu-81</v>
       </c>
       <c r="H172" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I172" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J172" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="173" spans="5:10">
       <c r="E173" t="s">
-        <v>1548</v>
+        <v>1553</v>
       </c>
       <c r="F173" t="str">
         <f>角色!$E$13</f>
@@ -25342,18 +25393,18 @@
         <v>iam_menu-124</v>
       </c>
       <c r="H173" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="I173" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J173" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="174" spans="5:10">
       <c r="E174" t="s">
-        <v>1549</v>
+        <v>1554</v>
       </c>
       <c r="F174" t="str">
         <f>角色!$E$13</f>
@@ -25364,18 +25415,18 @@
         <v>iam_menu-121</v>
       </c>
       <c r="H174" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="I174" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J174" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="175" spans="5:10">
       <c r="E175" t="s">
-        <v>1550</v>
+        <v>1555</v>
       </c>
       <c r="F175" t="str">
         <f>角色!$E$13</f>
@@ -25386,18 +25437,18 @@
         <v>iam_menu-122</v>
       </c>
       <c r="H175" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="I175" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J175" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="176" spans="5:10">
       <c r="E176" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="F176" t="str">
         <f>角色!$E$13</f>
@@ -25408,18 +25459,18 @@
         <v>iam_menu-89</v>
       </c>
       <c r="H176" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I176" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J176" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="177" spans="5:10">
       <c r="E177" t="s">
-        <v>1552</v>
+        <v>1557</v>
       </c>
       <c r="F177" t="str">
         <f>角色!$E$13</f>
@@ -25430,18 +25481,18 @@
         <v>iam_menu-93</v>
       </c>
       <c r="H177" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I177" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J177" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="178" spans="5:10">
       <c r="E178" t="s">
-        <v>1553</v>
+        <v>1558</v>
       </c>
       <c r="F178" t="str">
         <f>角色!$E$13</f>
@@ -25452,18 +25503,18 @@
         <v>iam_menu-76</v>
       </c>
       <c r="H178" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I178" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J178" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="179" spans="5:10">
       <c r="E179" t="s">
-        <v>1554</v>
+        <v>1559</v>
       </c>
       <c r="F179" t="str">
         <f>角色!$E$13</f>
@@ -25474,18 +25525,18 @@
         <v>iam_menu-75</v>
       </c>
       <c r="H179" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I179" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J179" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="180" spans="5:10">
       <c r="E180" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="F180" t="str">
         <f>角色!$E$13</f>
@@ -25496,18 +25547,18 @@
         <v>iam_menu-91</v>
       </c>
       <c r="H180" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I180" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J180" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="181" spans="5:10">
       <c r="E181" t="s">
-        <v>1556</v>
+        <v>1561</v>
       </c>
       <c r="F181" t="str">
         <f>角色!$E$13</f>
@@ -25518,18 +25569,18 @@
         <v>iam_menu-92</v>
       </c>
       <c r="H181" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I181" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J181" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="182" spans="5:10">
       <c r="E182" t="s">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="F182" t="str">
         <f>角色!$E$10</f>
@@ -25540,18 +25591,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H182" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I182" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J182" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="183" spans="5:10">
       <c r="E183" t="s">
-        <v>1558</v>
+        <v>1563</v>
       </c>
       <c r="F183" t="str">
         <f>角色!$E$12</f>
@@ -25562,18 +25613,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H183" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I183" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J183" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="184" spans="5:10">
       <c r="E184" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="F184" t="str">
         <f>角色!$E$13</f>
@@ -25584,18 +25635,18 @@
         <v>iam_menu-134</v>
       </c>
       <c r="H184" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I184" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J184" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="185" spans="5:10">
       <c r="E185" s="6" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="F185" t="str">
         <f>角色!$E$13</f>
@@ -25606,18 +25657,18 @@
         <v>iam_menu-136</v>
       </c>
       <c r="H185" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I185" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J185" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="186" spans="5:10">
       <c r="E186" s="5" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="F186" t="str">
         <f>角色!$E$10</f>
@@ -25628,18 +25679,18 @@
         <v>iam_menu-136</v>
       </c>
       <c r="H186" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I186" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J186" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="187" spans="5:10">
       <c r="E187" s="5" t="s">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="F187" t="str">
         <f>角色!$E$12</f>
@@ -25650,18 +25701,18 @@
         <v>iam_menu-137</v>
       </c>
       <c r="H187" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I187" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J187" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="188" spans="5:10">
       <c r="E188" s="5" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="F188" t="str">
         <f>角色!$E$10</f>
@@ -25672,18 +25723,18 @@
         <v>iam_menu-137</v>
       </c>
       <c r="H188" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I188" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J188" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="189" spans="5:10">
       <c r="E189" s="5" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="F189" t="str">
         <f>角色!$E$12</f>
@@ -25694,18 +25745,18 @@
         <v>iam_menu-136</v>
       </c>
       <c r="H189" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I189" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J189" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="190" ht="15.95" customHeight="1" spans="5:10">
       <c r="E190" s="5" t="s">
-        <v>1565</v>
+        <v>1570</v>
       </c>
       <c r="F190" t="str">
         <f>角色!$E$13</f>
@@ -25716,18 +25767,18 @@
         <v>iam_menu-139</v>
       </c>
       <c r="H190" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I190" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J190" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="191" ht="15.95" customHeight="1" spans="5:10">
       <c r="E191" s="5" t="s">
-        <v>1566</v>
+        <v>1571</v>
       </c>
       <c r="F191" t="str">
         <f>角色!$E$12</f>
@@ -25738,18 +25789,18 @@
         <v>iam_menu-139</v>
       </c>
       <c r="H191" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="I191" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="J191" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="192" ht="15.95" customHeight="1" spans="5:10">
       <c r="E192" s="5" t="s">
-        <v>156